--- a/excels/abilities/arms.xlsx
+++ b/excels/abilities/arms.xlsx
@@ -10,7 +10,7 @@
     <sheet name="arms" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">arms!$A$1:$AP$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">arms!$A$1:$AP$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="569">
   <si>
     <t>名字</t>
   </si>
@@ -994,7 +994,7 @@
 作用范围：1000*200码</t>
   </si>
   <si>
-    <t>abyssal_underlord_cancel_dark_rift</t>
+    <t>dragon_knight_breathe_fire</t>
   </si>
   <si>
     <t>burn_duration 3</t>
@@ -1018,6 +1018,9 @@
 作用范围：1000*200码</t>
   </si>
   <si>
+    <t>greevil_laguna_blade</t>
+  </si>
+  <si>
     <t>debuff_duration 3</t>
   </si>
   <si>
@@ -1036,6 +1039,9 @@
     <t>移动速度降低50%，但替换技能之后，根据训练的时间每一秒获得5经验值2灵魂。（至多不超过200秒）</t>
   </si>
   <si>
+    <t>centaur_khan_endurance_aura</t>
+  </si>
+  <si>
     <t>pre_exp 5</t>
   </si>
   <si>
@@ -1054,7 +1060,10 @@
     <t>降低当前50%的攻击力及最大生命值。120秒后自动升级技能，获得损失攻击力及生命值的150%收益。</t>
   </si>
   <si>
-    <t xml:space="preserve"> lowering_pct -50</t>
+    <t>clinkz_wind_walk</t>
+  </si>
+  <si>
+    <t>lowering_pct -50</t>
   </si>
   <si>
     <t>limit_timer 120</t>
@@ -1075,6 +1084,9 @@
     <t>每次击杀敌人时，永久增加1点攻击力。至多叠加500攻击力。</t>
   </si>
   <si>
+    <t>abyssal_underlord_cancel_dark_rift</t>
+  </si>
+  <si>
     <t>killed_ad 1</t>
   </si>
   <si>
@@ -1088,6 +1100,9 @@
   </si>
   <si>
     <t>变聪明I</t>
+  </si>
+  <si>
+    <t>queenofpain_scream_of_pain</t>
   </si>
   <si>
     <t>abilities/arms/v1/arms_35</t>
@@ -1104,6 +1119,9 @@
     <t>变聪明II</t>
   </si>
   <si>
+    <t>queen_of_pain/arcana/queenofpain_scream_of_pain_alt2</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_36</t>
   </si>
   <si>
@@ -1118,6 +1136,9 @@
     <t>变聪明III</t>
   </si>
   <si>
+    <t>queen_of_pain/arcana/queenofpain_scream_of_pain_alt1</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_37</t>
   </si>
   <si>
@@ -1136,6 +1157,9 @@
 每降低1%最大生命值，提升1%攻击力、1%移动速度</t>
   </si>
   <si>
+    <t>troll_warlord_rampage</t>
+  </si>
+  <si>
     <t>bonus_ad_pct 1</t>
   </si>
   <si>
@@ -1153,6 +1177,9 @@
   <si>
     <t>生命值越高，攻击力越高、移动速度越快。
 每拥有1%最大生命值，提升1%攻击力、1%移动速度</t>
+  </si>
+  <si>
+    <t>brewmaster_primal_companion</t>
   </si>
   <si>
     <t>abilities/arms/v1/arms_39</t>
@@ -1167,6 +1194,9 @@
     <t>英雄阵亡时，造成爆炸伤害。
 伤害系数：攻击力500%·火元素伤害
 作用范围：自身为中心直径500码</t>
+  </si>
+  <si>
+    <t>techies_suicide</t>
   </si>
   <si>
     <t>abilities/arms/v1/arms_40</t>
@@ -1185,6 +1215,9 @@
 特性：灵体状态是无敌状态。不扣除复活次数，但算作正常死亡</t>
   </si>
   <si>
+    <t>muerta_parting_shot</t>
+  </si>
+  <si>
     <t>effect_duration 5</t>
   </si>
   <si>
@@ -1245,6 +1278,9 @@
 作用范围：以自身中心直径300码</t>
   </si>
   <si>
+    <t>invoker_kid/invoker_kid_dark_artistry_ability_icon/invoker_kid_dark_artistry_wex</t>
+  </si>
+  <si>
     <t>spirit_limit 6</t>
   </si>
   <si>
@@ -1266,6 +1302,9 @@
 伤害系数：攻击力150%·火元素伤害</t>
   </si>
   <si>
+    <t>invoker_exort</t>
+  </si>
+  <si>
     <t>extra_count 1</t>
   </si>
   <si>
@@ -1287,6 +1326,9 @@
 伤害系数：攻击力250%·火元素伤害</t>
   </si>
   <si>
+    <t>black_dragon_fireball</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_46</t>
   </si>
   <si>
@@ -1320,6 +1362,9 @@
 永久增加1点护甲。至多增加500点护甲。</t>
   </si>
   <si>
+    <t>tower_armor_aura</t>
+  </si>
+  <si>
     <t>bonus_armor 1</t>
   </si>
   <si>
@@ -1339,6 +1384,9 @@
 每10点护甲提高1%的伤害。</t>
   </si>
   <si>
+    <t>kobold_disarm</t>
+  </si>
+  <si>
     <t>every_armor_dmg 10</t>
   </si>
   <si>
@@ -1352,10 +1400,15 @@
   </si>
   <si>
     <t>丢出一个盾，围绕英雄一圈后回到手里，对触碰到的敌人造成单体伤害。
-CD：3秒
 伤害系数：护甲值500%·风元素伤害</t>
   </si>
   <si>
+    <t>dragon_knight_dragon_tail</t>
+  </si>
+  <si>
+    <t>5*ArmorCommon</t>
+  </si>
+  <si>
     <t>projectile_width 96</t>
   </si>
   <si>
@@ -1365,26 +1418,32 @@
     <t>arms_51</t>
   </si>
   <si>
-    <t>物品编号#22</t>
-  </si>
-  <si>
-    <t>【飞盾抛掷】：丢出两个盾，对沿途的敌人造成伤害
-后，回到手里。
-特效：兽王1技能
-cd：3秒
+    <t>飞盾抛掷</t>
+  </si>
+  <si>
+    <t>朝面向丢出%count%个飞盾，对沿途的敌人造成伤害后，然后回到手里。
 伤害系数：护甲值1000%·风元素伤害</t>
   </si>
   <si>
+    <t>dragon_knight/fireborn_ability_icons/dragon_knight_dragon_tail</t>
+  </si>
+  <si>
+    <t>10*ArmorCommon</t>
+  </si>
+  <si>
+    <t>count 2</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_51</t>
   </si>
   <si>
     <t>arms_52</t>
   </si>
   <si>
-    <t>物品编号#23</t>
-  </si>
-  <si>
-    <t>【圣盾护体】：周期性提高自身护甲。持续10秒。
+    <t>圣盾护体</t>
+  </si>
+  <si>
+    <t>周期性提高自身护甲。持续10秒。
 cd：5秒
 护甲提升系数：50%</t>
   </si>
@@ -1395,14 +1454,19 @@
     <t>arms_53</t>
   </si>
   <si>
-    <t>物品编号#24</t>
-  </si>
-  <si>
-    <t>【灵魂吸收】：通过接近敌人吸取灵魂，每秒吸取敌人
-1点灵魂。
-特效：骨法大招（黑紫色）
-持续3秒，cd：6秒
-作用范围：300码内3个敌军。无伤害</t>
+    <t>灵魂吸收</t>
+  </si>
+  <si>
+    <t>通过接近敌人吸取灵魂，每秒吸取自身%origin_radius%范围内%extra_count%个敌人%pre_value%灵魂。</t>
+  </si>
+  <si>
+    <t>pugna_life_drain</t>
+  </si>
+  <si>
+    <t>origin_radius 300</t>
+  </si>
+  <si>
+    <t>pre_value 1</t>
   </si>
   <si>
     <t>abilities/arms/v1/arms_53</t>
@@ -1411,14 +1475,15 @@
     <t>arms_54</t>
   </si>
   <si>
-    <t>物品编号#25</t>
-  </si>
-  <si>
-    <t>【经验吸收】：通过接近敌人吸取经验，每秒获得1点
-经验。
+    <t>经验吸收</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通过接近敌人吸取灵魂，每秒吸取自身%origin_radius%范围内%extra_count%个敌人%pre_value%经验。
 特效：骨法大招（黄绿色）
-持续3秒，cd：6秒
-作用范围：300码内3个敌军。无伤害</t>
+</t>
+  </si>
+  <si>
+    <t>pugna/pugna_ti10_immortal_ability_icon/pugna_ti10_immortal_life_drain_gold</t>
   </si>
   <si>
     <t>abilities/arms/v1/arms_54</t>
@@ -1427,29 +1492,47 @@
     <t>arms_55</t>
   </si>
   <si>
-    <t>物品编号#26</t>
-  </si>
-  <si>
-    <t>【生命吸取】：吸取直径500码范围内至多5名敌人的生
-命值并补充自己，补充收益仅有20%。
+    <t>生命吸取</t>
+  </si>
+  <si>
+    <t>吸取自身%origin_radius%码范围内至多5名敌人的生命值并补充自己，补充收益仅有20%。
 特效：骨法大招（金、红色）
 持续3秒，cd：6秒
 伤害系数：每秒攻击力100%·光元素伤害</t>
   </si>
   <si>
+    <t>pugna/pugna_ti10_immortal_ability_icon/pugna_ti10_immortal_life_drain</t>
+  </si>
+  <si>
+    <t>origin_radius 500</t>
+  </si>
+  <si>
+    <t>extra_count 5</t>
+  </si>
+  <si>
+    <t>convert_pct 20</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_55</t>
   </si>
   <si>
     <t>arms_56</t>
   </si>
   <si>
-    <t>物品编号#27</t>
-  </si>
-  <si>
-    <t>【魂之挽歌】：英雄死亡时，向直径1000码范围内释放5道魔能。魔能基础数量为5个。
-特效：sf大招·瞬发
-伤害系数：每道魔能攻击力50%·暗元素伤害
-作用范围：自身为中心，直径1000码</t>
+    <t>魂之挽歌</t>
+  </si>
+  <si>
+    <t>英雄死亡时，向%origin_radius%范围内释放%extra_count%道魔能。
+魔能伤害：%DamageFormula%</t>
+  </si>
+  <si>
+    <t>nevermore_requiem</t>
+  </si>
+  <si>
+    <t>origin_radius 1000</t>
+  </si>
+  <si>
+    <t>travel_speed 900</t>
   </si>
   <si>
     <t>abilities/arms/v1/arms_56</t>
@@ -1458,24 +1541,26 @@
     <t>arms_57</t>
   </si>
   <si>
-    <t>物品编号#28</t>
-  </si>
-  <si>
-    <t>【收割死灵】：每击杀一个敌人，有30%概率收割其
-灵魂。每一个收割的灵魂增加自身1%攻击力。
+    <t>收割死灵</t>
+  </si>
+  <si>
+    <t>每击杀一个敌人，有30%概率收割其灵魂。每一个收割的灵魂增加自身1%攻击力。
 上限15个死灵。</t>
   </si>
   <si>
+    <t>base_chance 30</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_57</t>
   </si>
   <si>
     <t>arms_58</t>
   </si>
   <si>
-    <t>物品编号#29</t>
-  </si>
-  <si>
-    <t>【影压】：自身范围直径700码随机位置直径200码释放
+    <t>影压</t>
+  </si>
+  <si>
+    <t>自身范围直径700码随机位置直径200码释放
 毁灭阴影。3秒内被影压再次击中，伤害增加25%。
 特效：sf1技能
 cd：2秒
@@ -1483,46 +1568,64 @@
 作用范围：直径200码</t>
   </si>
   <si>
+    <t>nevermore_shadowraze3</t>
+  </si>
+  <si>
+    <t>aoe_radius 200</t>
+  </si>
+  <si>
+    <t>combo_duration 3</t>
+  </si>
+  <si>
+    <t>combo_bonus 25</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_58</t>
   </si>
   <si>
     <t>arms_59</t>
   </si>
   <si>
-    <t>物品编号#30</t>
-  </si>
-  <si>
-    <t>【死魂之挽歌】：英雄死亡时，向直径1000码范围内释
+    <t>死魂之挽歌</t>
+  </si>
+  <si>
+    <t>英雄死亡时，向直径1000码范围内释
 放10道魔能。魔能基础数量为10个。
 特效：sf大招魔晶·瞬发
 伤害系数：每道魔能攻击力150%·暗元素伤害
 作用范围：自身为中心，直径1000码</t>
   </si>
   <si>
+    <t>nevermore_requiem_demon</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_59</t>
   </si>
   <si>
     <t>arms_60</t>
   </si>
   <si>
-    <t>物品编号#31</t>
-  </si>
-  <si>
-    <t>【尖刺外壳】：尖刺外壳可以反弹并无效化自身受到的
+    <t>尖刺外壳1</t>
+  </si>
+  <si>
+    <t>尖刺外壳可以反弹并无效化自身受到的
 伤害(每个攻击者最多作用一次)，同时眩晕攻击者。
 反弹的伤害与自身本应受到的实际伤害相同，且为风元素伤害。</t>
   </si>
   <si>
+    <t>nyx_assassin_spiked_carapace</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_60</t>
   </si>
   <si>
     <t>arms_61</t>
   </si>
   <si>
-    <t>物品编号#32</t>
-  </si>
-  <si>
-    <t>【穿刺】：岩石尖刺在地上沿一条直线穿刺而出。敌方
+    <t>穿刺</t>
+  </si>
+  <si>
+    <t>岩石尖刺在地上沿一条直线穿刺而出。敌方
 单位受到伤害，然后被抛向空中，落地时被眩晕1秒。
 特效：小强1技能
 cd：4秒
@@ -1530,33 +1633,38 @@
 作用范围：宽100码，长750码，尖刺移动速度每秒1600.</t>
   </si>
   <si>
+    <t>nyx_assassin_impale</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_61</t>
   </si>
   <si>
     <t>arms_62</t>
   </si>
   <si>
-    <t>物品编号#33</t>
-  </si>
-  <si>
-    <t>【加农炮】：给普通攻击增幅，增加500码攻击距离，同时装配8发加农炮弹，快速发动8次的攻击，
-对攻击范围内至多3个敌人同时造成伤害。
+    <t>霹雳铁手</t>
+  </si>
+  <si>
+    <t>给普通攻击增幅，增加500码攻击距离，同时装配8发加农炮弹，快速发动8次的攻击，对攻击范围内至多3个敌人同时造成伤害。
 特效：电炎绝手
 cd：5秒
 伤害系数：每次攻击造成攻击力50%·火元素伤害
 特性：可触发攻击特效（法球）</t>
   </si>
   <si>
+    <t>snapfire_lil_shredder</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_62</t>
   </si>
   <si>
     <t>arms_63</t>
   </si>
   <si>
-    <t>物品编号#34</t>
-  </si>
-  <si>
-    <t>【龙破斩】：引导龙的吐息，放出一波火焰，烧焦所有
+    <t>龙破斩</t>
+  </si>
+  <si>
+    <t>引导龙的吐息，放出一波火焰，烧焦所有
 波及的敌人，并且持续烧灼他们3秒。
 特效：火女1技能
 cd：3秒
@@ -1565,139 +1673,166 @@
 作用范围：宽200码，长1200码。</t>
   </si>
   <si>
+    <t>lina_dragon_slave</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_63</t>
   </si>
   <si>
     <t>arms_64</t>
   </si>
   <si>
-    <t>物品编号#35</t>
-  </si>
-  <si>
-    <t>【光击阵】：对自身直径范围500码内的敌人召唤柱状造成火焰伤害并眩人2秒。
+    <t>光击阵</t>
+  </si>
+  <si>
+    <t>对自身直径范围500码内的敌人召唤柱状造成火焰伤害并眩人2秒。
 特效：火女2技能
 cd：4秒
 伤害系数：攻击力150%·火元素伤害
 作用范围：敌人为中心直径250码。</t>
   </si>
   <si>
+    <t>lina_light_strike_array</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_64</t>
   </si>
   <si>
     <t>arms_65</t>
   </si>
   <si>
-    <t>物品编号#36</t>
-  </si>
-  <si>
-    <t>【腾焰】：进入腾焰状态，每释放一次技能提高自身1%伤害增幅，持续18秒。上限50%
+    <t>腾焰</t>
+  </si>
+  <si>
+    <t>进入腾焰状态，每释放一次技能提高自身1%伤害增幅，持续18秒。上限50%
 cd：10秒</t>
   </si>
   <si>
+    <t>lina_flame_cloak</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_65</t>
   </si>
   <si>
     <t>arms_66</t>
   </si>
   <si>
-    <t>物品编号#37</t>
-  </si>
-  <si>
-    <t>【闪电护盾】：生成一个雷电护盾，护盾值为命值25%，可抵消同等伤害，受雷属性伤害减免30%。
+    <t>闪电护盾</t>
+  </si>
+  <si>
+    <t>生成一个雷电护盾，护盾值为命值25%，可抵消同等伤害，受雷属性伤害减免30%。
 特效：大电锤主动
 持续时间：5秒
 cd：8秒</t>
   </si>
   <si>
+    <t>item_mjollnir</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_66</t>
   </si>
   <si>
     <t>arms_67</t>
   </si>
   <si>
-    <t>物品编号#38</t>
-  </si>
-  <si>
-    <t>【弧形闪电】：释放一道会跳跃穿越附近敌人的闪电，造成雷元素伤害，跳跃5次。
+    <t>弧形闪电I</t>
+  </si>
+  <si>
+    <t>释放一道会跳跃穿越附近敌人的闪电，造成雷元素伤害，跳跃5次。
 特效：宙斯1技能
 cd：4秒
 伤害系数：攻击力150%·雷元素伤害
 作用范围：直径700码以内随机目标</t>
   </si>
   <si>
+    <t>zuus_arc_lightning</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_67</t>
   </si>
   <si>
     <t>arms_68</t>
   </si>
   <si>
-    <t>物品编号#39</t>
-  </si>
-  <si>
-    <t>【弧形闪电II】：释放一道会跳跃穿越附近敌人的闪电，造成雷元素伤害，跳跃8次
+    <t>弧形闪电II</t>
+  </si>
+  <si>
+    <t>释放一道会跳跃穿越附近敌人的闪电，造成雷元素伤害，跳跃8次
 特效：宙斯1技能，效果更大
 cd：3秒
 伤害系数：攻击力250%·雷元素伤害
 作用范围：直径700码以内随机目标</t>
   </si>
   <si>
+    <t>zuus_lightning_bolt_immortal</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_68</t>
   </si>
   <si>
     <t>arms_69</t>
   </si>
   <si>
-    <t>物品编号#40</t>
-  </si>
-  <si>
-    <t>【范围雷击】：召唤一道闪电打击范围直径325码的敌
+    <t>范围雷击</t>
+  </si>
+  <si>
+    <t>召唤一道闪电打击范围直径325码的敌
 方单位，造成伤害及短暂眩晕0.5秒。
 cd：4秒
 伤害系数：攻击力300%·雷元素伤害
 作用范围：施法距离750码</t>
   </si>
   <si>
+    <t>zuus_lightning_bolt</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_69</t>
   </si>
   <si>
     <t>arms_70</t>
   </si>
   <si>
-    <t>物品编号#41</t>
-  </si>
-  <si>
-    <t>【连环闪电】：攻击时有25%概率释放一道连环闪电，
+    <t>连环闪电</t>
+  </si>
+  <si>
+    <t>攻击时有25%概率释放一道连环闪电，
 在直径650范围内的敌方单位之间跳跃，每跳跃一次伤害递减5%。
 特效：电锤被动
 伤害系数：初始跳跃攻击力50%·雷元素伤害</t>
   </si>
   <si>
+    <t>zuus_lightning_hands</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_70</t>
   </si>
   <si>
     <t>arms_71</t>
   </si>
   <si>
-    <t>物品编号#42</t>
-  </si>
-  <si>
-    <t>【雷霆锁链】：缠绕目标375范围内所有敌人，持续2秒，并造成伤害。
+    <t>雷霆锁链</t>
+  </si>
+  <si>
+    <t>缠绕目标375范围内所有敌人，持续2秒，并造成伤害。
 特效：缚灵索主动
 cd：4秒
 伤害系数：攻击力200%·雷元素伤害
 作用范围：施法距离1100码</t>
   </si>
   <si>
+    <t>item_gungir</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_71</t>
   </si>
   <si>
     <t>arms_72</t>
   </si>
   <si>
-    <t>物品编号#43</t>
-  </si>
-  <si>
-    <t>【感电环绕】：生成一个感应电圈围绕在自身周围，对碰触到的敌人造成伤害。
+    <t>感电环绕</t>
+  </si>
+  <si>
+    <t>生成一个感应电圈围绕在自身周围，对碰触到的敌人造成伤害。
 特效：宙斯雷云的电圈
 持续时间：5秒
 cd：8秒
@@ -1705,16 +1840,19 @@
 作用范围：电圈生成在自身直径450码的地方</t>
   </si>
   <si>
+    <t>storm_spirit_electric_vortex</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_72</t>
   </si>
   <si>
     <t>arms_73</t>
   </si>
   <si>
-    <t>物品编号#44</t>
-  </si>
-  <si>
-    <t>【小火圈】：生成一个火焰圈围绕在自身周围，对碰
+    <t>小火圈</t>
+  </si>
+  <si>
+    <t>生成一个火焰圈围绕在自身周围，对碰
 触到的敌人造成伤害。
 特效：火猫W的外圈
 持续时间：3秒
@@ -1723,16 +1861,19 @@
 作用范围：火圈生成在自身直径300码的地方</t>
   </si>
   <si>
+    <t>forged_spirit_melting_strike</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_73</t>
   </si>
   <si>
     <t>arms_74</t>
   </si>
   <si>
-    <t>物品编号#45</t>
-  </si>
-  <si>
-    <t>【大火圈】：生成一个火焰圈围绕在自身周围，对碰
+    <t>大火圈</t>
+  </si>
+  <si>
+    <t>生成一个火焰圈围绕在自身周围，对碰
 触到的敌人造成伤害，并灼烧敌人3秒。
 特效：火猫W的外圈
 持续时间：5秒
@@ -1747,7 +1888,10 @@
     <t>arms_75</t>
   </si>
   <si>
-    <t>【北极圈】：生成一个寒冰圈围绕在自身周围，对碰
+    <t>北极圈</t>
+  </si>
+  <si>
+    <t>生成一个寒冰圈围绕在自身周围，对碰
 触到的敌人造成伤害，并减速敌人45%持续3秒。
 持续时间：5秒
 cd：8秒
@@ -1755,7 +1899,13 @@
 作用范围：冰圈生成在自身直径500码的地方</t>
   </si>
   <si>
+    <t>crystal_maiden_crystal_nova_icecowl</t>
+  </si>
+  <si>
     <t>arms_76</t>
+  </si>
+  <si>
+    <t>物品编号#45</t>
   </si>
 </sst>
 </file>
@@ -2712,7 +2862,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2771,6 +2921,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3182,16 +3335,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{6F2DFEEC-576E-481D-8E52-5E924EF19C30}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DC4532EF-2A44-4D5C-B459-5A14CCFD6F31}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E3353ABE-7652-4846-83BC-2797C4C0892C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1CF5341C-B76F-47EC-8968-7A1E203293E4}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{9FCF9E0D-BFCB-466B-9C7E-C363DC3C9ED0}">
+    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{C475C996-493C-4F26-AAA0-83E3987CAFD8}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstColumn" dxfId="14"/>
@@ -3503,56 +3656,55 @@
   <sheetPr/>
   <dimension ref="A1:AP89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T56" sqref="T56"/>
+      <selection pane="topRight" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.3416666666667" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="38" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.9833333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.50833333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.84166666666667" customWidth="1"/>
-    <col min="7" max="7" width="8.34166666666667" customWidth="1"/>
-    <col min="8" max="8" width="9.34166666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.625" customWidth="1"/>
-    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="16.675" customWidth="1"/>
-    <col min="12" max="12" width="31.9833333333333" customWidth="1"/>
-    <col min="13" max="13" width="19.0083333333333" customWidth="1"/>
-    <col min="14" max="14" width="21.3416666666667" customWidth="1"/>
-    <col min="15" max="15" width="15.3416666666667" customWidth="1"/>
-    <col min="16" max="16" width="20.8416666666667" customWidth="1"/>
-    <col min="17" max="17" width="20.675" customWidth="1"/>
-    <col min="18" max="18" width="21.5083333333333" customWidth="1"/>
-    <col min="19" max="19" width="19.175" customWidth="1"/>
-    <col min="20" max="20" width="16.5083333333333" customWidth="1"/>
-    <col min="21" max="23" width="3.24166666666667" customWidth="1"/>
-    <col min="24" max="24" width="5.00833333333333" customWidth="1"/>
-    <col min="25" max="25" width="16.5083333333333" customWidth="1"/>
-    <col min="26" max="26" width="16.8416666666667" customWidth="1"/>
-    <col min="27" max="27" width="10.3416666666667" customWidth="1"/>
-    <col min="28" max="28" width="23.175" customWidth="1"/>
-    <col min="29" max="29" width="31.9833333333333" customWidth="1"/>
-    <col min="30" max="30" width="15.0083333333333" customWidth="1"/>
-    <col min="31" max="31" width="17.5083333333333" customWidth="1"/>
-    <col min="32" max="32" width="14.8416666666667" customWidth="1"/>
-    <col min="33" max="33" width="13.0083333333333" customWidth="1"/>
-    <col min="34" max="34" width="13.175" customWidth="1"/>
-    <col min="35" max="35" width="12.3416666666667" customWidth="1"/>
-    <col min="36" max="36" width="13.3416666666667" customWidth="1"/>
-    <col min="37" max="37" width="12.5083333333333" customWidth="1"/>
-    <col min="38" max="38" width="13.3416666666667" customWidth="1"/>
-    <col min="39" max="39" width="12.5083333333333" customWidth="1"/>
-    <col min="40" max="40" width="15.5083333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="50.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.5083333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5083333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.8416666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.3416666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.3416666666667" customWidth="1"/>
+    <col min="9" max="9" width="21.625" customWidth="1"/>
+    <col min="10" max="10" width="13.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="21.675" customWidth="1"/>
+    <col min="12" max="12" width="50.625" customWidth="1"/>
+    <col min="13" max="13" width="24.0083333333333" customWidth="1"/>
+    <col min="14" max="14" width="26.3416666666667" customWidth="1"/>
+    <col min="15" max="15" width="18.3416666666667" customWidth="1"/>
+    <col min="16" max="17" width="25.8416666666667" customWidth="1"/>
+    <col min="18" max="18" width="26.5083333333333" customWidth="1"/>
+    <col min="19" max="19" width="24.175" customWidth="1"/>
+    <col min="20" max="20" width="21.5083333333333" customWidth="1"/>
+    <col min="21" max="23" width="6.24166666666667" customWidth="1"/>
+    <col min="24" max="24" width="8.00833333333333" customWidth="1"/>
+    <col min="25" max="25" width="21.5083333333333" customWidth="1"/>
+    <col min="26" max="26" width="21.8416666666667" customWidth="1"/>
+    <col min="27" max="27" width="13.3416666666667" customWidth="1"/>
+    <col min="28" max="28" width="27.5083333333333" customWidth="1"/>
+    <col min="29" max="29" width="50.625" customWidth="1"/>
+    <col min="30" max="30" width="18.0083333333333" customWidth="1"/>
+    <col min="31" max="31" width="22.5083333333333" customWidth="1"/>
+    <col min="32" max="32" width="17.8416666666667" customWidth="1"/>
+    <col min="33" max="33" width="16.0083333333333" customWidth="1"/>
+    <col min="34" max="34" width="16.175" customWidth="1"/>
+    <col min="35" max="35" width="15.3416666666667" customWidth="1"/>
+    <col min="36" max="36" width="16.3416666666667" customWidth="1"/>
+    <col min="37" max="37" width="15.5083333333333" customWidth="1"/>
+    <col min="38" max="38" width="16.3416666666667" customWidth="1"/>
+    <col min="39" max="39" width="15.5083333333333" customWidth="1"/>
+    <col min="40" max="40" width="18.5083333333333" customWidth="1"/>
     <col min="41" max="41" width="8.24166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35" customHeight="1" spans="1:42">
+    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:42">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3660,13 +3812,13 @@
       <c r="AM1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AN1" s="20" t="s">
+      <c r="AN1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="28"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:41">
+    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:41">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -3782,14 +3934,14 @@
       <c r="AM2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AN2" s="21" t="s">
+      <c r="AN2" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AO2" s="28" t="s">
+      <c r="AO2" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="51.5" customHeight="1" spans="1:42">
+    <row r="3" customFormat="1" ht="55.5" customHeight="1" spans="1:42">
       <c r="A3" s="9" t="s">
         <v>66</v>
       </c>
@@ -3797,7 +3949,7 @@
         <v>67</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -3865,15 +4017,15 @@
       <c r="AG3" s="10"/>
       <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="30"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="31"/>
     </row>
-    <row r="4" customFormat="1" ht="51.5" customHeight="1" spans="1:42">
+    <row r="4" customFormat="1" ht="39" customHeight="1" spans="1:42">
       <c r="A4" s="12" t="s">
         <v>76</v>
       </c>
@@ -3881,7 +4033,7 @@
         <v>77</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E4" s="13"/>
@@ -3943,15 +4095,15 @@
       <c r="AG4" s="13"/>
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="30"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="31"/>
     </row>
-    <row r="5" customFormat="1" ht="51.5" customHeight="1" spans="1:42">
+    <row r="5" customFormat="1" ht="39" customHeight="1" spans="1:42">
       <c r="A5" s="9" t="s">
         <v>80</v>
       </c>
@@ -3959,7 +4111,7 @@
         <v>81</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="10"/>
@@ -4021,15 +4173,15 @@
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
       <c r="AI5" s="10"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="30"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="31"/>
     </row>
-    <row r="6" customFormat="1" ht="51.5" customHeight="1" spans="1:42">
+    <row r="6" customFormat="1" ht="39" customHeight="1" spans="1:42">
       <c r="A6" s="12" t="s">
         <v>82</v>
       </c>
@@ -4037,7 +4189,7 @@
         <v>83</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E6" s="13"/>
@@ -4099,15 +4251,15 @@
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="29"/>
-      <c r="AP6" s="30"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="31"/>
     </row>
-    <row r="7" customFormat="1" ht="51.5" customHeight="1" spans="1:42">
+    <row r="7" customFormat="1" ht="39" customHeight="1" spans="1:42">
       <c r="A7" s="9" t="s">
         <v>84</v>
       </c>
@@ -4115,7 +4267,7 @@
         <v>85</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E7" s="10"/>
@@ -4177,15 +4329,15 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="23"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="30"/>
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="23"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="31"/>
     </row>
-    <row r="8" customFormat="1" ht="51.5" customHeight="1" spans="1:42">
+    <row r="8" customFormat="1" ht="39" customHeight="1" spans="1:42">
       <c r="A8" s="12" t="s">
         <v>86</v>
       </c>
@@ -4193,7 +4345,7 @@
         <v>87</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E8" s="13"/>
@@ -4255,15 +4407,15 @@
       <c r="AG8" s="13"/>
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="24"/>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="30"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="31"/>
     </row>
-    <row r="9" customFormat="1" ht="51.5" customHeight="1" spans="1:42">
+    <row r="9" customFormat="1" ht="39" customHeight="1" spans="1:42">
       <c r="A9" s="9" t="s">
         <v>88</v>
       </c>
@@ -4271,7 +4423,7 @@
         <v>89</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E9" s="10"/>
@@ -4333,15 +4485,15 @@
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22"/>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="30"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="23"/>
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="31"/>
     </row>
-    <row r="10" ht="101" customHeight="1" spans="1:42">
+    <row r="10" ht="105" customHeight="1" spans="1:42">
       <c r="A10" s="12" t="s">
         <v>90</v>
       </c>
@@ -4351,7 +4503,7 @@
       <c r="C10" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13">
@@ -4419,15 +4571,15 @@
       <c r="AG10" s="13"/>
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="30"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="31"/>
     </row>
-    <row r="11" ht="51.5" customHeight="1" spans="1:42">
+    <row r="11" ht="39" customHeight="1" spans="1:42">
       <c r="A11" s="9" t="s">
         <v>100</v>
       </c>
@@ -4437,7 +4589,7 @@
       <c r="C11" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10">
@@ -4499,15 +4651,15 @@
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
-      <c r="AJ11" s="22"/>
-      <c r="AK11" s="22"/>
-      <c r="AL11" s="22"/>
-      <c r="AM11" s="22"/>
-      <c r="AN11" s="23"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="30"/>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="23"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="23"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="31"/>
     </row>
-    <row r="12" ht="51.5" customHeight="1" spans="1:42">
+    <row r="12" ht="39" customHeight="1" spans="1:42">
       <c r="A12" s="12" t="s">
         <v>106</v>
       </c>
@@ -4517,7 +4669,7 @@
       <c r="C12" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13">
@@ -4583,15 +4735,15 @@
       <c r="AG12" s="13"/>
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="25"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="30"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="31"/>
     </row>
-    <row r="13" ht="84.5" customHeight="1" spans="1:42">
+    <row r="13" ht="72" customHeight="1" spans="1:42">
       <c r="A13" s="9" t="s">
         <v>114</v>
       </c>
@@ -4601,7 +4753,7 @@
       <c r="C13" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10">
@@ -4638,6 +4790,7 @@
       <c r="R13" s="10" t="s">
         <v>121</v>
       </c>
+      <c r="S13" s="20"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
@@ -4666,15 +4819,15 @@
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
       <c r="AI13" s="10"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="22"/>
-      <c r="AM13" s="22"/>
-      <c r="AN13" s="23"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="30"/>
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="23"/>
+      <c r="AL13" s="23"/>
+      <c r="AM13" s="23"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="31"/>
     </row>
-    <row r="14" ht="68" customHeight="1" spans="1:42">
+    <row r="14" ht="72" customHeight="1" spans="1:42">
       <c r="A14" s="12" t="s">
         <v>123</v>
       </c>
@@ -4684,7 +4837,7 @@
       <c r="C14" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13">
@@ -4750,15 +4903,15 @@
       <c r="AG14" s="13"/>
       <c r="AH14" s="13"/>
       <c r="AI14" s="13"/>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="24"/>
-      <c r="AL14" s="24"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="29"/>
-      <c r="AP14" s="30"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="31"/>
     </row>
-    <row r="15" ht="68" customHeight="1" spans="1:42">
+    <row r="15" ht="55.5" customHeight="1" spans="1:42">
       <c r="A15" s="9" t="s">
         <v>132</v>
       </c>
@@ -4768,7 +4921,7 @@
       <c r="C15" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10">
@@ -4832,15 +4985,15 @@
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
       <c r="AI15" s="10"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="23"/>
-      <c r="AO15" s="29"/>
-      <c r="AP15" s="30"/>
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="23"/>
+      <c r="AL15" s="23"/>
+      <c r="AM15" s="23"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="31"/>
     </row>
-    <row r="16" ht="51.5" customHeight="1" spans="1:42">
+    <row r="16" ht="39" customHeight="1" spans="1:42">
       <c r="A16" s="12" t="s">
         <v>138</v>
       </c>
@@ -4850,7 +5003,7 @@
       <c r="C16" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13">
@@ -4914,15 +5067,15 @@
       <c r="AG16" s="13"/>
       <c r="AH16" s="13"/>
       <c r="AI16" s="13"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="24"/>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="29"/>
-      <c r="AP16" s="30"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="31"/>
     </row>
-    <row r="17" ht="68" customHeight="1" spans="1:42">
+    <row r="17" ht="72" customHeight="1" spans="1:42">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
@@ -4932,7 +5085,7 @@
       <c r="C17" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10">
@@ -5000,15 +5153,15 @@
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
       <c r="AI17" s="10"/>
-      <c r="AJ17" s="22"/>
-      <c r="AK17" s="22"/>
-      <c r="AL17" s="22"/>
-      <c r="AM17" s="22"/>
-      <c r="AN17" s="23"/>
-      <c r="AO17" s="29"/>
-      <c r="AP17" s="30"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="23"/>
+      <c r="AL17" s="23"/>
+      <c r="AM17" s="23"/>
+      <c r="AN17" s="24"/>
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="31"/>
     </row>
-    <row r="18" ht="84.5" customHeight="1" spans="1:42">
+    <row r="18" ht="88.5" customHeight="1" spans="1:42">
       <c r="A18" s="12" t="s">
         <v>155</v>
       </c>
@@ -5018,7 +5171,7 @@
       <c r="C18" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13">
@@ -5082,17 +5235,17 @@
       <c r="AG18" s="13"/>
       <c r="AH18" s="13"/>
       <c r="AI18" s="13"/>
-      <c r="AJ18" s="24" t="s">
+      <c r="AJ18" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="AK18" s="24"/>
-      <c r="AL18" s="24"/>
-      <c r="AM18" s="24"/>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="29"/>
-      <c r="AP18" s="30"/>
+      <c r="AK18" s="25"/>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="31"/>
     </row>
-    <row r="19" ht="51.5" customHeight="1" spans="1:42">
+    <row r="19" ht="39" customHeight="1" spans="1:42">
       <c r="A19" s="9" t="s">
         <v>162</v>
       </c>
@@ -5102,7 +5255,7 @@
       <c r="C19" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
         <v>165</v>
       </c>
@@ -5172,15 +5325,15 @@
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="10"/>
-      <c r="AJ19" s="22"/>
-      <c r="AK19" s="22"/>
-      <c r="AL19" s="22"/>
-      <c r="AM19" s="22"/>
-      <c r="AN19" s="23"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="30"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="23"/>
+      <c r="AL19" s="23"/>
+      <c r="AM19" s="23"/>
+      <c r="AN19" s="24"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="31"/>
     </row>
-    <row r="20" ht="51.5" customHeight="1" spans="1:42">
+    <row r="20" ht="39" customHeight="1" spans="1:42">
       <c r="A20" s="12" t="s">
         <v>171</v>
       </c>
@@ -5190,7 +5343,7 @@
       <c r="C20" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="13">
         <v>1</v>
       </c>
@@ -5260,15 +5413,15 @@
       <c r="AG20" s="13"/>
       <c r="AH20" s="13"/>
       <c r="AI20" s="13"/>
-      <c r="AJ20" s="24"/>
-      <c r="AK20" s="24"/>
-      <c r="AL20" s="24"/>
-      <c r="AM20" s="24"/>
-      <c r="AN20" s="25"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="30"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="26"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="31"/>
     </row>
-    <row r="21" ht="68" customHeight="1" spans="1:42">
+    <row r="21" ht="39" customHeight="1" spans="1:42">
       <c r="A21" s="9" t="s">
         <v>176</v>
       </c>
@@ -5278,7 +5431,7 @@
       <c r="C21" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="10">
         <v>2</v>
       </c>
@@ -5348,15 +5501,15 @@
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
       <c r="AI21" s="10"/>
-      <c r="AJ21" s="22"/>
-      <c r="AK21" s="22"/>
-      <c r="AL21" s="22"/>
-      <c r="AM21" s="22"/>
-      <c r="AN21" s="23"/>
-      <c r="AO21" s="29"/>
-      <c r="AP21" s="30"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="23"/>
+      <c r="AM21" s="23"/>
+      <c r="AN21" s="24"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="31"/>
     </row>
-    <row r="22" ht="84.5" customHeight="1" spans="1:42">
+    <row r="22" ht="88.5" customHeight="1" spans="1:42">
       <c r="A22" s="12" t="s">
         <v>183</v>
       </c>
@@ -5366,7 +5519,7 @@
       <c r="C22" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13">
@@ -5436,15 +5589,15 @@
       <c r="AG22" s="13"/>
       <c r="AH22" s="13"/>
       <c r="AI22" s="13"/>
-      <c r="AJ22" s="24"/>
-      <c r="AK22" s="24"/>
-      <c r="AL22" s="24"/>
-      <c r="AM22" s="24"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="29"/>
-      <c r="AP22" s="30"/>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="25"/>
+      <c r="AM22" s="25"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="31"/>
     </row>
-    <row r="23" ht="68" customHeight="1" spans="1:42">
+    <row r="23" ht="55.5" customHeight="1" spans="1:42">
       <c r="A23" s="9" t="s">
         <v>194</v>
       </c>
@@ -5454,7 +5607,7 @@
       <c r="C23" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10">
@@ -5524,15 +5677,15 @@
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
       <c r="AI23" s="10"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="22"/>
-      <c r="AL23" s="22"/>
-      <c r="AM23" s="22"/>
-      <c r="AN23" s="23"/>
-      <c r="AO23" s="29"/>
-      <c r="AP23" s="30"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="23"/>
+      <c r="AM23" s="23"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="31"/>
     </row>
-    <row r="24" ht="84.5" customHeight="1" spans="1:42">
+    <row r="24" ht="72" customHeight="1" spans="1:42">
       <c r="A24" s="12" t="s">
         <v>203</v>
       </c>
@@ -5542,7 +5695,7 @@
       <c r="C24" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13">
@@ -5610,15 +5763,15 @@
       <c r="AG24" s="13"/>
       <c r="AH24" s="13"/>
       <c r="AI24" s="13"/>
-      <c r="AJ24" s="24"/>
-      <c r="AK24" s="24"/>
-      <c r="AL24" s="24"/>
-      <c r="AM24" s="24"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="29"/>
-      <c r="AP24" s="30"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="31"/>
     </row>
-    <row r="25" ht="84.5" customHeight="1" spans="1:42">
+    <row r="25" ht="55.5" customHeight="1" spans="1:42">
       <c r="A25" s="9" t="s">
         <v>212</v>
       </c>
@@ -5628,7 +5781,7 @@
       <c r="C25" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10">
@@ -5698,15 +5851,15 @@
       <c r="AG25" s="10"/>
       <c r="AH25" s="10"/>
       <c r="AI25" s="10"/>
-      <c r="AJ25" s="22"/>
-      <c r="AK25" s="22"/>
-      <c r="AL25" s="22"/>
-      <c r="AM25" s="22"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="29"/>
-      <c r="AP25" s="30"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="23"/>
+      <c r="AM25" s="23"/>
+      <c r="AN25" s="24"/>
+      <c r="AO25" s="30"/>
+      <c r="AP25" s="31"/>
     </row>
-    <row r="26" ht="84.5" customHeight="1" spans="1:42">
+    <row r="26" ht="55.5" customHeight="1" spans="1:42">
       <c r="A26" s="12" t="s">
         <v>222</v>
       </c>
@@ -5716,7 +5869,7 @@
       <c r="C26" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13">
@@ -5780,15 +5933,15 @@
       <c r="AG26" s="13"/>
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
-      <c r="AJ26" s="24"/>
-      <c r="AK26" s="24"/>
-      <c r="AL26" s="24"/>
-      <c r="AM26" s="24"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="29"/>
-      <c r="AP26" s="30"/>
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="25"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="30"/>
+      <c r="AP26" s="31"/>
     </row>
-    <row r="27" ht="68" customHeight="1" spans="1:42">
+    <row r="27" ht="55.5" customHeight="1" spans="1:42">
       <c r="A27" s="9" t="s">
         <v>227</v>
       </c>
@@ -5798,7 +5951,7 @@
       <c r="C27" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10">
@@ -5860,15 +6013,15 @@
       <c r="AG27" s="10"/>
       <c r="AH27" s="10"/>
       <c r="AI27" s="10"/>
-      <c r="AJ27" s="22"/>
-      <c r="AK27" s="22"/>
-      <c r="AL27" s="22"/>
-      <c r="AM27" s="22"/>
-      <c r="AN27" s="23"/>
-      <c r="AO27" s="29"/>
-      <c r="AP27" s="30"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
+      <c r="AL27" s="23"/>
+      <c r="AM27" s="23"/>
+      <c r="AN27" s="24"/>
+      <c r="AO27" s="30"/>
+      <c r="AP27" s="31"/>
     </row>
-    <row r="28" ht="51.5" customHeight="1" spans="1:42">
+    <row r="28" ht="39" customHeight="1" spans="1:42">
       <c r="A28" s="12" t="s">
         <v>233</v>
       </c>
@@ -5878,7 +6031,7 @@
       <c r="C28" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13">
@@ -5942,15 +6095,15 @@
       <c r="AG28" s="13"/>
       <c r="AH28" s="13"/>
       <c r="AI28" s="13"/>
-      <c r="AJ28" s="24"/>
-      <c r="AK28" s="24"/>
-      <c r="AL28" s="24"/>
-      <c r="AM28" s="24"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="29"/>
-      <c r="AP28" s="30"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="25"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="26"/>
+      <c r="AO28" s="30"/>
+      <c r="AP28" s="31"/>
     </row>
-    <row r="29" ht="51.5" customHeight="1" spans="1:42">
+    <row r="29" ht="39" customHeight="1" spans="1:42">
       <c r="A29" s="9" t="s">
         <v>240</v>
       </c>
@@ -5960,7 +6113,7 @@
       <c r="C29" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="11"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10">
@@ -6024,15 +6177,15 @@
       <c r="AG29" s="10"/>
       <c r="AH29" s="10"/>
       <c r="AI29" s="10"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="22"/>
-      <c r="AL29" s="22"/>
-      <c r="AM29" s="22"/>
-      <c r="AN29" s="23"/>
-      <c r="AO29" s="29"/>
-      <c r="AP29" s="30"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23"/>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="23"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="30"/>
+      <c r="AP29" s="31"/>
     </row>
-    <row r="30" ht="101" customHeight="1" spans="1:42">
+    <row r="30" ht="88.5" customHeight="1" spans="1:42">
       <c r="A30" s="12" t="s">
         <v>246</v>
       </c>
@@ -6042,7 +6195,7 @@
       <c r="C30" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13">
@@ -6108,15 +6261,15 @@
       <c r="AG30" s="13"/>
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
-      <c r="AJ30" s="24"/>
-      <c r="AK30" s="24"/>
-      <c r="AL30" s="24"/>
-      <c r="AM30" s="24"/>
-      <c r="AN30" s="25"/>
-      <c r="AO30" s="29"/>
-      <c r="AP30" s="30"/>
+      <c r="AJ30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="25"/>
+      <c r="AN30" s="26"/>
+      <c r="AO30" s="30"/>
+      <c r="AP30" s="31"/>
     </row>
-    <row r="31" ht="51.5" customHeight="1" spans="1:42">
+    <row r="31" ht="39" customHeight="1" spans="1:42">
       <c r="A31" s="9" t="s">
         <v>254</v>
       </c>
@@ -6126,7 +6279,7 @@
       <c r="C31" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10">
@@ -6188,15 +6341,15 @@
       <c r="AG31" s="10"/>
       <c r="AH31" s="10"/>
       <c r="AI31" s="10"/>
-      <c r="AJ31" s="22"/>
-      <c r="AK31" s="22"/>
-      <c r="AL31" s="22"/>
-      <c r="AM31" s="22"/>
-      <c r="AN31" s="23"/>
-      <c r="AO31" s="29"/>
-      <c r="AP31" s="30"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="23"/>
+      <c r="AM31" s="23"/>
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="30"/>
+      <c r="AP31" s="31"/>
     </row>
-    <row r="32" ht="115.5" spans="1:42">
+    <row r="32" ht="105" customHeight="1" spans="1:42">
       <c r="A32" s="12" t="s">
         <v>260</v>
       </c>
@@ -6206,7 +6359,7 @@
       <c r="C32" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="13" t="s">
         <v>263</v>
       </c>
@@ -6276,15 +6429,15 @@
       <c r="AG32" s="13"/>
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
-      <c r="AJ32" s="24"/>
-      <c r="AK32" s="24"/>
-      <c r="AL32" s="24"/>
-      <c r="AM32" s="24"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="29"/>
-      <c r="AP32" s="30"/>
+      <c r="AJ32" s="25"/>
+      <c r="AK32" s="25"/>
+      <c r="AL32" s="25"/>
+      <c r="AM32" s="25"/>
+      <c r="AN32" s="26"/>
+      <c r="AO32" s="30"/>
+      <c r="AP32" s="31"/>
     </row>
-    <row r="33" ht="134" customHeight="1" spans="1:42">
+    <row r="33" ht="105" customHeight="1" spans="1:42">
       <c r="A33" s="9" t="s">
         <v>269</v>
       </c>
@@ -6294,7 +6447,7 @@
       <c r="C33" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="10" t="s">
         <v>263</v>
       </c>
@@ -6364,15 +6517,15 @@
       <c r="AG33" s="10"/>
       <c r="AH33" s="10"/>
       <c r="AI33" s="10"/>
-      <c r="AJ33" s="22"/>
-      <c r="AK33" s="22"/>
-      <c r="AL33" s="22"/>
-      <c r="AM33" s="22"/>
-      <c r="AN33" s="23"/>
-      <c r="AO33" s="29"/>
-      <c r="AP33" s="30"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="23"/>
+      <c r="AM33" s="23"/>
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="30"/>
+      <c r="AP33" s="31"/>
     </row>
-    <row r="34" ht="115.5" spans="1:42">
+    <row r="34" ht="105" customHeight="1" spans="1:42">
       <c r="A34" s="12" t="s">
         <v>274</v>
       </c>
@@ -6382,7 +6535,7 @@
       <c r="C34" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D34" s="14"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
         <v>263</v>
       </c>
@@ -6452,15 +6605,15 @@
       <c r="AG34" s="13"/>
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
-      <c r="AJ34" s="24"/>
-      <c r="AK34" s="24"/>
-      <c r="AL34" s="24"/>
-      <c r="AM34" s="24"/>
-      <c r="AN34" s="25"/>
-      <c r="AO34" s="29"/>
-      <c r="AP34" s="30"/>
+      <c r="AJ34" s="25"/>
+      <c r="AK34" s="25"/>
+      <c r="AL34" s="25"/>
+      <c r="AM34" s="25"/>
+      <c r="AN34" s="26"/>
+      <c r="AO34" s="30"/>
+      <c r="AP34" s="31"/>
     </row>
-    <row r="35" ht="134" customHeight="1" spans="1:42">
+    <row r="35" ht="105" customHeight="1" spans="1:42">
       <c r="A35" s="9" t="s">
         <v>278</v>
       </c>
@@ -6470,7 +6623,7 @@
       <c r="C35" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="10" t="s">
         <v>263</v>
       </c>
@@ -6538,15 +6691,15 @@
       <c r="AG35" s="10"/>
       <c r="AH35" s="10"/>
       <c r="AI35" s="10"/>
-      <c r="AJ35" s="22"/>
-      <c r="AK35" s="22"/>
-      <c r="AL35" s="22"/>
-      <c r="AM35" s="22"/>
-      <c r="AN35" s="23"/>
-      <c r="AO35" s="29"/>
-      <c r="AP35" s="30"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="23"/>
+      <c r="AL35" s="23"/>
+      <c r="AM35" s="23"/>
+      <c r="AN35" s="24"/>
+      <c r="AO35" s="30"/>
+      <c r="AP35" s="31"/>
     </row>
-    <row r="36" ht="51.5" customHeight="1" spans="1:42">
+    <row r="36" ht="39" customHeight="1" spans="1:42">
       <c r="A36" s="12" t="s">
         <v>283</v>
       </c>
@@ -6556,7 +6709,7 @@
       <c r="C36" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="D36" s="14"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13">
@@ -6618,15 +6771,15 @@
       <c r="AG36" s="13"/>
       <c r="AH36" s="13"/>
       <c r="AI36" s="13"/>
-      <c r="AJ36" s="24"/>
-      <c r="AK36" s="24"/>
-      <c r="AL36" s="24"/>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="25"/>
-      <c r="AO36" s="29"/>
-      <c r="AP36" s="30"/>
+      <c r="AJ36" s="25"/>
+      <c r="AK36" s="25"/>
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="25"/>
+      <c r="AN36" s="26"/>
+      <c r="AO36" s="30"/>
+      <c r="AP36" s="31"/>
     </row>
-    <row r="37" ht="132" spans="1:42">
+    <row r="37" ht="121.5" customHeight="1" spans="1:42">
       <c r="A37" s="9" t="s">
         <v>289</v>
       </c>
@@ -6636,7 +6789,7 @@
       <c r="C37" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D37" s="11"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="10" t="s">
         <v>292</v>
       </c>
@@ -6704,15 +6857,15 @@
       <c r="AG37" s="10"/>
       <c r="AH37" s="10"/>
       <c r="AI37" s="10"/>
-      <c r="AJ37" s="22"/>
-      <c r="AK37" s="22"/>
-      <c r="AL37" s="22"/>
-      <c r="AM37" s="22"/>
-      <c r="AN37" s="23"/>
-      <c r="AO37" s="29"/>
-      <c r="AP37" s="30"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
+      <c r="AL37" s="23"/>
+      <c r="AM37" s="23"/>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="30"/>
+      <c r="AP37" s="31"/>
     </row>
-    <row r="38" ht="132" spans="1:42">
+    <row r="38" ht="138" customHeight="1" spans="1:42">
       <c r="A38" s="12" t="s">
         <v>298</v>
       </c>
@@ -6722,12 +6875,12 @@
       <c r="C38" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="D38" s="14"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
         <v>301</v>
       </c>
       <c r="F38" s="13"/>
-      <c r="G38" s="13">
+      <c r="G38" s="10">
         <v>0</v>
       </c>
       <c r="H38" s="13">
@@ -6790,15 +6943,15 @@
       <c r="AG38" s="13"/>
       <c r="AH38" s="13"/>
       <c r="AI38" s="13"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="24"/>
-      <c r="AL38" s="24"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="25"/>
-      <c r="AO38" s="29"/>
-      <c r="AP38" s="30"/>
+      <c r="AJ38" s="25"/>
+      <c r="AK38" s="25"/>
+      <c r="AL38" s="25"/>
+      <c r="AM38" s="25"/>
+      <c r="AN38" s="26"/>
+      <c r="AO38" s="30"/>
+      <c r="AP38" s="31"/>
     </row>
-    <row r="39" ht="101" customHeight="1" spans="1:42">
+    <row r="39" ht="88.5" customHeight="1" spans="1:42">
       <c r="A39" s="9" t="s">
         <v>303</v>
       </c>
@@ -6808,7 +6961,7 @@
       <c r="C39" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="D39" s="11"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10">
@@ -6874,15 +7027,15 @@
       <c r="AG39" s="10"/>
       <c r="AH39" s="10"/>
       <c r="AI39" s="10"/>
-      <c r="AJ39" s="22"/>
-      <c r="AK39" s="22"/>
-      <c r="AL39" s="22"/>
-      <c r="AM39" s="22"/>
-      <c r="AN39" s="23"/>
-      <c r="AO39" s="29"/>
-      <c r="AP39" s="30"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="23"/>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="23"/>
+      <c r="AN39" s="24"/>
+      <c r="AO39" s="30"/>
+      <c r="AP39" s="31"/>
     </row>
-    <row r="40" ht="101" customHeight="1" spans="1:42">
+    <row r="40" ht="88.5" customHeight="1" spans="1:42">
       <c r="A40" s="12" t="s">
         <v>310</v>
       </c>
@@ -6892,11 +7045,11 @@
       <c r="C40" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="D40" s="14"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="13">
-        <v>1</v>
+      <c r="G40" s="10">
+        <v>0</v>
       </c>
       <c r="H40" s="13">
         <v>4</v>
@@ -6911,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M40" s="13">
         <v>0</v>
@@ -6921,10 +7074,10 @@
       </c>
       <c r="O40" s="13"/>
       <c r="P40" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R40" s="13" t="s">
         <v>128</v>
@@ -6947,7 +7100,7 @@
         <v>72</v>
       </c>
       <c r="AB40" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AC40" s="14" t="s">
         <v>74</v>
@@ -6960,29 +7113,29 @@
       <c r="AG40" s="13"/>
       <c r="AH40" s="13"/>
       <c r="AI40" s="13"/>
-      <c r="AJ40" s="24"/>
-      <c r="AK40" s="24"/>
-      <c r="AL40" s="24"/>
-      <c r="AM40" s="24"/>
-      <c r="AN40" s="25"/>
-      <c r="AO40" s="29"/>
-      <c r="AP40" s="30"/>
+      <c r="AJ40" s="25"/>
+      <c r="AK40" s="25"/>
+      <c r="AL40" s="25"/>
+      <c r="AM40" s="25"/>
+      <c r="AN40" s="26"/>
+      <c r="AO40" s="30"/>
+      <c r="AP40" s="31"/>
     </row>
-    <row r="41" ht="84.5" customHeight="1" spans="1:42">
+    <row r="41" ht="39" customHeight="1" spans="1:42">
       <c r="A41" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D41" s="11"/>
+        <v>319</v>
+      </c>
+      <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="10">
         <v>4</v>
@@ -6997,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="M41" s="10">
         <v>0</v>
@@ -7007,16 +7160,16 @@
       </c>
       <c r="O41" s="10"/>
       <c r="P41" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="R41" s="10" t="s">
         <v>237</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
@@ -7033,7 +7186,7 @@
         <v>72</v>
       </c>
       <c r="AB41" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AC41" s="11" t="s">
         <v>74</v>
@@ -7046,29 +7199,29 @@
       <c r="AG41" s="10"/>
       <c r="AH41" s="10"/>
       <c r="AI41" s="10"/>
-      <c r="AJ41" s="22"/>
-      <c r="AK41" s="22"/>
-      <c r="AL41" s="22"/>
-      <c r="AM41" s="22"/>
-      <c r="AN41" s="23"/>
-      <c r="AO41" s="29"/>
-      <c r="AP41" s="30"/>
+      <c r="AJ41" s="23"/>
+      <c r="AK41" s="23"/>
+      <c r="AL41" s="23"/>
+      <c r="AM41" s="23"/>
+      <c r="AN41" s="24"/>
+      <c r="AO41" s="30"/>
+      <c r="AP41" s="31"/>
     </row>
-    <row r="42" ht="84.5" customHeight="1" spans="1:42">
+    <row r="42" ht="39" customHeight="1" spans="1:42">
       <c r="A42" s="12" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="D42" s="14"/>
+        <v>326</v>
+      </c>
+      <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="13">
-        <v>1</v>
+      <c r="G42" s="10">
+        <v>0</v>
       </c>
       <c r="H42" s="13">
         <v>4</v>
@@ -7083,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="M42" s="13">
         <v>0</v>
@@ -7093,13 +7246,13 @@
       </c>
       <c r="O42" s="13"/>
       <c r="P42" s="13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q42" s="13" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="S42" s="13"/>
       <c r="T42" s="13"/>
@@ -7117,7 +7270,7 @@
         <v>72</v>
       </c>
       <c r="AB42" s="13" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AC42" s="14" t="s">
         <v>74</v>
@@ -7130,29 +7283,29 @@
       <c r="AG42" s="13"/>
       <c r="AH42" s="13"/>
       <c r="AI42" s="13"/>
-      <c r="AJ42" s="24"/>
-      <c r="AK42" s="24"/>
-      <c r="AL42" s="24"/>
-      <c r="AM42" s="24"/>
-      <c r="AN42" s="25"/>
-      <c r="AO42" s="29"/>
-      <c r="AP42" s="30"/>
+      <c r="AJ42" s="25"/>
+      <c r="AK42" s="25"/>
+      <c r="AL42" s="25"/>
+      <c r="AM42" s="25"/>
+      <c r="AN42" s="26"/>
+      <c r="AO42" s="30"/>
+      <c r="AP42" s="31"/>
     </row>
-    <row r="43" ht="51.5" customHeight="1" spans="1:42">
+    <row r="43" ht="39" customHeight="1" spans="1:42">
       <c r="A43" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="D43" s="11"/>
+        <v>334</v>
+      </c>
+      <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="10">
         <v>4</v>
@@ -7167,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="M43" s="10">
         <v>0</v>
@@ -7177,10 +7330,10 @@
       </c>
       <c r="O43" s="10"/>
       <c r="P43" s="10" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
@@ -7199,7 +7352,7 @@
         <v>72</v>
       </c>
       <c r="AB43" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AC43" s="11" t="s">
         <v>74</v>
@@ -7212,27 +7365,27 @@
       <c r="AG43" s="10"/>
       <c r="AH43" s="10"/>
       <c r="AI43" s="10"/>
-      <c r="AJ43" s="22"/>
-      <c r="AK43" s="22"/>
-      <c r="AL43" s="22"/>
-      <c r="AM43" s="22"/>
-      <c r="AN43" s="23"/>
-      <c r="AO43" s="29"/>
-      <c r="AP43" s="30"/>
+      <c r="AJ43" s="23"/>
+      <c r="AK43" s="23"/>
+      <c r="AL43" s="23"/>
+      <c r="AM43" s="23"/>
+      <c r="AN43" s="24"/>
+      <c r="AO43" s="30"/>
+      <c r="AP43" s="31"/>
     </row>
-    <row r="44" ht="51.5" customHeight="1" spans="1:42">
+    <row r="44" ht="55.5" customHeight="1" spans="1:42">
       <c r="A44" s="12" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="13">
-        <v>1</v>
+      <c r="G44" s="10">
+        <v>0</v>
       </c>
       <c r="H44" s="13">
         <v>4</v>
@@ -7247,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="M44" s="13">
         <v>0</v>
@@ -7275,7 +7428,7 @@
         <v>72</v>
       </c>
       <c r="AB44" s="13" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AC44" s="14" t="s">
         <v>74</v>
@@ -7288,29 +7441,29 @@
       <c r="AG44" s="13"/>
       <c r="AH44" s="13"/>
       <c r="AI44" s="13"/>
-      <c r="AJ44" s="24"/>
-      <c r="AK44" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="AL44" s="24"/>
-      <c r="AM44" s="24"/>
-      <c r="AN44" s="25"/>
-      <c r="AO44" s="29"/>
-      <c r="AP44" s="30"/>
+      <c r="AJ44" s="25"/>
+      <c r="AK44" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="AL44" s="25"/>
+      <c r="AM44" s="25"/>
+      <c r="AN44" s="26"/>
+      <c r="AO44" s="30"/>
+      <c r="AP44" s="31"/>
     </row>
-    <row r="45" ht="51.5" customHeight="1" spans="1:42">
+    <row r="45" ht="55.5" customHeight="1" spans="1:42">
       <c r="A45" s="9" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="10">
         <v>4</v>
@@ -7325,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="M45" s="10">
         <v>0</v>
@@ -7353,7 +7506,7 @@
         <v>72</v>
       </c>
       <c r="AB45" s="10" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AC45" s="11" t="s">
         <v>74</v>
@@ -7366,29 +7519,29 @@
       <c r="AG45" s="10"/>
       <c r="AH45" s="10"/>
       <c r="AI45" s="10"/>
-      <c r="AJ45" s="22"/>
-      <c r="AK45" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="AL45" s="22"/>
-      <c r="AM45" s="22"/>
-      <c r="AN45" s="23"/>
-      <c r="AO45" s="29"/>
-      <c r="AP45" s="30"/>
+      <c r="AJ45" s="23"/>
+      <c r="AK45" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL45" s="23"/>
+      <c r="AM45" s="23"/>
+      <c r="AN45" s="24"/>
+      <c r="AO45" s="30"/>
+      <c r="AP45" s="31"/>
     </row>
-    <row r="46" ht="51.5" customHeight="1" spans="1:42">
+    <row r="46" ht="55.5" customHeight="1" spans="1:42">
       <c r="A46" s="12" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="13">
-        <v>1</v>
+      <c r="G46" s="10">
+        <v>0</v>
       </c>
       <c r="H46" s="13">
         <v>4</v>
@@ -7403,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="M46" s="13">
         <v>0</v>
@@ -7431,7 +7584,7 @@
         <v>72</v>
       </c>
       <c r="AB46" s="13" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AC46" s="14" t="s">
         <v>74</v>
@@ -7444,31 +7597,31 @@
       <c r="AG46" s="13"/>
       <c r="AH46" s="13"/>
       <c r="AI46" s="13"/>
-      <c r="AJ46" s="24"/>
-      <c r="AK46" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="AL46" s="24"/>
-      <c r="AM46" s="24"/>
-      <c r="AN46" s="25"/>
-      <c r="AO46" s="29"/>
-      <c r="AP46" s="30"/>
+      <c r="AJ46" s="25"/>
+      <c r="AK46" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="AL46" s="25"/>
+      <c r="AM46" s="25"/>
+      <c r="AN46" s="26"/>
+      <c r="AO46" s="30"/>
+      <c r="AP46" s="31"/>
     </row>
-    <row r="47" ht="68" customHeight="1" spans="1:42">
+    <row r="47" ht="39" customHeight="1" spans="1:42">
       <c r="A47" s="9" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="D47" s="11"/>
+        <v>356</v>
+      </c>
+      <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="10">
         <v>4</v>
@@ -7483,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
       <c r="M47" s="10">
         <v>0</v>
@@ -7493,10 +7646,10 @@
       </c>
       <c r="O47" s="10"/>
       <c r="P47" s="10" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
@@ -7515,7 +7668,7 @@
         <v>72</v>
       </c>
       <c r="AB47" s="10" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="AC47" s="11" t="s">
         <v>74</v>
@@ -7528,29 +7681,29 @@
       <c r="AG47" s="10"/>
       <c r="AH47" s="10"/>
       <c r="AI47" s="10"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="22"/>
-      <c r="AM47" s="22"/>
-      <c r="AN47" s="23"/>
-      <c r="AO47" s="29"/>
-      <c r="AP47" s="30"/>
+      <c r="AJ47" s="23"/>
+      <c r="AK47" s="23"/>
+      <c r="AL47" s="23"/>
+      <c r="AM47" s="23"/>
+      <c r="AN47" s="24"/>
+      <c r="AO47" s="30"/>
+      <c r="AP47" s="31"/>
     </row>
-    <row r="48" ht="68" customHeight="1" spans="1:42">
+    <row r="48" ht="39" customHeight="1" spans="1:42">
       <c r="A48" s="12" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="D48" s="14"/>
+        <v>363</v>
+      </c>
+      <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="13">
-        <v>1</v>
+      <c r="G48" s="10">
+        <v>0</v>
       </c>
       <c r="H48" s="13">
         <v>4</v>
@@ -7565,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="M48" s="13">
         <v>0</v>
@@ -7575,10 +7728,10 @@
       </c>
       <c r="O48" s="13"/>
       <c r="P48" s="13" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
@@ -7597,7 +7750,7 @@
         <v>72</v>
       </c>
       <c r="AB48" s="13" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="AC48" s="14" t="s">
         <v>74</v>
@@ -7610,29 +7763,29 @@
       <c r="AG48" s="13"/>
       <c r="AH48" s="13"/>
       <c r="AI48" s="13"/>
-      <c r="AJ48" s="24"/>
-      <c r="AK48" s="24"/>
-      <c r="AL48" s="24"/>
-      <c r="AM48" s="24"/>
-      <c r="AN48" s="25"/>
-      <c r="AO48" s="29"/>
-      <c r="AP48" s="30"/>
+      <c r="AJ48" s="25"/>
+      <c r="AK48" s="25"/>
+      <c r="AL48" s="25"/>
+      <c r="AM48" s="25"/>
+      <c r="AN48" s="26"/>
+      <c r="AO48" s="30"/>
+      <c r="AP48" s="31"/>
     </row>
-    <row r="49" ht="68" customHeight="1" spans="1:42">
+    <row r="49" ht="72" customHeight="1" spans="1:42">
       <c r="A49" s="9" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="D49" s="11"/>
+        <v>368</v>
+      </c>
+      <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="10">
         <v>4</v>
@@ -7647,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>306</v>
+        <v>369</v>
       </c>
       <c r="M49" s="10">
         <v>1</v>
@@ -7677,7 +7830,7 @@
         <v>72</v>
       </c>
       <c r="AB49" s="10" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AC49" s="11" t="s">
         <v>74</v>
@@ -7690,29 +7843,29 @@
       <c r="AG49" s="10"/>
       <c r="AH49" s="10"/>
       <c r="AI49" s="10"/>
-      <c r="AJ49" s="22"/>
-      <c r="AK49" s="22"/>
-      <c r="AL49" s="22"/>
-      <c r="AM49" s="22"/>
-      <c r="AN49" s="23"/>
-      <c r="AO49" s="29"/>
-      <c r="AP49" s="30"/>
+      <c r="AJ49" s="23"/>
+      <c r="AK49" s="23"/>
+      <c r="AL49" s="23"/>
+      <c r="AM49" s="23"/>
+      <c r="AN49" s="24"/>
+      <c r="AO49" s="30"/>
+      <c r="AP49" s="31"/>
     </row>
-    <row r="50" ht="134" customHeight="1" spans="1:42">
+    <row r="50" ht="88.5" customHeight="1" spans="1:42">
       <c r="A50" s="12" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="D50" s="14"/>
+        <v>373</v>
+      </c>
+      <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="13">
-        <v>1</v>
+      <c r="G50" s="10">
+        <v>0</v>
       </c>
       <c r="H50" s="13">
         <v>4</v>
@@ -7727,7 +7880,7 @@
         <v>30</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="M50" s="13">
         <v>0</v>
@@ -7737,10 +7890,10 @@
       </c>
       <c r="O50" s="13"/>
       <c r="P50" s="13" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="Q50" s="13" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
@@ -7759,7 +7912,7 @@
         <v>72</v>
       </c>
       <c r="AB50" s="13" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="AC50" s="14" t="s">
         <v>74</v>
@@ -7772,29 +7925,29 @@
       <c r="AG50" s="13"/>
       <c r="AH50" s="13"/>
       <c r="AI50" s="13"/>
-      <c r="AJ50" s="24"/>
-      <c r="AK50" s="24"/>
-      <c r="AL50" s="24"/>
-      <c r="AM50" s="24"/>
-      <c r="AN50" s="25"/>
-      <c r="AO50" s="29"/>
-      <c r="AP50" s="30"/>
+      <c r="AJ50" s="25"/>
+      <c r="AK50" s="25"/>
+      <c r="AL50" s="25"/>
+      <c r="AM50" s="25"/>
+      <c r="AN50" s="26"/>
+      <c r="AO50" s="30"/>
+      <c r="AP50" s="31"/>
     </row>
-    <row r="51" ht="117.5" customHeight="1" spans="1:42">
+    <row r="51" ht="88.5" customHeight="1" spans="1:42">
       <c r="A51" s="9" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="D51" s="11"/>
+        <v>380</v>
+      </c>
+      <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="10">
         <v>4</v>
@@ -7809,17 +7962,17 @@
         <v>8</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="M51" s="10">
         <v>0</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="O51" s="10"/>
       <c r="P51" s="10" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
@@ -7839,7 +7992,7 @@
         <v>72</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="AC51" s="11" t="s">
         <v>74</v>
@@ -7852,29 +8005,29 @@
       <c r="AG51" s="10"/>
       <c r="AH51" s="10"/>
       <c r="AI51" s="10"/>
-      <c r="AJ51" s="22"/>
-      <c r="AK51" s="22"/>
-      <c r="AL51" s="22"/>
-      <c r="AM51" s="22"/>
-      <c r="AN51" s="23"/>
-      <c r="AO51" s="29"/>
-      <c r="AP51" s="30"/>
+      <c r="AJ51" s="23"/>
+      <c r="AK51" s="23"/>
+      <c r="AL51" s="23"/>
+      <c r="AM51" s="23"/>
+      <c r="AN51" s="24"/>
+      <c r="AO51" s="30"/>
+      <c r="AP51" s="31"/>
     </row>
-    <row r="52" ht="134" customHeight="1" spans="1:42">
+    <row r="52" ht="121.5" customHeight="1" spans="1:42">
       <c r="A52" s="12" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="D52" s="14"/>
+        <v>385</v>
+      </c>
+      <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
-      <c r="G52" s="13">
-        <v>1</v>
+      <c r="G52" s="10">
+        <v>0</v>
       </c>
       <c r="H52" s="13">
         <v>4</v>
@@ -7889,7 +8042,7 @@
         <v>4</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="M52" s="13">
         <v>0</v>
@@ -7902,7 +8055,7 @@
         <v>119</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="R52" s="10" t="s">
         <v>121</v>
@@ -7923,7 +8076,7 @@
         <v>72</v>
       </c>
       <c r="AB52" s="13" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="AC52" s="14" t="s">
         <v>74</v>
@@ -7936,29 +8089,29 @@
       <c r="AG52" s="13"/>
       <c r="AH52" s="13"/>
       <c r="AI52" s="13"/>
-      <c r="AJ52" s="24"/>
-      <c r="AK52" s="24"/>
-      <c r="AL52" s="24"/>
-      <c r="AM52" s="24"/>
-      <c r="AN52" s="25"/>
-      <c r="AO52" s="29"/>
-      <c r="AP52" s="30"/>
+      <c r="AJ52" s="25"/>
+      <c r="AK52" s="25"/>
+      <c r="AL52" s="25"/>
+      <c r="AM52" s="25"/>
+      <c r="AN52" s="26"/>
+      <c r="AO52" s="30"/>
+      <c r="AP52" s="31"/>
     </row>
-    <row r="53" ht="150.5" customHeight="1" spans="1:42">
+    <row r="53" ht="138" customHeight="1" spans="1:42">
       <c r="A53" s="9" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="D53" s="11"/>
+        <v>390</v>
+      </c>
+      <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="10">
         <v>4</v>
@@ -7973,7 +8126,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>306</v>
+        <v>391</v>
       </c>
       <c r="M53" s="10">
         <v>3</v>
@@ -7983,7 +8136,7 @@
       </c>
       <c r="O53" s="10"/>
       <c r="P53" s="13" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="Q53" s="13" t="s">
         <v>96</v>
@@ -7992,7 +8145,7 @@
         <v>97</v>
       </c>
       <c r="S53" s="10" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
@@ -8009,7 +8162,7 @@
         <v>72</v>
       </c>
       <c r="AB53" s="10" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="AC53" s="11" t="s">
         <v>74</v>
@@ -8022,29 +8175,29 @@
       <c r="AG53" s="10"/>
       <c r="AH53" s="10"/>
       <c r="AI53" s="10"/>
-      <c r="AJ53" s="22"/>
-      <c r="AK53" s="22"/>
-      <c r="AL53" s="22"/>
-      <c r="AM53" s="22"/>
-      <c r="AN53" s="23"/>
-      <c r="AO53" s="29"/>
-      <c r="AP53" s="30"/>
+      <c r="AJ53" s="23"/>
+      <c r="AK53" s="23"/>
+      <c r="AL53" s="23"/>
+      <c r="AM53" s="23"/>
+      <c r="AN53" s="24"/>
+      <c r="AO53" s="30"/>
+      <c r="AP53" s="31"/>
     </row>
-    <row r="54" ht="84.5" customHeight="1" spans="1:42">
+    <row r="54" ht="72" customHeight="1" spans="1:42">
       <c r="A54" s="12" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="D54" s="14"/>
+        <v>397</v>
+      </c>
+      <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
-      <c r="G54" s="13">
-        <v>1</v>
+      <c r="G54" s="10">
+        <v>0</v>
       </c>
       <c r="H54" s="13">
         <v>4</v>
@@ -8059,20 +8212,20 @@
         <v>3</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>306</v>
+        <v>398</v>
       </c>
       <c r="M54" s="13">
-        <v>0</v>
-      </c>
-      <c r="N54" s="13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>381</v>
       </c>
       <c r="O54" s="13"/>
       <c r="P54" s="13" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="Q54" s="13" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
@@ -8091,7 +8244,7 @@
         <v>72</v>
       </c>
       <c r="AB54" s="13" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="AC54" s="14" t="s">
         <v>74</v>
@@ -8104,29 +8257,29 @@
       <c r="AG54" s="13"/>
       <c r="AH54" s="13"/>
       <c r="AI54" s="13"/>
-      <c r="AJ54" s="24"/>
-      <c r="AK54" s="24"/>
-      <c r="AL54" s="24"/>
-      <c r="AM54" s="24"/>
-      <c r="AN54" s="25"/>
-      <c r="AO54" s="29"/>
-      <c r="AP54" s="30"/>
+      <c r="AJ54" s="25"/>
+      <c r="AK54" s="25"/>
+      <c r="AL54" s="25"/>
+      <c r="AM54" s="25"/>
+      <c r="AN54" s="26"/>
+      <c r="AO54" s="30"/>
+      <c r="AP54" s="31"/>
     </row>
-    <row r="55" ht="84.5" customHeight="1" spans="1:42">
+    <row r="55" ht="72" customHeight="1" spans="1:42">
       <c r="A55" s="9" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="D55" s="11"/>
+        <v>404</v>
+      </c>
+      <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="10">
         <v>4</v>
@@ -8141,20 +8294,20 @@
         <v>2</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>306</v>
+        <v>405</v>
       </c>
       <c r="M55" s="10">
-        <v>0</v>
-      </c>
-      <c r="N55" s="10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="O55" s="10"/>
       <c r="P55" s="13" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="Q55" s="13" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="R55" s="10" t="s">
         <v>307</v>
@@ -8175,7 +8328,7 @@
         <v>72</v>
       </c>
       <c r="AB55" s="10" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="AC55" s="11" t="s">
         <v>74</v>
@@ -8188,29 +8341,29 @@
       <c r="AG55" s="10"/>
       <c r="AH55" s="10"/>
       <c r="AI55" s="10"/>
-      <c r="AJ55" s="22"/>
-      <c r="AK55" s="22"/>
-      <c r="AL55" s="22"/>
-      <c r="AM55" s="22"/>
-      <c r="AN55" s="23"/>
-      <c r="AO55" s="29"/>
-      <c r="AP55" s="30"/>
+      <c r="AJ55" s="23"/>
+      <c r="AK55" s="23"/>
+      <c r="AL55" s="23"/>
+      <c r="AM55" s="23"/>
+      <c r="AN55" s="24"/>
+      <c r="AO55" s="30"/>
+      <c r="AP55" s="31"/>
     </row>
-    <row r="56" ht="84.5" customHeight="1" spans="1:42">
+    <row r="56" ht="55.5" customHeight="1" spans="1:42">
       <c r="A56" s="12" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="D56" s="14"/>
+        <v>409</v>
+      </c>
+      <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
-      <c r="G56" s="13">
-        <v>1</v>
+      <c r="G56" s="10">
+        <v>0</v>
       </c>
       <c r="H56" s="13">
         <v>4</v>
@@ -8222,10 +8375,10 @@
         <v>1</v>
       </c>
       <c r="K56" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="M56" s="13">
         <v>0</v>
@@ -8235,10 +8388,10 @@
       </c>
       <c r="O56" s="13"/>
       <c r="P56" s="13" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="Q56" s="13" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
@@ -8257,7 +8410,7 @@
         <v>72</v>
       </c>
       <c r="AB56" s="13" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="AC56" s="14" t="s">
         <v>74</v>
@@ -8270,29 +8423,29 @@
       <c r="AG56" s="13"/>
       <c r="AH56" s="13"/>
       <c r="AI56" s="13"/>
-      <c r="AJ56" s="24"/>
-      <c r="AK56" s="24"/>
-      <c r="AL56" s="24"/>
-      <c r="AM56" s="24"/>
-      <c r="AN56" s="25"/>
-      <c r="AO56" s="29"/>
-      <c r="AP56" s="30"/>
+      <c r="AJ56" s="25"/>
+      <c r="AK56" s="25"/>
+      <c r="AL56" s="25"/>
+      <c r="AM56" s="25"/>
+      <c r="AN56" s="26"/>
+      <c r="AO56" s="30"/>
+      <c r="AP56" s="31"/>
     </row>
-    <row r="57" ht="51.5" customHeight="1" spans="1:42">
+    <row r="57" ht="39" customHeight="1" spans="1:42">
       <c r="A57" s="9" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="D57" s="11"/>
+        <v>415</v>
+      </c>
+      <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="10">
         <v>4</v>
@@ -8307,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="M57" s="10">
         <v>0</v>
@@ -8317,10 +8470,10 @@
       </c>
       <c r="O57" s="10"/>
       <c r="P57" s="10" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
@@ -8339,7 +8492,7 @@
         <v>72</v>
       </c>
       <c r="AB57" s="10" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="AC57" s="11" t="s">
         <v>74</v>
@@ -8352,29 +8505,29 @@
       <c r="AG57" s="10"/>
       <c r="AH57" s="10"/>
       <c r="AI57" s="10"/>
-      <c r="AJ57" s="22"/>
-      <c r="AK57" s="22"/>
-      <c r="AL57" s="22"/>
-      <c r="AM57" s="22"/>
-      <c r="AN57" s="23"/>
-      <c r="AO57" s="29"/>
-      <c r="AP57" s="30"/>
+      <c r="AJ57" s="23"/>
+      <c r="AK57" s="23"/>
+      <c r="AL57" s="23"/>
+      <c r="AM57" s="23"/>
+      <c r="AN57" s="24"/>
+      <c r="AO57" s="30"/>
+      <c r="AP57" s="31"/>
     </row>
-    <row r="58" ht="51.5" customHeight="1" spans="1:42">
+    <row r="58" ht="39" customHeight="1" spans="1:42">
       <c r="A58" s="12" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="D58" s="14"/>
+        <v>422</v>
+      </c>
+      <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
-      <c r="G58" s="13">
-        <v>1</v>
+      <c r="G58" s="10">
+        <v>0</v>
       </c>
       <c r="H58" s="13">
         <v>4</v>
@@ -8389,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
       <c r="M58" s="13">
         <v>0</v>
@@ -8399,7 +8552,7 @@
       </c>
       <c r="O58" s="13"/>
       <c r="P58" s="13" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
@@ -8419,7 +8572,7 @@
         <v>72</v>
       </c>
       <c r="AB58" s="13" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="AC58" s="14" t="s">
         <v>74</v>
@@ -8432,29 +8585,29 @@
       <c r="AG58" s="13"/>
       <c r="AH58" s="13"/>
       <c r="AI58" s="13"/>
-      <c r="AJ58" s="24"/>
-      <c r="AK58" s="24"/>
-      <c r="AL58" s="24"/>
-      <c r="AM58" s="24"/>
-      <c r="AN58" s="25"/>
-      <c r="AO58" s="29"/>
-      <c r="AP58" s="30"/>
+      <c r="AJ58" s="25"/>
+      <c r="AK58" s="25"/>
+      <c r="AL58" s="25"/>
+      <c r="AM58" s="25"/>
+      <c r="AN58" s="26"/>
+      <c r="AO58" s="30"/>
+      <c r="AP58" s="31"/>
     </row>
-    <row r="59" ht="101" customHeight="1" spans="1:42">
+    <row r="59" ht="88.5" customHeight="1" spans="1:42">
       <c r="A59" s="9" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="D59" s="11"/>
+        <v>428</v>
+      </c>
+      <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="10">
         <v>4</v>
@@ -8466,20 +8619,20 @@
         <v>1</v>
       </c>
       <c r="K59" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>306</v>
+        <v>429</v>
       </c>
       <c r="M59" s="10">
-        <v>0</v>
-      </c>
-      <c r="N59" s="10">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>430</v>
       </c>
       <c r="O59" s="10"/>
       <c r="P59" s="10" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
@@ -8499,7 +8652,7 @@
         <v>72</v>
       </c>
       <c r="AB59" s="10" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="AC59" s="11" t="s">
         <v>74</v>
@@ -8512,29 +8665,29 @@
       <c r="AG59" s="10"/>
       <c r="AH59" s="10"/>
       <c r="AI59" s="10"/>
-      <c r="AJ59" s="22"/>
-      <c r="AK59" s="22"/>
-      <c r="AL59" s="22"/>
-      <c r="AM59" s="22"/>
-      <c r="AN59" s="23"/>
-      <c r="AO59" s="29"/>
-      <c r="AP59" s="30"/>
+      <c r="AJ59" s="23"/>
+      <c r="AK59" s="23"/>
+      <c r="AL59" s="23"/>
+      <c r="AM59" s="23"/>
+      <c r="AN59" s="24"/>
+      <c r="AO59" s="30"/>
+      <c r="AP59" s="31"/>
     </row>
-    <row r="60" ht="101" customHeight="1" spans="1:42">
+    <row r="60" ht="66" spans="1:42">
       <c r="A60" s="12" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="D60" s="14"/>
+        <v>435</v>
+      </c>
+      <c r="D60" s="13"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
-      <c r="G60" s="13">
-        <v>1</v>
+      <c r="G60" s="10">
+        <v>0</v>
       </c>
       <c r="H60" s="13">
         <v>4</v>
@@ -8546,19 +8699,21 @@
         <v>1</v>
       </c>
       <c r="K60" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>306</v>
+        <v>436</v>
       </c>
       <c r="M60" s="13">
-        <v>0</v>
-      </c>
-      <c r="N60" s="13">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="N60" s="13" t="s">
+        <v>437</v>
       </c>
       <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
+      <c r="P60" s="13" t="s">
+        <v>438</v>
+      </c>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
@@ -8577,7 +8732,7 @@
         <v>72</v>
       </c>
       <c r="AB60" s="13" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="AC60" s="14" t="s">
         <v>74</v>
@@ -8590,29 +8745,29 @@
       <c r="AG60" s="13"/>
       <c r="AH60" s="13"/>
       <c r="AI60" s="13"/>
-      <c r="AJ60" s="24"/>
-      <c r="AK60" s="24"/>
-      <c r="AL60" s="24"/>
-      <c r="AM60" s="24"/>
-      <c r="AN60" s="25"/>
-      <c r="AO60" s="29"/>
-      <c r="AP60" s="30"/>
+      <c r="AJ60" s="25"/>
+      <c r="AK60" s="25"/>
+      <c r="AL60" s="25"/>
+      <c r="AM60" s="25"/>
+      <c r="AN60" s="26"/>
+      <c r="AO60" s="30"/>
+      <c r="AP60" s="31"/>
     </row>
-    <row r="61" ht="68" customHeight="1" spans="1:42">
+    <row r="61" ht="55.5" customHeight="1" spans="1:42">
       <c r="A61" s="9" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="D61" s="11"/>
+        <v>442</v>
+      </c>
+      <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="10">
         <v>4</v>
@@ -8624,10 +8779,10 @@
         <v>1</v>
       </c>
       <c r="K61" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="M61" s="10">
         <v>0</v>
@@ -8655,7 +8810,7 @@
         <v>72</v>
       </c>
       <c r="AB61" s="10" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="AC61" s="11" t="s">
         <v>74</v>
@@ -8668,29 +8823,29 @@
       <c r="AG61" s="10"/>
       <c r="AH61" s="10"/>
       <c r="AI61" s="10"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="22"/>
-      <c r="AL61" s="22"/>
-      <c r="AM61" s="22"/>
-      <c r="AN61" s="23"/>
-      <c r="AO61" s="29"/>
-      <c r="AP61" s="30"/>
+      <c r="AJ61" s="23"/>
+      <c r="AK61" s="23"/>
+      <c r="AL61" s="23"/>
+      <c r="AM61" s="23"/>
+      <c r="AN61" s="24"/>
+      <c r="AO61" s="30"/>
+      <c r="AP61" s="31"/>
     </row>
-    <row r="62" ht="101" customHeight="1" spans="1:42">
+    <row r="62" ht="72" customHeight="1" spans="1:42">
       <c r="A62" s="12" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="D62" s="14"/>
+        <v>446</v>
+      </c>
+      <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
-      <c r="G62" s="13">
-        <v>1</v>
+      <c r="G62" s="10">
+        <v>0</v>
       </c>
       <c r="H62" s="13">
         <v>4</v>
@@ -8702,10 +8857,10 @@
         <v>1</v>
       </c>
       <c r="K62" s="19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L62" s="14" t="s">
-        <v>306</v>
+        <v>447</v>
       </c>
       <c r="M62" s="13">
         <v>0</v>
@@ -8714,10 +8869,18 @@
         <v>0</v>
       </c>
       <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
+      <c r="P62" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q62" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="R62" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="S62" s="13" t="s">
+        <v>314</v>
+      </c>
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
@@ -8733,7 +8896,7 @@
         <v>72</v>
       </c>
       <c r="AB62" s="13" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="AC62" s="14" t="s">
         <v>74</v>
@@ -8746,29 +8909,29 @@
       <c r="AG62" s="13"/>
       <c r="AH62" s="13"/>
       <c r="AI62" s="13"/>
-      <c r="AJ62" s="24"/>
-      <c r="AK62" s="24"/>
-      <c r="AL62" s="24"/>
-      <c r="AM62" s="24"/>
-      <c r="AN62" s="25"/>
-      <c r="AO62" s="29"/>
-      <c r="AP62" s="30"/>
+      <c r="AJ62" s="25"/>
+      <c r="AK62" s="25"/>
+      <c r="AL62" s="25"/>
+      <c r="AM62" s="25"/>
+      <c r="AN62" s="26"/>
+      <c r="AO62" s="30"/>
+      <c r="AP62" s="31"/>
     </row>
-    <row r="63" ht="101" customHeight="1" spans="1:42">
+    <row r="63" ht="72" customHeight="1" spans="1:42">
       <c r="A63" s="9" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="D63" s="11"/>
+        <v>453</v>
+      </c>
+      <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="10">
         <v>4</v>
@@ -8780,10 +8943,10 @@
         <v>1</v>
       </c>
       <c r="K63" s="18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>306</v>
+        <v>454</v>
       </c>
       <c r="M63" s="10">
         <v>0</v>
@@ -8792,10 +8955,18 @@
         <v>0</v>
       </c>
       <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
+      <c r="P63" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q63" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="R63" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="S63" s="10" t="s">
+        <v>314</v>
+      </c>
       <c r="T63" s="10"/>
       <c r="U63" s="10"/>
       <c r="V63" s="10"/>
@@ -8811,7 +8982,7 @@
         <v>72</v>
       </c>
       <c r="AB63" s="10" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="AC63" s="11" t="s">
         <v>74</v>
@@ -8824,29 +8995,29 @@
       <c r="AG63" s="10"/>
       <c r="AH63" s="10"/>
       <c r="AI63" s="10"/>
-      <c r="AJ63" s="22"/>
-      <c r="AK63" s="22"/>
-      <c r="AL63" s="22"/>
-      <c r="AM63" s="22"/>
-      <c r="AN63" s="23"/>
-      <c r="AO63" s="29"/>
-      <c r="AP63" s="30"/>
+      <c r="AJ63" s="23"/>
+      <c r="AK63" s="23"/>
+      <c r="AL63" s="23"/>
+      <c r="AM63" s="23"/>
+      <c r="AN63" s="24"/>
+      <c r="AO63" s="30"/>
+      <c r="AP63" s="31"/>
     </row>
-    <row r="64" ht="101" customHeight="1" spans="1:42">
+    <row r="64" ht="88.5" customHeight="1" spans="1:42">
       <c r="A64" s="12" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="D64" s="14"/>
+        <v>458</v>
+      </c>
+      <c r="D64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
-      <c r="G64" s="13">
-        <v>1</v>
+      <c r="G64" s="10">
+        <v>0</v>
       </c>
       <c r="H64" s="13">
         <v>4</v>
@@ -8858,22 +9029,30 @@
         <v>1</v>
       </c>
       <c r="K64" s="19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>306</v>
+        <v>459</v>
       </c>
       <c r="M64" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N64" s="13">
         <v>0</v>
       </c>
       <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
+      <c r="P64" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q64" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="R64" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="S64" s="13" t="s">
+        <v>314</v>
+      </c>
       <c r="T64" s="13"/>
       <c r="U64" s="13"/>
       <c r="V64" s="13"/>
@@ -8889,7 +9068,7 @@
         <v>72</v>
       </c>
       <c r="AB64" s="13" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="AC64" s="14" t="s">
         <v>74</v>
@@ -8902,29 +9081,29 @@
       <c r="AG64" s="13"/>
       <c r="AH64" s="13"/>
       <c r="AI64" s="13"/>
-      <c r="AJ64" s="24"/>
-      <c r="AK64" s="24"/>
-      <c r="AL64" s="24"/>
-      <c r="AM64" s="24"/>
-      <c r="AN64" s="25"/>
-      <c r="AO64" s="29"/>
-      <c r="AP64" s="30"/>
+      <c r="AJ64" s="25"/>
+      <c r="AK64" s="25"/>
+      <c r="AL64" s="25"/>
+      <c r="AM64" s="25"/>
+      <c r="AN64" s="26"/>
+      <c r="AO64" s="30"/>
+      <c r="AP64" s="31"/>
     </row>
-    <row r="65" ht="117.5" customHeight="1" spans="1:42">
+    <row r="65" ht="88.5" customHeight="1" spans="1:42">
       <c r="A65" s="9" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="D65" s="11"/>
+        <v>466</v>
+      </c>
+      <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="10">
         <v>4</v>
@@ -8939,18 +9118,24 @@
         <v>0</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>306</v>
+        <v>467</v>
       </c>
       <c r="M65" s="10">
-        <v>0</v>
-      </c>
-      <c r="N65" s="10">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
+      <c r="P65" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q65" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="R65" s="10" t="s">
+        <v>469</v>
+      </c>
       <c r="S65" s="10"/>
       <c r="T65" s="10"/>
       <c r="U65" s="10"/>
@@ -8967,7 +9152,7 @@
         <v>72</v>
       </c>
       <c r="AB65" s="10" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="AC65" s="11" t="s">
         <v>74</v>
@@ -8980,29 +9165,29 @@
       <c r="AG65" s="10"/>
       <c r="AH65" s="10"/>
       <c r="AI65" s="10"/>
-      <c r="AJ65" s="22"/>
-      <c r="AK65" s="22"/>
-      <c r="AL65" s="22"/>
-      <c r="AM65" s="22"/>
-      <c r="AN65" s="23"/>
-      <c r="AO65" s="29"/>
-      <c r="AP65" s="30"/>
+      <c r="AJ65" s="23"/>
+      <c r="AK65" s="23"/>
+      <c r="AL65" s="23"/>
+      <c r="AM65" s="23"/>
+      <c r="AN65" s="24"/>
+      <c r="AO65" s="30"/>
+      <c r="AP65" s="31"/>
     </row>
-    <row r="66" ht="84.5" customHeight="1" spans="1:42">
+    <row r="66" ht="66" spans="1:42">
       <c r="A66" s="12" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="D66" s="14"/>
+        <v>473</v>
+      </c>
+      <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
-      <c r="G66" s="13">
-        <v>1</v>
+      <c r="G66" s="10">
+        <v>0</v>
       </c>
       <c r="H66" s="13">
         <v>4</v>
@@ -9017,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>306</v>
+        <v>467</v>
       </c>
       <c r="M66" s="13">
         <v>0</v>
@@ -9026,7 +9211,9 @@
         <v>0</v>
       </c>
       <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
+      <c r="P66" s="13" t="s">
+        <v>474</v>
+      </c>
       <c r="Q66" s="13"/>
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
@@ -9045,7 +9232,7 @@
         <v>72</v>
       </c>
       <c r="AB66" s="13" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="AC66" s="14" t="s">
         <v>74</v>
@@ -9058,29 +9245,29 @@
       <c r="AG66" s="13"/>
       <c r="AH66" s="13"/>
       <c r="AI66" s="13"/>
-      <c r="AJ66" s="24"/>
-      <c r="AK66" s="24"/>
-      <c r="AL66" s="24"/>
-      <c r="AM66" s="24"/>
-      <c r="AN66" s="25"/>
-      <c r="AO66" s="29"/>
-      <c r="AP66" s="30"/>
+      <c r="AJ66" s="25"/>
+      <c r="AK66" s="25"/>
+      <c r="AL66" s="25"/>
+      <c r="AM66" s="25"/>
+      <c r="AN66" s="26"/>
+      <c r="AO66" s="30"/>
+      <c r="AP66" s="31"/>
     </row>
-    <row r="67" ht="51.5" customHeight="1" spans="1:42">
+    <row r="67" ht="105" customHeight="1" spans="1:42">
       <c r="A67" s="9" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="D67" s="11"/>
+        <v>478</v>
+      </c>
+      <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="10">
         <v>4</v>
@@ -9092,21 +9279,27 @@
         <v>1</v>
       </c>
       <c r="K67" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>306</v>
+        <v>479</v>
       </c>
       <c r="M67" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N67" s="10">
         <v>0</v>
       </c>
       <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
+      <c r="P67" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q67" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="R67" s="10" t="s">
+        <v>482</v>
+      </c>
       <c r="S67" s="10"/>
       <c r="T67" s="10"/>
       <c r="U67" s="10"/>
@@ -9123,7 +9316,7 @@
         <v>72</v>
       </c>
       <c r="AB67" s="10" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="AC67" s="11" t="s">
         <v>74</v>
@@ -9136,29 +9329,29 @@
       <c r="AG67" s="10"/>
       <c r="AH67" s="10"/>
       <c r="AI67" s="10"/>
-      <c r="AJ67" s="22"/>
-      <c r="AK67" s="22"/>
-      <c r="AL67" s="22"/>
-      <c r="AM67" s="22"/>
-      <c r="AN67" s="23"/>
-      <c r="AO67" s="29"/>
-      <c r="AP67" s="30"/>
+      <c r="AJ67" s="23"/>
+      <c r="AK67" s="23"/>
+      <c r="AL67" s="23"/>
+      <c r="AM67" s="23"/>
+      <c r="AN67" s="24"/>
+      <c r="AO67" s="30"/>
+      <c r="AP67" s="31"/>
     </row>
-    <row r="68" ht="51.5" customHeight="1" spans="1:42">
+    <row r="68" ht="88.5" customHeight="1" spans="1:42">
       <c r="A68" s="12" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="D68" s="14"/>
+        <v>486</v>
+      </c>
+      <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
-      <c r="G68" s="13">
-        <v>1</v>
+      <c r="G68" s="10">
+        <v>0</v>
       </c>
       <c r="H68" s="13">
         <v>4</v>
@@ -9173,10 +9366,10 @@
         <v>0</v>
       </c>
       <c r="L68" s="14" t="s">
-        <v>306</v>
+        <v>487</v>
       </c>
       <c r="M68" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N68" s="13">
         <v>0</v>
@@ -9201,7 +9394,7 @@
         <v>72</v>
       </c>
       <c r="AB68" s="13" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="AC68" s="14" t="s">
         <v>74</v>
@@ -9214,29 +9407,29 @@
       <c r="AG68" s="13"/>
       <c r="AH68" s="13"/>
       <c r="AI68" s="13"/>
-      <c r="AJ68" s="24"/>
-      <c r="AK68" s="24"/>
-      <c r="AL68" s="24"/>
-      <c r="AM68" s="24"/>
-      <c r="AN68" s="25"/>
-      <c r="AO68" s="29"/>
-      <c r="AP68" s="30"/>
+      <c r="AJ68" s="25"/>
+      <c r="AK68" s="25"/>
+      <c r="AL68" s="25"/>
+      <c r="AM68" s="25"/>
+      <c r="AN68" s="26"/>
+      <c r="AO68" s="30"/>
+      <c r="AP68" s="31"/>
     </row>
-    <row r="69" ht="51.5" customHeight="1" spans="1:42">
+    <row r="69" ht="55.5" customHeight="1" spans="1:42">
       <c r="A69" s="9" t="s">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="D69" s="11"/>
+        <v>491</v>
+      </c>
+      <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="10">
         <v>4</v>
@@ -9251,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>306</v>
+        <v>492</v>
       </c>
       <c r="M69" s="10">
         <v>0</v>
@@ -9279,7 +9472,7 @@
         <v>72</v>
       </c>
       <c r="AB69" s="10" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="AC69" s="11" t="s">
         <v>74</v>
@@ -9292,29 +9485,29 @@
       <c r="AG69" s="10"/>
       <c r="AH69" s="10"/>
       <c r="AI69" s="10"/>
-      <c r="AJ69" s="22"/>
-      <c r="AK69" s="22"/>
-      <c r="AL69" s="22"/>
-      <c r="AM69" s="22"/>
-      <c r="AN69" s="23"/>
-      <c r="AO69" s="29"/>
-      <c r="AP69" s="30"/>
+      <c r="AJ69" s="23"/>
+      <c r="AK69" s="23"/>
+      <c r="AL69" s="23"/>
+      <c r="AM69" s="23"/>
+      <c r="AN69" s="24"/>
+      <c r="AO69" s="30"/>
+      <c r="AP69" s="31"/>
     </row>
-    <row r="70" ht="51.5" customHeight="1" spans="1:42">
+    <row r="70" ht="105" customHeight="1" spans="1:42">
       <c r="A70" s="12" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="D70" s="14"/>
+        <v>496</v>
+      </c>
+      <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
-      <c r="G70" s="13">
-        <v>1</v>
+      <c r="G70" s="10">
+        <v>0</v>
       </c>
       <c r="H70" s="13">
         <v>4</v>
@@ -9326,10 +9519,10 @@
         <v>1</v>
       </c>
       <c r="K70" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>306</v>
+        <v>497</v>
       </c>
       <c r="M70" s="13">
         <v>0</v>
@@ -9357,7 +9550,7 @@
         <v>72</v>
       </c>
       <c r="AB70" s="13" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="AC70" s="14" t="s">
         <v>74</v>
@@ -9370,29 +9563,29 @@
       <c r="AG70" s="13"/>
       <c r="AH70" s="13"/>
       <c r="AI70" s="13"/>
-      <c r="AJ70" s="24"/>
-      <c r="AK70" s="24"/>
-      <c r="AL70" s="24"/>
-      <c r="AM70" s="24"/>
-      <c r="AN70" s="25"/>
-      <c r="AO70" s="29"/>
-      <c r="AP70" s="30"/>
+      <c r="AJ70" s="25"/>
+      <c r="AK70" s="25"/>
+      <c r="AL70" s="25"/>
+      <c r="AM70" s="25"/>
+      <c r="AN70" s="26"/>
+      <c r="AO70" s="30"/>
+      <c r="AP70" s="31"/>
     </row>
-    <row r="71" ht="51.5" customHeight="1" spans="1:42">
+    <row r="71" ht="105" customHeight="1" spans="1:42">
       <c r="A71" s="9" t="s">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="D71" s="11"/>
+        <v>501</v>
+      </c>
+      <c r="D71" s="10"/>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" s="10">
         <v>4</v>
@@ -9404,10 +9597,10 @@
         <v>1</v>
       </c>
       <c r="K71" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L71" s="11" t="s">
-        <v>306</v>
+        <v>502</v>
       </c>
       <c r="M71" s="10">
         <v>0</v>
@@ -9435,7 +9628,7 @@
         <v>72</v>
       </c>
       <c r="AB71" s="10" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="AC71" s="11" t="s">
         <v>74</v>
@@ -9448,29 +9641,29 @@
       <c r="AG71" s="10"/>
       <c r="AH71" s="10"/>
       <c r="AI71" s="10"/>
-      <c r="AJ71" s="22"/>
-      <c r="AK71" s="22"/>
-      <c r="AL71" s="22"/>
-      <c r="AM71" s="22"/>
-      <c r="AN71" s="23"/>
-      <c r="AO71" s="29"/>
-      <c r="AP71" s="30"/>
+      <c r="AJ71" s="23"/>
+      <c r="AK71" s="23"/>
+      <c r="AL71" s="23"/>
+      <c r="AM71" s="23"/>
+      <c r="AN71" s="24"/>
+      <c r="AO71" s="30"/>
+      <c r="AP71" s="31"/>
     </row>
-    <row r="72" ht="51.5" customHeight="1" spans="1:42">
+    <row r="72" ht="121.5" customHeight="1" spans="1:42">
       <c r="A72" s="12" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="D72" s="14"/>
+        <v>506</v>
+      </c>
+      <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
-      <c r="G72" s="13">
-        <v>1</v>
+      <c r="G72" s="10">
+        <v>0</v>
       </c>
       <c r="H72" s="13">
         <v>4</v>
@@ -9482,10 +9675,10 @@
         <v>1</v>
       </c>
       <c r="K72" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L72" s="14" t="s">
-        <v>306</v>
+        <v>507</v>
       </c>
       <c r="M72" s="13">
         <v>0</v>
@@ -9513,7 +9706,7 @@
         <v>72</v>
       </c>
       <c r="AB72" s="13" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
       <c r="AC72" s="14" t="s">
         <v>74</v>
@@ -9526,29 +9719,29 @@
       <c r="AG72" s="13"/>
       <c r="AH72" s="13"/>
       <c r="AI72" s="13"/>
-      <c r="AJ72" s="24"/>
-      <c r="AK72" s="24"/>
-      <c r="AL72" s="24"/>
-      <c r="AM72" s="24"/>
-      <c r="AN72" s="25"/>
-      <c r="AO72" s="29"/>
-      <c r="AP72" s="30"/>
+      <c r="AJ72" s="25"/>
+      <c r="AK72" s="25"/>
+      <c r="AL72" s="25"/>
+      <c r="AM72" s="25"/>
+      <c r="AN72" s="26"/>
+      <c r="AO72" s="30"/>
+      <c r="AP72" s="31"/>
     </row>
-    <row r="73" ht="51.5" customHeight="1" spans="1:42">
+    <row r="73" ht="105" customHeight="1" spans="1:42">
       <c r="A73" s="9" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>468</v>
+        <v>510</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="D73" s="11"/>
+        <v>511</v>
+      </c>
+      <c r="D73" s="10"/>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="10">
         <v>4</v>
@@ -9560,10 +9753,10 @@
         <v>1</v>
       </c>
       <c r="K73" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L73" s="11" t="s">
-        <v>306</v>
+        <v>512</v>
       </c>
       <c r="M73" s="10">
         <v>0</v>
@@ -9591,7 +9784,7 @@
         <v>72</v>
       </c>
       <c r="AB73" s="10" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="AC73" s="11" t="s">
         <v>74</v>
@@ -9604,29 +9797,29 @@
       <c r="AG73" s="10"/>
       <c r="AH73" s="10"/>
       <c r="AI73" s="10"/>
-      <c r="AJ73" s="22"/>
-      <c r="AK73" s="22"/>
-      <c r="AL73" s="22"/>
-      <c r="AM73" s="22"/>
-      <c r="AN73" s="23"/>
-      <c r="AO73" s="29"/>
-      <c r="AP73" s="30"/>
+      <c r="AJ73" s="23"/>
+      <c r="AK73" s="23"/>
+      <c r="AL73" s="23"/>
+      <c r="AM73" s="23"/>
+      <c r="AN73" s="24"/>
+      <c r="AO73" s="30"/>
+      <c r="AP73" s="31"/>
     </row>
-    <row r="74" ht="51.5" customHeight="1" spans="1:42">
+    <row r="74" ht="55.5" customHeight="1" spans="1:42">
       <c r="A74" s="12" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="D74" s="14"/>
+        <v>516</v>
+      </c>
+      <c r="D74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
-      <c r="G74" s="13">
-        <v>1</v>
+      <c r="G74" s="10">
+        <v>0</v>
       </c>
       <c r="H74" s="13">
         <v>4</v>
@@ -9638,10 +9831,10 @@
         <v>1</v>
       </c>
       <c r="K74" s="19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>306</v>
+        <v>517</v>
       </c>
       <c r="M74" s="13">
         <v>0</v>
@@ -9669,7 +9862,7 @@
         <v>72</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="AC74" s="14" t="s">
         <v>74</v>
@@ -9682,29 +9875,29 @@
       <c r="AG74" s="13"/>
       <c r="AH74" s="13"/>
       <c r="AI74" s="13"/>
-      <c r="AJ74" s="24"/>
-      <c r="AK74" s="24"/>
-      <c r="AL74" s="24"/>
-      <c r="AM74" s="24"/>
-      <c r="AN74" s="25"/>
-      <c r="AO74" s="29"/>
-      <c r="AP74" s="30"/>
+      <c r="AJ74" s="25"/>
+      <c r="AK74" s="25"/>
+      <c r="AL74" s="25"/>
+      <c r="AM74" s="25"/>
+      <c r="AN74" s="26"/>
+      <c r="AO74" s="30"/>
+      <c r="AP74" s="31"/>
     </row>
-    <row r="75" ht="51.5" customHeight="1" spans="1:42">
+    <row r="75" ht="88.5" customHeight="1" spans="1:42">
       <c r="A75" s="9" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="D75" s="11"/>
+        <v>521</v>
+      </c>
+      <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="10">
         <v>4</v>
@@ -9716,10 +9909,10 @@
         <v>1</v>
       </c>
       <c r="K75" s="18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>306</v>
+        <v>522</v>
       </c>
       <c r="M75" s="10">
         <v>0</v>
@@ -9747,7 +9940,7 @@
         <v>72</v>
       </c>
       <c r="AB75" s="10" t="s">
-        <v>478</v>
+        <v>523</v>
       </c>
       <c r="AC75" s="11" t="s">
         <v>74</v>
@@ -9760,29 +9953,29 @@
       <c r="AG75" s="10"/>
       <c r="AH75" s="10"/>
       <c r="AI75" s="10"/>
-      <c r="AJ75" s="22"/>
-      <c r="AK75" s="22"/>
-      <c r="AL75" s="22"/>
-      <c r="AM75" s="22"/>
-      <c r="AN75" s="23"/>
-      <c r="AO75" s="29"/>
-      <c r="AP75" s="30"/>
+      <c r="AJ75" s="23"/>
+      <c r="AK75" s="23"/>
+      <c r="AL75" s="23"/>
+      <c r="AM75" s="23"/>
+      <c r="AN75" s="24"/>
+      <c r="AO75" s="30"/>
+      <c r="AP75" s="31"/>
     </row>
-    <row r="76" ht="51.5" customHeight="1" spans="1:42">
+    <row r="76" ht="105" customHeight="1" spans="1:42">
       <c r="A76" s="12" t="s">
-        <v>479</v>
+        <v>524</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="D76" s="14"/>
+        <v>526</v>
+      </c>
+      <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
-      <c r="G76" s="13">
-        <v>1</v>
+      <c r="G76" s="10">
+        <v>0</v>
       </c>
       <c r="H76" s="13">
         <v>4</v>
@@ -9794,10 +9987,10 @@
         <v>1</v>
       </c>
       <c r="K76" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L76" s="14" t="s">
-        <v>306</v>
+        <v>527</v>
       </c>
       <c r="M76" s="13">
         <v>0</v>
@@ -9825,7 +10018,7 @@
         <v>72</v>
       </c>
       <c r="AB76" s="13" t="s">
-        <v>482</v>
+        <v>528</v>
       </c>
       <c r="AC76" s="14" t="s">
         <v>74</v>
@@ -9838,29 +10031,29 @@
       <c r="AG76" s="13"/>
       <c r="AH76" s="13"/>
       <c r="AI76" s="13"/>
-      <c r="AJ76" s="24"/>
-      <c r="AK76" s="24"/>
-      <c r="AL76" s="24"/>
-      <c r="AM76" s="24"/>
-      <c r="AN76" s="25"/>
-      <c r="AO76" s="29"/>
-      <c r="AP76" s="30"/>
+      <c r="AJ76" s="25"/>
+      <c r="AK76" s="25"/>
+      <c r="AL76" s="25"/>
+      <c r="AM76" s="25"/>
+      <c r="AN76" s="26"/>
+      <c r="AO76" s="30"/>
+      <c r="AP76" s="31"/>
     </row>
-    <row r="77" ht="51.5" customHeight="1" spans="1:42">
+    <row r="77" ht="105" customHeight="1" spans="1:42">
       <c r="A77" s="9" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>484</v>
+        <v>530</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="D77" s="11"/>
+        <v>531</v>
+      </c>
+      <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
       <c r="G77" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="10">
         <v>4</v>
@@ -9872,10 +10065,10 @@
         <v>1</v>
       </c>
       <c r="K77" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>306</v>
+        <v>532</v>
       </c>
       <c r="M77" s="10">
         <v>0</v>
@@ -9903,7 +10096,7 @@
         <v>72</v>
       </c>
       <c r="AB77" s="10" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
       <c r="AC77" s="11" t="s">
         <v>74</v>
@@ -9916,29 +10109,29 @@
       <c r="AG77" s="10"/>
       <c r="AH77" s="10"/>
       <c r="AI77" s="10"/>
-      <c r="AJ77" s="22"/>
-      <c r="AK77" s="22"/>
-      <c r="AL77" s="22"/>
-      <c r="AM77" s="22"/>
-      <c r="AN77" s="23"/>
-      <c r="AO77" s="29"/>
-      <c r="AP77" s="30"/>
+      <c r="AJ77" s="23"/>
+      <c r="AK77" s="23"/>
+      <c r="AL77" s="23"/>
+      <c r="AM77" s="23"/>
+      <c r="AN77" s="24"/>
+      <c r="AO77" s="30"/>
+      <c r="AP77" s="31"/>
     </row>
-    <row r="78" ht="51.5" customHeight="1" spans="1:42">
+    <row r="78" ht="88.5" customHeight="1" spans="1:42">
       <c r="A78" s="12" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>488</v>
+        <v>535</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="D78" s="14"/>
+        <v>536</v>
+      </c>
+      <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
-      <c r="G78" s="13">
-        <v>1</v>
+      <c r="G78" s="10">
+        <v>0</v>
       </c>
       <c r="H78" s="13">
         <v>4</v>
@@ -9950,10 +10143,10 @@
         <v>1</v>
       </c>
       <c r="K78" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L78" s="14" t="s">
-        <v>306</v>
+        <v>537</v>
       </c>
       <c r="M78" s="13">
         <v>0</v>
@@ -9981,7 +10174,7 @@
         <v>72</v>
       </c>
       <c r="AB78" s="13" t="s">
-        <v>490</v>
+        <v>538</v>
       </c>
       <c r="AC78" s="14" t="s">
         <v>74</v>
@@ -9994,29 +10187,29 @@
       <c r="AG78" s="13"/>
       <c r="AH78" s="13"/>
       <c r="AI78" s="13"/>
-      <c r="AJ78" s="24"/>
-      <c r="AK78" s="24"/>
-      <c r="AL78" s="24"/>
-      <c r="AM78" s="24"/>
-      <c r="AN78" s="25"/>
-      <c r="AO78" s="29"/>
-      <c r="AP78" s="30"/>
+      <c r="AJ78" s="25"/>
+      <c r="AK78" s="25"/>
+      <c r="AL78" s="25"/>
+      <c r="AM78" s="25"/>
+      <c r="AN78" s="26"/>
+      <c r="AO78" s="30"/>
+      <c r="AP78" s="31"/>
     </row>
-    <row r="79" ht="51.5" customHeight="1" spans="1:42">
+    <row r="79" ht="72" customHeight="1" spans="1:42">
       <c r="A79" s="9" t="s">
-        <v>491</v>
+        <v>539</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>492</v>
+        <v>540</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="D79" s="11"/>
+        <v>541</v>
+      </c>
+      <c r="D79" s="10"/>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
       <c r="G79" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="10">
         <v>4</v>
@@ -10031,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="M79" s="10">
         <v>0</v>
@@ -10059,7 +10252,7 @@
         <v>72</v>
       </c>
       <c r="AB79" s="10" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="AC79" s="11" t="s">
         <v>74</v>
@@ -10072,29 +10265,29 @@
       <c r="AG79" s="10"/>
       <c r="AH79" s="10"/>
       <c r="AI79" s="10"/>
-      <c r="AJ79" s="22"/>
-      <c r="AK79" s="22"/>
-      <c r="AL79" s="22"/>
-      <c r="AM79" s="22"/>
-      <c r="AN79" s="23"/>
-      <c r="AO79" s="29"/>
-      <c r="AP79" s="30"/>
+      <c r="AJ79" s="23"/>
+      <c r="AK79" s="23"/>
+      <c r="AL79" s="23"/>
+      <c r="AM79" s="23"/>
+      <c r="AN79" s="24"/>
+      <c r="AO79" s="30"/>
+      <c r="AP79" s="31"/>
     </row>
-    <row r="80" ht="51.5" customHeight="1" spans="1:42">
+    <row r="80" ht="105" customHeight="1" spans="1:42">
       <c r="A80" s="12" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="D80" s="14"/>
+        <v>546</v>
+      </c>
+      <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
-      <c r="G80" s="13">
-        <v>1</v>
+      <c r="G80" s="10">
+        <v>0</v>
       </c>
       <c r="H80" s="13">
         <v>4</v>
@@ -10106,10 +10299,10 @@
         <v>1</v>
       </c>
       <c r="K80" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L80" s="14" t="s">
-        <v>306</v>
+        <v>547</v>
       </c>
       <c r="M80" s="13">
         <v>0</v>
@@ -10137,7 +10330,7 @@
         <v>72</v>
       </c>
       <c r="AB80" s="13" t="s">
-        <v>498</v>
+        <v>548</v>
       </c>
       <c r="AC80" s="14" t="s">
         <v>74</v>
@@ -10150,29 +10343,29 @@
       <c r="AG80" s="13"/>
       <c r="AH80" s="13"/>
       <c r="AI80" s="13"/>
-      <c r="AJ80" s="24"/>
-      <c r="AK80" s="24"/>
-      <c r="AL80" s="24"/>
-      <c r="AM80" s="24"/>
-      <c r="AN80" s="25"/>
-      <c r="AO80" s="29"/>
-      <c r="AP80" s="30"/>
+      <c r="AJ80" s="25"/>
+      <c r="AK80" s="25"/>
+      <c r="AL80" s="25"/>
+      <c r="AM80" s="25"/>
+      <c r="AN80" s="26"/>
+      <c r="AO80" s="30"/>
+      <c r="AP80" s="31"/>
     </row>
-    <row r="81" ht="51.5" customHeight="1" spans="1:42">
+    <row r="81" ht="121.5" customHeight="1" spans="1:42">
       <c r="A81" s="9" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="D81" s="11"/>
+        <v>551</v>
+      </c>
+      <c r="D81" s="10"/>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" s="10">
         <v>4</v>
@@ -10184,10 +10377,10 @@
         <v>1</v>
       </c>
       <c r="K81" s="18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>306</v>
+        <v>552</v>
       </c>
       <c r="M81" s="10">
         <v>0</v>
@@ -10215,7 +10408,7 @@
         <v>72</v>
       </c>
       <c r="AB81" s="10" t="s">
-        <v>502</v>
+        <v>553</v>
       </c>
       <c r="AC81" s="11" t="s">
         <v>74</v>
@@ -10228,29 +10421,29 @@
       <c r="AG81" s="10"/>
       <c r="AH81" s="10"/>
       <c r="AI81" s="10"/>
-      <c r="AJ81" s="22"/>
-      <c r="AK81" s="22"/>
-      <c r="AL81" s="22"/>
-      <c r="AM81" s="22"/>
-      <c r="AN81" s="23"/>
-      <c r="AO81" s="29"/>
-      <c r="AP81" s="30"/>
+      <c r="AJ81" s="23"/>
+      <c r="AK81" s="23"/>
+      <c r="AL81" s="23"/>
+      <c r="AM81" s="23"/>
+      <c r="AN81" s="24"/>
+      <c r="AO81" s="30"/>
+      <c r="AP81" s="31"/>
     </row>
-    <row r="82" ht="51.5" customHeight="1" spans="1:42">
+    <row r="82" ht="121.5" customHeight="1" spans="1:42">
       <c r="A82" s="12" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>504</v>
+        <v>555</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="D82" s="14"/>
+        <v>556</v>
+      </c>
+      <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
-      <c r="G82" s="13">
-        <v>1</v>
+      <c r="G82" s="10">
+        <v>0</v>
       </c>
       <c r="H82" s="13">
         <v>4</v>
@@ -10262,10 +10455,10 @@
         <v>1</v>
       </c>
       <c r="K82" s="19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L82" s="14" t="s">
-        <v>306</v>
+        <v>557</v>
       </c>
       <c r="M82" s="13">
         <v>0</v>
@@ -10293,7 +10486,7 @@
         <v>72</v>
       </c>
       <c r="AB82" s="13" t="s">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="AC82" s="14" t="s">
         <v>74</v>
@@ -10306,29 +10499,29 @@
       <c r="AG82" s="13"/>
       <c r="AH82" s="13"/>
       <c r="AI82" s="13"/>
-      <c r="AJ82" s="24"/>
-      <c r="AK82" s="24"/>
-      <c r="AL82" s="24"/>
-      <c r="AM82" s="24"/>
-      <c r="AN82" s="25"/>
-      <c r="AO82" s="29"/>
-      <c r="AP82" s="30"/>
+      <c r="AJ82" s="25"/>
+      <c r="AK82" s="25"/>
+      <c r="AL82" s="25"/>
+      <c r="AM82" s="25"/>
+      <c r="AN82" s="26"/>
+      <c r="AO82" s="30"/>
+      <c r="AP82" s="31"/>
     </row>
-    <row r="83" ht="51.5" customHeight="1" spans="1:42">
+    <row r="83" ht="121.5" customHeight="1" spans="1:42">
       <c r="A83" s="9" t="s">
-        <v>507</v>
+        <v>559</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>508</v>
+        <v>560</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="D83" s="11"/>
+        <v>561</v>
+      </c>
+      <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="10">
         <v>4</v>
@@ -10340,10 +10533,10 @@
         <v>1</v>
       </c>
       <c r="K83" s="18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>306</v>
+        <v>557</v>
       </c>
       <c r="M83" s="10">
         <v>0</v>
@@ -10371,7 +10564,7 @@
         <v>72</v>
       </c>
       <c r="AB83" s="10" t="s">
-        <v>510</v>
+        <v>562</v>
       </c>
       <c r="AC83" s="11" t="s">
         <v>74</v>
@@ -10384,29 +10577,29 @@
       <c r="AG83" s="10"/>
       <c r="AH83" s="10"/>
       <c r="AI83" s="10"/>
-      <c r="AJ83" s="22"/>
-      <c r="AK83" s="22"/>
-      <c r="AL83" s="22"/>
-      <c r="AM83" s="22"/>
-      <c r="AN83" s="23"/>
-      <c r="AO83" s="29"/>
-      <c r="AP83" s="30"/>
+      <c r="AJ83" s="23"/>
+      <c r="AK83" s="23"/>
+      <c r="AL83" s="23"/>
+      <c r="AM83" s="23"/>
+      <c r="AN83" s="24"/>
+      <c r="AO83" s="30"/>
+      <c r="AP83" s="31"/>
     </row>
-    <row r="84" ht="51.5" customHeight="1" spans="1:42">
+    <row r="84" ht="105" customHeight="1" spans="1:42">
       <c r="A84" s="12" t="s">
-        <v>511</v>
+        <v>563</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="D84" s="14"/>
+        <v>565</v>
+      </c>
+      <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
-      <c r="G84" s="13">
-        <v>1</v>
+      <c r="G84" s="10">
+        <v>0</v>
       </c>
       <c r="H84" s="13">
         <v>4</v>
@@ -10418,10 +10611,10 @@
         <v>1</v>
       </c>
       <c r="K84" s="19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L84" s="14" t="s">
-        <v>306</v>
+        <v>566</v>
       </c>
       <c r="M84" s="13">
         <v>0</v>
@@ -10449,7 +10642,7 @@
         <v>72</v>
       </c>
       <c r="AB84" s="13" t="s">
-        <v>510</v>
+        <v>562</v>
       </c>
       <c r="AC84" s="14" t="s">
         <v>74</v>
@@ -10462,301 +10655,301 @@
       <c r="AG84" s="13"/>
       <c r="AH84" s="13"/>
       <c r="AI84" s="13"/>
-      <c r="AJ84" s="24"/>
-      <c r="AK84" s="24"/>
-      <c r="AL84" s="24"/>
-      <c r="AM84" s="24"/>
-      <c r="AN84" s="25"/>
-      <c r="AO84" s="29"/>
-      <c r="AP84" s="30"/>
+      <c r="AJ84" s="25"/>
+      <c r="AK84" s="25"/>
+      <c r="AL84" s="25"/>
+      <c r="AM84" s="25"/>
+      <c r="AN84" s="26"/>
+      <c r="AO84" s="30"/>
+      <c r="AP84" s="31"/>
     </row>
-    <row r="85" ht="51.5" customHeight="1" spans="1:42">
-      <c r="A85" s="31" t="s">
-        <v>513</v>
-      </c>
-      <c r="B85" s="32" t="s">
-        <v>508</v>
-      </c>
-      <c r="C85" s="33"/>
+    <row r="85" ht="39" customHeight="1" spans="1:42">
+      <c r="A85" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="C85" s="34"/>
       <c r="D85" s="33"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32">
-        <v>1</v>
-      </c>
-      <c r="H85" s="32">
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33">
+        <v>1</v>
+      </c>
+      <c r="H85" s="33">
         <v>4</v>
       </c>
-      <c r="I85" s="32">
+      <c r="I85" s="33">
         <v>100</v>
       </c>
-      <c r="J85" s="32">
-        <v>1</v>
-      </c>
-      <c r="K85" s="42">
-        <v>0</v>
-      </c>
-      <c r="L85" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="M85" s="32">
-        <v>0</v>
-      </c>
-      <c r="N85" s="32">
-        <v>0</v>
-      </c>
-      <c r="O85" s="32"/>
-      <c r="P85" s="32"/>
-      <c r="Q85" s="32"/>
-      <c r="R85" s="32"/>
-      <c r="S85" s="32"/>
-      <c r="T85" s="32"/>
-      <c r="U85" s="32"/>
-      <c r="V85" s="32"/>
-      <c r="W85" s="32"/>
-      <c r="X85" s="32"/>
-      <c r="Y85" s="42">
-        <v>0</v>
-      </c>
-      <c r="Z85" s="42">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="32" t="s">
+      <c r="J85" s="33">
+        <v>1</v>
+      </c>
+      <c r="K85" s="43">
+        <v>0</v>
+      </c>
+      <c r="L85" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="M85" s="33">
+        <v>0</v>
+      </c>
+      <c r="N85" s="33">
+        <v>0</v>
+      </c>
+      <c r="O85" s="33"/>
+      <c r="P85" s="33"/>
+      <c r="Q85" s="33"/>
+      <c r="R85" s="33"/>
+      <c r="S85" s="33"/>
+      <c r="T85" s="33"/>
+      <c r="U85" s="33"/>
+      <c r="V85" s="33"/>
+      <c r="W85" s="33"/>
+      <c r="X85" s="33"/>
+      <c r="Y85" s="43">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="43">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AB85" s="32" t="s">
-        <v>510</v>
-      </c>
-      <c r="AC85" s="33" t="s">
+      <c r="AB85" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC85" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="AD85" s="32">
-        <v>1</v>
-      </c>
-      <c r="AE85" s="42"/>
-      <c r="AF85" s="42"/>
-      <c r="AG85" s="32"/>
-      <c r="AH85" s="32"/>
-      <c r="AI85" s="32"/>
-      <c r="AJ85" s="45"/>
-      <c r="AK85" s="45"/>
-      <c r="AL85" s="45"/>
-      <c r="AM85" s="45"/>
-      <c r="AN85" s="46"/>
-      <c r="AO85" s="29"/>
-      <c r="AP85" s="30"/>
+      <c r="AD85" s="33">
+        <v>1</v>
+      </c>
+      <c r="AE85" s="43"/>
+      <c r="AF85" s="43"/>
+      <c r="AG85" s="33"/>
+      <c r="AH85" s="33"/>
+      <c r="AI85" s="33"/>
+      <c r="AJ85" s="46"/>
+      <c r="AK85" s="46"/>
+      <c r="AL85" s="46"/>
+      <c r="AM85" s="46"/>
+      <c r="AN85" s="47"/>
+      <c r="AO85" s="30"/>
+      <c r="AP85" s="31"/>
     </row>
     <row r="86" ht="51.5" customHeight="1" spans="1:42">
-      <c r="A86" s="34"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="43"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="37"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="37"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="37"/>
-      <c r="X86" s="37"/>
-      <c r="Y86" s="43"/>
-      <c r="Z86" s="43"/>
-      <c r="AA86" s="37"/>
-      <c r="AB86" s="35"/>
-      <c r="AC86" s="36"/>
-      <c r="AD86" s="37"/>
-      <c r="AE86" s="43"/>
-      <c r="AF86" s="43"/>
-      <c r="AG86" s="37"/>
-      <c r="AH86" s="37"/>
-      <c r="AI86" s="37"/>
-      <c r="AJ86" s="47"/>
-      <c r="AK86" s="47"/>
-      <c r="AL86" s="47"/>
-      <c r="AM86" s="47"/>
-      <c r="AN86" s="48"/>
-      <c r="AO86" s="29"/>
-      <c r="AP86" s="30"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="38"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
+      <c r="Q86" s="38"/>
+      <c r="R86" s="38"/>
+      <c r="S86" s="38"/>
+      <c r="T86" s="38"/>
+      <c r="U86" s="38"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="38"/>
+      <c r="X86" s="38"/>
+      <c r="Y86" s="44"/>
+      <c r="Z86" s="44"/>
+      <c r="AA86" s="38"/>
+      <c r="AB86" s="36"/>
+      <c r="AC86" s="37"/>
+      <c r="AD86" s="38"/>
+      <c r="AE86" s="44"/>
+      <c r="AF86" s="44"/>
+      <c r="AG86" s="38"/>
+      <c r="AH86" s="38"/>
+      <c r="AI86" s="38"/>
+      <c r="AJ86" s="48"/>
+      <c r="AK86" s="48"/>
+      <c r="AL86" s="48"/>
+      <c r="AM86" s="48"/>
+      <c r="AN86" s="49"/>
+      <c r="AO86" s="30"/>
+      <c r="AP86" s="31"/>
     </row>
     <row r="87" ht="51.5" customHeight="1" spans="1:42">
-      <c r="A87" s="38"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
-      <c r="Q87" s="41"/>
-      <c r="R87" s="41"/>
-      <c r="S87" s="41"/>
-      <c r="T87" s="41"/>
-      <c r="U87" s="41"/>
-      <c r="V87" s="41"/>
-      <c r="W87" s="41"/>
-      <c r="X87" s="41"/>
-      <c r="Y87" s="44"/>
-      <c r="Z87" s="44"/>
-      <c r="AA87" s="41"/>
-      <c r="AB87" s="39"/>
-      <c r="AC87" s="40"/>
-      <c r="AD87" s="41"/>
-      <c r="AE87" s="44"/>
-      <c r="AF87" s="44"/>
-      <c r="AG87" s="41"/>
-      <c r="AH87" s="41"/>
-      <c r="AI87" s="41"/>
-      <c r="AJ87" s="49"/>
-      <c r="AK87" s="49"/>
-      <c r="AL87" s="49"/>
-      <c r="AM87" s="49"/>
-      <c r="AN87" s="50"/>
-      <c r="AO87" s="29"/>
-      <c r="AP87" s="30"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
+      <c r="Q87" s="42"/>
+      <c r="R87" s="42"/>
+      <c r="S87" s="42"/>
+      <c r="T87" s="42"/>
+      <c r="U87" s="42"/>
+      <c r="V87" s="42"/>
+      <c r="W87" s="42"/>
+      <c r="X87" s="42"/>
+      <c r="Y87" s="45"/>
+      <c r="Z87" s="45"/>
+      <c r="AA87" s="42"/>
+      <c r="AB87" s="40"/>
+      <c r="AC87" s="41"/>
+      <c r="AD87" s="42"/>
+      <c r="AE87" s="45"/>
+      <c r="AF87" s="45"/>
+      <c r="AG87" s="42"/>
+      <c r="AH87" s="42"/>
+      <c r="AI87" s="42"/>
+      <c r="AJ87" s="50"/>
+      <c r="AK87" s="50"/>
+      <c r="AL87" s="50"/>
+      <c r="AM87" s="50"/>
+      <c r="AN87" s="51"/>
+      <c r="AO87" s="30"/>
+      <c r="AP87" s="31"/>
     </row>
     <row r="88" ht="51.5" customHeight="1" spans="1:42">
-      <c r="A88" s="38"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="41"/>
-      <c r="K88" s="44"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="41"/>
-      <c r="N88" s="41"/>
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
-      <c r="Q88" s="41"/>
-      <c r="R88" s="41"/>
-      <c r="S88" s="41"/>
-      <c r="T88" s="41"/>
-      <c r="U88" s="41"/>
-      <c r="V88" s="41"/>
-      <c r="W88" s="41"/>
-      <c r="X88" s="41"/>
-      <c r="Y88" s="44"/>
-      <c r="Z88" s="44"/>
-      <c r="AA88" s="41"/>
-      <c r="AB88" s="39"/>
-      <c r="AC88" s="40"/>
-      <c r="AD88" s="41"/>
-      <c r="AE88" s="44"/>
-      <c r="AF88" s="44"/>
-      <c r="AG88" s="41"/>
-      <c r="AH88" s="41"/>
-      <c r="AI88" s="41"/>
-      <c r="AJ88" s="49"/>
-      <c r="AK88" s="49"/>
-      <c r="AL88" s="49"/>
-      <c r="AM88" s="49"/>
-      <c r="AN88" s="50"/>
-      <c r="AO88" s="29"/>
-      <c r="AP88" s="30"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="45"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="42"/>
+      <c r="R88" s="42"/>
+      <c r="S88" s="42"/>
+      <c r="T88" s="42"/>
+      <c r="U88" s="42"/>
+      <c r="V88" s="42"/>
+      <c r="W88" s="42"/>
+      <c r="X88" s="42"/>
+      <c r="Y88" s="45"/>
+      <c r="Z88" s="45"/>
+      <c r="AA88" s="42"/>
+      <c r="AB88" s="40"/>
+      <c r="AC88" s="41"/>
+      <c r="AD88" s="42"/>
+      <c r="AE88" s="45"/>
+      <c r="AF88" s="45"/>
+      <c r="AG88" s="42"/>
+      <c r="AH88" s="42"/>
+      <c r="AI88" s="42"/>
+      <c r="AJ88" s="50"/>
+      <c r="AK88" s="50"/>
+      <c r="AL88" s="50"/>
+      <c r="AM88" s="50"/>
+      <c r="AN88" s="51"/>
+      <c r="AO88" s="30"/>
+      <c r="AP88" s="31"/>
     </row>
     <row r="89" ht="51.5" customHeight="1" spans="1:42">
-      <c r="A89" s="38"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-      <c r="K89" s="44"/>
-      <c r="L89" s="40"/>
-      <c r="M89" s="41"/>
-      <c r="N89" s="41"/>
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
-      <c r="Q89" s="41"/>
-      <c r="R89" s="41"/>
-      <c r="S89" s="41"/>
-      <c r="T89" s="41"/>
-      <c r="U89" s="41"/>
-      <c r="V89" s="41"/>
-      <c r="W89" s="41"/>
-      <c r="X89" s="41"/>
-      <c r="Y89" s="44"/>
-      <c r="Z89" s="44"/>
-      <c r="AA89" s="41"/>
-      <c r="AB89" s="39"/>
-      <c r="AC89" s="40"/>
-      <c r="AD89" s="41"/>
-      <c r="AE89" s="44"/>
-      <c r="AF89" s="44"/>
-      <c r="AG89" s="41"/>
-      <c r="AH89" s="41"/>
-      <c r="AI89" s="41"/>
-      <c r="AJ89" s="49"/>
-      <c r="AK89" s="49"/>
-      <c r="AL89" s="49"/>
-      <c r="AM89" s="49"/>
-      <c r="AN89" s="50"/>
-      <c r="AO89" s="29"/>
-      <c r="AP89" s="30"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="45"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
+      <c r="O89" s="42"/>
+      <c r="P89" s="42"/>
+      <c r="Q89" s="42"/>
+      <c r="R89" s="42"/>
+      <c r="S89" s="42"/>
+      <c r="T89" s="42"/>
+      <c r="U89" s="42"/>
+      <c r="V89" s="42"/>
+      <c r="W89" s="42"/>
+      <c r="X89" s="42"/>
+      <c r="Y89" s="45"/>
+      <c r="Z89" s="45"/>
+      <c r="AA89" s="42"/>
+      <c r="AB89" s="40"/>
+      <c r="AC89" s="41"/>
+      <c r="AD89" s="42"/>
+      <c r="AE89" s="45"/>
+      <c r="AF89" s="45"/>
+      <c r="AG89" s="42"/>
+      <c r="AH89" s="42"/>
+      <c r="AI89" s="42"/>
+      <c r="AJ89" s="50"/>
+      <c r="AK89" s="50"/>
+      <c r="AL89" s="50"/>
+      <c r="AM89" s="50"/>
+      <c r="AN89" s="51"/>
+      <c r="AO89" s="30"/>
+      <c r="AP89" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP83">
+  <autoFilter ref="A1:AP85">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="arms_t9">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="between" text="arms_t9">
       <formula>NOT(ISERROR(SEARCH("arms_t9",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="arms_t8">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="between" text="arms_t8">
       <formula>NOT(ISERROR(SEARCH("arms_t8",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="arms_t7">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="between" text="arms_t7">
       <formula>NOT(ISERROR(SEARCH("arms_t7",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="arms_t6">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="between" text="arms_t6">
       <formula>NOT(ISERROR(SEARCH("arms_t6",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="between" text="arms_t5">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="between" text="arms_t5">
       <formula>NOT(ISERROR(SEARCH("arms_t5",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="13" operator="between" text="arms_t4">
+    <cfRule type="containsText" dxfId="5" priority="14" operator="between" text="arms_t4">
       <formula>NOT(ISERROR(SEARCH("arms_t4",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="14" operator="between" text="arms_t3">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="between" text="arms_t3">
       <formula>NOT(ISERROR(SEARCH("arms_t3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="15" operator="between" text="arms_t2">
+    <cfRule type="containsText" dxfId="7" priority="16" operator="between" text="arms_t2">
       <formula>NOT(ISERROR(SEARCH("arms_t2",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="16" operator="between" text="arms_t1">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="between" text="arms_t1">
       <formula>NOT(ISERROR(SEARCH("arms_t1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G$1:G$1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10768,7 +10961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H$1:H$1048576">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10778,7 +10971,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I$1:I$1048576">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10787,6 +10980,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K$1:K$1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/excels/abilities/arms.xlsx
+++ b/excels/abilities/arms.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="592">
   <si>
     <t>名字</t>
   </si>
@@ -84,7 +84,7 @@
     <t>魔法消耗</t>
   </si>
   <si>
-    <t>施法距离</t>
+    <t>施法距离AbilityCastRange</t>
   </si>
   <si>
     <t>基类</t>
@@ -663,8 +663,7 @@
     <t>冰霜新星</t>
   </si>
   <si>
-    <t>召唤具有破坏性的冰雹，降低目标区域敌人的移动速度。
-作用范围：直径450码，减速20%，持续5秒
+    <t>召唤具有破坏性的冰雹，降低目标%aoe_radius%范围内敌人%moveslow_pct%%%移动速度，持续%debuff_duration%秒。
 伤害公式：%DamageFormula%</t>
   </si>
   <si>
@@ -677,7 +676,7 @@
     <t>arms_cd 4</t>
   </si>
   <si>
-    <t>moveslow_pct 20</t>
+    <t>moveslow_pct -20</t>
   </si>
   <si>
     <t>debuff_duration 5</t>
@@ -1012,10 +1011,8 @@
     <t>冰霜吐雾</t>
   </si>
   <si>
-    <t>【冰霜吐雾】：向直径范围1000码最远的敌人进行冰霜吐雾，对一条直线上的敌人造成伤害。并减速50%3秒
-cd：4秒
-伤害系数：攻击力200%·冰元素伤害
-作用范围：1000*200码</t>
+    <t>向直径范围%search_radius%码最远的敌人进行冰霜吐雾，对一条直线上的敌人造成伤害。并减速%slowmove_pct%%%,持续%debuff_duration%秒
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>greevil_laguna_blade</t>
@@ -1027,6 +1024,9 @@
     <t>slowmove_pct -50</t>
   </si>
   <si>
+    <t>search_radius 1000</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_31</t>
   </si>
   <si>
@@ -1036,7 +1036,7 @@
     <t>负重训练</t>
   </si>
   <si>
-    <t>移动速度降低50%，但替换技能之后，根据训练的时间每一秒获得5经验值2灵魂。（至多不超过200秒）</t>
+    <t>移动速度降低%slowmove_pct%%%，但替换技能之后，根据训练的时间每一秒获得%pre_exp%经验值%per_soul%灵魂。（至多不超过%limit_timer%秒）</t>
   </si>
   <si>
     <t>centaur_khan_endurance_aura</t>
@@ -1081,7 +1081,7 @@
     <t>灭魔之道</t>
   </si>
   <si>
-    <t>每次击杀敌人时，永久增加1点攻击力。至多叠加500攻击力。</t>
+    <t>每次击杀敌人时，永久增加%killed_ad%点攻击力。至多叠加%limit_kill%攻击力。</t>
   </si>
   <si>
     <t>abyssal_underlord_cancel_dark_rift</t>
@@ -1109,7 +1109,7 @@
   </si>
   <si>
     <t>{
-"Base" "100"
+"Fixed" "100"
 }</t>
   </si>
   <si>
@@ -1126,7 +1126,7 @@
   </si>
   <si>
     <t>{
-"Base" "200"
+"Fixed" "200"
 }</t>
   </si>
   <si>
@@ -1143,7 +1143,7 @@
   </si>
   <si>
     <t>{
-"Base" "500"
+"Fixed" "500"
 }</t>
   </si>
   <si>
@@ -1154,7 +1154,7 @@
   </si>
   <si>
     <t>生命值越低，攻击力越高、移动速度越快。
-每降低1%最大生命值，提升1%攻击力、1%移动速度</t>
+每降低1%最大生命值，提升%bonus_ad_pct%%%攻击力、%bonus_mv_pct%%%移动速度</t>
   </si>
   <si>
     <t>troll_warlord_rampage</t>
@@ -1176,7 +1176,7 @@
   </si>
   <si>
     <t>生命值越高，攻击力越高、移动速度越快。
-每拥有1%最大生命值，提升1%攻击力、1%移动速度</t>
+每拥有1%最大生命值，提升%bonus_ad_pct%%%攻击力、%bonus_mv_pct%%%移动速度</t>
   </si>
   <si>
     <t>brewmaster_primal_companion</t>
@@ -1191,9 +1191,8 @@
     <t>自爆</t>
   </si>
   <si>
-    <t>英雄阵亡时，造成爆炸伤害。
-伤害系数：攻击力500%·火元素伤害
-作用范围：自身为中心直径500码</t>
+    <t>英雄阵亡时，自身为中心直径%aoe_radius%码造成爆炸伤害。
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>techies_suicide</t>
@@ -1208,11 +1207,8 @@
     <t>褪生</t>
   </si>
   <si>
-    <t>英雄阵亡时，化作灵体形态。灵体状态
-下移速提升100%，不可攻击，无视碰撞体积。
-5秒后复活。
-cd：30秒
-特性：灵体状态是无敌状态。不扣除复活次数，但算作正常死亡</t>
+    <t>英雄阵亡时，化作灵体形态。灵体状态下移速提升%bonus_mv_pct%%%，不可攻击，无视碰撞体积。%effect_duration%秒后复活。
+灵体状态是无敌状态。不扣除复活次数，但算作正常死亡</t>
   </si>
   <si>
     <t>muerta_parting_shot</t>
@@ -1233,11 +1229,8 @@
     <t>烈焰焚身</t>
   </si>
   <si>
-    <t>火焰包围自身并点燃附近区域，造成持续伤害并点燃目标。
-持续时间：5秒
-cd：8秒
-伤害系数：每秒攻击力150%·火元素伤害
-作用范围：自身为中心直径500码</t>
+    <t>火焰包围自身并点燃附近区域，自身为中心直径500码造成持续伤害并点燃目标。持续%effect_duration%秒
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>1.5*AttackDamage</t>
@@ -1252,11 +1245,8 @@
     <t>引燃II</t>
   </si>
   <si>
-    <t>随机引燃范围直径500码敌人，导致其被火焰吞噬。敌人死亡则随机传递给最近的敌人。
-持续时间：6秒
-cd：4秒
-伤害系数：攻击力150%·火元素伤害·每秒
-作用范围：以自身中心直径500码</t>
+    <t>随机引燃范围直径500码%extra_count%个敌人，导致其被火焰吞噬,持续6秒。敌人死亡则随机传递给最近的敌人。
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>debuff_duration 6</t>
@@ -1271,11 +1261,8 @@
     <t>雷魂II</t>
   </si>
   <si>
-    <t>生成1个召唤的雷电幽魂围绕英雄，对所有触碰到的敌人造成范围伤害伤害。至多同时存在5个。
-持续时间：5秒或者碰到敌人消失
-cd：1秒
-伤害系数：每个雷魂造成攻击力150%直径300码范围伤害·雷元素伤害
-作用范围：以自身中心直径300码</t>
+    <t>生成1个以自身中心直径300码的雷电幽魂围绕英雄，持续%summoned_duration%秒.对所有触碰到的敌人爆发并造成%aoe_radius%范围伤害。至多同时存在%spirit_limit%个。
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>invoker_kid/invoker_kid_dark_artistry_ability_icon/invoker_kid_dark_artistry_wex</t>
@@ -1296,10 +1283,8 @@
     <t>小火球</t>
   </si>
   <si>
-    <t>向直径700码以内随机敌人发射一颗小火
-球对其造成伤害。
-cd：3秒
-伤害系数：攻击力150%·火元素伤害</t>
+    <t>向直径700码以内随机敌人发射一颗小火球对其造成伤害。
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>invoker_exort</t>
@@ -1320,10 +1305,8 @@
     <t>小火球II</t>
   </si>
   <si>
-    <t>向直径700码以内随机敌人发射一颗小火，并点燃目标3秒。
-球对其造成伤害。
-cd：2秒
-伤害系数：攻击力250%·火元素伤害</t>
+    <t>向直径700码以内随机敌人发射一颗小火，并点燃目标3秒。球对其造成伤害。
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>black_dragon_fireball</t>
@@ -1338,9 +1321,7 @@
     <t>增肥II</t>
   </si>
   <si>
-    <t>每2秒永久增加3生命值，同时增大体型。
-每增加300生命值，增大1%体型。
-技能范围根据体型增大。1%体型提高1%技能范围。</t>
+    <t>每2秒永久增加3生命值，同时增大体型。每增加300生命值，增大1%体型。技能范围根据体型增大。1%体型提高1%技能范围。</t>
   </si>
   <si>
     <t>gain_hp 3</t>
@@ -1358,8 +1339,7 @@
     <t>铠甲</t>
   </si>
   <si>
-    <t>每受到伤害一次（扣除血量也算），
-永久增加1点护甲。至多增加500点护甲。</t>
+    <t>每受到一次伤害，永久增加1点护甲。至多增加500点护甲。</t>
   </si>
   <si>
     <t>tower_armor_aura</t>
@@ -1380,8 +1360,7 @@
     <t>勇士</t>
   </si>
   <si>
-    <t>根据自身护甲值提升所造成的伤害。
-每10点护甲提高1%的伤害。</t>
+    <t>根据自身护甲值提升所造成的伤害。每10点护甲提高1%的伤害。</t>
   </si>
   <si>
     <t>kobold_disarm</t>
@@ -1400,7 +1379,7 @@
   </si>
   <si>
     <t>丢出一个盾，围绕英雄一圈后回到手里，对触碰到的敌人造成单体伤害。
-伤害系数：护甲值500%·风元素伤害</t>
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>dragon_knight_dragon_tail</t>
@@ -1444,7 +1423,6 @@
   </si>
   <si>
     <t>周期性提高自身护甲。持续10秒。
-cd：5秒
 护甲提升系数：50%</t>
   </si>
   <si>
@@ -1478,9 +1456,8 @@
     <t>经验吸收</t>
   </si>
   <si>
-    <t xml:space="preserve">通过接近敌人吸取灵魂，每秒吸取自身%origin_radius%范围内%extra_count%个敌人%pre_value%经验。
-特效：骨法大招（黄绿色）
-</t>
+    <t>通过接近敌人吸取灵魂，每秒吸取自身%origin_radius%范围内%extra_count%个敌人%pre_value%经验。
+特效：骨法大招（黄绿色）</t>
   </si>
   <si>
     <t>pugna/pugna_ti10_immortal_ability_icon/pugna_ti10_immortal_life_drain_gold</t>
@@ -1498,7 +1475,7 @@
     <t>吸取自身%origin_radius%码范围内至多5名敌人的生命值并补充自己，补充收益仅有20%。
 特效：骨法大招（金、红色）
 持续3秒，cd：6秒
-伤害系数：每秒攻击力100%·光元素伤害</t>
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>pugna/pugna_ti10_immortal_ability_icon/pugna_ti10_immortal_life_drain</t>
@@ -1549,6 +1526,12 @@
   </si>
   <si>
     <t>base_chance 30</t>
+  </si>
+  <si>
+    <t>limit_stack 15</t>
+  </si>
+  <si>
+    <t>stack_bonus 1</t>
   </si>
   <si>
     <t>abilities/arms/v1/arms_57</t>
@@ -1564,7 +1547,7 @@
 毁灭阴影。3秒内被影压再次击中，伤害增加25%。
 特效：sf1技能
 cd：2秒
-伤害系数：攻击力200%·暗元素伤害
+伤害系数：%DamageFormula%
 作用范围：直径200码</t>
   </si>
   <si>
@@ -1589,16 +1572,16 @@
     <t>死魂之挽歌</t>
   </si>
   <si>
-    <t>英雄死亡时，向直径1000码范围内释
-放10道魔能。魔能基础数量为10个。
-特效：sf大招魔晶·瞬发
-伤害系数：每道魔能攻击力150%·暗元素伤害
-作用范围：自身为中心，直径1000码</t>
+    <t>英雄死亡时，向直径1000码范围内释放魔能。魔能基础数量为10个。
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>nevermore_requiem_demon</t>
   </si>
   <si>
+    <t>extra_count 10</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_59</t>
   </si>
   <si>
@@ -1608,14 +1591,16 @@
     <t>尖刺外壳1</t>
   </si>
   <si>
-    <t>尖刺外壳可以反弹并无效化自身受到的
-伤害(每个攻击者最多作用一次)，同时眩晕攻击者。
+    <t>尖刺外壳可以反弹并无效化自身受到的伤害(每个攻击者最多作用一次)，同时眩晕攻击者%stun_duration%秒。
 反弹的伤害与自身本应受到的实际伤害相同，且为风元素伤害。</t>
   </si>
   <si>
     <t>nyx_assassin_spiked_carapace</t>
   </si>
   <si>
+    <t>stun_duration 0.5</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_60</t>
   </si>
   <si>
@@ -1625,15 +1610,17 @@
     <t>穿刺</t>
   </si>
   <si>
-    <t>岩石尖刺在地上沿一条直线穿刺而出。敌方
-单位受到伤害，然后被抛向空中，落地时被眩晕1秒。
-特效：小强1技能
-cd：4秒
-伤害系数：攻击力150%·风元素伤害
-作用范围：宽100码，长750码，尖刺移动速度每秒1600.</t>
+    <t>发射岩石尖刺在地上沿一条直线穿刺而出。敌方单位受到伤害，然后被抛向空中，落地时被眩晕1秒。
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>nyx_assassin_impale</t>
+  </si>
+  <si>
+    <t>impale_width 100</t>
+  </si>
+  <si>
+    <t>impale_speed 1600</t>
   </si>
   <si>
     <t>abilities/arms/v1/arms_61</t>
@@ -1648,8 +1635,7 @@
     <t>给普通攻击增幅，增加500码攻击距离，同时装配8发加农炮弹，快速发动8次的攻击，对攻击范围内至多3个敌人同时造成伤害。
 特效：电炎绝手
 cd：5秒
-伤害系数：每次攻击造成攻击力50%·火元素伤害
-特性：可触发攻击特效（法球）</t>
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>snapfire_lil_shredder</t>
@@ -1664,13 +1650,8 @@
     <t>龙破斩</t>
   </si>
   <si>
-    <t>引导龙的吐息，放出一波火焰，烧焦所有
-波及的敌人，并且持续烧灼他们3秒。
-特效：火女1技能
-cd：3秒
-伤害系数：攻击力200%·火元素伤害，
-灼烧伤害为攻击力25%·火元素伤害
-作用范围：宽200码，长1200码。</t>
+    <t>引导龙的吐息，放出一波火焰，烧焦所有波及的敌人，
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>lina_dragon_slave</t>
@@ -1685,14 +1666,18 @@
     <t>光击阵</t>
   </si>
   <si>
-    <t>对自身直径范围500码内的敌人召唤柱状造成火焰伤害并眩人2秒。
+    <t>对自身范围500码内的敌人召唤柱状造成火焰伤害并眩人2秒。
 特效：火女2技能
-cd：4秒
-伤害系数：攻击力150%·火元素伤害
-作用范围：敌人为中心直径250码。</t>
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>lina_light_strike_array</t>
+  </si>
+  <si>
+    <t>aoe_radius 250</t>
+  </si>
+  <si>
+    <t>stun_duration 2</t>
   </si>
   <si>
     <t>abilities/arms/v1/arms_64</t>
@@ -1720,15 +1705,18 @@
     <t>闪电护盾</t>
   </si>
   <si>
-    <t>生成一个雷电护盾，护盾值为命值25%，可抵消同等伤害，受雷属性伤害减免30%。
-特效：大电锤主动
-持续时间：5秒
-cd：8秒</t>
+    <t>生成一个雷电护盾，持续%buff_duration%秒,护盾值为命值%shield_hp_pct%%%，可抵消同等伤害，受雷属性伤害减免30%。</t>
   </si>
   <si>
     <t>item_mjollnir</t>
   </si>
   <si>
+    <t>buff_duration 5</t>
+  </si>
+  <si>
+    <t>shield_hp_pct 25</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_66</t>
   </si>
   <si>
@@ -1738,16 +1726,16 @@
     <t>弧形闪电I</t>
   </si>
   <si>
-    <t>释放一道会跳跃穿越附近敌人的闪电，造成雷元素伤害，跳跃5次。
-特效：宙斯1技能
-cd：4秒
-伤害系数：攻击力150%·雷元素伤害
-作用范围：直径700码以内随机目标</t>
+    <t>释放一道会跳跃穿越附近敌人的闪电，对%serach_radius%码以内随机目标造成伤害，跳跃%extra_count%次。
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>zuus_arc_lightning</t>
   </si>
   <si>
+    <t>serach_radius 700</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_67</t>
   </si>
   <si>
@@ -1757,14 +1745,10 @@
     <t>弧形闪电II</t>
   </si>
   <si>
-    <t>释放一道会跳跃穿越附近敌人的闪电，造成雷元素伤害，跳跃8次
-特效：宙斯1技能，效果更大
-cd：3秒
-伤害系数：攻击力250%·雷元素伤害
-作用范围：直径700码以内随机目标</t>
-  </si>
-  <si>
-    <t>zuus_lightning_bolt_immortal</t>
+    <t>zeus/ti8_immortal_arms/zeus_arc_lightning_immortal</t>
+  </si>
+  <si>
+    <t>extra_count 8</t>
   </si>
   <si>
     <t>abilities/arms/v1/arms_68</t>
@@ -1776,16 +1760,16 @@
     <t>范围雷击</t>
   </si>
   <si>
-    <t>召唤一道闪电打击范围直径325码的敌
-方单位，造成伤害及短暂眩晕0.5秒。
-cd：4秒
-伤害系数：攻击力300%·雷元素伤害
-作用范围：施法距离750码</t>
+    <t>召唤一道闪电打击%aoe_radius%范围内的敌方单位，造成伤害及短暂眩晕%stun_duration%秒。
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>zuus_lightning_bolt</t>
   </si>
   <si>
+    <t>aoe_radius 325</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_69</t>
   </si>
   <si>
@@ -1795,15 +1779,25 @@
     <t>连环闪电</t>
   </si>
   <si>
-    <t>攻击时有25%概率释放一道连环闪电，
-在直径650范围内的敌方单位之间跳跃，每跳跃一次伤害递减5%。
-特效：电锤被动
-伤害系数：初始跳跃攻击力50%·雷元素伤害</t>
+    <t>攻击时有%base_chance%%%概率释放一道连环闪电，在敌方单位之间跳跃，每跳跃一次伤害递减%dmg_reduction%%%。最多弹跳%extra_count%次
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>zuus_lightning_hands</t>
   </si>
   <si>
+    <t>base_chance 25</t>
+  </si>
+  <si>
+    <t>serach_radius 650</t>
+  </si>
+  <si>
+    <t>extra_count 6</t>
+  </si>
+  <si>
+    <t>dmg_reduction -5</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_70</t>
   </si>
   <si>
@@ -1813,16 +1807,19 @@
     <t>雷霆锁链</t>
   </si>
   <si>
-    <t>缠绕目标375范围内所有敌人，持续2秒，并造成伤害。
-特效：缚灵索主动
-cd：4秒
-伤害系数：攻击力200%·雷元素伤害
-作用范围：施法距离1100码</t>
+    <t>缠绕目标%aoe_radius%范围内所有敌人，持续%root_duration%秒，并造成伤害。
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>item_gungir</t>
   </si>
   <si>
+    <t>aoe_radius 375</t>
+  </si>
+  <si>
+    <t>root_duration 2</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_71</t>
   </si>
   <si>
@@ -1832,17 +1829,16 @@
     <t>感电环绕</t>
   </si>
   <si>
-    <t>生成一个感应电圈围绕在自身周围，对碰触到的敌人造成伤害。
-特效：宙斯雷云的电圈
-持续时间：5秒
-cd：8秒
-伤害系数：攻击力50%·雷元素伤害每0.5秒
-作用范围：电圈生成在自身直径450码的地方</t>
+    <t>生成一个%aoe_radius%码的感应电圈围绕在自身周围持续%buff_duration%秒，毎%effect_interval%秒对碰触到的敌人造成伤害。
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>storm_spirit_electric_vortex</t>
   </si>
   <si>
+    <t>effect_interval 0.5</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_72</t>
   </si>
   <si>
@@ -1852,18 +1848,16 @@
     <t>小火圈</t>
   </si>
   <si>
-    <t>生成一个火焰圈围绕在自身周围，对碰
-触到的敌人造成伤害。
-特效：火猫W的外圈
-持续时间：3秒
-cd：5秒
-伤害系数：攻击力30%·火元素伤害每0.5秒
-作用范围：火圈生成在自身直径300码的地方</t>
+    <t>生成一个%aoe_radius%码的火焰圈围绕在自身周围持续%buff_duration%秒，毎%effect_interval%秒对碰触到的敌人造成伤害。
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>forged_spirit_melting_strike</t>
   </si>
   <si>
+    <t>0.3*AttackDamage</t>
+  </si>
+  <si>
     <t>abilities/arms/v1/arms_73</t>
   </si>
   <si>
@@ -1873,15 +1867,6 @@
     <t>大火圈</t>
   </si>
   <si>
-    <t>生成一个火焰圈围绕在自身周围，对碰
-触到的敌人造成伤害，并灼烧敌人3秒。
-特效：火猫W的外圈
-持续时间：5秒
-cd：8秒
-伤害系数：攻击力50%·火元素伤害每0.5秒
-作用范围：火圈生成在自身直径500码的地方</t>
-  </si>
-  <si>
     <t>abilities/arms/v1/arms_74</t>
   </si>
   <si>
@@ -1891,21 +1876,26 @@
     <t>北极圈</t>
   </si>
   <si>
-    <t>生成一个寒冰圈围绕在自身周围，对碰
-触到的敌人造成伤害，并减速敌人45%持续3秒。
-持续时间：5秒
-cd：8秒
-伤害系数：攻击力50%·冰元素伤害每0.5秒
-作用范围：冰圈生成在自身直径500码的地方</t>
+    <t>生成一个%aoe_radius%码的火焰圈围绕在自身周围持续%buff_duration%秒，毎%effect_interval%秒对碰触到的敌人造成伤害。，并减速%debuff_duration%秒敌人%moveslow_pct%%%移动速度。
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>crystal_maiden_crystal_nova_icecowl</t>
   </si>
   <si>
+    <t>moveslow_pct -45</t>
+  </si>
+  <si>
+    <t>abilities/arms/v1/arms_75</t>
+  </si>
+  <si>
     <t>arms_76</t>
   </si>
   <si>
     <t>物品编号#45</t>
+  </si>
+  <si>
+    <t>abilities/arms/v1/arms_76</t>
   </si>
 </sst>
 </file>
@@ -2304,7 +2294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2490,90 +2480,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thick">
@@ -2582,34 +2488,6 @@
       <top/>
       <bottom style="thick">
         <color rgb="FF595959"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2737,7 +2615,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2749,34 +2627,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2862,7 +2740,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2923,9 +2801,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2966,55 +2841,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3335,16 +3168,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DC4532EF-2A44-4D5C-B459-5A14CCFD6F31}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A33773B6-8540-407E-AE7A-7F71973C0E83}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1CF5341C-B76F-47EC-8968-7A1E203293E4}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{CB5705AE-8BCB-4F65-8D0D-6B98F5E0FCF0}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{C475C996-493C-4F26-AAA0-83E3987CAFD8}">
+    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{A49B08DD-8669-4EB4-824E-CF6F1E49E65E}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstColumn" dxfId="14"/>
@@ -3654,12 +3487,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP89"/>
+  <dimension ref="A1:AP86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D64" sqref="D64"/>
+      <selection pane="topRight" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3812,11 +3645,11 @@
       <c r="AM1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AN1" s="21" t="s">
+      <c r="AN1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="28"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="27"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:41">
       <c r="A2" s="7" t="s">
@@ -3934,10 +3767,10 @@
       <c r="AM2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AN2" s="22" t="s">
+      <c r="AN2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AO2" s="29" t="s">
+      <c r="AO2" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4017,13 +3850,13 @@
       <c r="AG3" s="10"/>
       <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="23"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="31"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="30"/>
     </row>
     <row r="4" customFormat="1" ht="39" customHeight="1" spans="1:42">
       <c r="A4" s="12" t="s">
@@ -4095,13 +3928,13 @@
       <c r="AG4" s="13"/>
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="31"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="30"/>
     </row>
     <row r="5" customFormat="1" ht="39" customHeight="1" spans="1:42">
       <c r="A5" s="9" t="s">
@@ -4173,13 +4006,13 @@
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
       <c r="AI5" s="10"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="30"/>
-      <c r="AP5" s="31"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="29"/>
+      <c r="AP5" s="30"/>
     </row>
     <row r="6" customFormat="1" ht="39" customHeight="1" spans="1:42">
       <c r="A6" s="12" t="s">
@@ -4251,13 +4084,13 @@
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="31"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="29"/>
+      <c r="AP6" s="30"/>
     </row>
     <row r="7" customFormat="1" ht="39" customHeight="1" spans="1:42">
       <c r="A7" s="9" t="s">
@@ -4329,13 +4162,13 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="23"/>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="31"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="30"/>
     </row>
     <row r="8" customFormat="1" ht="39" customHeight="1" spans="1:42">
       <c r="A8" s="12" t="s">
@@ -4407,13 +4240,13 @@
       <c r="AG8" s="13"/>
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="31"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="30"/>
     </row>
     <row r="9" customFormat="1" ht="39" customHeight="1" spans="1:42">
       <c r="A9" s="9" t="s">
@@ -4485,13 +4318,13 @@
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="23"/>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="31"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="30"/>
     </row>
     <row r="10" ht="105" customHeight="1" spans="1:42">
       <c r="A10" s="12" t="s">
@@ -4571,13 +4404,13 @@
       <c r="AG10" s="13"/>
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="31"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="29"/>
+      <c r="AP10" s="30"/>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:42">
       <c r="A11" s="9" t="s">
@@ -4651,13 +4484,13 @@
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="23"/>
-      <c r="AL11" s="23"/>
-      <c r="AM11" s="23"/>
-      <c r="AN11" s="24"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="31"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="30"/>
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:42">
       <c r="A12" s="12" t="s">
@@ -4735,13 +4568,13 @@
       <c r="AG12" s="13"/>
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="30"/>
-      <c r="AP12" s="31"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="24"/>
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="30"/>
     </row>
     <row r="13" ht="72" customHeight="1" spans="1:42">
       <c r="A13" s="9" t="s">
@@ -4790,7 +4623,7 @@
       <c r="R13" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="S13" s="20"/>
+      <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
@@ -4819,13 +4652,13 @@
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
       <c r="AI13" s="10"/>
-      <c r="AJ13" s="23"/>
-      <c r="AK13" s="23"/>
-      <c r="AL13" s="23"/>
-      <c r="AM13" s="23"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="31"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="23"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="30"/>
     </row>
     <row r="14" ht="72" customHeight="1" spans="1:42">
       <c r="A14" s="12" t="s">
@@ -4903,13 +4736,13 @@
       <c r="AG14" s="13"/>
       <c r="AH14" s="13"/>
       <c r="AI14" s="13"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="31"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="30"/>
     </row>
     <row r="15" ht="55.5" customHeight="1" spans="1:42">
       <c r="A15" s="9" t="s">
@@ -4985,13 +4818,13 @@
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
       <c r="AI15" s="10"/>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="23"/>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="23"/>
-      <c r="AN15" s="24"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="31"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="23"/>
+      <c r="AO15" s="29"/>
+      <c r="AP15" s="30"/>
     </row>
     <row r="16" ht="39" customHeight="1" spans="1:42">
       <c r="A16" s="12" t="s">
@@ -5067,13 +4900,13 @@
       <c r="AG16" s="13"/>
       <c r="AH16" s="13"/>
       <c r="AI16" s="13"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="30"/>
-      <c r="AP16" s="31"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="30"/>
     </row>
     <row r="17" ht="72" customHeight="1" spans="1:42">
       <c r="A17" s="9" t="s">
@@ -5153,13 +4986,13 @@
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
       <c r="AI17" s="10"/>
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="23"/>
-      <c r="AL17" s="23"/>
-      <c r="AM17" s="23"/>
-      <c r="AN17" s="24"/>
-      <c r="AO17" s="30"/>
-      <c r="AP17" s="31"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="23"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="30"/>
     </row>
     <row r="18" ht="88.5" customHeight="1" spans="1:42">
       <c r="A18" s="12" t="s">
@@ -5235,15 +5068,15 @@
       <c r="AG18" s="13"/>
       <c r="AH18" s="13"/>
       <c r="AI18" s="13"/>
-      <c r="AJ18" s="25" t="s">
+      <c r="AJ18" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="AK18" s="25"/>
-      <c r="AL18" s="25"/>
-      <c r="AM18" s="25"/>
-      <c r="AN18" s="26"/>
-      <c r="AO18" s="30"/>
-      <c r="AP18" s="31"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="30"/>
     </row>
     <row r="19" ht="39" customHeight="1" spans="1:42">
       <c r="A19" s="9" t="s">
@@ -5325,13 +5158,13 @@
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="10"/>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="23"/>
-      <c r="AL19" s="23"/>
-      <c r="AM19" s="23"/>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="31"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="30"/>
     </row>
     <row r="20" ht="39" customHeight="1" spans="1:42">
       <c r="A20" s="12" t="s">
@@ -5413,13 +5246,13 @@
       <c r="AG20" s="13"/>
       <c r="AH20" s="13"/>
       <c r="AI20" s="13"/>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="25"/>
-      <c r="AL20" s="25"/>
-      <c r="AM20" s="25"/>
-      <c r="AN20" s="26"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="31"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="24"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="30"/>
     </row>
     <row r="21" ht="39" customHeight="1" spans="1:42">
       <c r="A21" s="9" t="s">
@@ -5501,13 +5334,13 @@
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
       <c r="AI21" s="10"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="23"/>
-      <c r="AL21" s="23"/>
-      <c r="AM21" s="23"/>
-      <c r="AN21" s="24"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="31"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="23"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="30"/>
     </row>
     <row r="22" ht="88.5" customHeight="1" spans="1:42">
       <c r="A22" s="12" t="s">
@@ -5535,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="19">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>186</v>
@@ -5589,13 +5422,13 @@
       <c r="AG22" s="13"/>
       <c r="AH22" s="13"/>
       <c r="AI22" s="13"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="30"/>
-      <c r="AP22" s="31"/>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="30"/>
     </row>
     <row r="23" ht="55.5" customHeight="1" spans="1:42">
       <c r="A23" s="9" t="s">
@@ -5677,13 +5510,13 @@
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
       <c r="AI23" s="10"/>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="23"/>
-      <c r="AL23" s="23"/>
-      <c r="AM23" s="23"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="30"/>
-      <c r="AP23" s="31"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="22"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="23"/>
+      <c r="AO23" s="29"/>
+      <c r="AP23" s="30"/>
     </row>
     <row r="24" ht="72" customHeight="1" spans="1:42">
       <c r="A24" s="12" t="s">
@@ -5711,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>206</v>
@@ -5763,13 +5596,13 @@
       <c r="AG24" s="13"/>
       <c r="AH24" s="13"/>
       <c r="AI24" s="13"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="26"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="31"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="24"/>
+      <c r="AL24" s="24"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="30"/>
     </row>
     <row r="25" ht="55.5" customHeight="1" spans="1:42">
       <c r="A25" s="9" t="s">
@@ -5851,13 +5684,13 @@
       <c r="AG25" s="10"/>
       <c r="AH25" s="10"/>
       <c r="AI25" s="10"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="24"/>
-      <c r="AO25" s="30"/>
-      <c r="AP25" s="31"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="22"/>
+      <c r="AM25" s="22"/>
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="29"/>
+      <c r="AP25" s="30"/>
     </row>
     <row r="26" ht="55.5" customHeight="1" spans="1:42">
       <c r="A26" s="12" t="s">
@@ -5933,13 +5766,13 @@
       <c r="AG26" s="13"/>
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="30"/>
-      <c r="AP26" s="31"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="24"/>
+      <c r="AM26" s="24"/>
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="29"/>
+      <c r="AP26" s="30"/>
     </row>
     <row r="27" ht="55.5" customHeight="1" spans="1:42">
       <c r="A27" s="9" t="s">
@@ -6013,13 +5846,13 @@
       <c r="AG27" s="10"/>
       <c r="AH27" s="10"/>
       <c r="AI27" s="10"/>
-      <c r="AJ27" s="23"/>
-      <c r="AK27" s="23"/>
-      <c r="AL27" s="23"/>
-      <c r="AM27" s="23"/>
-      <c r="AN27" s="24"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="31"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="22"/>
+      <c r="AL27" s="22"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="23"/>
+      <c r="AO27" s="29"/>
+      <c r="AP27" s="30"/>
     </row>
     <row r="28" ht="39" customHeight="1" spans="1:42">
       <c r="A28" s="12" t="s">
@@ -6095,13 +5928,13 @@
       <c r="AG28" s="13"/>
       <c r="AH28" s="13"/>
       <c r="AI28" s="13"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="25"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="26"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="31"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="24"/>
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="29"/>
+      <c r="AP28" s="30"/>
     </row>
     <row r="29" ht="39" customHeight="1" spans="1:42">
       <c r="A29" s="9" t="s">
@@ -6177,13 +6010,13 @@
       <c r="AG29" s="10"/>
       <c r="AH29" s="10"/>
       <c r="AI29" s="10"/>
-      <c r="AJ29" s="23"/>
-      <c r="AK29" s="23"/>
-      <c r="AL29" s="23"/>
-      <c r="AM29" s="23"/>
-      <c r="AN29" s="24"/>
-      <c r="AO29" s="30"/>
-      <c r="AP29" s="31"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="22"/>
+      <c r="AM29" s="22"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="29"/>
+      <c r="AP29" s="30"/>
     </row>
     <row r="30" ht="88.5" customHeight="1" spans="1:42">
       <c r="A30" s="12" t="s">
@@ -6261,13 +6094,13 @@
       <c r="AG30" s="13"/>
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
-      <c r="AJ30" s="25"/>
-      <c r="AK30" s="25"/>
-      <c r="AL30" s="25"/>
-      <c r="AM30" s="25"/>
-      <c r="AN30" s="26"/>
-      <c r="AO30" s="30"/>
-      <c r="AP30" s="31"/>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="24"/>
+      <c r="AL30" s="24"/>
+      <c r="AM30" s="24"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="29"/>
+      <c r="AP30" s="30"/>
     </row>
     <row r="31" ht="39" customHeight="1" spans="1:42">
       <c r="A31" s="9" t="s">
@@ -6341,13 +6174,13 @@
       <c r="AG31" s="10"/>
       <c r="AH31" s="10"/>
       <c r="AI31" s="10"/>
-      <c r="AJ31" s="23"/>
-      <c r="AK31" s="23"/>
-      <c r="AL31" s="23"/>
-      <c r="AM31" s="23"/>
-      <c r="AN31" s="24"/>
-      <c r="AO31" s="30"/>
-      <c r="AP31" s="31"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="22"/>
+      <c r="AM31" s="22"/>
+      <c r="AN31" s="23"/>
+      <c r="AO31" s="29"/>
+      <c r="AP31" s="30"/>
     </row>
     <row r="32" ht="105" customHeight="1" spans="1:42">
       <c r="A32" s="12" t="s">
@@ -6429,13 +6262,13 @@
       <c r="AG32" s="13"/>
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
-      <c r="AJ32" s="25"/>
-      <c r="AK32" s="25"/>
-      <c r="AL32" s="25"/>
-      <c r="AM32" s="25"/>
-      <c r="AN32" s="26"/>
-      <c r="AO32" s="30"/>
-      <c r="AP32" s="31"/>
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="24"/>
+      <c r="AL32" s="24"/>
+      <c r="AM32" s="24"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="29"/>
+      <c r="AP32" s="30"/>
     </row>
     <row r="33" ht="105" customHeight="1" spans="1:42">
       <c r="A33" s="9" t="s">
@@ -6517,13 +6350,13 @@
       <c r="AG33" s="10"/>
       <c r="AH33" s="10"/>
       <c r="AI33" s="10"/>
-      <c r="AJ33" s="23"/>
-      <c r="AK33" s="23"/>
-      <c r="AL33" s="23"/>
-      <c r="AM33" s="23"/>
-      <c r="AN33" s="24"/>
-      <c r="AO33" s="30"/>
-      <c r="AP33" s="31"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="22"/>
+      <c r="AL33" s="22"/>
+      <c r="AM33" s="22"/>
+      <c r="AN33" s="23"/>
+      <c r="AO33" s="29"/>
+      <c r="AP33" s="30"/>
     </row>
     <row r="34" ht="105" customHeight="1" spans="1:42">
       <c r="A34" s="12" t="s">
@@ -6605,13 +6438,13 @@
       <c r="AG34" s="13"/>
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
-      <c r="AJ34" s="25"/>
-      <c r="AK34" s="25"/>
-      <c r="AL34" s="25"/>
-      <c r="AM34" s="25"/>
-      <c r="AN34" s="26"/>
-      <c r="AO34" s="30"/>
-      <c r="AP34" s="31"/>
+      <c r="AJ34" s="24"/>
+      <c r="AK34" s="24"/>
+      <c r="AL34" s="24"/>
+      <c r="AM34" s="24"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="29"/>
+      <c r="AP34" s="30"/>
     </row>
     <row r="35" ht="105" customHeight="1" spans="1:42">
       <c r="A35" s="9" t="s">
@@ -6691,13 +6524,13 @@
       <c r="AG35" s="10"/>
       <c r="AH35" s="10"/>
       <c r="AI35" s="10"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="23"/>
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="23"/>
-      <c r="AN35" s="24"/>
-      <c r="AO35" s="30"/>
-      <c r="AP35" s="31"/>
+      <c r="AJ35" s="22"/>
+      <c r="AK35" s="22"/>
+      <c r="AL35" s="22"/>
+      <c r="AM35" s="22"/>
+      <c r="AN35" s="23"/>
+      <c r="AO35" s="29"/>
+      <c r="AP35" s="30"/>
     </row>
     <row r="36" ht="39" customHeight="1" spans="1:42">
       <c r="A36" s="12" t="s">
@@ -6771,13 +6604,13 @@
       <c r="AG36" s="13"/>
       <c r="AH36" s="13"/>
       <c r="AI36" s="13"/>
-      <c r="AJ36" s="25"/>
-      <c r="AK36" s="25"/>
-      <c r="AL36" s="25"/>
-      <c r="AM36" s="25"/>
-      <c r="AN36" s="26"/>
-      <c r="AO36" s="30"/>
-      <c r="AP36" s="31"/>
+      <c r="AJ36" s="24"/>
+      <c r="AK36" s="24"/>
+      <c r="AL36" s="24"/>
+      <c r="AM36" s="24"/>
+      <c r="AN36" s="25"/>
+      <c r="AO36" s="29"/>
+      <c r="AP36" s="30"/>
     </row>
     <row r="37" ht="121.5" customHeight="1" spans="1:42">
       <c r="A37" s="9" t="s">
@@ -6857,13 +6690,13 @@
       <c r="AG37" s="10"/>
       <c r="AH37" s="10"/>
       <c r="AI37" s="10"/>
-      <c r="AJ37" s="23"/>
-      <c r="AK37" s="23"/>
-      <c r="AL37" s="23"/>
-      <c r="AM37" s="23"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="30"/>
-      <c r="AP37" s="31"/>
+      <c r="AJ37" s="22"/>
+      <c r="AK37" s="22"/>
+      <c r="AL37" s="22"/>
+      <c r="AM37" s="22"/>
+      <c r="AN37" s="23"/>
+      <c r="AO37" s="29"/>
+      <c r="AP37" s="30"/>
     </row>
     <row r="38" ht="138" customHeight="1" spans="1:42">
       <c r="A38" s="12" t="s">
@@ -6880,7 +6713,7 @@
         <v>301</v>
       </c>
       <c r="F38" s="13"/>
-      <c r="G38" s="10">
+      <c r="G38" s="13">
         <v>0</v>
       </c>
       <c r="H38" s="13">
@@ -6943,13 +6776,13 @@
       <c r="AG38" s="13"/>
       <c r="AH38" s="13"/>
       <c r="AI38" s="13"/>
-      <c r="AJ38" s="25"/>
-      <c r="AK38" s="25"/>
-      <c r="AL38" s="25"/>
-      <c r="AM38" s="25"/>
-      <c r="AN38" s="26"/>
-      <c r="AO38" s="30"/>
-      <c r="AP38" s="31"/>
+      <c r="AJ38" s="24"/>
+      <c r="AK38" s="24"/>
+      <c r="AL38" s="24"/>
+      <c r="AM38" s="24"/>
+      <c r="AN38" s="25"/>
+      <c r="AO38" s="29"/>
+      <c r="AP38" s="30"/>
     </row>
     <row r="39" ht="88.5" customHeight="1" spans="1:42">
       <c r="A39" s="9" t="s">
@@ -7027,13 +6860,13 @@
       <c r="AG39" s="10"/>
       <c r="AH39" s="10"/>
       <c r="AI39" s="10"/>
-      <c r="AJ39" s="23"/>
-      <c r="AK39" s="23"/>
-      <c r="AL39" s="23"/>
-      <c r="AM39" s="23"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="30"/>
-      <c r="AP39" s="31"/>
+      <c r="AJ39" s="22"/>
+      <c r="AK39" s="22"/>
+      <c r="AL39" s="22"/>
+      <c r="AM39" s="22"/>
+      <c r="AN39" s="23"/>
+      <c r="AO39" s="29"/>
+      <c r="AP39" s="30"/>
     </row>
     <row r="40" ht="88.5" customHeight="1" spans="1:42">
       <c r="A40" s="12" t="s">
@@ -7048,7 +6881,7 @@
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="10">
+      <c r="G40" s="13">
         <v>0</v>
       </c>
       <c r="H40" s="13">
@@ -7085,7 +6918,9 @@
       <c r="S40" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="T40" s="13"/>
+      <c r="T40" s="13" t="s">
+        <v>316</v>
+      </c>
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
@@ -7100,7 +6935,7 @@
         <v>72</v>
       </c>
       <c r="AB40" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AC40" s="14" t="s">
         <v>74</v>
@@ -7113,23 +6948,23 @@
       <c r="AG40" s="13"/>
       <c r="AH40" s="13"/>
       <c r="AI40" s="13"/>
-      <c r="AJ40" s="25"/>
-      <c r="AK40" s="25"/>
-      <c r="AL40" s="25"/>
-      <c r="AM40" s="25"/>
-      <c r="AN40" s="26"/>
-      <c r="AO40" s="30"/>
-      <c r="AP40" s="31"/>
+      <c r="AJ40" s="24"/>
+      <c r="AK40" s="24"/>
+      <c r="AL40" s="24"/>
+      <c r="AM40" s="24"/>
+      <c r="AN40" s="25"/>
+      <c r="AO40" s="29"/>
+      <c r="AP40" s="30"/>
     </row>
     <row r="41" ht="39" customHeight="1" spans="1:42">
       <c r="A41" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -7150,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M41" s="10">
         <v>0</v>
@@ -7163,13 +6998,13 @@
         <v>315</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R41" s="10" t="s">
         <v>237</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
@@ -7186,7 +7021,7 @@
         <v>72</v>
       </c>
       <c r="AB41" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AC41" s="11" t="s">
         <v>74</v>
@@ -7199,28 +7034,28 @@
       <c r="AG41" s="10"/>
       <c r="AH41" s="10"/>
       <c r="AI41" s="10"/>
-      <c r="AJ41" s="23"/>
-      <c r="AK41" s="23"/>
-      <c r="AL41" s="23"/>
-      <c r="AM41" s="23"/>
-      <c r="AN41" s="24"/>
-      <c r="AO41" s="30"/>
-      <c r="AP41" s="31"/>
+      <c r="AJ41" s="22"/>
+      <c r="AK41" s="22"/>
+      <c r="AL41" s="22"/>
+      <c r="AM41" s="22"/>
+      <c r="AN41" s="23"/>
+      <c r="AO41" s="29"/>
+      <c r="AP41" s="30"/>
     </row>
     <row r="42" ht="39" customHeight="1" spans="1:42">
       <c r="A42" s="12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="10">
+      <c r="G42" s="13">
         <v>0</v>
       </c>
       <c r="H42" s="13">
@@ -7236,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M42" s="13">
         <v>0</v>
@@ -7246,13 +7081,13 @@
       </c>
       <c r="O42" s="13"/>
       <c r="P42" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q42" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S42" s="13"/>
       <c r="T42" s="13"/>
@@ -7270,7 +7105,7 @@
         <v>72</v>
       </c>
       <c r="AB42" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AC42" s="14" t="s">
         <v>74</v>
@@ -7283,23 +7118,23 @@
       <c r="AG42" s="13"/>
       <c r="AH42" s="13"/>
       <c r="AI42" s="13"/>
-      <c r="AJ42" s="25"/>
-      <c r="AK42" s="25"/>
-      <c r="AL42" s="25"/>
-      <c r="AM42" s="25"/>
-      <c r="AN42" s="26"/>
-      <c r="AO42" s="30"/>
-      <c r="AP42" s="31"/>
+      <c r="AJ42" s="24"/>
+      <c r="AK42" s="24"/>
+      <c r="AL42" s="24"/>
+      <c r="AM42" s="24"/>
+      <c r="AN42" s="25"/>
+      <c r="AO42" s="29"/>
+      <c r="AP42" s="30"/>
     </row>
     <row r="43" ht="39" customHeight="1" spans="1:42">
       <c r="A43" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -7320,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M43" s="10">
         <v>0</v>
@@ -7330,10 +7165,10 @@
       </c>
       <c r="O43" s="10"/>
       <c r="P43" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
@@ -7352,7 +7187,7 @@
         <v>72</v>
       </c>
       <c r="AB43" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AC43" s="11" t="s">
         <v>74</v>
@@ -7365,26 +7200,26 @@
       <c r="AG43" s="10"/>
       <c r="AH43" s="10"/>
       <c r="AI43" s="10"/>
-      <c r="AJ43" s="23"/>
-      <c r="AK43" s="23"/>
-      <c r="AL43" s="23"/>
-      <c r="AM43" s="23"/>
-      <c r="AN43" s="24"/>
-      <c r="AO43" s="30"/>
-      <c r="AP43" s="31"/>
+      <c r="AJ43" s="22"/>
+      <c r="AK43" s="22"/>
+      <c r="AL43" s="22"/>
+      <c r="AM43" s="22"/>
+      <c r="AN43" s="23"/>
+      <c r="AO43" s="29"/>
+      <c r="AP43" s="30"/>
     </row>
     <row r="44" ht="55.5" customHeight="1" spans="1:42">
       <c r="A44" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="10">
+      <c r="G44" s="13">
         <v>0</v>
       </c>
       <c r="H44" s="13">
@@ -7400,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M44" s="13">
         <v>0</v>
@@ -7428,7 +7263,7 @@
         <v>72</v>
       </c>
       <c r="AB44" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AC44" s="14" t="s">
         <v>74</v>
@@ -7441,22 +7276,22 @@
       <c r="AG44" s="13"/>
       <c r="AH44" s="13"/>
       <c r="AI44" s="13"/>
-      <c r="AJ44" s="25"/>
-      <c r="AK44" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="AL44" s="25"/>
-      <c r="AM44" s="25"/>
-      <c r="AN44" s="26"/>
-      <c r="AO44" s="30"/>
-      <c r="AP44" s="31"/>
+      <c r="AJ44" s="24"/>
+      <c r="AK44" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL44" s="24"/>
+      <c r="AM44" s="24"/>
+      <c r="AN44" s="25"/>
+      <c r="AO44" s="29"/>
+      <c r="AP44" s="30"/>
     </row>
     <row r="45" ht="55.5" customHeight="1" spans="1:42">
       <c r="A45" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="10"/>
@@ -7478,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M45" s="10">
         <v>0</v>
@@ -7506,7 +7341,7 @@
         <v>72</v>
       </c>
       <c r="AB45" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AC45" s="11" t="s">
         <v>74</v>
@@ -7519,28 +7354,28 @@
       <c r="AG45" s="10"/>
       <c r="AH45" s="10"/>
       <c r="AI45" s="10"/>
-      <c r="AJ45" s="23"/>
-      <c r="AK45" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="AL45" s="23"/>
-      <c r="AM45" s="23"/>
-      <c r="AN45" s="24"/>
-      <c r="AO45" s="30"/>
-      <c r="AP45" s="31"/>
+      <c r="AJ45" s="22"/>
+      <c r="AK45" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="AL45" s="22"/>
+      <c r="AM45" s="22"/>
+      <c r="AN45" s="23"/>
+      <c r="AO45" s="29"/>
+      <c r="AP45" s="30"/>
     </row>
     <row r="46" ht="55.5" customHeight="1" spans="1:42">
       <c r="A46" s="12" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="10">
+      <c r="G46" s="13">
         <v>0</v>
       </c>
       <c r="H46" s="13">
@@ -7556,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M46" s="13">
         <v>0</v>
@@ -7584,7 +7419,7 @@
         <v>72</v>
       </c>
       <c r="AB46" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC46" s="14" t="s">
         <v>74</v>
@@ -7597,25 +7432,25 @@
       <c r="AG46" s="13"/>
       <c r="AH46" s="13"/>
       <c r="AI46" s="13"/>
-      <c r="AJ46" s="25"/>
-      <c r="AK46" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="AL46" s="25"/>
-      <c r="AM46" s="25"/>
-      <c r="AN46" s="26"/>
-      <c r="AO46" s="30"/>
-      <c r="AP46" s="31"/>
+      <c r="AJ46" s="24"/>
+      <c r="AK46" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="AL46" s="24"/>
+      <c r="AM46" s="24"/>
+      <c r="AN46" s="25"/>
+      <c r="AO46" s="29"/>
+      <c r="AP46" s="30"/>
     </row>
-    <row r="47" ht="39" customHeight="1" spans="1:42">
+    <row r="47" ht="49.5" spans="1:42">
       <c r="A47" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -7636,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M47" s="10">
         <v>0</v>
@@ -7646,10 +7481,10 @@
       </c>
       <c r="O47" s="10"/>
       <c r="P47" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
@@ -7668,7 +7503,7 @@
         <v>72</v>
       </c>
       <c r="AB47" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC47" s="11" t="s">
         <v>74</v>
@@ -7681,28 +7516,28 @@
       <c r="AG47" s="10"/>
       <c r="AH47" s="10"/>
       <c r="AI47" s="10"/>
-      <c r="AJ47" s="23"/>
-      <c r="AK47" s="23"/>
-      <c r="AL47" s="23"/>
-      <c r="AM47" s="23"/>
-      <c r="AN47" s="24"/>
-      <c r="AO47" s="30"/>
-      <c r="AP47" s="31"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="22"/>
+      <c r="AL47" s="22"/>
+      <c r="AM47" s="22"/>
+      <c r="AN47" s="23"/>
+      <c r="AO47" s="29"/>
+      <c r="AP47" s="30"/>
     </row>
-    <row r="48" ht="39" customHeight="1" spans="1:42">
+    <row r="48" ht="49.5" spans="1:42">
       <c r="A48" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="10">
+      <c r="G48" s="13">
         <v>0</v>
       </c>
       <c r="H48" s="13">
@@ -7718,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M48" s="13">
         <v>0</v>
@@ -7728,10 +7563,10 @@
       </c>
       <c r="O48" s="13"/>
       <c r="P48" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
@@ -7750,7 +7585,7 @@
         <v>72</v>
       </c>
       <c r="AB48" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AC48" s="14" t="s">
         <v>74</v>
@@ -7763,23 +7598,23 @@
       <c r="AG48" s="13"/>
       <c r="AH48" s="13"/>
       <c r="AI48" s="13"/>
-      <c r="AJ48" s="25"/>
-      <c r="AK48" s="25"/>
-      <c r="AL48" s="25"/>
-      <c r="AM48" s="25"/>
-      <c r="AN48" s="26"/>
-      <c r="AO48" s="30"/>
-      <c r="AP48" s="31"/>
+      <c r="AJ48" s="24"/>
+      <c r="AK48" s="24"/>
+      <c r="AL48" s="24"/>
+      <c r="AM48" s="24"/>
+      <c r="AN48" s="25"/>
+      <c r="AO48" s="29"/>
+      <c r="AP48" s="30"/>
     </row>
-    <row r="49" ht="72" customHeight="1" spans="1:42">
+    <row r="49" ht="49.5" spans="1:42">
       <c r="A49" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -7800,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M49" s="10">
         <v>1</v>
@@ -7830,7 +7665,7 @@
         <v>72</v>
       </c>
       <c r="AB49" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AC49" s="11" t="s">
         <v>74</v>
@@ -7843,28 +7678,28 @@
       <c r="AG49" s="10"/>
       <c r="AH49" s="10"/>
       <c r="AI49" s="10"/>
-      <c r="AJ49" s="23"/>
-      <c r="AK49" s="23"/>
-      <c r="AL49" s="23"/>
-      <c r="AM49" s="23"/>
-      <c r="AN49" s="24"/>
-      <c r="AO49" s="30"/>
-      <c r="AP49" s="31"/>
+      <c r="AJ49" s="22"/>
+      <c r="AK49" s="22"/>
+      <c r="AL49" s="22"/>
+      <c r="AM49" s="22"/>
+      <c r="AN49" s="23"/>
+      <c r="AO49" s="29"/>
+      <c r="AP49" s="30"/>
     </row>
     <row r="50" ht="88.5" customHeight="1" spans="1:42">
       <c r="A50" s="12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="10">
+      <c r="G50" s="13">
         <v>0</v>
       </c>
       <c r="H50" s="13">
@@ -7880,7 +7715,7 @@
         <v>30</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M50" s="13">
         <v>0</v>
@@ -7890,10 +7725,10 @@
       </c>
       <c r="O50" s="13"/>
       <c r="P50" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q50" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
@@ -7912,7 +7747,7 @@
         <v>72</v>
       </c>
       <c r="AB50" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AC50" s="14" t="s">
         <v>74</v>
@@ -7925,23 +7760,23 @@
       <c r="AG50" s="13"/>
       <c r="AH50" s="13"/>
       <c r="AI50" s="13"/>
-      <c r="AJ50" s="25"/>
-      <c r="AK50" s="25"/>
-      <c r="AL50" s="25"/>
-      <c r="AM50" s="25"/>
-      <c r="AN50" s="26"/>
-      <c r="AO50" s="30"/>
-      <c r="AP50" s="31"/>
+      <c r="AJ50" s="24"/>
+      <c r="AK50" s="24"/>
+      <c r="AL50" s="24"/>
+      <c r="AM50" s="24"/>
+      <c r="AN50" s="25"/>
+      <c r="AO50" s="29"/>
+      <c r="AP50" s="30"/>
     </row>
     <row r="51" ht="88.5" customHeight="1" spans="1:42">
       <c r="A51" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -7962,17 +7797,17 @@
         <v>8</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M51" s="10">
         <v>0</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O51" s="10"/>
       <c r="P51" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
@@ -7992,7 +7827,7 @@
         <v>72</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AC51" s="11" t="s">
         <v>74</v>
@@ -8005,28 +7840,28 @@
       <c r="AG51" s="10"/>
       <c r="AH51" s="10"/>
       <c r="AI51" s="10"/>
-      <c r="AJ51" s="23"/>
-      <c r="AK51" s="23"/>
-      <c r="AL51" s="23"/>
-      <c r="AM51" s="23"/>
-      <c r="AN51" s="24"/>
-      <c r="AO51" s="30"/>
-      <c r="AP51" s="31"/>
+      <c r="AJ51" s="22"/>
+      <c r="AK51" s="22"/>
+      <c r="AL51" s="22"/>
+      <c r="AM51" s="22"/>
+      <c r="AN51" s="23"/>
+      <c r="AO51" s="29"/>
+      <c r="AP51" s="30"/>
     </row>
     <row r="52" ht="121.5" customHeight="1" spans="1:42">
       <c r="A52" s="12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
-      <c r="G52" s="10">
+      <c r="G52" s="13">
         <v>0</v>
       </c>
       <c r="H52" s="13">
@@ -8042,7 +7877,7 @@
         <v>4</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M52" s="13">
         <v>0</v>
@@ -8051,13 +7886,13 @@
         <v>0</v>
       </c>
       <c r="O52" s="13"/>
-      <c r="P52" s="10" t="s">
+      <c r="P52" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="Q52" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="R52" s="10" t="s">
+      <c r="Q52" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="R52" s="13" t="s">
         <v>121</v>
       </c>
       <c r="S52" s="13"/>
@@ -8076,7 +7911,7 @@
         <v>72</v>
       </c>
       <c r="AB52" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AC52" s="14" t="s">
         <v>74</v>
@@ -8089,23 +7924,23 @@
       <c r="AG52" s="13"/>
       <c r="AH52" s="13"/>
       <c r="AI52" s="13"/>
-      <c r="AJ52" s="25"/>
-      <c r="AK52" s="25"/>
-      <c r="AL52" s="25"/>
-      <c r="AM52" s="25"/>
-      <c r="AN52" s="26"/>
-      <c r="AO52" s="30"/>
-      <c r="AP52" s="31"/>
+      <c r="AJ52" s="24"/>
+      <c r="AK52" s="24"/>
+      <c r="AL52" s="24"/>
+      <c r="AM52" s="24"/>
+      <c r="AN52" s="25"/>
+      <c r="AO52" s="29"/>
+      <c r="AP52" s="30"/>
     </row>
-    <row r="53" ht="138" customHeight="1" spans="1:42">
+    <row r="53" ht="82.5" spans="1:42">
       <c r="A53" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -8126,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M53" s="10">
         <v>3</v>
@@ -8135,17 +7970,17 @@
         <v>0</v>
       </c>
       <c r="O53" s="10"/>
-      <c r="P53" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q53" s="13" t="s">
+      <c r="P53" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q53" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="R53" s="13" t="s">
+      <c r="R53" s="10" t="s">
         <v>97</v>
       </c>
       <c r="S53" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
@@ -8162,7 +7997,7 @@
         <v>72</v>
       </c>
       <c r="AB53" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC53" s="11" t="s">
         <v>74</v>
@@ -8175,28 +8010,28 @@
       <c r="AG53" s="10"/>
       <c r="AH53" s="10"/>
       <c r="AI53" s="10"/>
-      <c r="AJ53" s="23"/>
-      <c r="AK53" s="23"/>
-      <c r="AL53" s="23"/>
-      <c r="AM53" s="23"/>
-      <c r="AN53" s="24"/>
-      <c r="AO53" s="30"/>
-      <c r="AP53" s="31"/>
+      <c r="AJ53" s="22"/>
+      <c r="AK53" s="22"/>
+      <c r="AL53" s="22"/>
+      <c r="AM53" s="22"/>
+      <c r="AN53" s="23"/>
+      <c r="AO53" s="29"/>
+      <c r="AP53" s="30"/>
     </row>
     <row r="54" ht="72" customHeight="1" spans="1:42">
       <c r="A54" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
-      <c r="G54" s="10">
+      <c r="G54" s="13">
         <v>0</v>
       </c>
       <c r="H54" s="13">
@@ -8212,20 +8047,20 @@
         <v>3</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M54" s="13">
         <v>1</v>
       </c>
       <c r="N54" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O54" s="13"/>
       <c r="P54" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q54" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
@@ -8244,7 +8079,7 @@
         <v>72</v>
       </c>
       <c r="AB54" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AC54" s="14" t="s">
         <v>74</v>
@@ -8257,23 +8092,23 @@
       <c r="AG54" s="13"/>
       <c r="AH54" s="13"/>
       <c r="AI54" s="13"/>
-      <c r="AJ54" s="25"/>
-      <c r="AK54" s="25"/>
-      <c r="AL54" s="25"/>
-      <c r="AM54" s="25"/>
-      <c r="AN54" s="26"/>
-      <c r="AO54" s="30"/>
-      <c r="AP54" s="31"/>
+      <c r="AJ54" s="24"/>
+      <c r="AK54" s="24"/>
+      <c r="AL54" s="24"/>
+      <c r="AM54" s="24"/>
+      <c r="AN54" s="25"/>
+      <c r="AO54" s="29"/>
+      <c r="AP54" s="30"/>
     </row>
     <row r="55" ht="72" customHeight="1" spans="1:42">
       <c r="A55" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
@@ -8294,7 +8129,7 @@
         <v>2</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M55" s="10">
         <v>1</v>
@@ -8303,11 +8138,11 @@
         <v>272</v>
       </c>
       <c r="O55" s="10"/>
-      <c r="P55" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q55" s="13" t="s">
+      <c r="P55" s="10" t="s">
         <v>400</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="R55" s="10" t="s">
         <v>307</v>
@@ -8328,7 +8163,7 @@
         <v>72</v>
       </c>
       <c r="AB55" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AC55" s="11" t="s">
         <v>74</v>
@@ -8341,28 +8176,28 @@
       <c r="AG55" s="10"/>
       <c r="AH55" s="10"/>
       <c r="AI55" s="10"/>
-      <c r="AJ55" s="23"/>
-      <c r="AK55" s="23"/>
-      <c r="AL55" s="23"/>
-      <c r="AM55" s="23"/>
-      <c r="AN55" s="24"/>
-      <c r="AO55" s="30"/>
-      <c r="AP55" s="31"/>
+      <c r="AJ55" s="22"/>
+      <c r="AK55" s="22"/>
+      <c r="AL55" s="22"/>
+      <c r="AM55" s="22"/>
+      <c r="AN55" s="23"/>
+      <c r="AO55" s="29"/>
+      <c r="AP55" s="30"/>
     </row>
     <row r="56" ht="55.5" customHeight="1" spans="1:42">
       <c r="A56" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
-      <c r="G56" s="10">
+      <c r="G56" s="13">
         <v>0</v>
       </c>
       <c r="H56" s="13">
@@ -8378,7 +8213,7 @@
         <v>2</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M56" s="13">
         <v>0</v>
@@ -8388,10 +8223,10 @@
       </c>
       <c r="O56" s="13"/>
       <c r="P56" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q56" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
@@ -8410,7 +8245,7 @@
         <v>72</v>
       </c>
       <c r="AB56" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AC56" s="14" t="s">
         <v>74</v>
@@ -8423,23 +8258,23 @@
       <c r="AG56" s="13"/>
       <c r="AH56" s="13"/>
       <c r="AI56" s="13"/>
-      <c r="AJ56" s="25"/>
-      <c r="AK56" s="25"/>
-      <c r="AL56" s="25"/>
-      <c r="AM56" s="25"/>
-      <c r="AN56" s="26"/>
-      <c r="AO56" s="30"/>
-      <c r="AP56" s="31"/>
+      <c r="AJ56" s="24"/>
+      <c r="AK56" s="24"/>
+      <c r="AL56" s="24"/>
+      <c r="AM56" s="24"/>
+      <c r="AN56" s="25"/>
+      <c r="AO56" s="29"/>
+      <c r="AP56" s="30"/>
     </row>
     <row r="57" ht="39" customHeight="1" spans="1:42">
       <c r="A57" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
@@ -8460,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M57" s="10">
         <v>0</v>
@@ -8470,10 +8305,10 @@
       </c>
       <c r="O57" s="10"/>
       <c r="P57" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
@@ -8492,7 +8327,7 @@
         <v>72</v>
       </c>
       <c r="AB57" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AC57" s="11" t="s">
         <v>74</v>
@@ -8505,28 +8340,28 @@
       <c r="AG57" s="10"/>
       <c r="AH57" s="10"/>
       <c r="AI57" s="10"/>
-      <c r="AJ57" s="23"/>
-      <c r="AK57" s="23"/>
-      <c r="AL57" s="23"/>
-      <c r="AM57" s="23"/>
-      <c r="AN57" s="24"/>
-      <c r="AO57" s="30"/>
-      <c r="AP57" s="31"/>
+      <c r="AJ57" s="22"/>
+      <c r="AK57" s="22"/>
+      <c r="AL57" s="22"/>
+      <c r="AM57" s="22"/>
+      <c r="AN57" s="23"/>
+      <c r="AO57" s="29"/>
+      <c r="AP57" s="30"/>
     </row>
     <row r="58" ht="39" customHeight="1" spans="1:42">
       <c r="A58" s="12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
-      <c r="G58" s="10">
+      <c r="G58" s="13">
         <v>0</v>
       </c>
       <c r="H58" s="13">
@@ -8542,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M58" s="13">
         <v>0</v>
@@ -8552,7 +8387,7 @@
       </c>
       <c r="O58" s="13"/>
       <c r="P58" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
@@ -8572,7 +8407,7 @@
         <v>72</v>
       </c>
       <c r="AB58" s="13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AC58" s="14" t="s">
         <v>74</v>
@@ -8585,23 +8420,23 @@
       <c r="AG58" s="13"/>
       <c r="AH58" s="13"/>
       <c r="AI58" s="13"/>
-      <c r="AJ58" s="25"/>
-      <c r="AK58" s="25"/>
-      <c r="AL58" s="25"/>
-      <c r="AM58" s="25"/>
-      <c r="AN58" s="26"/>
-      <c r="AO58" s="30"/>
-      <c r="AP58" s="31"/>
+      <c r="AJ58" s="24"/>
+      <c r="AK58" s="24"/>
+      <c r="AL58" s="24"/>
+      <c r="AM58" s="24"/>
+      <c r="AN58" s="25"/>
+      <c r="AO58" s="29"/>
+      <c r="AP58" s="30"/>
     </row>
     <row r="59" ht="88.5" customHeight="1" spans="1:42">
       <c r="A59" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
@@ -8622,17 +8457,17 @@
         <v>3</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M59" s="10">
         <v>4</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O59" s="10"/>
       <c r="P59" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
@@ -8652,7 +8487,7 @@
         <v>72</v>
       </c>
       <c r="AB59" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AC59" s="11" t="s">
         <v>74</v>
@@ -8665,28 +8500,28 @@
       <c r="AG59" s="10"/>
       <c r="AH59" s="10"/>
       <c r="AI59" s="10"/>
-      <c r="AJ59" s="23"/>
-      <c r="AK59" s="23"/>
-      <c r="AL59" s="23"/>
-      <c r="AM59" s="23"/>
-      <c r="AN59" s="24"/>
-      <c r="AO59" s="30"/>
-      <c r="AP59" s="31"/>
+      <c r="AJ59" s="22"/>
+      <c r="AK59" s="22"/>
+      <c r="AL59" s="22"/>
+      <c r="AM59" s="22"/>
+      <c r="AN59" s="23"/>
+      <c r="AO59" s="29"/>
+      <c r="AP59" s="30"/>
     </row>
     <row r="60" ht="66" spans="1:42">
       <c r="A60" s="12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
-      <c r="G60" s="10">
+      <c r="G60" s="13">
         <v>0</v>
       </c>
       <c r="H60" s="13">
@@ -8702,17 +8537,17 @@
         <v>3</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M60" s="13">
         <v>4</v>
       </c>
       <c r="N60" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O60" s="13"/>
       <c r="P60" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
@@ -8732,7 +8567,7 @@
         <v>72</v>
       </c>
       <c r="AB60" s="13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AC60" s="14" t="s">
         <v>74</v>
@@ -8745,23 +8580,23 @@
       <c r="AG60" s="13"/>
       <c r="AH60" s="13"/>
       <c r="AI60" s="13"/>
-      <c r="AJ60" s="25"/>
-      <c r="AK60" s="25"/>
-      <c r="AL60" s="25"/>
-      <c r="AM60" s="25"/>
-      <c r="AN60" s="26"/>
-      <c r="AO60" s="30"/>
-      <c r="AP60" s="31"/>
+      <c r="AJ60" s="24"/>
+      <c r="AK60" s="24"/>
+      <c r="AL60" s="24"/>
+      <c r="AM60" s="24"/>
+      <c r="AN60" s="25"/>
+      <c r="AO60" s="29"/>
+      <c r="AP60" s="30"/>
     </row>
     <row r="61" ht="55.5" customHeight="1" spans="1:42">
       <c r="A61" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
@@ -8782,7 +8617,7 @@
         <v>5</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M61" s="10">
         <v>0</v>
@@ -8810,7 +8645,7 @@
         <v>72</v>
       </c>
       <c r="AB61" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AC61" s="11" t="s">
         <v>74</v>
@@ -8823,28 +8658,28 @@
       <c r="AG61" s="10"/>
       <c r="AH61" s="10"/>
       <c r="AI61" s="10"/>
-      <c r="AJ61" s="23"/>
-      <c r="AK61" s="23"/>
-      <c r="AL61" s="23"/>
-      <c r="AM61" s="23"/>
-      <c r="AN61" s="24"/>
-      <c r="AO61" s="30"/>
-      <c r="AP61" s="31"/>
+      <c r="AJ61" s="22"/>
+      <c r="AK61" s="22"/>
+      <c r="AL61" s="22"/>
+      <c r="AM61" s="22"/>
+      <c r="AN61" s="23"/>
+      <c r="AO61" s="29"/>
+      <c r="AP61" s="30"/>
     </row>
     <row r="62" ht="72" customHeight="1" spans="1:42">
       <c r="A62" s="12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
-      <c r="G62" s="10">
+      <c r="G62" s="13">
         <v>0</v>
       </c>
       <c r="H62" s="13">
@@ -8860,7 +8695,7 @@
         <v>6</v>
       </c>
       <c r="L62" s="14" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M62" s="13">
         <v>0</v>
@@ -8870,13 +8705,13 @@
       </c>
       <c r="O62" s="13"/>
       <c r="P62" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q62" s="13" t="s">
         <v>151</v>
       </c>
       <c r="R62" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="S62" s="13" t="s">
         <v>314</v>
@@ -8896,7 +8731,7 @@
         <v>72</v>
       </c>
       <c r="AB62" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AC62" s="14" t="s">
         <v>74</v>
@@ -8909,23 +8744,23 @@
       <c r="AG62" s="13"/>
       <c r="AH62" s="13"/>
       <c r="AI62" s="13"/>
-      <c r="AJ62" s="25"/>
-      <c r="AK62" s="25"/>
-      <c r="AL62" s="25"/>
-      <c r="AM62" s="25"/>
-      <c r="AN62" s="26"/>
-      <c r="AO62" s="30"/>
-      <c r="AP62" s="31"/>
+      <c r="AJ62" s="24"/>
+      <c r="AK62" s="24"/>
+      <c r="AL62" s="24"/>
+      <c r="AM62" s="24"/>
+      <c r="AN62" s="25"/>
+      <c r="AO62" s="29"/>
+      <c r="AP62" s="30"/>
     </row>
     <row r="63" ht="72" customHeight="1" spans="1:42">
       <c r="A63" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
@@ -8946,7 +8781,7 @@
         <v>6</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M63" s="10">
         <v>0</v>
@@ -8956,13 +8791,13 @@
       </c>
       <c r="O63" s="10"/>
       <c r="P63" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q63" s="10" t="s">
         <v>151</v>
       </c>
       <c r="R63" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="S63" s="10" t="s">
         <v>314</v>
@@ -8982,7 +8817,7 @@
         <v>72</v>
       </c>
       <c r="AB63" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AC63" s="11" t="s">
         <v>74</v>
@@ -8995,28 +8830,28 @@
       <c r="AG63" s="10"/>
       <c r="AH63" s="10"/>
       <c r="AI63" s="10"/>
-      <c r="AJ63" s="23"/>
-      <c r="AK63" s="23"/>
-      <c r="AL63" s="23"/>
-      <c r="AM63" s="23"/>
-      <c r="AN63" s="24"/>
-      <c r="AO63" s="30"/>
-      <c r="AP63" s="31"/>
+      <c r="AJ63" s="22"/>
+      <c r="AK63" s="22"/>
+      <c r="AL63" s="22"/>
+      <c r="AM63" s="22"/>
+      <c r="AN63" s="23"/>
+      <c r="AO63" s="29"/>
+      <c r="AP63" s="30"/>
     </row>
     <row r="64" ht="88.5" customHeight="1" spans="1:42">
       <c r="A64" s="12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
-      <c r="G64" s="10">
+      <c r="G64" s="13">
         <v>0</v>
       </c>
       <c r="H64" s="13">
@@ -9032,7 +8867,7 @@
         <v>6</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M64" s="13">
         <v>5</v>
@@ -9042,13 +8877,13 @@
       </c>
       <c r="O64" s="13"/>
       <c r="P64" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q64" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="R64" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S64" s="13" t="s">
         <v>314</v>
@@ -9068,7 +8903,7 @@
         <v>72</v>
       </c>
       <c r="AB64" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AC64" s="14" t="s">
         <v>74</v>
@@ -9081,23 +8916,23 @@
       <c r="AG64" s="13"/>
       <c r="AH64" s="13"/>
       <c r="AI64" s="13"/>
-      <c r="AJ64" s="25"/>
-      <c r="AK64" s="25"/>
-      <c r="AL64" s="25"/>
-      <c r="AM64" s="25"/>
-      <c r="AN64" s="26"/>
-      <c r="AO64" s="30"/>
-      <c r="AP64" s="31"/>
+      <c r="AJ64" s="24"/>
+      <c r="AK64" s="24"/>
+      <c r="AL64" s="24"/>
+      <c r="AM64" s="24"/>
+      <c r="AN64" s="25"/>
+      <c r="AO64" s="29"/>
+      <c r="AP64" s="30"/>
     </row>
-    <row r="65" ht="88.5" customHeight="1" spans="1:42">
+    <row r="65" ht="66" spans="1:42">
       <c r="A65" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
@@ -9118,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M65" s="10">
         <v>6</v>
@@ -9128,13 +8963,13 @@
       </c>
       <c r="O65" s="10"/>
       <c r="P65" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q65" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="R65" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S65" s="10"/>
       <c r="T65" s="10"/>
@@ -9152,7 +8987,7 @@
         <v>72</v>
       </c>
       <c r="AB65" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AC65" s="11" t="s">
         <v>74</v>
@@ -9165,28 +9000,28 @@
       <c r="AG65" s="10"/>
       <c r="AH65" s="10"/>
       <c r="AI65" s="10"/>
-      <c r="AJ65" s="23"/>
-      <c r="AK65" s="23"/>
-      <c r="AL65" s="23"/>
-      <c r="AM65" s="23"/>
-      <c r="AN65" s="24"/>
-      <c r="AO65" s="30"/>
-      <c r="AP65" s="31"/>
+      <c r="AJ65" s="22"/>
+      <c r="AK65" s="22"/>
+      <c r="AL65" s="22"/>
+      <c r="AM65" s="22"/>
+      <c r="AN65" s="23"/>
+      <c r="AO65" s="29"/>
+      <c r="AP65" s="30"/>
     </row>
     <row r="66" ht="66" spans="1:42">
       <c r="A66" s="12" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
-      <c r="G66" s="10">
+      <c r="G66" s="13">
         <v>0</v>
       </c>
       <c r="H66" s="13">
@@ -9202,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M66" s="13">
         <v>0</v>
@@ -9212,10 +9047,14 @@
       </c>
       <c r="O66" s="13"/>
       <c r="P66" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="13"/>
+        <v>475</v>
+      </c>
+      <c r="Q66" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="R66" s="13" t="s">
+        <v>477</v>
+      </c>
       <c r="S66" s="13"/>
       <c r="T66" s="13"/>
       <c r="U66" s="13"/>
@@ -9232,7 +9071,7 @@
         <v>72</v>
       </c>
       <c r="AB66" s="13" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AC66" s="14" t="s">
         <v>74</v>
@@ -9245,23 +9084,23 @@
       <c r="AG66" s="13"/>
       <c r="AH66" s="13"/>
       <c r="AI66" s="13"/>
-      <c r="AJ66" s="25"/>
-      <c r="AK66" s="25"/>
-      <c r="AL66" s="25"/>
-      <c r="AM66" s="25"/>
-      <c r="AN66" s="26"/>
-      <c r="AO66" s="30"/>
-      <c r="AP66" s="31"/>
+      <c r="AJ66" s="24"/>
+      <c r="AK66" s="24"/>
+      <c r="AL66" s="24"/>
+      <c r="AM66" s="24"/>
+      <c r="AN66" s="25"/>
+      <c r="AO66" s="29"/>
+      <c r="AP66" s="30"/>
     </row>
     <row r="67" ht="105" customHeight="1" spans="1:42">
       <c r="A67" s="9" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
@@ -9282,7 +9121,7 @@
         <v>2</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="M67" s="10">
         <v>6</v>
@@ -9292,13 +9131,13 @@
       </c>
       <c r="O67" s="10"/>
       <c r="P67" s="10" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="Q67" s="10" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="R67" s="10" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="S67" s="10"/>
       <c r="T67" s="10"/>
@@ -9316,7 +9155,7 @@
         <v>72</v>
       </c>
       <c r="AB67" s="10" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AC67" s="11" t="s">
         <v>74</v>
@@ -9329,28 +9168,28 @@
       <c r="AG67" s="10"/>
       <c r="AH67" s="10"/>
       <c r="AI67" s="10"/>
-      <c r="AJ67" s="23"/>
-      <c r="AK67" s="23"/>
-      <c r="AL67" s="23"/>
-      <c r="AM67" s="23"/>
-      <c r="AN67" s="24"/>
-      <c r="AO67" s="30"/>
-      <c r="AP67" s="31"/>
+      <c r="AJ67" s="22"/>
+      <c r="AK67" s="22"/>
+      <c r="AL67" s="22"/>
+      <c r="AM67" s="22"/>
+      <c r="AN67" s="23"/>
+      <c r="AO67" s="29"/>
+      <c r="AP67" s="30"/>
     </row>
     <row r="68" ht="88.5" customHeight="1" spans="1:42">
       <c r="A68" s="12" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
-      <c r="G68" s="10">
+      <c r="G68" s="13">
         <v>0</v>
       </c>
       <c r="H68" s="13">
@@ -9366,18 +9205,24 @@
         <v>0</v>
       </c>
       <c r="L68" s="14" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M68" s="13">
         <v>6</v>
       </c>
-      <c r="N68" s="13">
-        <v>0</v>
+      <c r="N68" s="13" t="s">
+        <v>382</v>
       </c>
       <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="13"/>
+      <c r="P68" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q68" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="R68" s="13" t="s">
+        <v>470</v>
+      </c>
       <c r="S68" s="13"/>
       <c r="T68" s="13"/>
       <c r="U68" s="13"/>
@@ -9394,7 +9239,7 @@
         <v>72</v>
       </c>
       <c r="AB68" s="13" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AC68" s="14" t="s">
         <v>74</v>
@@ -9407,23 +9252,23 @@
       <c r="AG68" s="13"/>
       <c r="AH68" s="13"/>
       <c r="AI68" s="13"/>
-      <c r="AJ68" s="25"/>
-      <c r="AK68" s="25"/>
-      <c r="AL68" s="25"/>
-      <c r="AM68" s="25"/>
-      <c r="AN68" s="26"/>
-      <c r="AO68" s="30"/>
-      <c r="AP68" s="31"/>
+      <c r="AJ68" s="24"/>
+      <c r="AK68" s="24"/>
+      <c r="AL68" s="24"/>
+      <c r="AM68" s="24"/>
+      <c r="AN68" s="25"/>
+      <c r="AO68" s="29"/>
+      <c r="AP68" s="30"/>
     </row>
     <row r="69" ht="55.5" customHeight="1" spans="1:42">
       <c r="A69" s="9" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -9444,16 +9289,18 @@
         <v>0</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M69" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N69" s="10">
         <v>0</v>
       </c>
       <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
+      <c r="P69" s="10" t="s">
+        <v>497</v>
+      </c>
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
@@ -9472,7 +9319,7 @@
         <v>72</v>
       </c>
       <c r="AB69" s="10" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="AC69" s="11" t="s">
         <v>74</v>
@@ -9485,28 +9332,28 @@
       <c r="AG69" s="10"/>
       <c r="AH69" s="10"/>
       <c r="AI69" s="10"/>
-      <c r="AJ69" s="23"/>
-      <c r="AK69" s="23"/>
-      <c r="AL69" s="23"/>
-      <c r="AM69" s="23"/>
-      <c r="AN69" s="24"/>
-      <c r="AO69" s="30"/>
-      <c r="AP69" s="31"/>
+      <c r="AJ69" s="22"/>
+      <c r="AK69" s="22"/>
+      <c r="AL69" s="22"/>
+      <c r="AM69" s="22"/>
+      <c r="AN69" s="23"/>
+      <c r="AO69" s="29"/>
+      <c r="AP69" s="30"/>
     </row>
     <row r="70" ht="105" customHeight="1" spans="1:42">
       <c r="A70" s="12" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
-      <c r="G70" s="10">
+      <c r="G70" s="13">
         <v>0</v>
       </c>
       <c r="H70" s="13">
@@ -9522,17 +9369,21 @@
         <v>4</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="M70" s="13">
-        <v>0</v>
-      </c>
-      <c r="N70" s="13">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>382</v>
       </c>
       <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
+      <c r="P70" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q70" s="13" t="s">
+        <v>504</v>
+      </c>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
       <c r="T70" s="13"/>
@@ -9544,13 +9395,13 @@
         <v>0</v>
       </c>
       <c r="Z70" s="19">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="AA70" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AB70" s="13" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AC70" s="14" t="s">
         <v>74</v>
@@ -9563,23 +9414,23 @@
       <c r="AG70" s="13"/>
       <c r="AH70" s="13"/>
       <c r="AI70" s="13"/>
-      <c r="AJ70" s="25"/>
-      <c r="AK70" s="25"/>
-      <c r="AL70" s="25"/>
-      <c r="AM70" s="25"/>
-      <c r="AN70" s="26"/>
-      <c r="AO70" s="30"/>
-      <c r="AP70" s="31"/>
+      <c r="AJ70" s="24"/>
+      <c r="AK70" s="24"/>
+      <c r="AL70" s="24"/>
+      <c r="AM70" s="24"/>
+      <c r="AN70" s="25"/>
+      <c r="AO70" s="29"/>
+      <c r="AP70" s="30"/>
     </row>
-    <row r="71" ht="105" customHeight="1" spans="1:42">
+    <row r="71" ht="82.5" spans="1:42">
       <c r="A71" s="9" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
@@ -9600,13 +9451,13 @@
         <v>5</v>
       </c>
       <c r="L71" s="11" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="M71" s="10">
-        <v>0</v>
-      </c>
-      <c r="N71" s="10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
@@ -9628,7 +9479,7 @@
         <v>72</v>
       </c>
       <c r="AB71" s="10" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="AC71" s="11" t="s">
         <v>74</v>
@@ -9641,28 +9492,28 @@
       <c r="AG71" s="10"/>
       <c r="AH71" s="10"/>
       <c r="AI71" s="10"/>
-      <c r="AJ71" s="23"/>
-      <c r="AK71" s="23"/>
-      <c r="AL71" s="23"/>
-      <c r="AM71" s="23"/>
-      <c r="AN71" s="24"/>
-      <c r="AO71" s="30"/>
-      <c r="AP71" s="31"/>
+      <c r="AJ71" s="22"/>
+      <c r="AK71" s="22"/>
+      <c r="AL71" s="22"/>
+      <c r="AM71" s="22"/>
+      <c r="AN71" s="23"/>
+      <c r="AO71" s="29"/>
+      <c r="AP71" s="30"/>
     </row>
-    <row r="72" ht="121.5" customHeight="1" spans="1:42">
+    <row r="72" ht="49.5" spans="1:42">
       <c r="A72" s="12" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
-      <c r="G72" s="10">
+      <c r="G72" s="13">
         <v>0</v>
       </c>
       <c r="H72" s="13">
@@ -9678,17 +9529,21 @@
         <v>3</v>
       </c>
       <c r="L72" s="14" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="M72" s="13">
-        <v>0</v>
-      </c>
-      <c r="N72" s="13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
+      <c r="P72" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q72" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
       <c r="T72" s="13"/>
@@ -9700,13 +9555,13 @@
         <v>0</v>
       </c>
       <c r="Z72" s="19">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="AA72" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AB72" s="13" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="AC72" s="14" t="s">
         <v>74</v>
@@ -9719,23 +9574,23 @@
       <c r="AG72" s="13"/>
       <c r="AH72" s="13"/>
       <c r="AI72" s="13"/>
-      <c r="AJ72" s="25"/>
-      <c r="AK72" s="25"/>
-      <c r="AL72" s="25"/>
-      <c r="AM72" s="25"/>
-      <c r="AN72" s="26"/>
-      <c r="AO72" s="30"/>
-      <c r="AP72" s="31"/>
+      <c r="AJ72" s="24"/>
+      <c r="AK72" s="24"/>
+      <c r="AL72" s="24"/>
+      <c r="AM72" s="24"/>
+      <c r="AN72" s="25"/>
+      <c r="AO72" s="29"/>
+      <c r="AP72" s="30"/>
     </row>
     <row r="73" ht="105" customHeight="1" spans="1:42">
       <c r="A73" s="9" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -9756,17 +9611,21 @@
         <v>4</v>
       </c>
       <c r="L73" s="11" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="M73" s="10">
-        <v>0</v>
-      </c>
-      <c r="N73" s="10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>382</v>
       </c>
       <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
+      <c r="P73" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q73" s="10" t="s">
+        <v>521</v>
+      </c>
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
       <c r="T73" s="10"/>
@@ -9778,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="Z73" s="18">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AA73" s="10" t="s">
         <v>72</v>
       </c>
       <c r="AB73" s="10" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="AC73" s="11" t="s">
         <v>74</v>
@@ -9797,28 +9656,28 @@
       <c r="AG73" s="10"/>
       <c r="AH73" s="10"/>
       <c r="AI73" s="10"/>
-      <c r="AJ73" s="23"/>
-      <c r="AK73" s="23"/>
-      <c r="AL73" s="23"/>
-      <c r="AM73" s="23"/>
-      <c r="AN73" s="24"/>
-      <c r="AO73" s="30"/>
-      <c r="AP73" s="31"/>
+      <c r="AJ73" s="22"/>
+      <c r="AK73" s="22"/>
+      <c r="AL73" s="22"/>
+      <c r="AM73" s="22"/>
+      <c r="AN73" s="23"/>
+      <c r="AO73" s="29"/>
+      <c r="AP73" s="30"/>
     </row>
     <row r="74" ht="55.5" customHeight="1" spans="1:42">
       <c r="A74" s="12" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
-      <c r="G74" s="10">
+      <c r="G74" s="13">
         <v>0</v>
       </c>
       <c r="H74" s="13">
@@ -9834,10 +9693,10 @@
         <v>10</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="M74" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" s="13">
         <v>0</v>
@@ -9862,7 +9721,7 @@
         <v>72</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="AC74" s="14" t="s">
         <v>74</v>
@@ -9875,23 +9734,23 @@
       <c r="AG74" s="13"/>
       <c r="AH74" s="13"/>
       <c r="AI74" s="13"/>
-      <c r="AJ74" s="25"/>
-      <c r="AK74" s="25"/>
-      <c r="AL74" s="25"/>
-      <c r="AM74" s="25"/>
-      <c r="AN74" s="26"/>
-      <c r="AO74" s="30"/>
-      <c r="AP74" s="31"/>
+      <c r="AJ74" s="24"/>
+      <c r="AK74" s="24"/>
+      <c r="AL74" s="24"/>
+      <c r="AM74" s="24"/>
+      <c r="AN74" s="25"/>
+      <c r="AO74" s="29"/>
+      <c r="AP74" s="30"/>
     </row>
     <row r="75" ht="88.5" customHeight="1" spans="1:42">
       <c r="A75" s="9" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
@@ -9912,17 +9771,21 @@
         <v>8</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="M75" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N75" s="10">
         <v>0</v>
       </c>
       <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
+      <c r="P75" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q75" s="10" t="s">
+        <v>533</v>
+      </c>
       <c r="R75" s="10"/>
       <c r="S75" s="10"/>
       <c r="T75" s="10"/>
@@ -9940,7 +9803,7 @@
         <v>72</v>
       </c>
       <c r="AB75" s="10" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="AC75" s="11" t="s">
         <v>74</v>
@@ -9953,28 +9816,28 @@
       <c r="AG75" s="10"/>
       <c r="AH75" s="10"/>
       <c r="AI75" s="10"/>
-      <c r="AJ75" s="23"/>
-      <c r="AK75" s="23"/>
-      <c r="AL75" s="23"/>
-      <c r="AM75" s="23"/>
-      <c r="AN75" s="24"/>
-      <c r="AO75" s="30"/>
-      <c r="AP75" s="31"/>
+      <c r="AJ75" s="22"/>
+      <c r="AK75" s="22"/>
+      <c r="AL75" s="22"/>
+      <c r="AM75" s="22"/>
+      <c r="AN75" s="23"/>
+      <c r="AO75" s="29"/>
+      <c r="AP75" s="30"/>
     </row>
-    <row r="76" ht="105" customHeight="1" spans="1:42">
+    <row r="76" ht="66" spans="1:42">
       <c r="A76" s="12" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
-      <c r="G76" s="10">
+      <c r="G76" s="13">
         <v>0</v>
       </c>
       <c r="H76" s="13">
@@ -9990,17 +9853,21 @@
         <v>4</v>
       </c>
       <c r="L76" s="14" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="M76" s="13">
-        <v>0</v>
-      </c>
-      <c r="N76" s="13">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N76" s="13" t="s">
+        <v>382</v>
       </c>
       <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
+      <c r="P76" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q76" s="13" t="s">
+        <v>539</v>
+      </c>
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
       <c r="T76" s="13"/>
@@ -10012,13 +9879,13 @@
         <v>0</v>
       </c>
       <c r="Z76" s="19">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="AA76" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AB76" s="13" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="AC76" s="14" t="s">
         <v>74</v>
@@ -10031,23 +9898,23 @@
       <c r="AG76" s="13"/>
       <c r="AH76" s="13"/>
       <c r="AI76" s="13"/>
-      <c r="AJ76" s="25"/>
-      <c r="AK76" s="25"/>
-      <c r="AL76" s="25"/>
-      <c r="AM76" s="25"/>
-      <c r="AN76" s="26"/>
-      <c r="AO76" s="30"/>
-      <c r="AP76" s="31"/>
+      <c r="AJ76" s="24"/>
+      <c r="AK76" s="24"/>
+      <c r="AL76" s="24"/>
+      <c r="AM76" s="24"/>
+      <c r="AN76" s="25"/>
+      <c r="AO76" s="29"/>
+      <c r="AP76" s="30"/>
     </row>
-    <row r="77" ht="105" customHeight="1" spans="1:42">
+    <row r="77" ht="66" spans="1:42">
       <c r="A77" s="9" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
@@ -10068,17 +9935,21 @@
         <v>3</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="M77" s="10">
-        <v>0</v>
-      </c>
-      <c r="N77" s="10">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N77" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
+      <c r="P77" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q77" s="10" t="s">
+        <v>539</v>
+      </c>
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
       <c r="T77" s="10"/>
@@ -10090,13 +9961,13 @@
         <v>0</v>
       </c>
       <c r="Z77" s="18">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="AA77" s="10" t="s">
         <v>72</v>
       </c>
       <c r="AB77" s="10" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="AC77" s="11" t="s">
         <v>74</v>
@@ -10109,28 +9980,28 @@
       <c r="AG77" s="10"/>
       <c r="AH77" s="10"/>
       <c r="AI77" s="10"/>
-      <c r="AJ77" s="23"/>
-      <c r="AK77" s="23"/>
-      <c r="AL77" s="23"/>
-      <c r="AM77" s="23"/>
-      <c r="AN77" s="24"/>
-      <c r="AO77" s="30"/>
-      <c r="AP77" s="31"/>
+      <c r="AJ77" s="22"/>
+      <c r="AK77" s="22"/>
+      <c r="AL77" s="22"/>
+      <c r="AM77" s="22"/>
+      <c r="AN77" s="23"/>
+      <c r="AO77" s="29"/>
+      <c r="AP77" s="30"/>
     </row>
     <row r="78" ht="88.5" customHeight="1" spans="1:42">
       <c r="A78" s="12" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
-      <c r="G78" s="10">
+      <c r="G78" s="13">
         <v>0</v>
       </c>
       <c r="H78" s="13">
@@ -10146,17 +10017,21 @@
         <v>4</v>
       </c>
       <c r="L78" s="14" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="M78" s="13">
-        <v>0</v>
-      </c>
-      <c r="N78" s="13">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N78" s="13" t="s">
+        <v>250</v>
       </c>
       <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
+      <c r="P78" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q78" s="13" t="s">
+        <v>497</v>
+      </c>
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
       <c r="T78" s="13"/>
@@ -10168,13 +10043,13 @@
         <v>0</v>
       </c>
       <c r="Z78" s="19">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="AA78" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AB78" s="13" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="AC78" s="14" t="s">
         <v>74</v>
@@ -10187,23 +10062,23 @@
       <c r="AG78" s="13"/>
       <c r="AH78" s="13"/>
       <c r="AI78" s="13"/>
-      <c r="AJ78" s="25"/>
-      <c r="AK78" s="25"/>
-      <c r="AL78" s="25"/>
-      <c r="AM78" s="25"/>
-      <c r="AN78" s="26"/>
-      <c r="AO78" s="30"/>
-      <c r="AP78" s="31"/>
+      <c r="AJ78" s="24"/>
+      <c r="AK78" s="24"/>
+      <c r="AL78" s="24"/>
+      <c r="AM78" s="24"/>
+      <c r="AN78" s="25"/>
+      <c r="AO78" s="29"/>
+      <c r="AP78" s="30"/>
     </row>
-    <row r="79" ht="72" customHeight="1" spans="1:42">
+    <row r="79" ht="82.5" spans="1:42">
       <c r="A79" s="9" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
@@ -10221,22 +10096,30 @@
         <v>1</v>
       </c>
       <c r="K79" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="M79" s="10">
-        <v>0</v>
-      </c>
-      <c r="N79" s="10">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N79" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
+      <c r="P79" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q79" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="R79" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="S79" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="T79" s="10"/>
       <c r="U79" s="10"/>
       <c r="V79" s="10"/>
@@ -10252,7 +10135,7 @@
         <v>72</v>
       </c>
       <c r="AB79" s="10" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="AC79" s="11" t="s">
         <v>74</v>
@@ -10265,28 +10148,28 @@
       <c r="AG79" s="10"/>
       <c r="AH79" s="10"/>
       <c r="AI79" s="10"/>
-      <c r="AJ79" s="23"/>
-      <c r="AK79" s="23"/>
-      <c r="AL79" s="23"/>
-      <c r="AM79" s="23"/>
-      <c r="AN79" s="24"/>
-      <c r="AO79" s="30"/>
-      <c r="AP79" s="31"/>
+      <c r="AJ79" s="22"/>
+      <c r="AK79" s="22"/>
+      <c r="AL79" s="22"/>
+      <c r="AM79" s="22"/>
+      <c r="AN79" s="23"/>
+      <c r="AO79" s="29"/>
+      <c r="AP79" s="30"/>
     </row>
     <row r="80" ht="105" customHeight="1" spans="1:42">
       <c r="A80" s="12" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
-      <c r="G80" s="10">
+      <c r="G80" s="13">
         <v>0</v>
       </c>
       <c r="H80" s="13">
@@ -10302,17 +10185,21 @@
         <v>4</v>
       </c>
       <c r="L80" s="14" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="M80" s="13">
-        <v>0</v>
-      </c>
-      <c r="N80" s="13">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N80" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="13"/>
+      <c r="P80" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q80" s="13" t="s">
+        <v>566</v>
+      </c>
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
       <c r="T80" s="13"/>
@@ -10324,13 +10211,13 @@
         <v>0</v>
       </c>
       <c r="Z80" s="19">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="AA80" s="13" t="s">
         <v>72</v>
       </c>
       <c r="AB80" s="13" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="AC80" s="14" t="s">
         <v>74</v>
@@ -10343,23 +10230,23 @@
       <c r="AG80" s="13"/>
       <c r="AH80" s="13"/>
       <c r="AI80" s="13"/>
-      <c r="AJ80" s="25"/>
-      <c r="AK80" s="25"/>
-      <c r="AL80" s="25"/>
-      <c r="AM80" s="25"/>
-      <c r="AN80" s="26"/>
-      <c r="AO80" s="30"/>
-      <c r="AP80" s="31"/>
+      <c r="AJ80" s="24"/>
+      <c r="AK80" s="24"/>
+      <c r="AL80" s="24"/>
+      <c r="AM80" s="24"/>
+      <c r="AN80" s="25"/>
+      <c r="AO80" s="29"/>
+      <c r="AP80" s="30"/>
     </row>
-    <row r="81" ht="121.5" customHeight="1" spans="1:42">
+    <row r="81" ht="82.5" spans="1:42">
       <c r="A81" s="9" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
@@ -10380,18 +10267,24 @@
         <v>8</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="M81" s="10">
-        <v>0</v>
-      </c>
-      <c r="N81" s="10">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N81" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="10"/>
+      <c r="P81" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q81" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="R81" s="10" t="s">
+        <v>572</v>
+      </c>
       <c r="S81" s="10"/>
       <c r="T81" s="10"/>
       <c r="U81" s="10"/>
@@ -10408,7 +10301,7 @@
         <v>72</v>
       </c>
       <c r="AB81" s="10" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="AC81" s="11" t="s">
         <v>74</v>
@@ -10421,28 +10314,28 @@
       <c r="AG81" s="10"/>
       <c r="AH81" s="10"/>
       <c r="AI81" s="10"/>
-      <c r="AJ81" s="23"/>
-      <c r="AK81" s="23"/>
-      <c r="AL81" s="23"/>
-      <c r="AM81" s="23"/>
-      <c r="AN81" s="24"/>
-      <c r="AO81" s="30"/>
-      <c r="AP81" s="31"/>
+      <c r="AJ81" s="22"/>
+      <c r="AK81" s="22"/>
+      <c r="AL81" s="22"/>
+      <c r="AM81" s="22"/>
+      <c r="AN81" s="23"/>
+      <c r="AO81" s="29"/>
+      <c r="AP81" s="30"/>
     </row>
-    <row r="82" ht="121.5" customHeight="1" spans="1:42">
+    <row r="82" ht="82.5" spans="1:42">
       <c r="A82" s="12" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
-      <c r="G82" s="10">
+      <c r="G82" s="13">
         <v>0</v>
       </c>
       <c r="H82" s="13">
@@ -10458,18 +10351,24 @@
         <v>5</v>
       </c>
       <c r="L82" s="14" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="M82" s="13">
-        <v>0</v>
-      </c>
-      <c r="N82" s="13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N82" s="13" t="s">
+        <v>578</v>
       </c>
       <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="13"/>
+      <c r="P82" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q82" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="R82" s="13" t="s">
+        <v>572</v>
+      </c>
       <c r="S82" s="13"/>
       <c r="T82" s="13"/>
       <c r="U82" s="13"/>
@@ -10486,7 +10385,7 @@
         <v>72</v>
       </c>
       <c r="AB82" s="13" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="AC82" s="14" t="s">
         <v>74</v>
@@ -10499,23 +10398,23 @@
       <c r="AG82" s="13"/>
       <c r="AH82" s="13"/>
       <c r="AI82" s="13"/>
-      <c r="AJ82" s="25"/>
-      <c r="AK82" s="25"/>
-      <c r="AL82" s="25"/>
-      <c r="AM82" s="25"/>
-      <c r="AN82" s="26"/>
-      <c r="AO82" s="30"/>
-      <c r="AP82" s="31"/>
+      <c r="AJ82" s="24"/>
+      <c r="AK82" s="24"/>
+      <c r="AL82" s="24"/>
+      <c r="AM82" s="24"/>
+      <c r="AN82" s="25"/>
+      <c r="AO82" s="29"/>
+      <c r="AP82" s="30"/>
     </row>
-    <row r="83" ht="121.5" customHeight="1" spans="1:42">
+    <row r="83" ht="82.5" spans="1:42">
       <c r="A83" s="9" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
@@ -10536,18 +10435,24 @@
         <v>8</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="M83" s="10">
-        <v>0</v>
-      </c>
-      <c r="N83" s="10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N83" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
-      <c r="R83" s="10"/>
+      <c r="P83" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q83" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="R83" s="10" t="s">
+        <v>572</v>
+      </c>
       <c r="S83" s="10"/>
       <c r="T83" s="10"/>
       <c r="U83" s="10"/>
@@ -10564,7 +10469,7 @@
         <v>72</v>
       </c>
       <c r="AB83" s="10" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="AC83" s="11" t="s">
         <v>74</v>
@@ -10577,28 +10482,28 @@
       <c r="AG83" s="10"/>
       <c r="AH83" s="10"/>
       <c r="AI83" s="10"/>
-      <c r="AJ83" s="23"/>
-      <c r="AK83" s="23"/>
-      <c r="AL83" s="23"/>
-      <c r="AM83" s="23"/>
-      <c r="AN83" s="24"/>
-      <c r="AO83" s="30"/>
-      <c r="AP83" s="31"/>
+      <c r="AJ83" s="22"/>
+      <c r="AK83" s="22"/>
+      <c r="AL83" s="22"/>
+      <c r="AM83" s="22"/>
+      <c r="AN83" s="23"/>
+      <c r="AO83" s="29"/>
+      <c r="AP83" s="30"/>
     </row>
     <row r="84" ht="105" customHeight="1" spans="1:42">
       <c r="A84" s="12" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
-      <c r="G84" s="10">
+      <c r="G84" s="13">
         <v>0</v>
       </c>
       <c r="H84" s="13">
@@ -10614,20 +10519,30 @@
         <v>8</v>
       </c>
       <c r="L84" s="14" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="M84" s="13">
-        <v>0</v>
-      </c>
-      <c r="N84" s="13">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="N84" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="13"/>
+      <c r="P84" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q84" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="R84" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="S84" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="T84" s="13" t="s">
+        <v>587</v>
+      </c>
       <c r="U84" s="13"/>
       <c r="V84" s="13"/>
       <c r="W84" s="13"/>
@@ -10642,7 +10557,7 @@
         <v>72</v>
       </c>
       <c r="AB84" s="13" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="AC84" s="14" t="s">
         <v>74</v>
@@ -10655,301 +10570,126 @@
       <c r="AG84" s="13"/>
       <c r="AH84" s="13"/>
       <c r="AI84" s="13"/>
-      <c r="AJ84" s="25"/>
-      <c r="AK84" s="25"/>
-      <c r="AL84" s="25"/>
-      <c r="AM84" s="25"/>
-      <c r="AN84" s="26"/>
-      <c r="AO84" s="30"/>
-      <c r="AP84" s="31"/>
+      <c r="AJ84" s="24"/>
+      <c r="AK84" s="24"/>
+      <c r="AL84" s="24"/>
+      <c r="AM84" s="24"/>
+      <c r="AN84" s="25"/>
+      <c r="AO84" s="29"/>
+      <c r="AP84" s="30"/>
     </row>
     <row r="85" ht="39" customHeight="1" spans="1:42">
-      <c r="A85" s="32" t="s">
-        <v>567</v>
-      </c>
-      <c r="B85" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="C85" s="34"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33">
-        <v>1</v>
-      </c>
-      <c r="H85" s="33">
+      <c r="A85" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="C85" s="33"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32">
+        <v>1</v>
+      </c>
+      <c r="H85" s="32">
         <v>4</v>
       </c>
-      <c r="I85" s="33">
+      <c r="I85" s="32">
         <v>100</v>
       </c>
-      <c r="J85" s="33">
-        <v>1</v>
-      </c>
-      <c r="K85" s="43">
-        <v>0</v>
-      </c>
-      <c r="L85" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="M85" s="33">
-        <v>0</v>
-      </c>
-      <c r="N85" s="33">
-        <v>0</v>
-      </c>
-      <c r="O85" s="33"/>
-      <c r="P85" s="33"/>
-      <c r="Q85" s="33"/>
-      <c r="R85" s="33"/>
-      <c r="S85" s="33"/>
-      <c r="T85" s="33"/>
-      <c r="U85" s="33"/>
-      <c r="V85" s="33"/>
-      <c r="W85" s="33"/>
-      <c r="X85" s="33"/>
-      <c r="Y85" s="43">
-        <v>0</v>
-      </c>
-      <c r="Z85" s="43">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="33" t="s">
+      <c r="J85" s="32">
+        <v>1</v>
+      </c>
+      <c r="K85" s="34">
+        <v>0</v>
+      </c>
+      <c r="L85" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="M85" s="32">
+        <v>0</v>
+      </c>
+      <c r="N85" s="32">
+        <v>0</v>
+      </c>
+      <c r="O85" s="32"/>
+      <c r="P85" s="32"/>
+      <c r="Q85" s="32"/>
+      <c r="R85" s="32"/>
+      <c r="S85" s="32"/>
+      <c r="T85" s="32"/>
+      <c r="U85" s="32"/>
+      <c r="V85" s="32"/>
+      <c r="W85" s="32"/>
+      <c r="X85" s="32"/>
+      <c r="Y85" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="34">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AB85" s="33" t="s">
-        <v>562</v>
-      </c>
-      <c r="AC85" s="34" t="s">
+      <c r="AB85" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC85" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="AD85" s="33">
-        <v>1</v>
-      </c>
-      <c r="AE85" s="43"/>
-      <c r="AF85" s="43"/>
-      <c r="AG85" s="33"/>
-      <c r="AH85" s="33"/>
-      <c r="AI85" s="33"/>
-      <c r="AJ85" s="46"/>
-      <c r="AK85" s="46"/>
-      <c r="AL85" s="46"/>
-      <c r="AM85" s="46"/>
-      <c r="AN85" s="47"/>
-      <c r="AO85" s="30"/>
-      <c r="AP85" s="31"/>
+      <c r="AD85" s="32">
+        <v>1</v>
+      </c>
+      <c r="AE85" s="34"/>
+      <c r="AF85" s="34"/>
+      <c r="AG85" s="32"/>
+      <c r="AH85" s="32"/>
+      <c r="AI85" s="32"/>
+      <c r="AJ85" s="35"/>
+      <c r="AK85" s="35"/>
+      <c r="AL85" s="35"/>
+      <c r="AM85" s="35"/>
+      <c r="AN85" s="36"/>
+      <c r="AO85" s="29"/>
+      <c r="AP85" s="30"/>
     </row>
-    <row r="86" ht="51.5" customHeight="1" spans="1:42">
-      <c r="A86" s="35"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="44"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="38"/>
-      <c r="Q86" s="38"/>
-      <c r="R86" s="38"/>
-      <c r="S86" s="38"/>
-      <c r="T86" s="38"/>
-      <c r="U86" s="38"/>
-      <c r="V86" s="38"/>
-      <c r="W86" s="38"/>
-      <c r="X86" s="38"/>
-      <c r="Y86" s="44"/>
-      <c r="Z86" s="44"/>
-      <c r="AA86" s="38"/>
-      <c r="AB86" s="36"/>
-      <c r="AC86" s="37"/>
-      <c r="AD86" s="38"/>
-      <c r="AE86" s="44"/>
-      <c r="AF86" s="44"/>
-      <c r="AG86" s="38"/>
-      <c r="AH86" s="38"/>
-      <c r="AI86" s="38"/>
-      <c r="AJ86" s="48"/>
-      <c r="AK86" s="48"/>
-      <c r="AL86" s="48"/>
-      <c r="AM86" s="48"/>
-      <c r="AN86" s="49"/>
-      <c r="AO86" s="30"/>
-      <c r="AP86" s="31"/>
-    </row>
-    <row r="87" ht="51.5" customHeight="1" spans="1:42">
-      <c r="A87" s="39"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="42"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="42"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="42"/>
-      <c r="N87" s="42"/>
-      <c r="O87" s="42"/>
-      <c r="P87" s="42"/>
-      <c r="Q87" s="42"/>
-      <c r="R87" s="42"/>
-      <c r="S87" s="42"/>
-      <c r="T87" s="42"/>
-      <c r="U87" s="42"/>
-      <c r="V87" s="42"/>
-      <c r="W87" s="42"/>
-      <c r="X87" s="42"/>
-      <c r="Y87" s="45"/>
-      <c r="Z87" s="45"/>
-      <c r="AA87" s="42"/>
-      <c r="AB87" s="40"/>
-      <c r="AC87" s="41"/>
-      <c r="AD87" s="42"/>
-      <c r="AE87" s="45"/>
-      <c r="AF87" s="45"/>
-      <c r="AG87" s="42"/>
-      <c r="AH87" s="42"/>
-      <c r="AI87" s="42"/>
-      <c r="AJ87" s="50"/>
-      <c r="AK87" s="50"/>
-      <c r="AL87" s="50"/>
-      <c r="AM87" s="50"/>
-      <c r="AN87" s="51"/>
-      <c r="AO87" s="30"/>
-      <c r="AP87" s="31"/>
-    </row>
-    <row r="88" ht="51.5" customHeight="1" spans="1:42">
-      <c r="A88" s="39"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="41"/>
-      <c r="M88" s="42"/>
-      <c r="N88" s="42"/>
-      <c r="O88" s="42"/>
-      <c r="P88" s="42"/>
-      <c r="Q88" s="42"/>
-      <c r="R88" s="42"/>
-      <c r="S88" s="42"/>
-      <c r="T88" s="42"/>
-      <c r="U88" s="42"/>
-      <c r="V88" s="42"/>
-      <c r="W88" s="42"/>
-      <c r="X88" s="42"/>
-      <c r="Y88" s="45"/>
-      <c r="Z88" s="45"/>
-      <c r="AA88" s="42"/>
-      <c r="AB88" s="40"/>
-      <c r="AC88" s="41"/>
-      <c r="AD88" s="42"/>
-      <c r="AE88" s="45"/>
-      <c r="AF88" s="45"/>
-      <c r="AG88" s="42"/>
-      <c r="AH88" s="42"/>
-      <c r="AI88" s="42"/>
-      <c r="AJ88" s="50"/>
-      <c r="AK88" s="50"/>
-      <c r="AL88" s="50"/>
-      <c r="AM88" s="50"/>
-      <c r="AN88" s="51"/>
-      <c r="AO88" s="30"/>
-      <c r="AP88" s="31"/>
-    </row>
-    <row r="89" ht="51.5" customHeight="1" spans="1:42">
-      <c r="A89" s="39"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="45"/>
-      <c r="L89" s="41"/>
-      <c r="M89" s="42"/>
-      <c r="N89" s="42"/>
-      <c r="O89" s="42"/>
-      <c r="P89" s="42"/>
-      <c r="Q89" s="42"/>
-      <c r="R89" s="42"/>
-      <c r="S89" s="42"/>
-      <c r="T89" s="42"/>
-      <c r="U89" s="42"/>
-      <c r="V89" s="42"/>
-      <c r="W89" s="42"/>
-      <c r="X89" s="42"/>
-      <c r="Y89" s="45"/>
-      <c r="Z89" s="45"/>
-      <c r="AA89" s="42"/>
-      <c r="AB89" s="40"/>
-      <c r="AC89" s="41"/>
-      <c r="AD89" s="42"/>
-      <c r="AE89" s="45"/>
-      <c r="AF89" s="45"/>
-      <c r="AG89" s="42"/>
-      <c r="AH89" s="42"/>
-      <c r="AI89" s="42"/>
-      <c r="AJ89" s="50"/>
-      <c r="AK89" s="50"/>
-      <c r="AL89" s="50"/>
-      <c r="AM89" s="50"/>
-      <c r="AN89" s="51"/>
-      <c r="AO89" s="30"/>
-      <c r="AP89" s="31"/>
-    </row>
+    <row r="86" ht="14.25"/>
   </sheetData>
   <autoFilter ref="A1:AP85">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="between" text="arms_t9">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="between" text="arms_t9">
       <formula>NOT(ISERROR(SEARCH("arms_t9",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="between" text="arms_t8">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="between" text="arms_t8">
       <formula>NOT(ISERROR(SEARCH("arms_t8",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="between" text="arms_t7">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="between" text="arms_t7">
       <formula>NOT(ISERROR(SEARCH("arms_t7",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="between" text="arms_t6">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="between" text="arms_t6">
       <formula>NOT(ISERROR(SEARCH("arms_t6",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="between" text="arms_t5">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="between" text="arms_t5">
       <formula>NOT(ISERROR(SEARCH("arms_t5",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="14" operator="between" text="arms_t4">
+    <cfRule type="containsText" dxfId="5" priority="15" operator="between" text="arms_t4">
       <formula>NOT(ISERROR(SEARCH("arms_t4",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="15" operator="between" text="arms_t3">
+    <cfRule type="containsText" dxfId="6" priority="16" operator="between" text="arms_t3">
       <formula>NOT(ISERROR(SEARCH("arms_t3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="16" operator="between" text="arms_t2">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="between" text="arms_t2">
       <formula>NOT(ISERROR(SEARCH("arms_t2",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="17" operator="between" text="arms_t1">
+    <cfRule type="containsText" dxfId="8" priority="18" operator="between" text="arms_t1">
       <formula>NOT(ISERROR(SEARCH("arms_t1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G$1:G$1048576">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10961,7 +10701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H$1:H$1048576">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10971,7 +10711,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I$1:I$1048576">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10981,6 +10721,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K$1:K$1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M$1:M$1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/excels/abilities/arms.xlsx
+++ b/excels/abilities/arms.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="646">
   <si>
     <t>名字</t>
   </si>
@@ -46,33 +46,33 @@
   </si>
   <si>
     <t>类型</t>
-  </si>
-  <si>
-    <t>禁用</t>
-  </si>
-  <si>
-    <t>物品品质</t>
-  </si>
-  <si>
-    <t>第一次选择必然出现技能</t>
-  </si>
-  <si>
-    <t>出现概率（同品质有度有效 自动稀释）</t>
-  </si>
-  <si>
-    <t>最大等级</t>
-  </si>
-  <si>
-    <t>冷却</t>
-  </si>
-  <si>
-    <t>图标</t>
   </si>
   <si>
     <t>元素类型
 1火2冰3雷4风5光6暗</t>
   </si>
   <si>
+    <t>禁用</t>
+  </si>
+  <si>
+    <t>物品品质</t>
+  </si>
+  <si>
+    <t>第一次选择必然出现技能</t>
+  </si>
+  <si>
+    <t>出现概率（同品质有度有效 自动稀释）</t>
+  </si>
+  <si>
+    <t>最大等级</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
     <t>伤害公式</t>
   </si>
   <si>
@@ -145,6 +145,9 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Element</t>
+  </si>
+  <si>
     <t>Disable</t>
   </si>
   <si>
@@ -164,9 +167,6 @@
   </si>
   <si>
     <t>AbilityTextureName</t>
-  </si>
-  <si>
-    <t>Element</t>
   </si>
   <si>
     <t>DamageFormula</t>
@@ -324,7 +324,7 @@
 伤害公式：%DamageFormula%</t>
   </si>
   <si>
-    <t>召唤型/计数型</t>
+    <t>召唤型</t>
   </si>
   <si>
     <t>wisp_spirits</t>
@@ -409,6 +409,9 @@
     <t>咒术型/持续型</t>
   </si>
   <si>
+    <t>10,3</t>
+  </si>
+  <si>
     <t>ogre_magi_ignite</t>
   </si>
   <si>
@@ -437,7 +440,7 @@
 伤害公式：%DamageFormula%</t>
   </si>
   <si>
-    <t>计数型/伤害型</t>
+    <t>伤害型</t>
   </si>
   <si>
     <t>windrunner_powershot</t>
@@ -506,6 +509,9 @@
   <si>
     <t>向目标释放分叉闪电,并额外对目标%aoe_radius%范围内的%extra_count%个敌人进行打击
 伤害公式：%DamageFormula%</t>
+  </si>
+  <si>
+    <t>计数型/伤害型</t>
   </si>
   <si>
     <t>shadow_shaman_ether_shock</t>
@@ -772,9 +778,6 @@
 伤害公式：%DamageFormula%</t>
   </si>
   <si>
-    <t>伤害型</t>
-  </si>
-  <si>
     <t>bristleback_quill_spray</t>
   </si>
   <si>
@@ -888,9 +891,6 @@
   </si>
   <si>
     <t>3,4,6,7</t>
-  </si>
-  <si>
-    <t>召唤型</t>
   </si>
   <si>
     <t>dragon_knight_corrosive</t>
@@ -2042,7 +2042,13 @@
     <t>收益</t>
   </si>
   <si>
+    <t>咒术</t>
+  </si>
+  <si>
     <t>伤害型技能伤害结果+20%</t>
+  </si>
+  <si>
+    <t>投射</t>
   </si>
   <si>
     <t>理财型技能收益效果+20%</t>
@@ -3330,16 +3336,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{90B94DC4-CE51-4E61-962B-7982E1276A24}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C4EF35DE-3294-42E9-A7E9-D85A9582492D}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{CB55447A-CB36-4F43-8409-781D45A10BC4}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5B2E7354-CA64-43C7-8EFD-EDDE7EE88B26}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{D812DACD-51CF-425E-80E8-F56EB7110926}">
+    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{F2A53119-9E0A-43DF-B8D1-3FD8C96C1283}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstColumn" dxfId="14"/>
@@ -3651,10 +3657,10 @@
   <sheetPr/>
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D84" sqref="D84"/>
+      <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3666,14 +3672,14 @@
     <col min="5" max="5" width="11.5083333333333" style="4" customWidth="1"/>
     <col min="6" max="6" width="21" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.8416666666667" customWidth="1"/>
-    <col min="8" max="8" width="11.3416666666667" customWidth="1"/>
-    <col min="9" max="9" width="12.3416666666667" customWidth="1"/>
-    <col min="10" max="10" width="21.875" customWidth="1"/>
-    <col min="11" max="11" width="21.625" customWidth="1"/>
-    <col min="12" max="12" width="13.3416666666667" customWidth="1"/>
-    <col min="13" max="13" width="21.675" customWidth="1"/>
-    <col min="14" max="14" width="50.625" customWidth="1"/>
-    <col min="15" max="15" width="24.0083333333333" customWidth="1"/>
+    <col min="8" max="8" width="24.0083333333333" customWidth="1"/>
+    <col min="9" max="9" width="11.3416666666667" customWidth="1"/>
+    <col min="10" max="10" width="12.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="21.875" customWidth="1"/>
+    <col min="12" max="12" width="21.625" customWidth="1"/>
+    <col min="13" max="13" width="13.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="21.675" customWidth="1"/>
+    <col min="15" max="15" width="50.625" customWidth="1"/>
     <col min="16" max="16" width="26.3416666666667" customWidth="1"/>
     <col min="17" max="17" width="18.3416666666667" customWidth="1"/>
     <col min="18" max="19" width="25.8416666666667" customWidth="1"/>
@@ -3734,10 +3740,10 @@
       <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="16" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="7" t="s">
@@ -3852,10 +3858,10 @@
       <c r="L2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O2" s="9" t="s">
@@ -3977,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="L3" s="11">
-        <v>1</v>
-      </c>
-      <c r="M3" s="19">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <v>1</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="O3" s="11">
-        <v>0</v>
       </c>
       <c r="P3" s="11">
         <v>0</v>
@@ -4054,23 +4060,23 @@
       <c r="I4" s="14">
         <v>0</v>
       </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <v>1</v>
-      </c>
-      <c r="M4" s="20">
-        <v>0</v>
-      </c>
-      <c r="N4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <v>1</v>
+      </c>
+      <c r="N4" s="20">
+        <v>0</v>
+      </c>
+      <c r="O4" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="O4" s="14">
-        <v>0</v>
       </c>
       <c r="P4" s="14">
         <v>0</v>
@@ -4143,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="L5" s="11">
-        <v>1</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>1</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0</v>
       </c>
       <c r="P5" s="11">
         <v>0</v>
@@ -4218,23 +4224,23 @@
       <c r="I6" s="14">
         <v>0</v>
       </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="14">
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
         <v>0</v>
       </c>
       <c r="L6" s="14">
-        <v>1</v>
-      </c>
-      <c r="M6" s="20">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <v>1</v>
+      </c>
+      <c r="N6" s="20">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0</v>
       </c>
       <c r="P6" s="14">
         <v>0</v>
@@ -4307,16 +4313,16 @@
         <v>0</v>
       </c>
       <c r="L7" s="11">
-        <v>1</v>
-      </c>
-      <c r="M7" s="19">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>1</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="O7" s="11">
-        <v>0</v>
       </c>
       <c r="P7" s="11">
         <v>0</v>
@@ -4382,23 +4388,23 @@
       <c r="I8" s="14">
         <v>0</v>
       </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="14">
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
         <v>0</v>
       </c>
       <c r="L8" s="14">
-        <v>1</v>
-      </c>
-      <c r="M8" s="20">
-        <v>0</v>
-      </c>
-      <c r="N8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
+        <v>1</v>
+      </c>
+      <c r="N8" s="20">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0</v>
       </c>
       <c r="P8" s="14">
         <v>0</v>
@@ -4471,16 +4477,16 @@
         <v>0</v>
       </c>
       <c r="L9" s="11">
-        <v>1</v>
-      </c>
-      <c r="M9" s="19">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="O9" s="11">
-        <v>0</v>
       </c>
       <c r="P9" s="11">
         <v>0</v>
@@ -4541,30 +4547,32 @@
       <c r="F10" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="14">
+        <v>8</v>
+      </c>
       <c r="H10" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="14">
         <v>1</v>
       </c>
       <c r="K10" s="14">
+        <v>1</v>
+      </c>
+      <c r="L10" s="14">
         <v>100</v>
       </c>
-      <c r="L10" s="14">
-        <v>1</v>
-      </c>
-      <c r="M10" s="20">
+      <c r="M10" s="14">
+        <v>1</v>
+      </c>
+      <c r="N10" s="20">
         <v>2</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="O10" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="O10" s="14">
-        <v>4</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>97</v>
@@ -4633,30 +4641,32 @@
       <c r="F11" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="11">
+        <v>4</v>
+      </c>
       <c r="H11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
         <v>100</v>
       </c>
-      <c r="L11" s="11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="19">
+      <c r="M11" s="11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="19">
         <v>2</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="O11" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0</v>
       </c>
       <c r="P11" s="11">
         <v>0</v>
@@ -4719,30 +4729,32 @@
       <c r="F12" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14">
+        <v>6</v>
+      </c>
       <c r="H12" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
         <v>100</v>
       </c>
-      <c r="L12" s="14">
-        <v>1</v>
-      </c>
-      <c r="M12" s="20">
-        <v>1</v>
-      </c>
-      <c r="N12" s="15" t="s">
+      <c r="M12" s="14">
+        <v>1</v>
+      </c>
+      <c r="N12" s="20">
+        <v>1</v>
+      </c>
+      <c r="O12" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="O12" s="14">
-        <v>0</v>
       </c>
       <c r="P12" s="14">
         <v>0</v>
@@ -4809,43 +4821,45 @@
       <c r="F13" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="H13" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="11">
         <v>1</v>
       </c>
       <c r="K13" s="11">
+        <v>1</v>
+      </c>
+      <c r="L13" s="11">
         <v>100</v>
       </c>
-      <c r="L13" s="11">
-        <v>1</v>
-      </c>
-      <c r="M13" s="19">
+      <c r="M13" s="11">
+        <v>1</v>
+      </c>
+      <c r="N13" s="19">
         <v>4</v>
       </c>
-      <c r="N13" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="O13" s="11">
-        <v>1</v>
+      <c r="O13" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
@@ -4863,7 +4877,7 @@
         <v>74</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AE13" s="12" t="s">
         <v>76</v>
@@ -4886,57 +4900,57 @@
     </row>
     <row r="14" ht="72" customHeight="1" spans="1:44">
       <c r="A14" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="14">
         <v>1</v>
       </c>
       <c r="K14" s="14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="14">
         <v>100</v>
       </c>
-      <c r="L14" s="14">
-        <v>1</v>
-      </c>
-      <c r="M14" s="20">
+      <c r="M14" s="14">
+        <v>1</v>
+      </c>
+      <c r="N14" s="20">
         <v>3</v>
       </c>
-      <c r="N14" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="O14" s="14">
-        <v>4</v>
+      <c r="O14" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="U14" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
@@ -4953,7 +4967,7 @@
         <v>74</v>
       </c>
       <c r="AD14" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AE14" s="15" t="s">
         <v>76</v>
@@ -4976,54 +4990,54 @@
     </row>
     <row r="15" ht="55.5" customHeight="1" spans="1:44">
       <c r="A15" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="11">
         <v>1</v>
       </c>
       <c r="K15" s="11">
+        <v>1</v>
+      </c>
+      <c r="L15" s="11">
         <v>100</v>
       </c>
-      <c r="L15" s="11">
-        <v>1</v>
-      </c>
-      <c r="M15" s="19">
+      <c r="M15" s="11">
+        <v>1</v>
+      </c>
+      <c r="N15" s="19">
         <v>3</v>
       </c>
-      <c r="N15" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="O15" s="11">
-        <v>2</v>
+      <c r="O15" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
@@ -5041,7 +5055,7 @@
         <v>74</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE15" s="12" t="s">
         <v>76</v>
@@ -5064,13 +5078,13 @@
     </row>
     <row r="16" ht="39" customHeight="1" spans="1:44">
       <c r="A16" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -5079,28 +5093,28 @@
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I16" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="14">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
         <v>100</v>
       </c>
-      <c r="L16" s="14">
-        <v>1</v>
-      </c>
-      <c r="M16" s="20">
-        <v>1</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="O16" s="14">
-        <v>0</v>
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
+      <c r="N16" s="20">
+        <v>1</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="P16" s="14">
         <v>0</v>
@@ -5108,10 +5122,10 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
@@ -5129,7 +5143,7 @@
         <v>74</v>
       </c>
       <c r="AD16" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AE16" s="15" t="s">
         <v>76</v>
@@ -5152,59 +5166,59 @@
     </row>
     <row r="17" ht="72" customHeight="1" spans="1:44">
       <c r="A17" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
         <v>2</v>
       </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
       <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
         <v>100</v>
       </c>
-      <c r="L17" s="11">
-        <v>1</v>
-      </c>
-      <c r="M17" s="19">
+      <c r="M17" s="11">
+        <v>1</v>
+      </c>
+      <c r="N17" s="19">
         <v>3</v>
       </c>
-      <c r="N17" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O17" s="11">
-        <v>3</v>
+      <c r="O17" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
@@ -5221,7 +5235,7 @@
         <v>74</v>
       </c>
       <c r="AD17" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AE17" s="12" t="s">
         <v>76</v>
@@ -5244,53 +5258,53 @@
     </row>
     <row r="18" ht="88.5" customHeight="1" spans="1:44">
       <c r="A18" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" s="14">
+        <v>0</v>
+      </c>
+      <c r="J18" s="14">
         <v>2</v>
       </c>
-      <c r="J18" s="14">
-        <v>0</v>
-      </c>
       <c r="K18" s="14">
+        <v>0</v>
+      </c>
+      <c r="L18" s="14">
         <v>100</v>
       </c>
-      <c r="L18" s="14">
-        <v>1</v>
-      </c>
-      <c r="M18" s="20">
-        <v>1</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="O18" s="14">
-        <v>4</v>
+      <c r="M18" s="14">
+        <v>1</v>
+      </c>
+      <c r="N18" s="20">
+        <v>1</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="14" t="s">
         <v>115</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -5309,7 +5323,7 @@
         <v>74</v>
       </c>
       <c r="AD18" s="14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AE18" s="15" t="s">
         <v>76</v>
@@ -5323,7 +5337,7 @@
       <c r="AJ18" s="14"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AM18" s="22"/>
       <c r="AN18" s="22"/>
@@ -5334,45 +5348,45 @@
     </row>
     <row r="19" ht="39" customHeight="1" spans="1:44">
       <c r="A19" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>113</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
         <v>2</v>
       </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
       <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
         <v>100</v>
       </c>
-      <c r="L19" s="11">
-        <v>1</v>
-      </c>
-      <c r="M19" s="19">
-        <v>1</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="O19" s="11">
-        <v>0</v>
+      <c r="M19" s="11">
+        <v>1</v>
+      </c>
+      <c r="N19" s="19">
+        <v>1</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="P19" s="11">
         <v>0</v>
@@ -5382,13 +5396,13 @@
         <v>115</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
@@ -5405,7 +5419,7 @@
         <v>74</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AE19" s="12" t="s">
         <v>76</v>
@@ -5428,13 +5442,13 @@
     </row>
     <row r="20" ht="39" customHeight="1" spans="1:44">
       <c r="A20" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14">
@@ -5445,28 +5459,28 @@
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20" s="14">
+        <v>0</v>
+      </c>
+      <c r="J20" s="14">
         <v>2</v>
       </c>
-      <c r="J20" s="14">
-        <v>0</v>
-      </c>
       <c r="K20" s="14">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14">
         <v>100</v>
       </c>
-      <c r="L20" s="14">
-        <v>1</v>
-      </c>
-      <c r="M20" s="20">
-        <v>1</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="O20" s="14">
-        <v>0</v>
+      <c r="M20" s="14">
+        <v>1</v>
+      </c>
+      <c r="N20" s="20">
+        <v>1</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="P20" s="14">
         <v>0</v>
@@ -5476,13 +5490,13 @@
         <v>115</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="T20" s="14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="U20" s="14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
@@ -5499,7 +5513,7 @@
         <v>74</v>
       </c>
       <c r="AD20" s="14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AE20" s="15" t="s">
         <v>76</v>
@@ -5522,13 +5536,13 @@
     </row>
     <row r="21" ht="39" customHeight="1" spans="1:44">
       <c r="A21" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
@@ -5539,28 +5553,28 @@
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
         <v>2</v>
       </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
       <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
         <v>100</v>
       </c>
-      <c r="L21" s="11">
-        <v>1</v>
-      </c>
-      <c r="M21" s="19">
-        <v>0</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="O21" s="11">
-        <v>0</v>
+      <c r="M21" s="11">
+        <v>1</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="P21" s="11">
         <v>0</v>
@@ -5570,13 +5584,13 @@
         <v>115</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
@@ -5593,7 +5607,7 @@
         <v>74</v>
       </c>
       <c r="AD21" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AE21" s="12" t="s">
         <v>76</v>
@@ -5616,62 +5630,62 @@
     </row>
     <row r="22" ht="88.5" customHeight="1" spans="1:44">
       <c r="A22" s="13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="14">
+        <v>0</v>
+      </c>
+      <c r="J22" s="14">
         <v>2</v>
       </c>
-      <c r="J22" s="14">
-        <v>0</v>
-      </c>
       <c r="K22" s="14">
+        <v>0</v>
+      </c>
+      <c r="L22" s="14">
         <v>100</v>
       </c>
-      <c r="L22" s="14">
-        <v>1</v>
-      </c>
-      <c r="M22" s="20">
+      <c r="M22" s="14">
+        <v>1</v>
+      </c>
+      <c r="N22" s="20">
         <v>3.5</v>
       </c>
-      <c r="N22" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="O22" s="14">
-        <v>1</v>
+      <c r="O22" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="14"/>
       <c r="R22" s="14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="S22" s="14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="T22" s="14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U22" s="14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V22" s="14" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
@@ -5687,7 +5701,7 @@
         <v>74</v>
       </c>
       <c r="AD22" s="14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AE22" s="15" t="s">
         <v>76</v>
@@ -5710,13 +5724,13 @@
     </row>
     <row r="23" ht="55.5" customHeight="1" spans="1:44">
       <c r="A23" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -5725,28 +5739,28 @@
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
         <v>2</v>
       </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
       <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
         <v>100</v>
       </c>
-      <c r="L23" s="11">
-        <v>1</v>
-      </c>
-      <c r="M23" s="19">
-        <v>0</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="O23" s="11">
-        <v>0</v>
+      <c r="M23" s="11">
+        <v>1</v>
+      </c>
+      <c r="N23" s="19">
+        <v>0</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="P23" s="11">
         <v>0</v>
@@ -5756,16 +5770,16 @@
         <v>115</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
@@ -5781,7 +5795,7 @@
         <v>74</v>
       </c>
       <c r="AD23" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AE23" s="12" t="s">
         <v>76</v>
@@ -5804,59 +5818,59 @@
     </row>
     <row r="24" ht="72" customHeight="1" spans="1:44">
       <c r="A24" s="13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="14">
+        <v>0</v>
+      </c>
+      <c r="J24" s="14">
         <v>2</v>
       </c>
-      <c r="J24" s="14">
-        <v>0</v>
-      </c>
       <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
         <v>100</v>
       </c>
-      <c r="L24" s="14">
-        <v>1</v>
-      </c>
-      <c r="M24" s="20">
+      <c r="M24" s="14">
+        <v>1</v>
+      </c>
+      <c r="N24" s="20">
         <v>4</v>
       </c>
-      <c r="N24" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="O24" s="14">
-        <v>0</v>
+      <c r="O24" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q24" s="14"/>
       <c r="R24" s="14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S24" s="14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="T24" s="14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
@@ -5873,7 +5887,7 @@
         <v>74</v>
       </c>
       <c r="AD24" s="14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AE24" s="15" t="s">
         <v>76</v>
@@ -5896,62 +5910,62 @@
     </row>
     <row r="25" ht="55.5" customHeight="1" spans="1:44">
       <c r="A25" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
         <v>3</v>
       </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
       <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
         <v>100</v>
       </c>
-      <c r="L25" s="11">
+      <c r="M25" s="11">
         <v>5</v>
       </c>
-      <c r="M25" s="19">
+      <c r="N25" s="19">
         <v>10</v>
       </c>
-      <c r="N25" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="O25" s="11">
-        <v>0</v>
+      <c r="O25" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="P25" s="11">
         <v>0</v>
       </c>
       <c r="Q25" s="11"/>
       <c r="R25" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U25" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
@@ -5967,7 +5981,7 @@
         <v>74</v>
       </c>
       <c r="AD25" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AE25" s="12" t="s">
         <v>76</v>
@@ -5990,13 +6004,13 @@
     </row>
     <row r="26" ht="55.5" customHeight="1" spans="1:44">
       <c r="A26" s="13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>111</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -6005,38 +6019,38 @@
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I26" s="14">
+        <v>0</v>
+      </c>
+      <c r="J26" s="14">
         <v>3</v>
       </c>
-      <c r="J26" s="14">
-        <v>0</v>
-      </c>
       <c r="K26" s="14">
+        <v>0</v>
+      </c>
+      <c r="L26" s="14">
         <v>100</v>
       </c>
-      <c r="L26" s="14">
-        <v>1</v>
-      </c>
-      <c r="M26" s="20">
-        <v>1</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="O26" s="14">
-        <v>0</v>
+      <c r="M26" s="14">
+        <v>1</v>
+      </c>
+      <c r="N26" s="20">
+        <v>1</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>236</v>
       </c>
       <c r="P26" s="14">
         <v>0</v>
       </c>
       <c r="Q26" s="14"/>
       <c r="R26" s="14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S26" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
@@ -6055,7 +6069,7 @@
         <v>74</v>
       </c>
       <c r="AD26" s="14" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AE26" s="15" t="s">
         <v>76</v>
@@ -6078,50 +6092,50 @@
     </row>
     <row r="27" ht="55.5" customHeight="1" spans="1:44">
       <c r="A27" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>240</v>
+        <v>133</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
         <v>3</v>
       </c>
-      <c r="J27" s="11">
-        <v>0</v>
-      </c>
       <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
         <v>100</v>
       </c>
-      <c r="L27" s="11">
-        <v>1</v>
-      </c>
-      <c r="M27" s="19">
+      <c r="M27" s="11">
+        <v>1</v>
+      </c>
+      <c r="N27" s="19">
         <v>3</v>
       </c>
-      <c r="N27" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="O27" s="11">
-        <v>0</v>
+      <c r="O27" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q27" s="11"/>
       <c r="R27" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
@@ -6141,7 +6155,7 @@
         <v>74</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AE27" s="12" t="s">
         <v>76</v>
@@ -6164,53 +6178,53 @@
     </row>
     <row r="28" ht="39" customHeight="1" spans="1:44">
       <c r="A28" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I28" s="14">
+        <v>0</v>
+      </c>
+      <c r="J28" s="14">
         <v>3</v>
       </c>
-      <c r="J28" s="14">
-        <v>0</v>
-      </c>
       <c r="K28" s="14">
+        <v>0</v>
+      </c>
+      <c r="L28" s="14">
         <v>100</v>
       </c>
-      <c r="L28" s="14">
-        <v>1</v>
-      </c>
-      <c r="M28" s="20">
-        <v>1</v>
-      </c>
-      <c r="N28" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="O28" s="14">
-        <v>0</v>
+      <c r="M28" s="14">
+        <v>1</v>
+      </c>
+      <c r="N28" s="20">
+        <v>1</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="P28" s="14">
         <v>0</v>
       </c>
       <c r="Q28" s="14"/>
       <c r="R28" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S28" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
@@ -6229,7 +6243,7 @@
         <v>74</v>
       </c>
       <c r="AD28" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AE28" s="15" t="s">
         <v>76</v>
@@ -6252,53 +6266,53 @@
     </row>
     <row r="29" ht="39" customHeight="1" spans="1:44">
       <c r="A29" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
         <v>3</v>
       </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
       <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
         <v>100</v>
       </c>
-      <c r="L29" s="11">
-        <v>1</v>
-      </c>
-      <c r="M29" s="19">
-        <v>1</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="O29" s="11">
-        <v>0</v>
+      <c r="M29" s="11">
+        <v>1</v>
+      </c>
+      <c r="N29" s="19">
+        <v>1</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="P29" s="11">
         <v>0</v>
       </c>
       <c r="Q29" s="11"/>
       <c r="R29" s="11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
@@ -6317,7 +6331,7 @@
         <v>74</v>
       </c>
       <c r="AD29" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AE29" s="12" t="s">
         <v>76</v>
@@ -6340,56 +6354,56 @@
     </row>
     <row r="30" ht="88.5" customHeight="1" spans="1:44">
       <c r="A30" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="14">
+        <v>0</v>
+      </c>
+      <c r="J30" s="14">
         <v>4</v>
       </c>
-      <c r="J30" s="14">
-        <v>0</v>
-      </c>
       <c r="K30" s="14">
+        <v>0</v>
+      </c>
+      <c r="L30" s="14">
         <v>100</v>
       </c>
-      <c r="L30" s="14">
-        <v>1</v>
-      </c>
-      <c r="M30" s="20">
+      <c r="M30" s="14">
+        <v>1</v>
+      </c>
+      <c r="N30" s="20">
         <v>10</v>
       </c>
-      <c r="N30" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="O30" s="14">
-        <v>1</v>
+      <c r="O30" s="15" t="s">
+        <v>263</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q30" s="14"/>
       <c r="R30" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S30" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T30" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
@@ -6407,7 +6421,7 @@
         <v>74</v>
       </c>
       <c r="AD30" s="14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE30" s="15" t="s">
         <v>76</v>
@@ -6430,50 +6444,50 @@
     </row>
     <row r="31" ht="39" customHeight="1" spans="1:44">
       <c r="A31" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
         <v>4</v>
       </c>
-      <c r="J31" s="11">
-        <v>0</v>
-      </c>
       <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
         <v>100</v>
       </c>
-      <c r="L31" s="11">
-        <v>1</v>
-      </c>
-      <c r="M31" s="19">
-        <v>0</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="O31" s="11">
-        <v>0</v>
+      <c r="M31" s="11">
+        <v>1</v>
+      </c>
+      <c r="N31" s="19">
+        <v>0</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="P31" s="11">
         <v>0</v>
       </c>
       <c r="Q31" s="11"/>
       <c r="R31" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
@@ -6493,7 +6507,7 @@
         <v>74</v>
       </c>
       <c r="AD31" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AE31" s="12" t="s">
         <v>76</v>
@@ -6516,48 +6530,48 @@
     </row>
     <row r="32" ht="105" customHeight="1" spans="1:44">
       <c r="A32" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" s="14">
+        <v>0</v>
+      </c>
+      <c r="J32" s="14">
         <v>4</v>
       </c>
-      <c r="J32" s="14">
-        <v>0</v>
-      </c>
       <c r="K32" s="14">
+        <v>0</v>
+      </c>
+      <c r="L32" s="14">
         <v>100</v>
       </c>
-      <c r="L32" s="14">
-        <v>1</v>
-      </c>
-      <c r="M32" s="20">
+      <c r="M32" s="14">
+        <v>1</v>
+      </c>
+      <c r="N32" s="20">
         <v>15</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="O32" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="O32" s="14">
-        <v>3</v>
-      </c>
       <c r="P32" s="14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="14"/>
       <c r="R32" s="14" t="s">
@@ -6620,35 +6634,35 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
         <v>5</v>
       </c>
-      <c r="J33" s="11">
-        <v>0</v>
-      </c>
       <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
         <v>100</v>
       </c>
-      <c r="L33" s="11">
-        <v>1</v>
-      </c>
-      <c r="M33" s="19">
+      <c r="M33" s="11">
+        <v>1</v>
+      </c>
+      <c r="N33" s="19">
         <v>15</v>
       </c>
-      <c r="N33" s="12" t="s">
+      <c r="O33" s="12" t="s">
         <v>279</v>
-      </c>
-      <c r="O33" s="11">
-        <v>4</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>287</v>
@@ -6714,38 +6728,38 @@
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" s="14">
+        <v>0</v>
+      </c>
+      <c r="J34" s="14">
         <v>6</v>
       </c>
-      <c r="J34" s="14">
-        <v>0</v>
-      </c>
       <c r="K34" s="14">
+        <v>0</v>
+      </c>
+      <c r="L34" s="14">
         <v>100</v>
       </c>
-      <c r="L34" s="14">
-        <v>1</v>
-      </c>
-      <c r="M34" s="20">
+      <c r="M34" s="14">
+        <v>1</v>
+      </c>
+      <c r="N34" s="20">
         <v>15</v>
       </c>
-      <c r="N34" s="15" t="s">
+      <c r="O34" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="O34" s="14">
-        <v>2</v>
-      </c>
       <c r="P34" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q34" s="14"/>
       <c r="R34" s="14" t="s">
@@ -6808,38 +6822,38 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
         <v>7</v>
       </c>
-      <c r="J35" s="11">
-        <v>0</v>
-      </c>
       <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
         <v>100</v>
       </c>
-      <c r="L35" s="11">
-        <v>1</v>
-      </c>
-      <c r="M35" s="19">
+      <c r="M35" s="11">
+        <v>1</v>
+      </c>
+      <c r="N35" s="19">
         <v>15</v>
       </c>
-      <c r="N35" s="12" t="s">
+      <c r="O35" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="O35" s="11">
-        <v>1</v>
-      </c>
       <c r="P35" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q35" s="11"/>
       <c r="R35" s="11" t="s">
@@ -6901,32 +6915,32 @@
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="s">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14">
         <v>0</v>
       </c>
       <c r="I36" s="14">
+        <v>0</v>
+      </c>
+      <c r="J36" s="14">
         <v>8</v>
       </c>
-      <c r="J36" s="14">
-        <v>0</v>
-      </c>
       <c r="K36" s="14">
+        <v>0</v>
+      </c>
+      <c r="L36" s="14">
         <v>100</v>
       </c>
-      <c r="L36" s="14">
-        <v>1</v>
-      </c>
-      <c r="M36" s="20">
-        <v>0</v>
-      </c>
-      <c r="N36" s="15" t="s">
+      <c r="M36" s="14">
+        <v>1</v>
+      </c>
+      <c r="N36" s="20">
+        <v>0</v>
+      </c>
+      <c r="O36" s="15" t="s">
         <v>301</v>
-      </c>
-      <c r="O36" s="14">
-        <v>0</v>
       </c>
       <c r="P36" s="14">
         <v>0</v>
@@ -6989,32 +7003,32 @@
         <v>307</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
         <v>9</v>
       </c>
-      <c r="J37" s="11">
-        <v>0</v>
-      </c>
       <c r="K37" s="11">
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
         <v>100</v>
       </c>
-      <c r="L37" s="11">
-        <v>1</v>
-      </c>
-      <c r="M37" s="19">
+      <c r="M37" s="11">
+        <v>1</v>
+      </c>
+      <c r="N37" s="19">
         <v>25</v>
       </c>
-      <c r="N37" s="12" t="s">
+      <c r="O37" s="12" t="s">
         <v>279</v>
-      </c>
-      <c r="O37" s="11">
-        <v>5</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>308</v>
@@ -7081,32 +7095,32 @@
         <v>316</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I38" s="14">
+        <v>0</v>
+      </c>
+      <c r="J38" s="14">
         <v>9</v>
       </c>
-      <c r="J38" s="14">
-        <v>0</v>
-      </c>
       <c r="K38" s="14">
+        <v>0</v>
+      </c>
+      <c r="L38" s="14">
         <v>100</v>
       </c>
-      <c r="L38" s="14">
-        <v>1</v>
-      </c>
-      <c r="M38" s="20">
+      <c r="M38" s="14">
+        <v>1</v>
+      </c>
+      <c r="N38" s="20">
         <v>25</v>
       </c>
-      <c r="N38" s="15" t="s">
+      <c r="O38" s="15" t="s">
         <v>279</v>
-      </c>
-      <c r="O38" s="14">
-        <v>6</v>
       </c>
       <c r="P38" s="14" t="s">
         <v>308</v>
@@ -7175,38 +7189,38 @@
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
         <v>4</v>
       </c>
-      <c r="J39" s="11">
-        <v>0</v>
-      </c>
       <c r="K39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
         <v>100</v>
       </c>
-      <c r="L39" s="11">
-        <v>1</v>
-      </c>
-      <c r="M39" s="19">
+      <c r="M39" s="11">
+        <v>1</v>
+      </c>
+      <c r="N39" s="19">
         <v>4</v>
       </c>
-      <c r="N39" s="12" t="s">
+      <c r="O39" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="O39" s="11">
-        <v>1</v>
-      </c>
       <c r="P39" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q39" s="11"/>
       <c r="R39" s="11" t="s">
         <v>323</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T39" s="11" t="s">
         <v>324</v>
@@ -7265,28 +7279,28 @@
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" s="14">
+        <v>0</v>
+      </c>
+      <c r="J40" s="14">
         <v>4</v>
       </c>
-      <c r="J40" s="14">
-        <v>0</v>
-      </c>
       <c r="K40" s="14">
+        <v>0</v>
+      </c>
+      <c r="L40" s="14">
         <v>100</v>
       </c>
-      <c r="L40" s="14">
-        <v>1</v>
-      </c>
-      <c r="M40" s="20">
+      <c r="M40" s="14">
+        <v>1</v>
+      </c>
+      <c r="N40" s="20">
         <v>4</v>
       </c>
-      <c r="N40" s="15" t="s">
+      <c r="O40" s="15" t="s">
         <v>329</v>
-      </c>
-      <c r="O40" s="14">
-        <v>0</v>
       </c>
       <c r="P40" s="14">
         <v>0</v>
@@ -7299,7 +7313,7 @@
         <v>331</v>
       </c>
       <c r="T40" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U40" s="14" t="s">
         <v>324</v>
@@ -7359,28 +7373,28 @@
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11">
         <v>4</v>
       </c>
-      <c r="J41" s="11">
-        <v>0</v>
-      </c>
       <c r="K41" s="11">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11">
         <v>100</v>
       </c>
-      <c r="L41" s="11">
-        <v>1</v>
-      </c>
-      <c r="M41" s="19">
-        <v>0</v>
-      </c>
-      <c r="N41" s="12" t="s">
+      <c r="M41" s="11">
+        <v>1</v>
+      </c>
+      <c r="N41" s="19">
+        <v>0</v>
+      </c>
+      <c r="O41" s="12" t="s">
         <v>337</v>
-      </c>
-      <c r="O41" s="11">
-        <v>0</v>
       </c>
       <c r="P41" s="11">
         <v>0</v>
@@ -7393,7 +7407,7 @@
         <v>338</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U41" s="11" t="s">
         <v>339</v>
@@ -7451,28 +7465,28 @@
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I42" s="14">
+        <v>0</v>
+      </c>
+      <c r="J42" s="14">
         <v>4</v>
       </c>
-      <c r="J42" s="14">
-        <v>0</v>
-      </c>
       <c r="K42" s="14">
+        <v>0</v>
+      </c>
+      <c r="L42" s="14">
         <v>100</v>
       </c>
-      <c r="L42" s="14">
-        <v>1</v>
-      </c>
-      <c r="M42" s="20">
-        <v>0</v>
-      </c>
-      <c r="N42" s="15" t="s">
+      <c r="M42" s="14">
+        <v>1</v>
+      </c>
+      <c r="N42" s="20">
+        <v>0</v>
+      </c>
+      <c r="O42" s="15" t="s">
         <v>344</v>
-      </c>
-      <c r="O42" s="14">
-        <v>0</v>
       </c>
       <c r="P42" s="14">
         <v>0</v>
@@ -7541,28 +7555,28 @@
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I43" s="11">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11">
         <v>4</v>
       </c>
-      <c r="J43" s="11">
-        <v>0</v>
-      </c>
       <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11">
         <v>100</v>
       </c>
-      <c r="L43" s="11">
-        <v>1</v>
-      </c>
-      <c r="M43" s="19">
-        <v>0</v>
-      </c>
-      <c r="N43" s="12" t="s">
+      <c r="M43" s="11">
+        <v>1</v>
+      </c>
+      <c r="N43" s="19">
+        <v>0</v>
+      </c>
+      <c r="O43" s="12" t="s">
         <v>352</v>
-      </c>
-      <c r="O43" s="11">
-        <v>0</v>
       </c>
       <c r="P43" s="11">
         <v>0</v>
@@ -7627,28 +7641,28 @@
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I44" s="14">
+        <v>0</v>
+      </c>
+      <c r="J44" s="14">
         <v>4</v>
       </c>
-      <c r="J44" s="14">
-        <v>0</v>
-      </c>
       <c r="K44" s="14">
+        <v>0</v>
+      </c>
+      <c r="L44" s="14">
         <v>100</v>
       </c>
-      <c r="L44" s="14">
-        <v>1</v>
-      </c>
-      <c r="M44" s="20">
-        <v>0</v>
-      </c>
-      <c r="N44" s="15" t="s">
+      <c r="M44" s="14">
+        <v>1</v>
+      </c>
+      <c r="N44" s="20">
+        <v>0</v>
+      </c>
+      <c r="O44" s="15" t="s">
         <v>359</v>
-      </c>
-      <c r="O44" s="14">
-        <v>0</v>
       </c>
       <c r="P44" s="14">
         <v>0</v>
@@ -7711,28 +7725,28 @@
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I45" s="11">
+        <v>0</v>
+      </c>
+      <c r="J45" s="11">
         <v>4</v>
       </c>
-      <c r="J45" s="11">
-        <v>0</v>
-      </c>
       <c r="K45" s="11">
+        <v>0</v>
+      </c>
+      <c r="L45" s="11">
         <v>100</v>
       </c>
-      <c r="L45" s="11">
-        <v>1</v>
-      </c>
-      <c r="M45" s="19">
-        <v>0</v>
-      </c>
-      <c r="N45" s="12" t="s">
+      <c r="M45" s="11">
+        <v>1</v>
+      </c>
+      <c r="N45" s="19">
+        <v>0</v>
+      </c>
+      <c r="O45" s="12" t="s">
         <v>364</v>
-      </c>
-      <c r="O45" s="11">
-        <v>0</v>
       </c>
       <c r="P45" s="11">
         <v>0</v>
@@ -7795,28 +7809,28 @@
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I46" s="14">
+        <v>0</v>
+      </c>
+      <c r="J46" s="14">
         <v>4</v>
       </c>
-      <c r="J46" s="14">
-        <v>0</v>
-      </c>
       <c r="K46" s="14">
+        <v>0</v>
+      </c>
+      <c r="L46" s="14">
         <v>100</v>
       </c>
-      <c r="L46" s="14">
-        <v>1</v>
-      </c>
-      <c r="M46" s="20">
-        <v>0</v>
-      </c>
-      <c r="N46" s="15" t="s">
+      <c r="M46" s="14">
+        <v>1</v>
+      </c>
+      <c r="N46" s="20">
+        <v>0</v>
+      </c>
+      <c r="O46" s="15" t="s">
         <v>369</v>
-      </c>
-      <c r="O46" s="14">
-        <v>0</v>
       </c>
       <c r="P46" s="14">
         <v>0</v>
@@ -7881,28 +7895,28 @@
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
         <v>4</v>
       </c>
-      <c r="J47" s="11">
-        <v>0</v>
-      </c>
       <c r="K47" s="11">
+        <v>0</v>
+      </c>
+      <c r="L47" s="11">
         <v>100</v>
       </c>
-      <c r="L47" s="11">
-        <v>1</v>
-      </c>
-      <c r="M47" s="19">
-        <v>0</v>
-      </c>
-      <c r="N47" s="12" t="s">
+      <c r="M47" s="11">
+        <v>1</v>
+      </c>
+      <c r="N47" s="19">
+        <v>0</v>
+      </c>
+      <c r="O47" s="12" t="s">
         <v>376</v>
-      </c>
-      <c r="O47" s="11">
-        <v>0</v>
       </c>
       <c r="P47" s="11">
         <v>0</v>
@@ -7969,28 +7983,28 @@
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I48" s="14">
+        <v>0</v>
+      </c>
+      <c r="J48" s="14">
         <v>4</v>
       </c>
-      <c r="J48" s="14">
-        <v>0</v>
-      </c>
       <c r="K48" s="14">
+        <v>0</v>
+      </c>
+      <c r="L48" s="14">
         <v>100</v>
       </c>
-      <c r="L48" s="14">
-        <v>1</v>
-      </c>
-      <c r="M48" s="20">
-        <v>0</v>
-      </c>
-      <c r="N48" s="15" t="s">
+      <c r="M48" s="14">
+        <v>1</v>
+      </c>
+      <c r="N48" s="20">
+        <v>0</v>
+      </c>
+      <c r="O48" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="O48" s="14">
-        <v>0</v>
       </c>
       <c r="P48" s="14">
         <v>0</v>
@@ -8053,39 +8067,39 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="11">
+        <v>0</v>
+      </c>
+      <c r="J49" s="11">
         <v>4</v>
       </c>
-      <c r="J49" s="11">
-        <v>0</v>
-      </c>
       <c r="K49" s="11">
+        <v>0</v>
+      </c>
+      <c r="L49" s="11">
         <v>100</v>
       </c>
-      <c r="L49" s="11">
-        <v>1</v>
-      </c>
-      <c r="M49" s="19">
-        <v>0</v>
-      </c>
-      <c r="N49" s="12" t="s">
+      <c r="M49" s="11">
+        <v>1</v>
+      </c>
+      <c r="N49" s="19">
+        <v>0</v>
+      </c>
+      <c r="O49" s="12" t="s">
         <v>388</v>
-      </c>
-      <c r="O49" s="11">
-        <v>1</v>
       </c>
       <c r="P49" s="11" t="s">
         <v>308</v>
       </c>
       <c r="Q49" s="11"/>
       <c r="R49" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
@@ -8143,28 +8157,28 @@
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I50" s="14">
+        <v>0</v>
+      </c>
+      <c r="J50" s="14">
         <v>4</v>
       </c>
-      <c r="J50" s="14">
-        <v>0</v>
-      </c>
       <c r="K50" s="14">
+        <v>0</v>
+      </c>
+      <c r="L50" s="14">
         <v>100</v>
       </c>
-      <c r="L50" s="14">
-        <v>1</v>
-      </c>
-      <c r="M50" s="20">
+      <c r="M50" s="14">
+        <v>1</v>
+      </c>
+      <c r="N50" s="20">
         <v>30</v>
       </c>
-      <c r="N50" s="15" t="s">
+      <c r="O50" s="15" t="s">
         <v>394</v>
-      </c>
-      <c r="O50" s="14">
-        <v>0</v>
       </c>
       <c r="P50" s="14">
         <v>0</v>
@@ -8227,32 +8241,32 @@
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
         <v>4</v>
       </c>
-      <c r="J51" s="11">
-        <v>0</v>
-      </c>
       <c r="K51" s="11">
+        <v>0</v>
+      </c>
+      <c r="L51" s="11">
         <v>100</v>
       </c>
-      <c r="L51" s="11">
-        <v>1</v>
-      </c>
-      <c r="M51" s="19">
+      <c r="M51" s="11">
+        <v>1</v>
+      </c>
+      <c r="N51" s="19">
         <v>8</v>
       </c>
-      <c r="N51" s="12" t="s">
+      <c r="O51" s="12" t="s">
         <v>352</v>
-      </c>
-      <c r="O51" s="11">
-        <v>0</v>
       </c>
       <c r="P51" s="11" t="s">
         <v>401</v>
@@ -8317,41 +8331,41 @@
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="14">
+        <v>0</v>
+      </c>
+      <c r="J52" s="14">
         <v>4</v>
       </c>
-      <c r="J52" s="14">
-        <v>0</v>
-      </c>
       <c r="K52" s="14">
+        <v>0</v>
+      </c>
+      <c r="L52" s="14">
         <v>100</v>
       </c>
-      <c r="L52" s="14">
-        <v>1</v>
-      </c>
-      <c r="M52" s="20">
+      <c r="M52" s="14">
+        <v>1</v>
+      </c>
+      <c r="N52" s="20">
         <v>4</v>
       </c>
-      <c r="N52" s="15" t="s">
+      <c r="O52" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="O52" s="14">
-        <v>0</v>
       </c>
       <c r="P52" s="14">
         <v>0</v>
       </c>
       <c r="Q52" s="14"/>
       <c r="R52" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S52" s="14" t="s">
         <v>407</v>
       </c>
       <c r="T52" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U52" s="14"/>
       <c r="V52" s="14"/>
@@ -8407,28 +8421,28 @@
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11">
         <v>4</v>
       </c>
-      <c r="J53" s="11">
-        <v>0</v>
-      </c>
       <c r="K53" s="11">
+        <v>0</v>
+      </c>
+      <c r="L53" s="11">
         <v>100</v>
       </c>
-      <c r="L53" s="11">
-        <v>1</v>
-      </c>
-      <c r="M53" s="19">
-        <v>1</v>
-      </c>
-      <c r="N53" s="12" t="s">
+      <c r="M53" s="11">
+        <v>1</v>
+      </c>
+      <c r="N53" s="19">
+        <v>1</v>
+      </c>
+      <c r="O53" s="12" t="s">
         <v>413</v>
-      </c>
-      <c r="O53" s="11">
-        <v>3</v>
       </c>
       <c r="P53" s="11">
         <v>0</v>
@@ -8499,28 +8513,28 @@
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="14">
+        <v>0</v>
+      </c>
+      <c r="J54" s="14">
         <v>4</v>
       </c>
-      <c r="J54" s="14">
-        <v>0</v>
-      </c>
       <c r="K54" s="14">
+        <v>0</v>
+      </c>
+      <c r="L54" s="14">
         <v>100</v>
       </c>
-      <c r="L54" s="14">
-        <v>1</v>
-      </c>
-      <c r="M54" s="20">
+      <c r="M54" s="14">
+        <v>1</v>
+      </c>
+      <c r="N54" s="20">
         <v>3</v>
       </c>
-      <c r="N54" s="15" t="s">
+      <c r="O54" s="15" t="s">
         <v>421</v>
-      </c>
-      <c r="O54" s="14">
-        <v>1</v>
       </c>
       <c r="P54" s="14" t="s">
         <v>401</v>
@@ -8587,28 +8601,28 @@
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="11">
+        <v>0</v>
+      </c>
+      <c r="J55" s="11">
         <v>4</v>
       </c>
-      <c r="J55" s="11">
-        <v>0</v>
-      </c>
       <c r="K55" s="11">
+        <v>0</v>
+      </c>
+      <c r="L55" s="11">
         <v>100</v>
       </c>
-      <c r="L55" s="11">
-        <v>1</v>
-      </c>
-      <c r="M55" s="19">
+      <c r="M55" s="11">
+        <v>1</v>
+      </c>
+      <c r="N55" s="19">
         <v>2</v>
       </c>
-      <c r="N55" s="12" t="s">
+      <c r="O55" s="12" t="s">
         <v>429</v>
-      </c>
-      <c r="O55" s="11">
-        <v>1</v>
       </c>
       <c r="P55" s="11" t="s">
         <v>287</v>
@@ -8677,28 +8691,28 @@
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="14">
+        <v>0</v>
+      </c>
+      <c r="J56" s="14">
         <v>4</v>
       </c>
-      <c r="J56" s="14">
-        <v>0</v>
-      </c>
       <c r="K56" s="14">
+        <v>0</v>
+      </c>
+      <c r="L56" s="14">
         <v>100</v>
       </c>
-      <c r="L56" s="14">
-        <v>1</v>
-      </c>
-      <c r="M56" s="20">
+      <c r="M56" s="14">
+        <v>1</v>
+      </c>
+      <c r="N56" s="20">
         <v>2</v>
       </c>
-      <c r="N56" s="15" t="s">
+      <c r="O56" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="O56" s="14">
-        <v>0</v>
       </c>
       <c r="P56" s="14">
         <v>0</v>
@@ -8765,28 +8779,28 @@
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I57" s="11">
+        <v>0</v>
+      </c>
+      <c r="J57" s="11">
         <v>4</v>
       </c>
-      <c r="J57" s="11">
-        <v>0</v>
-      </c>
       <c r="K57" s="11">
+        <v>0</v>
+      </c>
+      <c r="L57" s="11">
         <v>100</v>
       </c>
-      <c r="L57" s="11">
-        <v>1</v>
-      </c>
-      <c r="M57" s="19">
-        <v>0</v>
-      </c>
-      <c r="N57" s="12" t="s">
+      <c r="M57" s="11">
+        <v>1</v>
+      </c>
+      <c r="N57" s="19">
+        <v>0</v>
+      </c>
+      <c r="O57" s="12" t="s">
         <v>441</v>
-      </c>
-      <c r="O57" s="11">
-        <v>0</v>
       </c>
       <c r="P57" s="11">
         <v>0</v>
@@ -8853,28 +8867,28 @@
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I58" s="14">
+        <v>0</v>
+      </c>
+      <c r="J58" s="14">
         <v>4</v>
       </c>
-      <c r="J58" s="14">
-        <v>0</v>
-      </c>
       <c r="K58" s="14">
+        <v>0</v>
+      </c>
+      <c r="L58" s="14">
         <v>100</v>
       </c>
-      <c r="L58" s="14">
-        <v>1</v>
-      </c>
-      <c r="M58" s="20">
-        <v>0</v>
-      </c>
-      <c r="N58" s="15" t="s">
+      <c r="M58" s="14">
+        <v>1</v>
+      </c>
+      <c r="N58" s="20">
+        <v>0</v>
+      </c>
+      <c r="O58" s="15" t="s">
         <v>449</v>
-      </c>
-      <c r="O58" s="14">
-        <v>0</v>
       </c>
       <c r="P58" s="14">
         <v>0</v>
@@ -8939,28 +8953,28 @@
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I59" s="11">
+        <v>0</v>
+      </c>
+      <c r="J59" s="11">
         <v>4</v>
       </c>
-      <c r="J59" s="11">
-        <v>0</v>
-      </c>
       <c r="K59" s="11">
+        <v>0</v>
+      </c>
+      <c r="L59" s="11">
         <v>100</v>
       </c>
-      <c r="L59" s="11">
-        <v>1</v>
-      </c>
-      <c r="M59" s="19">
+      <c r="M59" s="11">
+        <v>1</v>
+      </c>
+      <c r="N59" s="19">
         <v>3</v>
       </c>
-      <c r="N59" s="12" t="s">
+      <c r="O59" s="12" t="s">
         <v>456</v>
-      </c>
-      <c r="O59" s="11">
-        <v>4</v>
       </c>
       <c r="P59" s="11" t="s">
         <v>457</v>
@@ -9023,28 +9037,28 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
       <c r="H60" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I60" s="14">
+        <v>0</v>
+      </c>
+      <c r="J60" s="14">
         <v>4</v>
       </c>
-      <c r="J60" s="14">
-        <v>0</v>
-      </c>
       <c r="K60" s="14">
+        <v>0</v>
+      </c>
+      <c r="L60" s="14">
         <v>100</v>
       </c>
-      <c r="L60" s="14">
-        <v>1</v>
-      </c>
-      <c r="M60" s="20">
+      <c r="M60" s="14">
+        <v>1</v>
+      </c>
+      <c r="N60" s="20">
         <v>3</v>
       </c>
-      <c r="N60" s="15" t="s">
+      <c r="O60" s="15" t="s">
         <v>463</v>
-      </c>
-      <c r="O60" s="14">
-        <v>4</v>
       </c>
       <c r="P60" s="14" t="s">
         <v>464</v>
@@ -9107,28 +9121,28 @@
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I61" s="11">
+        <v>0</v>
+      </c>
+      <c r="J61" s="11">
         <v>4</v>
       </c>
-      <c r="J61" s="11">
-        <v>0</v>
-      </c>
       <c r="K61" s="11">
+        <v>0</v>
+      </c>
+      <c r="L61" s="11">
         <v>100</v>
       </c>
-      <c r="L61" s="11">
-        <v>1</v>
-      </c>
-      <c r="M61" s="19">
+      <c r="M61" s="11">
+        <v>1</v>
+      </c>
+      <c r="N61" s="19">
         <v>5</v>
       </c>
-      <c r="N61" s="12" t="s">
+      <c r="O61" s="12" t="s">
         <v>352</v>
-      </c>
-      <c r="O61" s="11">
-        <v>0</v>
       </c>
       <c r="P61" s="11">
         <v>0</v>
@@ -9189,28 +9203,28 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I62" s="14">
+        <v>0</v>
+      </c>
+      <c r="J62" s="14">
         <v>4</v>
       </c>
-      <c r="J62" s="14">
-        <v>0</v>
-      </c>
       <c r="K62" s="14">
+        <v>0</v>
+      </c>
+      <c r="L62" s="14">
         <v>100</v>
       </c>
-      <c r="L62" s="14">
-        <v>1</v>
-      </c>
-      <c r="M62" s="20">
+      <c r="M62" s="14">
+        <v>1</v>
+      </c>
+      <c r="N62" s="20">
         <v>6</v>
       </c>
-      <c r="N62" s="15" t="s">
+      <c r="O62" s="15" t="s">
         <v>474</v>
-      </c>
-      <c r="O62" s="14">
-        <v>0</v>
       </c>
       <c r="P62" s="14">
         <v>0</v>
@@ -9220,7 +9234,7 @@
         <v>475</v>
       </c>
       <c r="S62" s="14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="T62" s="14" t="s">
         <v>476</v>
@@ -9279,28 +9293,28 @@
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I63" s="11">
+        <v>0</v>
+      </c>
+      <c r="J63" s="11">
         <v>4</v>
       </c>
-      <c r="J63" s="11">
-        <v>0</v>
-      </c>
       <c r="K63" s="11">
+        <v>0</v>
+      </c>
+      <c r="L63" s="11">
         <v>100</v>
       </c>
-      <c r="L63" s="11">
-        <v>1</v>
-      </c>
-      <c r="M63" s="19">
+      <c r="M63" s="11">
+        <v>1</v>
+      </c>
+      <c r="N63" s="19">
         <v>6</v>
       </c>
-      <c r="N63" s="12" t="s">
+      <c r="O63" s="12" t="s">
         <v>481</v>
-      </c>
-      <c r="O63" s="11">
-        <v>0</v>
       </c>
       <c r="P63" s="11">
         <v>0</v>
@@ -9310,7 +9324,7 @@
         <v>475</v>
       </c>
       <c r="S63" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="T63" s="11" t="s">
         <v>476</v>
@@ -9369,28 +9383,28 @@
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
       <c r="H64" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I64" s="14">
+        <v>0</v>
+      </c>
+      <c r="J64" s="14">
         <v>4</v>
       </c>
-      <c r="J64" s="14">
-        <v>0</v>
-      </c>
       <c r="K64" s="14">
+        <v>0</v>
+      </c>
+      <c r="L64" s="14">
         <v>100</v>
       </c>
-      <c r="L64" s="14">
-        <v>1</v>
-      </c>
-      <c r="M64" s="20">
+      <c r="M64" s="14">
+        <v>1</v>
+      </c>
+      <c r="N64" s="20">
         <v>6</v>
       </c>
-      <c r="N64" s="15" t="s">
+      <c r="O64" s="15" t="s">
         <v>486</v>
-      </c>
-      <c r="O64" s="14">
-        <v>5</v>
       </c>
       <c r="P64" s="14">
         <v>0</v>
@@ -9457,35 +9471,35 @@
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I65" s="11">
+        <v>0</v>
+      </c>
+      <c r="J65" s="11">
         <v>4</v>
       </c>
-      <c r="J65" s="11">
-        <v>0</v>
-      </c>
       <c r="K65" s="11">
+        <v>0</v>
+      </c>
+      <c r="L65" s="11">
         <v>100</v>
       </c>
-      <c r="L65" s="11">
-        <v>1</v>
-      </c>
-      <c r="M65" s="19">
-        <v>0</v>
-      </c>
-      <c r="N65" s="12" t="s">
+      <c r="M65" s="11">
+        <v>1</v>
+      </c>
+      <c r="N65" s="19">
+        <v>0</v>
+      </c>
+      <c r="O65" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="O65" s="11">
-        <v>6</v>
-      </c>
       <c r="P65" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q65" s="11"/>
       <c r="R65" s="11" t="s">
@@ -9551,28 +9565,28 @@
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I66" s="14">
+        <v>0</v>
+      </c>
+      <c r="J66" s="14">
         <v>4</v>
       </c>
-      <c r="J66" s="14">
-        <v>0</v>
-      </c>
       <c r="K66" s="14">
+        <v>0</v>
+      </c>
+      <c r="L66" s="14">
         <v>100</v>
       </c>
-      <c r="L66" s="14">
-        <v>1</v>
-      </c>
-      <c r="M66" s="20">
-        <v>0</v>
-      </c>
-      <c r="N66" s="15" t="s">
+      <c r="M66" s="14">
+        <v>1</v>
+      </c>
+      <c r="N66" s="20">
+        <v>0</v>
+      </c>
+      <c r="O66" s="15" t="s">
         <v>494</v>
-      </c>
-      <c r="O66" s="14">
-        <v>0</v>
       </c>
       <c r="P66" s="14">
         <v>0</v>
@@ -9637,32 +9651,32 @@
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I67" s="11">
+        <v>0</v>
+      </c>
+      <c r="J67" s="11">
         <v>4</v>
       </c>
-      <c r="J67" s="11">
-        <v>0</v>
-      </c>
       <c r="K67" s="11">
+        <v>0</v>
+      </c>
+      <c r="L67" s="11">
         <v>100</v>
       </c>
-      <c r="L67" s="11">
-        <v>1</v>
-      </c>
-      <c r="M67" s="19">
+      <c r="M67" s="11">
+        <v>1</v>
+      </c>
+      <c r="N67" s="19">
         <v>2</v>
       </c>
-      <c r="N67" s="12" t="s">
+      <c r="O67" s="12" t="s">
         <v>508</v>
-      </c>
-      <c r="O67" s="11">
-        <v>6</v>
       </c>
       <c r="P67" s="11">
         <v>0</v>
@@ -9731,28 +9745,28 @@
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I68" s="14">
+        <v>0</v>
+      </c>
+      <c r="J68" s="14">
         <v>4</v>
       </c>
-      <c r="J68" s="14">
-        <v>0</v>
-      </c>
       <c r="K68" s="14">
+        <v>0</v>
+      </c>
+      <c r="L68" s="14">
         <v>100</v>
       </c>
-      <c r="L68" s="14">
-        <v>1</v>
-      </c>
-      <c r="M68" s="20">
-        <v>0</v>
-      </c>
-      <c r="N68" s="15" t="s">
+      <c r="M68" s="14">
+        <v>1</v>
+      </c>
+      <c r="N68" s="20">
+        <v>0</v>
+      </c>
+      <c r="O68" s="15" t="s">
         <v>517</v>
-      </c>
-      <c r="O68" s="14">
-        <v>6</v>
       </c>
       <c r="P68" s="14" t="s">
         <v>401</v>
@@ -9821,28 +9835,28 @@
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I69" s="11">
+        <v>0</v>
+      </c>
+      <c r="J69" s="11">
         <v>4</v>
       </c>
-      <c r="J69" s="11">
-        <v>0</v>
-      </c>
       <c r="K69" s="11">
+        <v>0</v>
+      </c>
+      <c r="L69" s="11">
         <v>100</v>
       </c>
-      <c r="L69" s="11">
-        <v>1</v>
-      </c>
-      <c r="M69" s="19">
-        <v>0</v>
-      </c>
-      <c r="N69" s="12" t="s">
+      <c r="M69" s="11">
+        <v>1</v>
+      </c>
+      <c r="N69" s="19">
+        <v>0</v>
+      </c>
+      <c r="O69" s="12" t="s">
         <v>523</v>
-      </c>
-      <c r="O69" s="11">
-        <v>4</v>
       </c>
       <c r="P69" s="11">
         <v>0</v>
@@ -9905,28 +9919,28 @@
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
       <c r="H70" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I70" s="14">
+        <v>0</v>
+      </c>
+      <c r="J70" s="14">
         <v>4</v>
       </c>
-      <c r="J70" s="14">
-        <v>0</v>
-      </c>
       <c r="K70" s="14">
+        <v>0</v>
+      </c>
+      <c r="L70" s="14">
         <v>100</v>
       </c>
-      <c r="L70" s="14">
-        <v>1</v>
-      </c>
-      <c r="M70" s="20">
+      <c r="M70" s="14">
+        <v>1</v>
+      </c>
+      <c r="N70" s="20">
         <v>4</v>
       </c>
-      <c r="N70" s="15" t="s">
+      <c r="O70" s="15" t="s">
         <v>529</v>
-      </c>
-      <c r="O70" s="14">
-        <v>4</v>
       </c>
       <c r="P70" s="14" t="s">
         <v>401</v>
@@ -9993,31 +10007,31 @@
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="11">
+        <v>0</v>
+      </c>
+      <c r="J71" s="11">
         <v>4</v>
       </c>
-      <c r="J71" s="11">
-        <v>0</v>
-      </c>
       <c r="K71" s="11">
+        <v>0</v>
+      </c>
+      <c r="L71" s="11">
         <v>100</v>
       </c>
-      <c r="L71" s="11">
-        <v>1</v>
-      </c>
-      <c r="M71" s="19">
+      <c r="M71" s="11">
+        <v>1</v>
+      </c>
+      <c r="N71" s="19">
         <v>5</v>
       </c>
-      <c r="N71" s="12" t="s">
+      <c r="O71" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="O71" s="11">
-        <v>1</v>
-      </c>
       <c r="P71" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
@@ -10077,38 +10091,38 @@
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="14">
+        <v>0</v>
+      </c>
+      <c r="J72" s="14">
         <v>4</v>
       </c>
-      <c r="J72" s="14">
-        <v>0</v>
-      </c>
       <c r="K72" s="14">
+        <v>0</v>
+      </c>
+      <c r="L72" s="14">
         <v>100</v>
       </c>
-      <c r="L72" s="14">
-        <v>1</v>
-      </c>
-      <c r="M72" s="20">
+      <c r="M72" s="14">
+        <v>1</v>
+      </c>
+      <c r="N72" s="20">
         <v>3</v>
       </c>
-      <c r="N72" s="15" t="s">
+      <c r="O72" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="O72" s="14">
-        <v>1</v>
-      </c>
       <c r="P72" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q72" s="14"/>
       <c r="R72" s="14" t="s">
         <v>324</v>
       </c>
       <c r="S72" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T72" s="14"/>
       <c r="U72" s="14"/>
@@ -10161,32 +10175,32 @@
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="11">
+        <v>0</v>
+      </c>
+      <c r="J73" s="11">
         <v>4</v>
       </c>
-      <c r="J73" s="11">
-        <v>0</v>
-      </c>
       <c r="K73" s="11">
+        <v>0</v>
+      </c>
+      <c r="L73" s="11">
         <v>100</v>
       </c>
-      <c r="L73" s="11">
-        <v>1</v>
-      </c>
-      <c r="M73" s="19">
+      <c r="M73" s="11">
+        <v>1</v>
+      </c>
+      <c r="N73" s="19">
         <v>4</v>
       </c>
-      <c r="N73" s="12" t="s">
+      <c r="O73" s="12" t="s">
         <v>548</v>
-      </c>
-      <c r="O73" s="11">
-        <v>1</v>
       </c>
       <c r="P73" s="11" t="s">
         <v>401</v>
@@ -10253,28 +10267,28 @@
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="14">
+        <v>0</v>
+      </c>
+      <c r="J74" s="14">
         <v>4</v>
       </c>
-      <c r="J74" s="14">
-        <v>0</v>
-      </c>
       <c r="K74" s="14">
+        <v>0</v>
+      </c>
+      <c r="L74" s="14">
         <v>100</v>
       </c>
-      <c r="L74" s="14">
-        <v>1</v>
-      </c>
-      <c r="M74" s="20">
+      <c r="M74" s="14">
+        <v>1</v>
+      </c>
+      <c r="N74" s="20">
         <v>10</v>
       </c>
-      <c r="N74" s="15" t="s">
+      <c r="O74" s="15" t="s">
         <v>555</v>
-      </c>
-      <c r="O74" s="14">
-        <v>1</v>
       </c>
       <c r="P74" s="14">
         <v>0</v>
@@ -10337,28 +10351,28 @@
       </c>
       <c r="G75" s="11"/>
       <c r="H75" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I75" s="11">
+        <v>0</v>
+      </c>
+      <c r="J75" s="11">
         <v>4</v>
       </c>
-      <c r="J75" s="11">
-        <v>0</v>
-      </c>
       <c r="K75" s="11">
+        <v>0</v>
+      </c>
+      <c r="L75" s="11">
         <v>100</v>
       </c>
-      <c r="L75" s="11">
-        <v>1</v>
-      </c>
-      <c r="M75" s="19">
+      <c r="M75" s="11">
+        <v>1</v>
+      </c>
+      <c r="N75" s="19">
         <v>8</v>
       </c>
-      <c r="N75" s="12" t="s">
+      <c r="O75" s="12" t="s">
         <v>560</v>
-      </c>
-      <c r="O75" s="11">
-        <v>3</v>
       </c>
       <c r="P75" s="11">
         <v>0</v>
@@ -10421,32 +10435,32 @@
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14" t="s">
-        <v>240</v>
+        <v>133</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76" s="14">
+        <v>0</v>
+      </c>
+      <c r="J76" s="14">
         <v>4</v>
       </c>
-      <c r="J76" s="14">
-        <v>0</v>
-      </c>
       <c r="K76" s="14">
+        <v>0</v>
+      </c>
+      <c r="L76" s="14">
         <v>100</v>
       </c>
-      <c r="L76" s="14">
-        <v>1</v>
-      </c>
-      <c r="M76" s="20">
+      <c r="M76" s="14">
+        <v>1</v>
+      </c>
+      <c r="N76" s="20">
         <v>4</v>
       </c>
-      <c r="N76" s="15" t="s">
+      <c r="O76" s="15" t="s">
         <v>567</v>
-      </c>
-      <c r="O76" s="14">
-        <v>3</v>
       </c>
       <c r="P76" s="14" t="s">
         <v>401</v>
@@ -10513,28 +10527,28 @@
       </c>
       <c r="G77" s="11"/>
       <c r="H77" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I77" s="11">
+        <v>0</v>
+      </c>
+      <c r="J77" s="11">
         <v>4</v>
       </c>
-      <c r="J77" s="11">
-        <v>0</v>
-      </c>
       <c r="K77" s="11">
+        <v>0</v>
+      </c>
+      <c r="L77" s="11">
         <v>100</v>
       </c>
-      <c r="L77" s="11">
-        <v>1</v>
-      </c>
-      <c r="M77" s="19">
+      <c r="M77" s="11">
+        <v>1</v>
+      </c>
+      <c r="N77" s="19">
         <v>3</v>
       </c>
-      <c r="N77" s="12" t="s">
+      <c r="O77" s="12" t="s">
         <v>573</v>
-      </c>
-      <c r="O77" s="11">
-        <v>3</v>
       </c>
       <c r="P77" s="11" t="s">
         <v>287</v>
@@ -10597,35 +10611,35 @@
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I78" s="14">
+        <v>0</v>
+      </c>
+      <c r="J78" s="14">
         <v>4</v>
       </c>
-      <c r="J78" s="14">
-        <v>0</v>
-      </c>
       <c r="K78" s="14">
+        <v>0</v>
+      </c>
+      <c r="L78" s="14">
         <v>100</v>
       </c>
-      <c r="L78" s="14">
-        <v>1</v>
-      </c>
-      <c r="M78" s="20">
+      <c r="M78" s="14">
+        <v>1</v>
+      </c>
+      <c r="N78" s="20">
         <v>4</v>
       </c>
-      <c r="N78" s="15" t="s">
+      <c r="O78" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="O78" s="14">
-        <v>3</v>
-      </c>
       <c r="P78" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q78" s="14"/>
       <c r="R78" s="14" t="s">
@@ -10689,31 +10703,31 @@
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I79" s="11">
+        <v>0</v>
+      </c>
+      <c r="J79" s="11">
         <v>4</v>
       </c>
-      <c r="J79" s="11">
-        <v>0</v>
-      </c>
       <c r="K79" s="11">
+        <v>0</v>
+      </c>
+      <c r="L79" s="11">
         <v>100</v>
       </c>
-      <c r="L79" s="11">
-        <v>1</v>
-      </c>
-      <c r="M79" s="19">
-        <v>1</v>
-      </c>
-      <c r="N79" s="12" t="s">
+      <c r="M79" s="11">
+        <v>1</v>
+      </c>
+      <c r="N79" s="19">
+        <v>1</v>
+      </c>
+      <c r="O79" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="O79" s="11">
-        <v>3</v>
-      </c>
       <c r="P79" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q79" s="11"/>
       <c r="R79" s="11" t="s">
@@ -10777,35 +10791,35 @@
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I80" s="14">
+        <v>0</v>
+      </c>
+      <c r="J80" s="14">
         <v>4</v>
       </c>
-      <c r="J80" s="14">
-        <v>0</v>
-      </c>
       <c r="K80" s="14">
+        <v>0</v>
+      </c>
+      <c r="L80" s="14">
         <v>100</v>
       </c>
-      <c r="L80" s="14">
-        <v>1</v>
-      </c>
-      <c r="M80" s="20">
+      <c r="M80" s="14">
+        <v>1</v>
+      </c>
+      <c r="N80" s="20">
         <v>4</v>
       </c>
-      <c r="N80" s="15" t="s">
+      <c r="O80" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="O80" s="14">
-        <v>3</v>
-      </c>
       <c r="P80" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q80" s="14"/>
       <c r="R80" s="14" t="s">
@@ -10869,38 +10883,38 @@
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81" s="11">
+        <v>0</v>
+      </c>
+      <c r="J81" s="11">
         <v>4</v>
       </c>
-      <c r="J81" s="11">
-        <v>0</v>
-      </c>
       <c r="K81" s="11">
+        <v>0</v>
+      </c>
+      <c r="L81" s="11">
         <v>100</v>
       </c>
-      <c r="L81" s="11">
-        <v>1</v>
-      </c>
-      <c r="M81" s="19">
+      <c r="M81" s="11">
+        <v>1</v>
+      </c>
+      <c r="N81" s="19">
         <v>8</v>
       </c>
-      <c r="N81" s="12" t="s">
+      <c r="O81" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="O81" s="11">
-        <v>3</v>
-      </c>
       <c r="P81" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q81" s="11"/>
       <c r="R81" s="11" t="s">
         <v>561</v>
       </c>
       <c r="S81" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="T81" s="11" t="s">
         <v>604</v>
@@ -10959,35 +10973,35 @@
       </c>
       <c r="G82" s="14"/>
       <c r="H82" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="14">
+        <v>0</v>
+      </c>
+      <c r="J82" s="14">
         <v>4</v>
       </c>
-      <c r="J82" s="14">
-        <v>0</v>
-      </c>
       <c r="K82" s="14">
+        <v>0</v>
+      </c>
+      <c r="L82" s="14">
         <v>100</v>
       </c>
-      <c r="L82" s="14">
-        <v>1</v>
-      </c>
-      <c r="M82" s="20">
+      <c r="M82" s="14">
+        <v>1</v>
+      </c>
+      <c r="N82" s="20">
         <v>5</v>
       </c>
-      <c r="N82" s="15" t="s">
+      <c r="O82" s="15" t="s">
         <v>610</v>
-      </c>
-      <c r="O82" s="14">
-        <v>1</v>
       </c>
       <c r="P82" s="14" t="s">
         <v>611</v>
       </c>
       <c r="Q82" s="14"/>
       <c r="R82" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S82" s="14" t="s">
         <v>415</v>
@@ -11049,38 +11063,38 @@
       </c>
       <c r="G83" s="11"/>
       <c r="H83" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="11">
+        <v>0</v>
+      </c>
+      <c r="J83" s="11">
         <v>4</v>
       </c>
-      <c r="J83" s="11">
-        <v>0</v>
-      </c>
       <c r="K83" s="11">
+        <v>0</v>
+      </c>
+      <c r="L83" s="11">
         <v>100</v>
       </c>
-      <c r="L83" s="11">
-        <v>1</v>
-      </c>
-      <c r="M83" s="19">
+      <c r="M83" s="11">
+        <v>1</v>
+      </c>
+      <c r="N83" s="19">
         <v>8</v>
       </c>
-      <c r="N83" s="12" t="s">
+      <c r="O83" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="O83" s="11">
-        <v>1</v>
-      </c>
       <c r="P83" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q83" s="11"/>
       <c r="R83" s="11" t="s">
         <v>561</v>
       </c>
       <c r="S83" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T83" s="11" t="s">
         <v>604</v>
@@ -11139,38 +11153,38 @@
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" s="14">
+        <v>0</v>
+      </c>
+      <c r="J84" s="14">
         <v>4</v>
       </c>
-      <c r="J84" s="14">
-        <v>0</v>
-      </c>
       <c r="K84" s="14">
+        <v>0</v>
+      </c>
+      <c r="L84" s="14">
         <v>100</v>
       </c>
-      <c r="L84" s="14">
-        <v>1</v>
-      </c>
-      <c r="M84" s="20">
+      <c r="M84" s="14">
+        <v>1</v>
+      </c>
+      <c r="N84" s="20">
         <v>8</v>
       </c>
-      <c r="N84" s="15" t="s">
+      <c r="O84" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="O84" s="14">
-        <v>2</v>
-      </c>
       <c r="P84" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q84" s="14"/>
       <c r="R84" s="14" t="s">
         <v>561</v>
       </c>
       <c r="S84" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T84" s="14" t="s">
         <v>604</v>
@@ -11229,28 +11243,28 @@
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
       <c r="H85" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" s="33">
+        <v>1</v>
+      </c>
+      <c r="J85" s="33">
         <v>4</v>
       </c>
-      <c r="J85" s="11">
-        <v>0</v>
-      </c>
-      <c r="K85" s="33">
+      <c r="K85" s="11">
+        <v>0</v>
+      </c>
+      <c r="L85" s="33">
         <v>100</v>
       </c>
-      <c r="L85" s="33">
-        <v>1</v>
-      </c>
-      <c r="M85" s="35">
-        <v>0</v>
-      </c>
-      <c r="N85" s="34" t="s">
+      <c r="M85" s="33">
+        <v>1</v>
+      </c>
+      <c r="N85" s="35">
+        <v>0</v>
+      </c>
+      <c r="O85" s="34" t="s">
         <v>352</v>
-      </c>
-      <c r="O85" s="33">
-        <v>0</v>
       </c>
       <c r="P85" s="33">
         <v>0</v>
@@ -11330,6 +11344,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H$1:H$1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I$1:I$1048576">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -11341,7 +11367,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K$1:K$1048576">
+  <conditionalFormatting sqref="L$1:L$1048576">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -11351,7 +11377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M$1:M$1048576">
+  <conditionalFormatting sqref="N$1:N$1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -11363,19 +11389,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O$1:O$1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I$1:J$1048576">
+  <conditionalFormatting sqref="J$1:K$1048576">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -11396,7 +11410,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11526,16 +11540,28 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="7:11">
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>639</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="7:11">
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>641</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -11544,7 +11570,7 @@
     </row>
     <row r="14" spans="7:11">
       <c r="G14" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -11560,7 +11586,7 @@
     </row>
     <row r="16" spans="7:11">
       <c r="G16" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -11576,7 +11602,7 @@
     </row>
     <row r="18" spans="7:11">
       <c r="G18" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -11592,7 +11618,7 @@
     </row>
     <row r="20" spans="7:11">
       <c r="G20" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>

--- a/excels/abilities/arms.xlsx
+++ b/excels/abilities/arms.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="659">
   <si>
     <t>名字</t>
   </si>
@@ -443,6 +443,9 @@
     <t>伤害型</t>
   </si>
   <si>
+    <t>11,5</t>
+  </si>
+  <si>
     <t>windrunner_powershot</t>
   </si>
   <si>
@@ -514,6 +517,9 @@
     <t>计数型/伤害型</t>
   </si>
   <si>
+    <t>1,5</t>
+  </si>
+  <si>
     <t>shadow_shaman_ether_shock</t>
   </si>
   <si>
@@ -546,6 +552,9 @@
   </si>
   <si>
     <t>防御型/伤害型</t>
+  </si>
+  <si>
+    <t>5,7</t>
   </si>
   <si>
     <t>bristleback_bristleback</t>
@@ -731,6 +740,9 @@
     <t>成长型/持续型</t>
   </si>
   <si>
+    <t>3,4</t>
+  </si>
+  <si>
     <t>bristleback_warpath</t>
   </si>
   <si>
@@ -778,6 +790,9 @@
 伤害公式：%DamageFormula%</t>
   </si>
   <si>
+    <t>2,5</t>
+  </si>
+  <si>
     <t>bristleback_quill_spray</t>
   </si>
   <si>
@@ -797,6 +812,9 @@
   </si>
   <si>
     <t>理财型/成长型</t>
+  </si>
+  <si>
+    <t>4,6</t>
   </si>
   <si>
     <t>modifier_illusion</t>
@@ -842,6 +860,9 @@
     <t>范围型/防御型</t>
   </si>
   <si>
+    <t>2,7</t>
+  </si>
+  <si>
     <t>phantom_lancer_juxtapose</t>
   </si>
   <si>
@@ -867,6 +888,9 @@
   </si>
   <si>
     <t>理财型/恢复型</t>
+  </si>
+  <si>
+    <t>6,12</t>
   </si>
   <si>
     <t>alchemist/midas_knuckles/alchemist_goblins_greed</t>
@@ -1039,7 +1063,7 @@
 作用范围：1000*200码</t>
   </si>
   <si>
-    <t>计数型/范围型/持续型</t>
+    <t>持续型</t>
   </si>
   <si>
     <t>dragon_knight_breathe_fire</t>
@@ -1310,6 +1334,9 @@
     <t>咒术型/持续型/计数型</t>
   </si>
   <si>
+    <t>10,3,1</t>
+  </si>
+  <si>
     <t>debuff_duration 6</t>
   </si>
   <si>
@@ -1326,7 +1353,10 @@
 伤害系数：%DamageFormula%</t>
   </si>
   <si>
-    <t>召唤型/计数型/持续型</t>
+    <t>召唤型/持续型</t>
+  </si>
+  <si>
+    <t>8,3</t>
   </si>
   <si>
     <t>invoker_kid/invoker_kid_dark_artistry_ability_icon/invoker_kid_dark_artistry_wex</t>
@@ -1379,6 +1409,9 @@
     <t>技术型/伤害型/持续型</t>
   </si>
   <si>
+    <t>1,5,3</t>
+  </si>
+  <si>
     <t>black_dragon_fireball</t>
   </si>
   <si>
@@ -1413,6 +1446,9 @@
   </si>
   <si>
     <t>成长型/防御型</t>
+  </si>
+  <si>
+    <t>4,7</t>
   </si>
   <si>
     <t>tower_armor_aura</t>
@@ -1951,9 +1987,6 @@
 伤害系数：%DamageFormula%</t>
   </si>
   <si>
-    <t>持续型</t>
-  </si>
-  <si>
     <t>forged_spirit_melting_strike</t>
   </si>
   <si>
@@ -2051,7 +2084,13 @@
     <t>投射</t>
   </si>
   <si>
+    <t>恢复</t>
+  </si>
+  <si>
     <t>理财型技能收益效果+20%</t>
+  </si>
+  <si>
+    <t>强化</t>
   </si>
   <si>
     <t>防御型技能效果+20%</t>
@@ -3336,16 +3375,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C4EF35DE-3294-42E9-A7E9-D85A9582492D}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{E34DE943-FD41-426A-B650-D3CE0DA2F682}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5B2E7354-CA64-43C7-8EFD-EDDE7EE88B26}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4E5A96A8-898D-4C6F-B6ED-EF3A06896206}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{F2A53119-9E0A-43DF-B8D1-3FD8C96C1283}">
+    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{3A480B87-D4DC-48C8-96CE-CCB4D9CEB91C}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstColumn" dxfId="14"/>
@@ -3655,12 +3694,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR85"/>
+  <dimension ref="A1:AR86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+      <selection pane="topRight" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4913,7 +4952,9 @@
       <c r="F14" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="H14" s="14">
         <v>4</v>
       </c>
@@ -4936,21 +4977,21 @@
         <v>3</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U14" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
@@ -4967,7 +5008,7 @@
         <v>74</v>
       </c>
       <c r="AD14" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AE14" s="15" t="s">
         <v>76</v>
@@ -4990,20 +5031,22 @@
     </row>
     <row r="15" ht="55.5" customHeight="1" spans="1:44">
       <c r="A15" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="H15" s="11">
         <v>2</v>
       </c>
@@ -5026,7 +5069,7 @@
         <v>3</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>125</v>
@@ -5034,10 +5077,10 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
@@ -5055,7 +5098,7 @@
         <v>74</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE15" s="12" t="s">
         <v>76</v>
@@ -5078,20 +5121,22 @@
     </row>
     <row r="16" ht="39" customHeight="1" spans="1:44">
       <c r="A16" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="14">
+        <v>6</v>
+      </c>
       <c r="H16" s="14">
         <v>6</v>
       </c>
@@ -5114,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P16" s="14">
         <v>0</v>
@@ -5122,10 +5167,10 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
@@ -5143,7 +5188,7 @@
         <v>74</v>
       </c>
       <c r="AD16" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AE16" s="15" t="s">
         <v>76</v>
@@ -5166,20 +5211,22 @@
     </row>
     <row r="17" ht="72" customHeight="1" spans="1:44">
       <c r="A17" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="11"/>
+        <v>157</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="H17" s="11">
         <v>3</v>
       </c>
@@ -5202,23 +5249,23 @@
         <v>3</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
@@ -5235,7 +5282,7 @@
         <v>74</v>
       </c>
       <c r="AD17" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AE17" s="12" t="s">
         <v>76</v>
@@ -5258,20 +5305,22 @@
     </row>
     <row r="18" ht="88.5" customHeight="1" spans="1:44">
       <c r="A18" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="G18" s="14"/>
+        <v>169</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>170</v>
+      </c>
       <c r="H18" s="14">
         <v>4</v>
       </c>
@@ -5294,17 +5343,17 @@
         <v>1</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="14" t="s">
         <v>115</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -5323,7 +5372,7 @@
         <v>74</v>
       </c>
       <c r="AD18" s="14" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AE18" s="15" t="s">
         <v>76</v>
@@ -5337,7 +5386,7 @@
       <c r="AJ18" s="14"/>
       <c r="AK18" s="14"/>
       <c r="AL18" s="22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AM18" s="22"/>
       <c r="AN18" s="22"/>
@@ -5348,22 +5397,24 @@
     </row>
     <row r="19" ht="39" customHeight="1" spans="1:44">
       <c r="A19" s="10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="11">
+        <v>6</v>
+      </c>
       <c r="H19" s="11">
         <v>4</v>
       </c>
@@ -5386,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P19" s="11">
         <v>0</v>
@@ -5396,13 +5447,13 @@
         <v>115</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
@@ -5419,7 +5470,7 @@
         <v>74</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AE19" s="12" t="s">
         <v>76</v>
@@ -5442,13 +5493,13 @@
     </row>
     <row r="20" ht="39" customHeight="1" spans="1:44">
       <c r="A20" s="13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14">
@@ -5457,7 +5508,9 @@
       <c r="F20" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G20" s="14">
+        <v>6</v>
+      </c>
       <c r="H20" s="14">
         <v>4</v>
       </c>
@@ -5480,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P20" s="14">
         <v>0</v>
@@ -5490,13 +5543,13 @@
         <v>115</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="T20" s="14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="U20" s="14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
@@ -5513,7 +5566,7 @@
         <v>74</v>
       </c>
       <c r="AD20" s="14" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AE20" s="15" t="s">
         <v>76</v>
@@ -5536,13 +5589,13 @@
     </row>
     <row r="21" ht="39" customHeight="1" spans="1:44">
       <c r="A21" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
@@ -5551,7 +5604,9 @@
       <c r="F21" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="11"/>
+      <c r="G21" s="11">
+        <v>6</v>
+      </c>
       <c r="H21" s="11">
         <v>4</v>
       </c>
@@ -5574,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P21" s="11">
         <v>0</v>
@@ -5584,13 +5639,13 @@
         <v>115</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
@@ -5607,7 +5662,7 @@
         <v>74</v>
       </c>
       <c r="AD21" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AE21" s="12" t="s">
         <v>76</v>
@@ -5630,20 +5685,22 @@
     </row>
     <row r="22" ht="88.5" customHeight="1" spans="1:44">
       <c r="A22" s="13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G22" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="G22" s="14">
+        <v>2</v>
+      </c>
       <c r="H22" s="14">
         <v>1</v>
       </c>
@@ -5666,26 +5723,26 @@
         <v>3.5</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="14"/>
       <c r="R22" s="14" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="S22" s="14" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="T22" s="14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="U22" s="14" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="V22" s="14" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
@@ -5701,7 +5758,7 @@
         <v>74</v>
       </c>
       <c r="AD22" s="14" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AE22" s="15" t="s">
         <v>76</v>
@@ -5724,20 +5781,22 @@
     </row>
     <row r="23" ht="55.5" customHeight="1" spans="1:44">
       <c r="A23" s="10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="11">
+        <v>4</v>
+      </c>
       <c r="H23" s="11">
         <v>1</v>
       </c>
@@ -5760,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P23" s="11">
         <v>0</v>
@@ -5770,16 +5829,16 @@
         <v>115</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
@@ -5795,7 +5854,7 @@
         <v>74</v>
       </c>
       <c r="AD23" s="11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AE23" s="12" t="s">
         <v>76</v>
@@ -5818,20 +5877,22 @@
     </row>
     <row r="24" ht="72" customHeight="1" spans="1:44">
       <c r="A24" s="13" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G24" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="G24" s="14">
+        <v>2</v>
+      </c>
       <c r="H24" s="14">
         <v>2</v>
       </c>
@@ -5854,23 +5915,23 @@
         <v>4</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q24" s="14"/>
       <c r="R24" s="14" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="S24" s="14" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="T24" s="14" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
@@ -5887,7 +5948,7 @@
         <v>74</v>
       </c>
       <c r="AD24" s="14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AE24" s="15" t="s">
         <v>76</v>
@@ -5910,20 +5971,22 @@
     </row>
     <row r="25" ht="55.5" customHeight="1" spans="1:44">
       <c r="A25" s="10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="G25" s="11"/>
+        <v>229</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>230</v>
+      </c>
       <c r="H25" s="11">
         <v>1</v>
       </c>
@@ -5946,26 +6009,26 @@
         <v>10</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P25" s="11">
         <v>0</v>
       </c>
       <c r="Q25" s="11"/>
       <c r="R25" s="11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="U25" s="11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
@@ -5981,7 +6044,7 @@
         <v>74</v>
       </c>
       <c r="AD25" s="11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AE25" s="12" t="s">
         <v>76</v>
@@ -6004,20 +6067,22 @@
     </row>
     <row r="26" ht="55.5" customHeight="1" spans="1:44">
       <c r="A26" s="13" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>111</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="14"/>
+      <c r="G26" s="14">
+        <v>6</v>
+      </c>
       <c r="H26" s="14">
         <v>6</v>
       </c>
@@ -6040,17 +6105,17 @@
         <v>1</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P26" s="14">
         <v>0</v>
       </c>
       <c r="Q26" s="14"/>
       <c r="R26" s="14" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="S26" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
@@ -6069,7 +6134,7 @@
         <v>74</v>
       </c>
       <c r="AD26" s="14" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AE26" s="15" t="s">
         <v>76</v>
@@ -6092,20 +6157,22 @@
     </row>
     <row r="27" ht="55.5" customHeight="1" spans="1:44">
       <c r="A27" s="10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="H27" s="11">
         <v>4</v>
       </c>
@@ -6128,14 +6195,14 @@
         <v>3</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q27" s="11"/>
       <c r="R27" s="11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
@@ -6155,7 +6222,7 @@
         <v>74</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AE27" s="12" t="s">
         <v>76</v>
@@ -6178,20 +6245,22 @@
     </row>
     <row r="28" ht="39" customHeight="1" spans="1:44">
       <c r="A28" s="13" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G28" s="14"/>
+        <v>253</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="H28" s="14">
         <v>5</v>
       </c>
@@ -6214,17 +6283,17 @@
         <v>1</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P28" s="14">
         <v>0</v>
       </c>
       <c r="Q28" s="14"/>
       <c r="R28" s="14" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="S28" s="14" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
@@ -6243,7 +6312,7 @@
         <v>74</v>
       </c>
       <c r="AD28" s="14" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AE28" s="15" t="s">
         <v>76</v>
@@ -6266,20 +6335,22 @@
     </row>
     <row r="29" ht="39" customHeight="1" spans="1:44">
       <c r="A29" s="10" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G29" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="H29" s="11">
         <v>5</v>
       </c>
@@ -6302,17 +6373,17 @@
         <v>1</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P29" s="11">
         <v>0</v>
       </c>
       <c r="Q29" s="11"/>
       <c r="R29" s="11" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
@@ -6331,7 +6402,7 @@
         <v>74</v>
       </c>
       <c r="AD29" s="11" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AE29" s="12" t="s">
         <v>76</v>
@@ -6354,20 +6425,22 @@
     </row>
     <row r="30" ht="88.5" customHeight="1" spans="1:44">
       <c r="A30" s="13" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="G30" s="14"/>
+        <v>268</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>269</v>
+      </c>
       <c r="H30" s="14">
         <v>1</v>
       </c>
@@ -6390,20 +6463,20 @@
         <v>10</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q30" s="14"/>
       <c r="R30" s="14" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="S30" s="14" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="T30" s="14" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
@@ -6421,7 +6494,7 @@
         <v>74</v>
       </c>
       <c r="AD30" s="14" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AE30" s="15" t="s">
         <v>76</v>
@@ -6444,20 +6517,22 @@
     </row>
     <row r="31" ht="39" customHeight="1" spans="1:44">
       <c r="A31" s="10" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="G31" s="11"/>
+        <v>278</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="H31" s="11">
         <v>6</v>
       </c>
@@ -6480,14 +6555,14 @@
         <v>0</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="P31" s="11">
         <v>0</v>
       </c>
       <c r="Q31" s="11"/>
       <c r="R31" s="11" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
@@ -6507,7 +6582,7 @@
         <v>74</v>
       </c>
       <c r="AD31" s="11" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AE31" s="12" t="s">
         <v>76</v>
@@ -6530,22 +6605,24 @@
     </row>
     <row r="32" ht="105" customHeight="1" spans="1:44">
       <c r="A32" s="13" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="14"/>
+      <c r="G32" s="14">
+        <v>8</v>
+      </c>
       <c r="H32" s="14">
         <v>3</v>
       </c>
@@ -6568,23 +6645,23 @@
         <v>15</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q32" s="14"/>
       <c r="R32" s="14" t="s">
         <v>99</v>
       </c>
       <c r="S32" s="14" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="T32" s="14" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="U32" s="14" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
@@ -6601,7 +6678,7 @@
         <v>74</v>
       </c>
       <c r="AD32" s="14" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AE32" s="15" t="s">
         <v>76</v>
@@ -6624,22 +6701,24 @@
     </row>
     <row r="33" ht="105" customHeight="1" spans="1:44">
       <c r="A33" s="10" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="11"/>
+      <c r="G33" s="11">
+        <v>8</v>
+      </c>
       <c r="H33" s="11">
         <v>4</v>
       </c>
@@ -6662,23 +6741,23 @@
         <v>15</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q33" s="11"/>
       <c r="R33" s="11" t="s">
         <v>99</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="U33" s="11" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
@@ -6695,7 +6774,7 @@
         <v>74</v>
       </c>
       <c r="AD33" s="11" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AE33" s="12" t="s">
         <v>76</v>
@@ -6718,22 +6797,24 @@
     </row>
     <row r="34" ht="105" customHeight="1" spans="1:44">
       <c r="A34" s="13" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="14"/>
+      <c r="G34" s="14">
+        <v>8</v>
+      </c>
       <c r="H34" s="14">
         <v>2</v>
       </c>
@@ -6756,23 +6837,23 @@
         <v>15</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="P34" s="14" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q34" s="14"/>
       <c r="R34" s="14" t="s">
         <v>99</v>
       </c>
       <c r="S34" s="14" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="T34" s="14" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="U34" s="14" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
@@ -6789,7 +6870,7 @@
         <v>74</v>
       </c>
       <c r="AD34" s="14" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AE34" s="15" t="s">
         <v>76</v>
@@ -6812,22 +6893,24 @@
     </row>
     <row r="35" ht="105" customHeight="1" spans="1:44">
       <c r="A35" s="10" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="11"/>
+      <c r="G35" s="11">
+        <v>8</v>
+      </c>
       <c r="H35" s="11">
         <v>1</v>
       </c>
@@ -6850,20 +6933,20 @@
         <v>15</v>
       </c>
       <c r="O35" s="12" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q35" s="11"/>
       <c r="R35" s="11" t="s">
         <v>99</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
@@ -6881,7 +6964,7 @@
         <v>74</v>
       </c>
       <c r="AD35" s="11" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AE35" s="12" t="s">
         <v>76</v>
@@ -6904,20 +6987,22 @@
     </row>
     <row r="36" ht="39" customHeight="1" spans="1:44">
       <c r="A36" s="13" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="14"/>
+      <c r="G36" s="14">
+        <v>8</v>
+      </c>
       <c r="H36" s="14">
         <v>0</v>
       </c>
@@ -6940,14 +7025,14 @@
         <v>0</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="P36" s="14">
         <v>0</v>
       </c>
       <c r="Q36" s="14"/>
       <c r="R36" s="14" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
@@ -6967,7 +7052,7 @@
         <v>74</v>
       </c>
       <c r="AD36" s="14" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="AE36" s="15" t="s">
         <v>76</v>
@@ -6990,22 +7075,24 @@
     </row>
     <row r="37" ht="121.5" customHeight="1" spans="1:44">
       <c r="A37" s="10" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="11"/>
+      <c r="G37" s="11">
+        <v>8</v>
+      </c>
       <c r="H37" s="11">
         <v>5</v>
       </c>
@@ -7028,20 +7115,20 @@
         <v>25</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q37" s="11"/>
       <c r="R37" s="11" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
@@ -7059,7 +7146,7 @@
         <v>74</v>
       </c>
       <c r="AD37" s="11" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="AE37" s="12" t="s">
         <v>76</v>
@@ -7082,22 +7169,24 @@
     </row>
     <row r="38" ht="138" customHeight="1" spans="1:44">
       <c r="A38" s="13" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="14"/>
+      <c r="G38" s="14">
+        <v>8</v>
+      </c>
       <c r="H38" s="14">
         <v>6</v>
       </c>
@@ -7120,20 +7209,20 @@
         <v>25</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="P38" s="14" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q38" s="14"/>
       <c r="R38" s="14" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="S38" s="14" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="T38" s="14" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="U38" s="14"/>
       <c r="V38" s="14"/>
@@ -7151,7 +7240,7 @@
         <v>74</v>
       </c>
       <c r="AD38" s="14" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AE38" s="15" t="s">
         <v>76</v>
@@ -7174,20 +7263,22 @@
     </row>
     <row r="39" ht="88.5" customHeight="1" spans="1:44">
       <c r="A39" s="10" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="G39" s="11"/>
+        <v>329</v>
+      </c>
+      <c r="G39" s="11">
+        <v>3</v>
+      </c>
       <c r="H39" s="11">
         <v>1</v>
       </c>
@@ -7210,20 +7301,20 @@
         <v>4</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q39" s="11"/>
       <c r="R39" s="11" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
@@ -7241,7 +7332,7 @@
         <v>74</v>
       </c>
       <c r="AD39" s="11" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="AE39" s="12" t="s">
         <v>76</v>
@@ -7264,20 +7355,22 @@
     </row>
     <row r="40" ht="88.5" customHeight="1" spans="1:44">
       <c r="A40" s="13" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="G40" s="14"/>
+        <v>329</v>
+      </c>
+      <c r="G40" s="14">
+        <v>3</v>
+      </c>
       <c r="H40" s="14">
         <v>2</v>
       </c>
@@ -7300,26 +7393,26 @@
         <v>4</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="P40" s="14">
         <v>0</v>
       </c>
       <c r="Q40" s="14"/>
       <c r="R40" s="14" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="S40" s="14" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="T40" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="U40" s="14" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="V40" s="14" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="W40" s="14"/>
       <c r="X40" s="14"/>
@@ -7335,7 +7428,7 @@
         <v>74</v>
       </c>
       <c r="AD40" s="14" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="AE40" s="15" t="s">
         <v>76</v>
@@ -7358,20 +7451,22 @@
     </row>
     <row r="41" ht="39" customHeight="1" spans="1:44">
       <c r="A41" s="10" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="11"/>
+      <c r="G41" s="11">
+        <v>6</v>
+      </c>
       <c r="H41" s="11">
         <v>6</v>
       </c>
@@ -7394,23 +7489,23 @@
         <v>0</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="P41" s="11">
         <v>0</v>
       </c>
       <c r="Q41" s="11"/>
       <c r="R41" s="11" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="U41" s="11" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
@@ -7427,7 +7522,7 @@
         <v>74</v>
       </c>
       <c r="AD41" s="11" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AE41" s="12" t="s">
         <v>76</v>
@@ -7450,20 +7545,22 @@
     </row>
     <row r="42" ht="39" customHeight="1" spans="1:44">
       <c r="A42" s="13" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G42" s="14"/>
+      <c r="G42" s="14">
+        <v>6</v>
+      </c>
       <c r="H42" s="14">
         <v>6</v>
       </c>
@@ -7486,20 +7583,20 @@
         <v>0</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="P42" s="14">
         <v>0</v>
       </c>
       <c r="Q42" s="14"/>
       <c r="R42" s="14" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="S42" s="14" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="U42" s="14"/>
       <c r="V42" s="14"/>
@@ -7517,7 +7614,7 @@
         <v>74</v>
       </c>
       <c r="AD42" s="14" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="AE42" s="15" t="s">
         <v>76</v>
@@ -7540,20 +7637,22 @@
     </row>
     <row r="43" ht="39" customHeight="1" spans="1:44">
       <c r="A43" s="10" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G43" s="11"/>
+      <c r="G43" s="11">
+        <v>4</v>
+      </c>
       <c r="H43" s="11">
         <v>5</v>
       </c>
@@ -7576,17 +7675,17 @@
         <v>0</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P43" s="11">
         <v>0</v>
       </c>
       <c r="Q43" s="11"/>
       <c r="R43" s="11" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="S43" s="11" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
@@ -7605,7 +7704,7 @@
         <v>74</v>
       </c>
       <c r="AD43" s="11" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="AE43" s="12" t="s">
         <v>76</v>
@@ -7628,18 +7727,20 @@
     </row>
     <row r="44" ht="55.5" customHeight="1" spans="1:44">
       <c r="A44" s="13" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="G44" s="14"/>
+        <v>366</v>
+      </c>
+      <c r="G44" s="14">
+        <v>9</v>
+      </c>
       <c r="H44" s="14">
         <v>5</v>
       </c>
@@ -7662,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="P44" s="14">
         <v>0</v>
@@ -7687,7 +7788,7 @@
         <v>74</v>
       </c>
       <c r="AD44" s="14" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AE44" s="15" t="s">
         <v>76</v>
@@ -7702,7 +7803,7 @@
       <c r="AK44" s="14"/>
       <c r="AL44" s="22"/>
       <c r="AM44" s="22" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="AN44" s="22"/>
       <c r="AO44" s="22"/>
@@ -7712,18 +7813,20 @@
     </row>
     <row r="45" ht="55.5" customHeight="1" spans="1:44">
       <c r="A45" s="10" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="G45" s="11"/>
+        <v>366</v>
+      </c>
+      <c r="G45" s="11">
+        <v>9</v>
+      </c>
       <c r="H45" s="11">
         <v>5</v>
       </c>
@@ -7746,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="P45" s="11">
         <v>0</v>
@@ -7771,7 +7874,7 @@
         <v>74</v>
       </c>
       <c r="AD45" s="11" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AE45" s="12" t="s">
         <v>76</v>
@@ -7786,7 +7889,7 @@
       <c r="AK45" s="11"/>
       <c r="AL45" s="21"/>
       <c r="AM45" s="21" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AN45" s="21"/>
       <c r="AO45" s="21"/>
@@ -7796,18 +7899,20 @@
     </row>
     <row r="46" ht="55.5" customHeight="1" spans="1:44">
       <c r="A46" s="13" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="G46" s="14"/>
+        <v>366</v>
+      </c>
+      <c r="G46" s="14">
+        <v>9</v>
+      </c>
       <c r="H46" s="14">
         <v>5</v>
       </c>
@@ -7830,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="P46" s="14">
         <v>0</v>
@@ -7855,7 +7960,7 @@
         <v>74</v>
       </c>
       <c r="AD46" s="14" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AE46" s="15" t="s">
         <v>76</v>
@@ -7870,7 +7975,7 @@
       <c r="AK46" s="14"/>
       <c r="AL46" s="22"/>
       <c r="AM46" s="22" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="AN46" s="22"/>
       <c r="AO46" s="22"/>
@@ -7880,20 +7985,22 @@
     </row>
     <row r="47" ht="49.5" spans="1:44">
       <c r="A47" s="10" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="G47" s="11"/>
+        <v>383</v>
+      </c>
+      <c r="G47" s="11">
+        <v>13</v>
+      </c>
       <c r="H47" s="11">
         <v>5</v>
       </c>
@@ -7916,17 +8023,17 @@
         <v>0</v>
       </c>
       <c r="O47" s="12" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="P47" s="11">
         <v>0</v>
       </c>
       <c r="Q47" s="11"/>
       <c r="R47" s="11" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
@@ -7945,7 +8052,7 @@
         <v>74</v>
       </c>
       <c r="AD47" s="11" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AE47" s="12" t="s">
         <v>76</v>
@@ -7968,20 +8075,22 @@
     </row>
     <row r="48" ht="49.5" spans="1:44">
       <c r="A48" s="13" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="G48" s="14"/>
+        <v>383</v>
+      </c>
+      <c r="G48" s="14">
+        <v>13</v>
+      </c>
       <c r="H48" s="14">
         <v>5</v>
       </c>
@@ -8004,17 +8113,17 @@
         <v>0</v>
       </c>
       <c r="O48" s="15" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="P48" s="14">
         <v>0</v>
       </c>
       <c r="Q48" s="14"/>
       <c r="R48" s="14" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="S48" s="14" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="T48" s="14"/>
       <c r="U48" s="14"/>
@@ -8033,7 +8142,7 @@
         <v>74</v>
       </c>
       <c r="AD48" s="14" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AE48" s="15" t="s">
         <v>76</v>
@@ -8056,20 +8165,22 @@
     </row>
     <row r="49" ht="66" spans="1:44">
       <c r="A49" s="10" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G49" s="11"/>
+        <v>199</v>
+      </c>
+      <c r="G49" s="11">
+        <v>2</v>
+      </c>
       <c r="H49" s="11">
         <v>1</v>
       </c>
@@ -8092,14 +8203,14 @@
         <v>0</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q49" s="11"/>
       <c r="R49" s="11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
@@ -8119,7 +8230,7 @@
         <v>74</v>
       </c>
       <c r="AD49" s="11" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="AE49" s="12" t="s">
         <v>76</v>
@@ -8142,20 +8253,22 @@
     </row>
     <row r="50" ht="88.5" customHeight="1" spans="1:44">
       <c r="A50" s="13" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="G50" s="14"/>
+        <v>401</v>
+      </c>
+      <c r="G50" s="14">
+        <v>7</v>
+      </c>
       <c r="H50" s="14">
         <v>5</v>
       </c>
@@ -8178,17 +8291,17 @@
         <v>30</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="P50" s="14">
         <v>0</v>
       </c>
       <c r="Q50" s="14"/>
       <c r="R50" s="14" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="S50" s="14" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="T50" s="14"/>
       <c r="U50" s="14"/>
@@ -8207,7 +8320,7 @@
         <v>74</v>
       </c>
       <c r="AD50" s="14" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="AE50" s="15" t="s">
         <v>76</v>
@@ -8230,20 +8343,22 @@
     </row>
     <row r="51" ht="88.5" customHeight="1" spans="1:44">
       <c r="A51" s="10" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G51" s="11"/>
+        <v>199</v>
+      </c>
+      <c r="G51" s="11">
+        <v>2</v>
+      </c>
       <c r="H51" s="11">
         <v>1</v>
       </c>
@@ -8266,14 +8381,14 @@
         <v>8</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Q51" s="11"/>
       <c r="R51" s="11" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
@@ -8293,7 +8408,7 @@
         <v>74</v>
       </c>
       <c r="AD51" s="11" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="AE51" s="12" t="s">
         <v>76</v>
@@ -8316,20 +8431,22 @@
     </row>
     <row r="52" ht="121.5" customHeight="1" spans="1:44">
       <c r="A52" s="13" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="G52" s="14"/>
+        <v>414</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>415</v>
+      </c>
       <c r="H52" s="14">
         <v>1</v>
       </c>
@@ -8352,7 +8469,7 @@
         <v>4</v>
       </c>
       <c r="O52" s="15" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P52" s="14">
         <v>0</v>
@@ -8362,7 +8479,7 @@
         <v>126</v>
       </c>
       <c r="S52" s="14" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="T52" s="14" t="s">
         <v>128</v>
@@ -8383,7 +8500,7 @@
         <v>74</v>
       </c>
       <c r="AD52" s="14" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="AE52" s="15" t="s">
         <v>76</v>
@@ -8406,20 +8523,22 @@
     </row>
     <row r="53" ht="82.5" spans="1:44">
       <c r="A53" s="10" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="G53" s="11"/>
+        <v>421</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="H53" s="11">
         <v>3</v>
       </c>
@@ -8442,14 +8561,14 @@
         <v>1</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="P53" s="11">
         <v>0</v>
       </c>
       <c r="Q53" s="11"/>
       <c r="R53" s="11" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="S53" s="11" t="s">
         <v>99</v>
@@ -8458,7 +8577,7 @@
         <v>100</v>
       </c>
       <c r="U53" s="11" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
@@ -8475,7 +8594,7 @@
         <v>74</v>
       </c>
       <c r="AD53" s="11" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="AE53" s="12" t="s">
         <v>76</v>
@@ -8498,20 +8617,22 @@
     </row>
     <row r="54" ht="72" customHeight="1" spans="1:44">
       <c r="A54" s="13" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="G54" s="14"/>
+        <v>430</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="H54" s="14">
         <v>1</v>
       </c>
@@ -8534,17 +8655,17 @@
         <v>3</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="P54" s="14" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Q54" s="14"/>
       <c r="R54" s="14" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="S54" s="14" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="T54" s="14"/>
       <c r="U54" s="14"/>
@@ -8563,7 +8684,7 @@
         <v>74</v>
       </c>
       <c r="AD54" s="14" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="AE54" s="15" t="s">
         <v>76</v>
@@ -8586,20 +8707,22 @@
     </row>
     <row r="55" ht="72" customHeight="1" spans="1:44">
       <c r="A55" s="10" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="G55" s="11"/>
+        <v>438</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>439</v>
+      </c>
       <c r="H55" s="11">
         <v>1</v>
       </c>
@@ -8622,20 +8745,20 @@
         <v>2</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="P55" s="11" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q55" s="11"/>
       <c r="R55" s="11" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="S55" s="11" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="U55" s="11"/>
       <c r="V55" s="11"/>
@@ -8653,7 +8776,7 @@
         <v>74</v>
       </c>
       <c r="AD55" s="11" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="AE55" s="12" t="s">
         <v>76</v>
@@ -8676,20 +8799,22 @@
     </row>
     <row r="56" ht="55.5" customHeight="1" spans="1:44">
       <c r="A56" s="13" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G56" s="14"/>
+      <c r="G56" s="14">
+        <v>4</v>
+      </c>
       <c r="H56" s="14">
         <v>1</v>
       </c>
@@ -8712,17 +8837,17 @@
         <v>2</v>
       </c>
       <c r="O56" s="15" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P56" s="14">
         <v>0</v>
       </c>
       <c r="Q56" s="14"/>
       <c r="R56" s="14" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="S56" s="14" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="T56" s="14"/>
       <c r="U56" s="14"/>
@@ -8741,7 +8866,7 @@
         <v>74</v>
       </c>
       <c r="AD56" s="14" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="AE56" s="15" t="s">
         <v>76</v>
@@ -8764,20 +8889,22 @@
     </row>
     <row r="57" ht="39" customHeight="1" spans="1:44">
       <c r="A57" s="10" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="G57" s="11"/>
+        <v>451</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>452</v>
+      </c>
       <c r="H57" s="11">
         <v>4</v>
       </c>
@@ -8800,17 +8927,17 @@
         <v>0</v>
       </c>
       <c r="O57" s="12" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="P57" s="11">
         <v>0</v>
       </c>
       <c r="Q57" s="11"/>
       <c r="R57" s="11" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="S57" s="11" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
@@ -8829,7 +8956,7 @@
         <v>74</v>
       </c>
       <c r="AD57" s="11" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="AE57" s="12" t="s">
         <v>76</v>
@@ -8852,18 +8979,18 @@
     </row>
     <row r="58" ht="39" customHeight="1" spans="1:44">
       <c r="A58" s="13" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="14">
@@ -8888,14 +9015,14 @@
         <v>0</v>
       </c>
       <c r="O58" s="15" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="P58" s="14">
         <v>0</v>
       </c>
       <c r="Q58" s="14"/>
       <c r="R58" s="14" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="S58" s="14"/>
       <c r="T58" s="14"/>
@@ -8915,7 +9042,7 @@
         <v>74</v>
       </c>
       <c r="AD58" s="14" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="AE58" s="15" t="s">
         <v>76</v>
@@ -8938,18 +9065,18 @@
     </row>
     <row r="59" ht="88.5" customHeight="1" spans="1:44">
       <c r="A59" s="10" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="11">
@@ -8974,14 +9101,14 @@
         <v>3</v>
       </c>
       <c r="O59" s="12" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="P59" s="11" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="Q59" s="11"/>
       <c r="R59" s="11" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
@@ -9001,7 +9128,7 @@
         <v>74</v>
       </c>
       <c r="AD59" s="11" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="AE59" s="12" t="s">
         <v>76</v>
@@ -9024,13 +9151,13 @@
     </row>
     <row r="60" ht="66" spans="1:44">
       <c r="A60" s="13" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
@@ -9058,14 +9185,14 @@
         <v>3</v>
       </c>
       <c r="O60" s="15" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="P60" s="14" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="Q60" s="14"/>
       <c r="R60" s="14" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="S60" s="14"/>
       <c r="T60" s="14"/>
@@ -9085,7 +9212,7 @@
         <v>74</v>
       </c>
       <c r="AD60" s="14" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="AE60" s="15" t="s">
         <v>76</v>
@@ -9108,13 +9235,13 @@
     </row>
     <row r="61" ht="55.5" customHeight="1" spans="1:44">
       <c r="A61" s="10" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -9142,7 +9269,7 @@
         <v>5</v>
       </c>
       <c r="O61" s="12" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P61" s="11">
         <v>0</v>
@@ -9167,7 +9294,7 @@
         <v>74</v>
       </c>
       <c r="AD61" s="11" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="AE61" s="12" t="s">
         <v>76</v>
@@ -9190,13 +9317,13 @@
     </row>
     <row r="62" ht="72" customHeight="1" spans="1:44">
       <c r="A62" s="13" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
@@ -9224,23 +9351,23 @@
         <v>6</v>
       </c>
       <c r="O62" s="15" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="P62" s="14">
         <v>0</v>
       </c>
       <c r="Q62" s="14"/>
       <c r="R62" s="14" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="S62" s="14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T62" s="14" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="U62" s="14" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="V62" s="14"/>
       <c r="W62" s="14"/>
@@ -9257,7 +9384,7 @@
         <v>74</v>
       </c>
       <c r="AD62" s="14" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="AE62" s="15" t="s">
         <v>76</v>
@@ -9280,13 +9407,13 @@
     </row>
     <row r="63" ht="72" customHeight="1" spans="1:44">
       <c r="A63" s="10" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -9314,23 +9441,23 @@
         <v>6</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="P63" s="11">
         <v>0</v>
       </c>
       <c r="Q63" s="11"/>
       <c r="R63" s="11" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="S63" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="U63" s="11" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
@@ -9347,7 +9474,7 @@
         <v>74</v>
       </c>
       <c r="AD63" s="11" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="AE63" s="12" t="s">
         <v>76</v>
@@ -9370,13 +9497,13 @@
     </row>
     <row r="64" ht="88.5" customHeight="1" spans="1:44">
       <c r="A64" s="13" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
@@ -9404,23 +9531,23 @@
         <v>6</v>
       </c>
       <c r="O64" s="15" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="P64" s="14">
         <v>0</v>
       </c>
       <c r="Q64" s="14"/>
       <c r="R64" s="14" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="S64" s="14" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="T64" s="14" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="U64" s="14" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="V64" s="14"/>
       <c r="W64" s="14"/>
@@ -9437,7 +9564,7 @@
         <v>74</v>
       </c>
       <c r="AD64" s="14" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="AE64" s="15" t="s">
         <v>76</v>
@@ -9460,18 +9587,18 @@
     </row>
     <row r="65" ht="66" spans="1:44">
       <c r="A65" s="10" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="11">
@@ -9496,20 +9623,20 @@
         <v>0</v>
       </c>
       <c r="O65" s="12" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="P65" s="11" t="s">
         <v>125</v>
       </c>
       <c r="Q65" s="11"/>
       <c r="R65" s="11" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="S65" s="11" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
@@ -9527,7 +9654,7 @@
         <v>74</v>
       </c>
       <c r="AD65" s="11" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="AE65" s="12" t="s">
         <v>76</v>
@@ -9550,13 +9677,13 @@
     </row>
     <row r="66" ht="66" spans="1:44">
       <c r="A66" s="13" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
@@ -9586,20 +9713,20 @@
         <v>0</v>
       </c>
       <c r="O66" s="15" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="P66" s="14">
         <v>0</v>
       </c>
       <c r="Q66" s="14"/>
       <c r="R66" s="14" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="S66" s="14" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="T66" s="14" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="U66" s="14"/>
       <c r="V66" s="14"/>
@@ -9617,7 +9744,7 @@
         <v>74</v>
       </c>
       <c r="AD66" s="14" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="AE66" s="15" t="s">
         <v>76</v>
@@ -9640,18 +9767,18 @@
     </row>
     <row r="67" ht="105" customHeight="1" spans="1:44">
       <c r="A67" s="10" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="11">
@@ -9676,20 +9803,20 @@
         <v>2</v>
       </c>
       <c r="O67" s="12" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="P67" s="11">
         <v>0</v>
       </c>
       <c r="Q67" s="11"/>
       <c r="R67" s="11" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="S67" s="11" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
@@ -9707,7 +9834,7 @@
         <v>74</v>
       </c>
       <c r="AD67" s="11" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="AE67" s="12" t="s">
         <v>76</v>
@@ -9730,18 +9857,18 @@
     </row>
     <row r="68" ht="88.5" customHeight="1" spans="1:44">
       <c r="A68" s="13" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="14">
@@ -9766,20 +9893,20 @@
         <v>0</v>
       </c>
       <c r="O68" s="15" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="P68" s="14" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Q68" s="14"/>
       <c r="R68" s="14" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="S68" s="14" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="T68" s="14" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="U68" s="14"/>
       <c r="V68" s="14"/>
@@ -9797,7 +9924,7 @@
         <v>74</v>
       </c>
       <c r="AD68" s="14" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="AE68" s="15" t="s">
         <v>76</v>
@@ -9820,18 +9947,18 @@
     </row>
     <row r="69" ht="55.5" customHeight="1" spans="1:44">
       <c r="A69" s="10" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="11">
@@ -9856,14 +9983,14 @@
         <v>0</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="P69" s="11">
         <v>0</v>
       </c>
       <c r="Q69" s="11"/>
       <c r="R69" s="11" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
@@ -9883,7 +10010,7 @@
         <v>74</v>
       </c>
       <c r="AD69" s="11" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="AE69" s="12" t="s">
         <v>76</v>
@@ -9906,13 +10033,13 @@
     </row>
     <row r="70" ht="105" customHeight="1" spans="1:44">
       <c r="A70" s="13" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
@@ -9940,17 +10067,17 @@
         <v>4</v>
       </c>
       <c r="O70" s="15" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="P70" s="14" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Q70" s="14"/>
       <c r="R70" s="14" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="S70" s="14" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="T70" s="14"/>
       <c r="U70" s="14"/>
@@ -9969,7 +10096,7 @@
         <v>74</v>
       </c>
       <c r="AD70" s="14" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="AE70" s="15" t="s">
         <v>76</v>
@@ -9992,18 +10119,18 @@
     </row>
     <row r="71" ht="99" spans="1:44">
       <c r="A71" s="10" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="11">
@@ -10028,7 +10155,7 @@
         <v>5</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="P71" s="11" t="s">
         <v>125</v>
@@ -10053,7 +10180,7 @@
         <v>74</v>
       </c>
       <c r="AD71" s="11" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="AE71" s="12" t="s">
         <v>76</v>
@@ -10076,18 +10203,18 @@
     </row>
     <row r="72" ht="49.5" spans="1:44">
       <c r="A72" s="13" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14">
@@ -10112,17 +10239,17 @@
         <v>3</v>
       </c>
       <c r="O72" s="15" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="P72" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q72" s="14"/>
       <c r="R72" s="14" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="S72" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T72" s="14"/>
       <c r="U72" s="14"/>
@@ -10141,7 +10268,7 @@
         <v>74</v>
       </c>
       <c r="AD72" s="14" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="AE72" s="15" t="s">
         <v>76</v>
@@ -10164,18 +10291,18 @@
     </row>
     <row r="73" ht="105" customHeight="1" spans="1:44">
       <c r="A73" s="10" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="11">
@@ -10200,17 +10327,17 @@
         <v>4</v>
       </c>
       <c r="O73" s="12" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="P73" s="11" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Q73" s="11"/>
       <c r="R73" s="11" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="S73" s="11" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="T73" s="11"/>
       <c r="U73" s="11"/>
@@ -10229,7 +10356,7 @@
         <v>74</v>
       </c>
       <c r="AD73" s="11" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="AE73" s="12" t="s">
         <v>76</v>
@@ -10252,18 +10379,18 @@
     </row>
     <row r="74" ht="55.5" customHeight="1" spans="1:44">
       <c r="A74" s="13" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="14">
@@ -10288,7 +10415,7 @@
         <v>10</v>
       </c>
       <c r="O74" s="15" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="P74" s="14">
         <v>0</v>
@@ -10313,7 +10440,7 @@
         <v>74</v>
       </c>
       <c r="AD74" s="14" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AE74" s="15" t="s">
         <v>76</v>
@@ -10336,18 +10463,18 @@
     </row>
     <row r="75" ht="88.5" customHeight="1" spans="1:44">
       <c r="A75" s="10" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G75" s="11"/>
       <c r="H75" s="11">
@@ -10372,17 +10499,17 @@
         <v>8</v>
       </c>
       <c r="O75" s="12" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="P75" s="11">
         <v>0</v>
       </c>
       <c r="Q75" s="11"/>
       <c r="R75" s="11" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="S75" s="11" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="T75" s="11"/>
       <c r="U75" s="11"/>
@@ -10401,7 +10528,7 @@
         <v>74</v>
       </c>
       <c r="AD75" s="11" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="AE75" s="12" t="s">
         <v>76</v>
@@ -10424,13 +10551,13 @@
     </row>
     <row r="76" ht="66" spans="1:44">
       <c r="A76" s="13" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
@@ -10460,17 +10587,17 @@
         <v>4</v>
       </c>
       <c r="O76" s="15" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Q76" s="14"/>
       <c r="R76" s="14" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="S76" s="14" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="T76" s="14"/>
       <c r="U76" s="14"/>
@@ -10489,7 +10616,7 @@
         <v>74</v>
       </c>
       <c r="AD76" s="14" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="AE76" s="15" t="s">
         <v>76</v>
@@ -10512,18 +10639,18 @@
     </row>
     <row r="77" ht="66" spans="1:44">
       <c r="A77" s="10" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="G77" s="11"/>
       <c r="H77" s="11">
@@ -10548,17 +10675,17 @@
         <v>3</v>
       </c>
       <c r="O77" s="12" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="P77" s="11" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q77" s="11"/>
       <c r="R77" s="11" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="T77" s="11"/>
       <c r="U77" s="11"/>
@@ -10577,7 +10704,7 @@
         <v>74</v>
       </c>
       <c r="AD77" s="11" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AE77" s="12" t="s">
         <v>76</v>
@@ -10600,18 +10727,18 @@
     </row>
     <row r="78" ht="88.5" customHeight="1" spans="1:44">
       <c r="A78" s="13" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="14">
@@ -10636,17 +10763,17 @@
         <v>4</v>
       </c>
       <c r="O78" s="15" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="P78" s="14" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q78" s="14"/>
       <c r="R78" s="14" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="S78" s="14" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="T78" s="14"/>
       <c r="U78" s="14"/>
@@ -10665,7 +10792,7 @@
         <v>74</v>
       </c>
       <c r="AD78" s="14" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="AE78" s="15" t="s">
         <v>76</v>
@@ -10688,18 +10815,18 @@
     </row>
     <row r="79" ht="82.5" spans="1:44">
       <c r="A79" s="10" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11">
@@ -10724,23 +10851,23 @@
         <v>1</v>
       </c>
       <c r="O79" s="12" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="P79" s="11" t="s">
         <v>125</v>
       </c>
       <c r="Q79" s="11"/>
       <c r="R79" s="11" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="S79" s="11" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="U79" s="11" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="V79" s="11"/>
       <c r="W79" s="11"/>
@@ -10757,7 +10884,7 @@
         <v>74</v>
       </c>
       <c r="AD79" s="11" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="AE79" s="12" t="s">
         <v>76</v>
@@ -10780,18 +10907,18 @@
     </row>
     <row r="80" ht="105" customHeight="1" spans="1:44">
       <c r="A80" s="13" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="14">
@@ -10816,17 +10943,17 @@
         <v>4</v>
       </c>
       <c r="O80" s="15" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="P80" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q80" s="14"/>
       <c r="R80" s="14" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="S80" s="14" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="T80" s="14"/>
       <c r="U80" s="14"/>
@@ -10845,7 +10972,7 @@
         <v>74</v>
       </c>
       <c r="AD80" s="14" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="AE80" s="15" t="s">
         <v>76</v>
@@ -10868,18 +10995,18 @@
     </row>
     <row r="81" ht="82.5" spans="1:44">
       <c r="A81" s="10" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11">
@@ -10904,20 +11031,20 @@
         <v>8</v>
       </c>
       <c r="O81" s="12" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="P81" s="11" t="s">
         <v>125</v>
       </c>
       <c r="Q81" s="11"/>
       <c r="R81" s="11" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="S81" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="U81" s="11"/>
       <c r="V81" s="11"/>
@@ -10935,7 +11062,7 @@
         <v>74</v>
       </c>
       <c r="AD81" s="11" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AE81" s="12" t="s">
         <v>76</v>
@@ -10958,18 +11085,18 @@
     </row>
     <row r="82" ht="82.5" spans="1:44">
       <c r="A82" s="13" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14" t="s">
-        <v>609</v>
+        <v>329</v>
       </c>
       <c r="G82" s="14"/>
       <c r="H82" s="14">
@@ -10994,20 +11121,20 @@
         <v>5</v>
       </c>
       <c r="O82" s="15" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="P82" s="14" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="Q82" s="14"/>
       <c r="R82" s="14" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="S82" s="14" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="T82" s="14" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="U82" s="14"/>
       <c r="V82" s="14"/>
@@ -11025,7 +11152,7 @@
         <v>74</v>
       </c>
       <c r="AD82" s="14" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="AE82" s="15" t="s">
         <v>76</v>
@@ -11048,18 +11175,18 @@
     </row>
     <row r="83" ht="82.5" spans="1:44">
       <c r="A83" s="10" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="G83" s="11"/>
       <c r="H83" s="11">
@@ -11084,20 +11211,20 @@
         <v>8</v>
       </c>
       <c r="O83" s="12" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="P83" s="11" t="s">
         <v>125</v>
       </c>
       <c r="Q83" s="11"/>
       <c r="R83" s="11" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="S83" s="11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="U83" s="11"/>
       <c r="V83" s="11"/>
@@ -11115,7 +11242,7 @@
         <v>74</v>
       </c>
       <c r="AD83" s="11" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="AE83" s="12" t="s">
         <v>76</v>
@@ -11138,18 +11265,18 @@
     </row>
     <row r="84" ht="105" customHeight="1" spans="1:44">
       <c r="A84" s="13" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14">
@@ -11174,26 +11301,26 @@
         <v>8</v>
       </c>
       <c r="O84" s="15" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="P84" s="14" t="s">
         <v>125</v>
       </c>
       <c r="Q84" s="14"/>
       <c r="R84" s="14" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="S84" s="14" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="T84" s="14" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="U84" s="14" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="V84" s="14" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="W84" s="14"/>
       <c r="X84" s="14"/>
@@ -11209,7 +11336,7 @@
         <v>74</v>
       </c>
       <c r="AD84" s="14" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="AE84" s="15" t="s">
         <v>76</v>
@@ -11232,10 +11359,10 @@
     </row>
     <row r="85" ht="39" customHeight="1" spans="1:44">
       <c r="A85" s="32" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="C85" s="34"/>
       <c r="D85" s="33"/>
@@ -11264,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="34" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P85" s="33">
         <v>0</v>
@@ -11289,7 +11416,7 @@
         <v>74</v>
       </c>
       <c r="AD85" s="33" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="AE85" s="34" t="s">
         <v>76</v>
@@ -11310,6 +11437,7 @@
       <c r="AQ85" s="29"/>
       <c r="AR85" s="30"/>
     </row>
+    <row r="86" ht="14.25"/>
   </sheetData>
   <autoFilter ref="A1:AR85">
     <extLst/>
@@ -11410,19 +11538,19 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11430,13 +11558,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -11445,7 +11573,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -11458,13 +11586,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -11473,7 +11601,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -11486,13 +11614,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -11501,7 +11629,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -11514,13 +11642,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -11529,7 +11657,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -11542,13 +11670,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -11557,7 +11685,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -11568,16 +11696,28 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="7:11">
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="7:11">
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>655</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -11586,7 +11726,7 @@
     </row>
     <row r="16" spans="7:11">
       <c r="G16" s="1" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -11602,7 +11742,7 @@
     </row>
     <row r="18" spans="7:11">
       <c r="G18" s="1" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -11618,7 +11758,7 @@
     </row>
     <row r="20" spans="7:11">
       <c r="G20" s="1" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>

--- a/excels/abilities/arms.xlsx
+++ b/excels/abilities/arms.xlsx
@@ -3375,16 +3375,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{E34DE943-FD41-426A-B650-D3CE0DA2F682}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{7F7B26FE-DC06-4C7A-8EB1-EF48FB9C140B}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4E5A96A8-898D-4C6F-B6ED-EF3A06896206}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{01AE4E41-E07A-4E52-9275-169009C3DD60}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{3A480B87-D4DC-48C8-96CE-CCB4D9CEB91C}">
+    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{59C5FFAC-E16D-444D-9F07-63C1C7A00C07}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstColumn" dxfId="14"/>
@@ -3696,10 +3696,10 @@
   <sheetPr/>
   <dimension ref="A1:AR86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G59" sqref="G59"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/abilities/arms.xlsx
+++ b/excels/abilities/arms.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="658">
   <si>
     <t>名字</t>
   </si>
@@ -1497,6 +1497,9 @@
     <t>投射物/计数型</t>
   </si>
   <si>
+    <t>1,11</t>
+  </si>
+  <si>
     <t>dragon_knight_dragon_tail</t>
   </si>
   <si>
@@ -1777,9 +1780,6 @@
 伤害系数：%DamageFormula%</t>
   </si>
   <si>
-    <t>非指向性/计数型</t>
-  </si>
-  <si>
     <t>lina_dragon_slave</t>
   </si>
   <si>
@@ -1869,9 +1869,6 @@
   </si>
   <si>
     <t>弧形闪电II</t>
-  </si>
-  <si>
-    <t>伤害型/计数型</t>
   </si>
   <si>
     <t>zeus/ti8_immortal_arms/zeus_arc_lightning_immortal</t>
@@ -3375,16 +3372,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{7F7B26FE-DC06-4C7A-8EB1-EF48FB9C140B}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{9652418B-EDF1-4067-92FF-474AADFEE16C}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{01AE4E41-E07A-4E52-9275-169009C3DD60}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{357C6613-03F4-4AFF-9599-B1B2902B297A}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{59C5FFAC-E16D-444D-9F07-63C1C7A00C07}">
+    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{812E5727-6574-41DE-BDC0-E2F63A9D5D8C}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstColumn" dxfId="14"/>
@@ -3696,10 +3693,10 @@
   <sheetPr/>
   <dimension ref="A1:AR86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I2" sqref="I2"/>
+      <selection pane="topRight" activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6918,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K35" s="11">
         <v>0</v>
@@ -7010,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K36" s="14">
         <v>0</v>
@@ -7100,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K37" s="11">
         <v>0</v>
@@ -7194,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K38" s="14">
         <v>0</v>
@@ -7286,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K39" s="11">
         <v>0</v>
@@ -7377,8 +7374,8 @@
       <c r="I40" s="14">
         <v>0</v>
       </c>
-      <c r="J40" s="14">
-        <v>4</v>
+      <c r="J40" s="11">
+        <v>5</v>
       </c>
       <c r="K40" s="14">
         <v>0</v>
@@ -7474,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K41" s="11">
         <v>0</v>
@@ -7567,8 +7564,8 @@
       <c r="I42" s="14">
         <v>0</v>
       </c>
-      <c r="J42" s="14">
-        <v>4</v>
+      <c r="J42" s="11">
+        <v>5</v>
       </c>
       <c r="K42" s="14">
         <v>0</v>
@@ -7660,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K43" s="11">
         <v>0</v>
@@ -7747,8 +7744,8 @@
       <c r="I44" s="14">
         <v>0</v>
       </c>
-      <c r="J44" s="14">
-        <v>4</v>
+      <c r="J44" s="11">
+        <v>5</v>
       </c>
       <c r="K44" s="14">
         <v>0</v>
@@ -7834,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K45" s="11">
         <v>0</v>
@@ -7919,8 +7916,8 @@
       <c r="I46" s="14">
         <v>0</v>
       </c>
-      <c r="J46" s="14">
-        <v>4</v>
+      <c r="J46" s="11">
+        <v>5</v>
       </c>
       <c r="K46" s="14">
         <v>0</v>
@@ -8008,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K47" s="11">
         <v>0</v>
@@ -8097,8 +8094,8 @@
       <c r="I48" s="14">
         <v>0</v>
       </c>
-      <c r="J48" s="14">
-        <v>4</v>
+      <c r="J48" s="11">
+        <v>6</v>
       </c>
       <c r="K48" s="14">
         <v>0</v>
@@ -8188,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K49" s="11">
         <v>0</v>
@@ -8275,8 +8272,8 @@
       <c r="I50" s="14">
         <v>0</v>
       </c>
-      <c r="J50" s="14">
-        <v>4</v>
+      <c r="J50" s="11">
+        <v>6</v>
       </c>
       <c r="K50" s="14">
         <v>0</v>
@@ -8366,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K51" s="11">
         <v>0</v>
@@ -8454,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K52" s="14">
         <v>0</v>
@@ -8546,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K53" s="11">
         <v>0</v>
@@ -8640,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K54" s="14">
         <v>0</v>
@@ -8730,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K55" s="11">
         <v>0</v>
@@ -8822,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K56" s="14">
         <v>0</v>
@@ -8912,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K57" s="11">
         <v>0</v>
@@ -8992,7 +8989,9 @@
       <c r="F58" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="G58" s="14"/>
+      <c r="G58" s="14">
+        <v>7</v>
+      </c>
       <c r="H58" s="14">
         <v>4</v>
       </c>
@@ -9000,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K58" s="14">
         <v>0</v>
@@ -9078,7 +9077,9 @@
       <c r="F59" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="G59" s="11"/>
+      <c r="G59" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="H59" s="11">
         <v>4</v>
       </c>
@@ -9086,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K59" s="11">
         <v>0</v>
@@ -9101,14 +9102,14 @@
         <v>3</v>
       </c>
       <c r="O59" s="12" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P59" s="11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q59" s="11"/>
       <c r="R59" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
@@ -9128,7 +9129,7 @@
         <v>74</v>
       </c>
       <c r="AD59" s="11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AE59" s="12" t="s">
         <v>76</v>
@@ -9151,18 +9152,20 @@
     </row>
     <row r="60" ht="66" spans="1:44">
       <c r="A60" s="13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
+      <c r="G60" s="14">
+        <v>7</v>
+      </c>
       <c r="H60" s="14">
         <v>4</v>
       </c>
@@ -9170,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K60" s="14">
         <v>0</v>
@@ -9185,14 +9188,14 @@
         <v>3</v>
       </c>
       <c r="O60" s="15" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P60" s="14" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q60" s="14"/>
       <c r="R60" s="14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="S60" s="14"/>
       <c r="T60" s="14"/>
@@ -9212,7 +9215,7 @@
         <v>74</v>
       </c>
       <c r="AD60" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AE60" s="15" t="s">
         <v>76</v>
@@ -9235,18 +9238,20 @@
     </row>
     <row r="61" ht="55.5" customHeight="1" spans="1:44">
       <c r="A61" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="G61" s="11">
+        <v>7</v>
+      </c>
       <c r="H61" s="11">
         <v>4</v>
       </c>
@@ -9254,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K61" s="11">
         <v>0</v>
@@ -9294,7 +9299,7 @@
         <v>74</v>
       </c>
       <c r="AD61" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AE61" s="12" t="s">
         <v>76</v>
@@ -9317,18 +9322,20 @@
     </row>
     <row r="62" ht="72" customHeight="1" spans="1:44">
       <c r="A62" s="13" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
+      <c r="G62" s="14">
+        <v>2</v>
+      </c>
       <c r="H62" s="14">
         <v>6</v>
       </c>
@@ -9336,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K62" s="14">
         <v>0</v>
@@ -9351,20 +9358,20 @@
         <v>6</v>
       </c>
       <c r="O62" s="15" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P62" s="14">
         <v>0</v>
       </c>
       <c r="Q62" s="14"/>
       <c r="R62" s="14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="S62" s="14" t="s">
         <v>162</v>
       </c>
       <c r="T62" s="14" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="U62" s="14" t="s">
         <v>338</v>
@@ -9384,7 +9391,7 @@
         <v>74</v>
       </c>
       <c r="AD62" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AE62" s="15" t="s">
         <v>76</v>
@@ -9407,18 +9414,20 @@
     </row>
     <row r="63" ht="72" customHeight="1" spans="1:44">
       <c r="A63" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+      <c r="G63" s="11">
+        <v>2</v>
+      </c>
       <c r="H63" s="11">
         <v>5</v>
       </c>
@@ -9426,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K63" s="11">
         <v>0</v>
@@ -9441,20 +9450,20 @@
         <v>6</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P63" s="11">
         <v>0</v>
       </c>
       <c r="Q63" s="11"/>
       <c r="R63" s="11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="S63" s="11" t="s">
         <v>162</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="U63" s="11" t="s">
         <v>338</v>
@@ -9474,7 +9483,7 @@
         <v>74</v>
       </c>
       <c r="AD63" s="11" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AE63" s="12" t="s">
         <v>76</v>
@@ -9497,18 +9506,20 @@
     </row>
     <row r="64" ht="88.5" customHeight="1" spans="1:44">
       <c r="A64" s="13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
+      <c r="G64" s="14">
+        <v>2</v>
+      </c>
       <c r="H64" s="14">
         <v>5</v>
       </c>
@@ -9516,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K64" s="14">
         <v>0</v>
@@ -9531,20 +9542,20 @@
         <v>6</v>
       </c>
       <c r="O64" s="15" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P64" s="14">
         <v>0</v>
       </c>
       <c r="Q64" s="14"/>
       <c r="R64" s="14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="S64" s="14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T64" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="U64" s="14" t="s">
         <v>338</v>
@@ -9564,7 +9575,7 @@
         <v>74</v>
       </c>
       <c r="AD64" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AE64" s="15" t="s">
         <v>76</v>
@@ -9587,20 +9598,22 @@
     </row>
     <row r="65" ht="66" spans="1:44">
       <c r="A65" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G65" s="11"/>
+      <c r="G65" s="11">
+        <v>2</v>
+      </c>
       <c r="H65" s="11">
         <v>6</v>
       </c>
@@ -9608,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K65" s="11">
         <v>0</v>
@@ -9623,20 +9636,20 @@
         <v>0</v>
       </c>
       <c r="O65" s="12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P65" s="11" t="s">
         <v>125</v>
       </c>
       <c r="Q65" s="11"/>
       <c r="R65" s="11" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="S65" s="11" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
@@ -9654,7 +9667,7 @@
         <v>74</v>
       </c>
       <c r="AD65" s="11" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AE65" s="12" t="s">
         <v>76</v>
@@ -9677,13 +9690,13 @@
     </row>
     <row r="66" ht="66" spans="1:44">
       <c r="A66" s="13" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
@@ -9698,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K66" s="14">
         <v>0</v>
@@ -9713,20 +9726,20 @@
         <v>0</v>
       </c>
       <c r="O66" s="15" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P66" s="14">
         <v>0</v>
       </c>
       <c r="Q66" s="14"/>
       <c r="R66" s="14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="S66" s="14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="T66" s="14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="U66" s="14"/>
       <c r="V66" s="14"/>
@@ -9744,7 +9757,7 @@
         <v>74</v>
       </c>
       <c r="AD66" s="14" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AE66" s="15" t="s">
         <v>76</v>
@@ -9767,20 +9780,22 @@
     </row>
     <row r="67" ht="105" customHeight="1" spans="1:44">
       <c r="A67" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G67" s="11"/>
+      <c r="G67" s="11">
+        <v>2</v>
+      </c>
       <c r="H67" s="11">
         <v>6</v>
       </c>
@@ -9803,20 +9818,20 @@
         <v>2</v>
       </c>
       <c r="O67" s="12" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P67" s="11">
         <v>0</v>
       </c>
       <c r="Q67" s="11"/>
       <c r="R67" s="11" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="S67" s="11" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
@@ -9834,7 +9849,7 @@
         <v>74</v>
       </c>
       <c r="AD67" s="11" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AE67" s="12" t="s">
         <v>76</v>
@@ -9857,20 +9872,22 @@
     </row>
     <row r="68" ht="88.5" customHeight="1" spans="1:44">
       <c r="A68" s="13" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="G68" s="14"/>
+        <v>529</v>
+      </c>
+      <c r="G68" s="14">
+        <v>1</v>
+      </c>
       <c r="H68" s="14">
         <v>6</v>
       </c>
@@ -9893,20 +9910,20 @@
         <v>0</v>
       </c>
       <c r="O68" s="15" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P68" s="14" t="s">
         <v>409</v>
       </c>
       <c r="Q68" s="14"/>
       <c r="R68" s="14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="S68" s="14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="T68" s="14" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="U68" s="14"/>
       <c r="V68" s="14"/>
@@ -9924,7 +9941,7 @@
         <v>74</v>
       </c>
       <c r="AD68" s="14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AE68" s="15" t="s">
         <v>76</v>
@@ -9947,20 +9964,22 @@
     </row>
     <row r="69" ht="55.5" customHeight="1" spans="1:44">
       <c r="A69" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="G69" s="11"/>
+      <c r="G69" s="11">
+        <v>7</v>
+      </c>
       <c r="H69" s="11">
         <v>4</v>
       </c>
@@ -9983,14 +10002,14 @@
         <v>0</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P69" s="11">
         <v>0</v>
       </c>
       <c r="Q69" s="11"/>
       <c r="R69" s="11" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
@@ -10010,7 +10029,7 @@
         <v>74</v>
       </c>
       <c r="AD69" s="11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AE69" s="12" t="s">
         <v>76</v>
@@ -10033,13 +10052,13 @@
     </row>
     <row r="70" ht="105" customHeight="1" spans="1:44">
       <c r="A70" s="13" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
@@ -10067,17 +10086,17 @@
         <v>4</v>
       </c>
       <c r="O70" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P70" s="14" t="s">
         <v>409</v>
       </c>
       <c r="Q70" s="14"/>
       <c r="R70" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="S70" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T70" s="14"/>
       <c r="U70" s="14"/>
@@ -10096,7 +10115,7 @@
         <v>74</v>
       </c>
       <c r="AD70" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AE70" s="15" t="s">
         <v>76</v>
@@ -10119,18 +10138,18 @@
     </row>
     <row r="71" ht="99" spans="1:44">
       <c r="A71" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="11">
@@ -10155,7 +10174,7 @@
         <v>5</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P71" s="11" t="s">
         <v>125</v>
@@ -10180,7 +10199,7 @@
         <v>74</v>
       </c>
       <c r="AD71" s="11" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AE71" s="12" t="s">
         <v>76</v>
@@ -10203,18 +10222,18 @@
     </row>
     <row r="72" ht="49.5" spans="1:44">
       <c r="A72" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14" t="s">
-        <v>554</v>
+        <v>467</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14">
@@ -10304,7 +10323,9 @@
       <c r="F73" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G73" s="11"/>
+      <c r="G73" s="11">
+        <v>2</v>
+      </c>
       <c r="H73" s="11">
         <v>1</v>
       </c>
@@ -10476,7 +10497,9 @@
       <c r="F75" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="G75" s="11"/>
+      <c r="G75" s="11">
+        <v>7</v>
+      </c>
       <c r="H75" s="11">
         <v>3</v>
       </c>
@@ -10594,7 +10617,7 @@
       </c>
       <c r="Q76" s="14"/>
       <c r="R76" s="14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="S76" s="14" t="s">
         <v>580</v>
@@ -10650,9 +10673,11 @@
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="G77" s="11"/>
+        <v>529</v>
+      </c>
+      <c r="G77" s="11">
+        <v>1</v>
+      </c>
       <c r="H77" s="11">
         <v>3</v>
       </c>
@@ -10675,14 +10700,14 @@
         <v>3</v>
       </c>
       <c r="O77" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P77" s="11" t="s">
         <v>295</v>
       </c>
       <c r="Q77" s="11"/>
       <c r="R77" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="S77" s="11" t="s">
         <v>580</v>
@@ -10704,7 +10729,7 @@
         <v>74</v>
       </c>
       <c r="AD77" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AE77" s="12" t="s">
         <v>76</v>
@@ -10727,13 +10752,13 @@
     </row>
     <row r="78" ht="88.5" customHeight="1" spans="1:44">
       <c r="A78" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="C78" s="15" t="s">
         <v>589</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>590</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
@@ -10748,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K78" s="14">
         <v>0</v>
@@ -10763,17 +10788,17 @@
         <v>4</v>
       </c>
       <c r="O78" s="15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="P78" s="14" t="s">
         <v>271</v>
       </c>
       <c r="Q78" s="14"/>
       <c r="R78" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S78" s="14" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="T78" s="14"/>
       <c r="U78" s="14"/>
@@ -10792,7 +10817,7 @@
         <v>74</v>
       </c>
       <c r="AD78" s="14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AE78" s="15" t="s">
         <v>76</v>
@@ -10815,18 +10840,18 @@
     </row>
     <row r="79" ht="82.5" spans="1:44">
       <c r="A79" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="C79" s="12" t="s">
         <v>595</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>596</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11">
@@ -10836,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K79" s="11">
         <v>0</v>
@@ -10851,23 +10876,23 @@
         <v>1</v>
       </c>
       <c r="O79" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="P79" s="11" t="s">
         <v>125</v>
       </c>
       <c r="Q79" s="11"/>
       <c r="R79" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="S79" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="S79" s="11" t="s">
+      <c r="T79" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="T79" s="11" t="s">
+      <c r="U79" s="11" t="s">
         <v>601</v>
-      </c>
-      <c r="U79" s="11" t="s">
-        <v>602</v>
       </c>
       <c r="V79" s="11"/>
       <c r="W79" s="11"/>
@@ -10884,7 +10909,7 @@
         <v>74</v>
       </c>
       <c r="AD79" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AE79" s="12" t="s">
         <v>76</v>
@@ -10907,13 +10932,13 @@
     </row>
     <row r="80" ht="105" customHeight="1" spans="1:44">
       <c r="A80" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="B80" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="C80" s="15" t="s">
         <v>605</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>606</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
@@ -10928,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K80" s="14">
         <v>0</v>
@@ -10943,17 +10968,17 @@
         <v>4</v>
       </c>
       <c r="O80" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P80" s="14" t="s">
         <v>136</v>
       </c>
       <c r="Q80" s="14"/>
       <c r="R80" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="S80" s="14" t="s">
         <v>608</v>
-      </c>
-      <c r="S80" s="14" t="s">
-        <v>609</v>
       </c>
       <c r="T80" s="14"/>
       <c r="U80" s="14"/>
@@ -10972,7 +10997,7 @@
         <v>74</v>
       </c>
       <c r="AD80" s="14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AE80" s="15" t="s">
         <v>76</v>
@@ -10995,20 +11020,22 @@
     </row>
     <row r="81" ht="82.5" spans="1:44">
       <c r="A81" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="C81" s="12" t="s">
         <v>612</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>613</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="G81" s="11"/>
+        <v>613</v>
+      </c>
+      <c r="G81" s="11">
+        <v>3</v>
+      </c>
       <c r="H81" s="11">
         <v>3</v>
       </c>
@@ -11016,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K81" s="11">
         <v>0</v>
@@ -11031,7 +11058,7 @@
         <v>8</v>
       </c>
       <c r="O81" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P81" s="11" t="s">
         <v>125</v>
@@ -11044,7 +11071,7 @@
         <v>203</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U81" s="11"/>
       <c r="V81" s="11"/>
@@ -11062,7 +11089,7 @@
         <v>74</v>
       </c>
       <c r="AD81" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AE81" s="12" t="s">
         <v>76</v>
@@ -11085,20 +11112,22 @@
     </row>
     <row r="82" ht="82.5" spans="1:44">
       <c r="A82" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="B82" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="C82" s="15" t="s">
         <v>619</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>620</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="G82" s="14"/>
+      <c r="G82" s="14">
+        <v>3</v>
+      </c>
       <c r="H82" s="14">
         <v>1</v>
       </c>
@@ -11121,10 +11150,10 @@
         <v>5</v>
       </c>
       <c r="O82" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="P82" s="14" t="s">
         <v>621</v>
-      </c>
-      <c r="P82" s="14" t="s">
-        <v>622</v>
       </c>
       <c r="Q82" s="14"/>
       <c r="R82" s="14" t="s">
@@ -11134,7 +11163,7 @@
         <v>425</v>
       </c>
       <c r="T82" s="14" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U82" s="14"/>
       <c r="V82" s="14"/>
@@ -11152,7 +11181,7 @@
         <v>74</v>
       </c>
       <c r="AD82" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AE82" s="15" t="s">
         <v>76</v>
@@ -11175,20 +11204,22 @@
     </row>
     <row r="83" ht="82.5" spans="1:44">
       <c r="A83" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>625</v>
-      </c>
       <c r="C83" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="G83" s="11"/>
+        <v>613</v>
+      </c>
+      <c r="G83" s="11">
+        <v>3</v>
+      </c>
       <c r="H83" s="11">
         <v>1</v>
       </c>
@@ -11211,7 +11242,7 @@
         <v>8</v>
       </c>
       <c r="O83" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P83" s="11" t="s">
         <v>125</v>
@@ -11224,7 +11255,7 @@
         <v>248</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U83" s="11"/>
       <c r="V83" s="11"/>
@@ -11242,7 +11273,7 @@
         <v>74</v>
       </c>
       <c r="AD83" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AE83" s="12" t="s">
         <v>76</v>
@@ -11265,20 +11296,22 @@
     </row>
     <row r="84" ht="105" customHeight="1" spans="1:44">
       <c r="A84" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="B84" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="C84" s="15" t="s">
         <v>628</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>629</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14" t="s">
-        <v>614</v>
-      </c>
-      <c r="G84" s="14"/>
+        <v>613</v>
+      </c>
+      <c r="G84" s="14">
+        <v>3</v>
+      </c>
       <c r="H84" s="14">
         <v>2</v>
       </c>
@@ -11301,7 +11334,7 @@
         <v>8</v>
       </c>
       <c r="O84" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P84" s="14" t="s">
         <v>125</v>
@@ -11314,13 +11347,13 @@
         <v>248</v>
       </c>
       <c r="T84" s="14" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U84" s="14" t="s">
         <v>338</v>
       </c>
       <c r="V84" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="W84" s="14"/>
       <c r="X84" s="14"/>
@@ -11336,7 +11369,7 @@
         <v>74</v>
       </c>
       <c r="AD84" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AE84" s="15" t="s">
         <v>76</v>
@@ -11359,10 +11392,10 @@
     </row>
     <row r="85" ht="39" customHeight="1" spans="1:44">
       <c r="A85" s="32" t="s">
+        <v>632</v>
+      </c>
+      <c r="B85" s="33" t="s">
         <v>633</v>
-      </c>
-      <c r="B85" s="33" t="s">
-        <v>634</v>
       </c>
       <c r="C85" s="34"/>
       <c r="D85" s="33"/>
@@ -11416,7 +11449,7 @@
         <v>74</v>
       </c>
       <c r="AD85" s="33" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AE85" s="34" t="s">
         <v>76</v>
@@ -11545,12 +11578,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11558,13 +11591,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -11573,7 +11606,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -11586,13 +11619,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -11601,7 +11634,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -11614,13 +11647,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -11629,7 +11662,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -11642,13 +11675,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -11657,7 +11690,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -11670,13 +11703,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -11685,7 +11718,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -11698,13 +11731,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -11713,7 +11746,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -11726,7 +11759,7 @@
     </row>
     <row r="16" spans="7:11">
       <c r="G16" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -11742,7 +11775,7 @@
     </row>
     <row r="18" spans="7:11">
       <c r="G18" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -11758,7 +11791,7 @@
     </row>
     <row r="20" spans="7:11">
       <c r="G20" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>

--- a/excels/abilities/arms.xlsx
+++ b/excels/abilities/arms.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="659">
   <si>
     <t>名字</t>
   </si>
@@ -319,7 +319,7 @@
   </si>
   <si>
     <t>毎%AbilityCooldown%秒召唤1个雷电幽魂围绕英雄，至多同时存在%spirit_limit%个。幽魂对触碰到的敌人爆炸并造成伤害
-召唤持续时间：%summoned_duration%秒
+召唤持续时间：%skv_skv_summoned_duration%秒
 作用距离：%surround_distance%
 伤害公式：%DamageFormula%</t>
   </si>
@@ -336,7 +336,7 @@
     <t>spirit_limit 4</t>
   </si>
   <si>
-    <t>summoned_duration 10</t>
+    <t>skv_summoned_duration 10</t>
   </si>
   <si>
     <t>surround_distance 300</t>
@@ -402,7 +402,7 @@
     <t>引燃</t>
   </si>
   <si>
-    <t>对500码内的%extra_count%个敌人投射燃烧弹，导致其被火焰吞噬,每秒造成火元素,持续%debuff_duration%秒
+    <t>对500码内的%skv_count%个敌人投射燃烧弹，导致其被火焰吞噬,每秒造成火元素,持续%debuff_duration%秒
 伤害公式：%DamageFormula%</t>
   </si>
   <si>
@@ -418,7 +418,7 @@
     <t>0.5*AttackDamage</t>
   </si>
   <si>
-    <t>extra_count 2</t>
+    <t>skv_count 2</t>
   </si>
   <si>
     <t>debuff_duration 4</t>
@@ -908,7 +908,7 @@
     <t>雷龙展翅</t>
   </si>
   <si>
-    <t>召唤一只不可选取的雷龙,持续%summoned_duration%秒,雷龙攻击会产生弧形闪电,最多对额外4个目标造成伤害
+    <t>召唤一只不可选取的雷龙,持续%skv_summoned_duration%秒,雷龙攻击会产生弧形闪电,最多对额外4个目标造成伤害
 攻击间隔：1.0
 攻击范围：%summ_attackrange%
 攻击伤害：%DamageFormula%</t>
@@ -938,7 +938,7 @@
     <t>风龙翱翔</t>
   </si>
   <si>
-    <t>召唤一只不可选取的风龙,持续%summoned_duration%秒,风龙攻击命中目标会对%splash_radius%范围的敌人造成伤害和击退效果。
+    <t>召唤一只不可选取的风龙,持续%skv_summoned_duration%秒,风龙攻击命中目标会对%splash_radius%范围的敌人造成伤害和击退效果。
 攻击间隔：1.0
 攻击范围：%summ_attackrange%
 攻击伤害：%DamageFormula%</t>
@@ -956,7 +956,7 @@
     <t>冰龙咆哮</t>
   </si>
   <si>
-    <t>召唤一只不可选取的冰龙,持续%summoned_duration%秒,冰龙命中目标会对%splash_radius%范围的敌人造成伤害和减速。
+    <t>召唤一只不可选取的冰龙,持续%skv_summoned_duration%秒,冰龙命中目标会对%splash_radius%范围的敌人造成伤害和减速。
 攻击间隔：1.0
 攻击范围：%summ_attackrange%
 攻击伤害：%DamageFormula%</t>
@@ -971,7 +971,7 @@
     <t>火龙天翔</t>
   </si>
   <si>
-    <t>召唤一只不可选取的火龙,持续%summoned_duration%秒,对目标%splash_radius%范围内敌人造成范围伤害
+    <t>召唤一只不可选取的火龙,持续%skv_summoned_duration%秒,对目标%splash_radius%范围内敌人造成范围伤害
 攻击间隔：1.0
 攻击范围：%summ_attackrange%
 攻击伤害：%DamageFormula%</t>
@@ -1007,7 +1007,7 @@
     <t>圣龙裁决</t>
   </si>
   <si>
-    <t>召唤一只不可选取的圣龙,持续%summoned_duration%秒。每次攻击回复英雄1%最大生命值。对目标造成500范围的aoe伤害。会直接获取被圣龙击杀的敌人的经验球。
+    <t>召唤一只不可选取的圣龙,持续%skv_summoned_duration%秒。每次攻击回复英雄1%最大生命值。对目标造成500范围的aoe伤害。会直接获取被圣龙击杀的敌人的经验球。
 攻击间隔：1.0
 攻击范围：%summ_attackrange%
 攻击伤害：%DamageFormula%</t>
@@ -1019,7 +1019,7 @@
     <t>5*AttackDamage</t>
   </si>
   <si>
-    <t>summoned_duration 25</t>
+    <t>skv_summoned_duration 25</t>
   </si>
   <si>
     <t>summ_attackrange 800</t>
@@ -1337,6 +1337,9 @@
     <t>10,3,1</t>
   </si>
   <si>
+    <t>extra_count 2</t>
+  </si>
+  <si>
     <t>debuff_duration 6</t>
   </si>
   <si>
@@ -1349,7 +1352,7 @@
     <t>雷魂II</t>
   </si>
   <si>
-    <t>生成1个以自身中心直径300码的雷电幽魂围绕英雄，持续%summoned_duration%秒.对所有触碰到的敌人爆发并造成%aoe_radius%范围伤害。至多同时存在%spirit_limit%个。
+    <t>生成1个以自身中心直径300码的雷电幽魂围绕英雄，持续%skv_summoned_duration%秒.对所有触碰到的敌人爆发并造成%aoe_radius%范围伤害。至多同时存在%spirit_limit%个。
 伤害系数：%DamageFormula%</t>
   </si>
   <si>
@@ -2039,7 +2042,7 @@
     <t>范围</t>
   </si>
   <si>
-    <t>计数型技能数量额外+1</t>
+    <t>计数型技能额外数量+1</t>
   </si>
   <si>
     <t>持续</t>
@@ -3372,16 +3375,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{9652418B-EDF1-4067-92FF-474AADFEE16C}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C6124A83-061F-4B71-9046-8F4CA17DFC97}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{357C6613-03F4-4AFF-9599-B1B2902B297A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4A66A7B8-ADBA-4EFB-97EB-9BF243A7B138}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{812E5727-6574-41DE-BDC0-E2F63A9D5D8C}">
+    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{E0595390-21FA-440B-B0B6-C3BA3A7492CC}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstColumn" dxfId="14"/>
@@ -3693,10 +3696,10 @@
   <sheetPr/>
   <dimension ref="A1:AR86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J78" sqref="J78"/>
+      <selection pane="topRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8473,10 +8476,10 @@
       </c>
       <c r="Q52" s="14"/>
       <c r="R52" s="14" t="s">
-        <v>126</v>
+        <v>416</v>
       </c>
       <c r="S52" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="T52" s="14" t="s">
         <v>128</v>
@@ -8497,7 +8500,7 @@
         <v>74</v>
       </c>
       <c r="AD52" s="14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AE52" s="15" t="s">
         <v>76</v>
@@ -8518,23 +8521,23 @@
       <c r="AQ52" s="29"/>
       <c r="AR52" s="30"/>
     </row>
-    <row r="53" ht="82.5" spans="1:44">
+    <row r="53" ht="99" spans="1:44">
       <c r="A53" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H53" s="11">
         <v>3</v>
@@ -8558,14 +8561,14 @@
         <v>1</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P53" s="11">
         <v>0</v>
       </c>
       <c r="Q53" s="11"/>
       <c r="R53" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="S53" s="11" t="s">
         <v>99</v>
@@ -8574,7 +8577,7 @@
         <v>100</v>
       </c>
       <c r="U53" s="11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
@@ -8591,7 +8594,7 @@
         <v>74</v>
       </c>
       <c r="AD53" s="11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AE53" s="12" t="s">
         <v>76</v>
@@ -8614,18 +8617,18 @@
     </row>
     <row r="54" ht="72" customHeight="1" spans="1:44">
       <c r="A54" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>158</v>
@@ -8652,17 +8655,17 @@
         <v>3</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P54" s="14" t="s">
         <v>409</v>
       </c>
       <c r="Q54" s="14"/>
       <c r="R54" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S54" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T54" s="14"/>
       <c r="U54" s="14"/>
@@ -8681,7 +8684,7 @@
         <v>74</v>
       </c>
       <c r="AD54" s="14" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AE54" s="15" t="s">
         <v>76</v>
@@ -8704,21 +8707,21 @@
     </row>
     <row r="55" ht="72" customHeight="1" spans="1:44">
       <c r="A55" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H55" s="11">
         <v>1</v>
@@ -8742,17 +8745,17 @@
         <v>2</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P55" s="11" t="s">
         <v>295</v>
       </c>
       <c r="Q55" s="11"/>
       <c r="R55" s="11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S55" s="11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T55" s="11" t="s">
         <v>331</v>
@@ -8773,7 +8776,7 @@
         <v>74</v>
       </c>
       <c r="AD55" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE55" s="12" t="s">
         <v>76</v>
@@ -8796,13 +8799,13 @@
     </row>
     <row r="56" ht="55.5" customHeight="1" spans="1:44">
       <c r="A56" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
@@ -8841,10 +8844,10 @@
       </c>
       <c r="Q56" s="14"/>
       <c r="R56" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="S56" s="14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="T56" s="14"/>
       <c r="U56" s="14"/>
@@ -8863,7 +8866,7 @@
         <v>74</v>
       </c>
       <c r="AD56" s="14" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AE56" s="15" t="s">
         <v>76</v>
@@ -8886,21 +8889,21 @@
     </row>
     <row r="57" ht="39" customHeight="1" spans="1:44">
       <c r="A57" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H57" s="11">
         <v>4</v>
@@ -8924,17 +8927,17 @@
         <v>0</v>
       </c>
       <c r="O57" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P57" s="11">
         <v>0</v>
       </c>
       <c r="Q57" s="11"/>
       <c r="R57" s="11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="S57" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
@@ -8953,7 +8956,7 @@
         <v>74</v>
       </c>
       <c r="AD57" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AE57" s="12" t="s">
         <v>76</v>
@@ -8976,18 +8979,18 @@
     </row>
     <row r="58" ht="39" customHeight="1" spans="1:44">
       <c r="A58" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G58" s="14">
         <v>7</v>
@@ -9014,14 +9017,14 @@
         <v>0</v>
       </c>
       <c r="O58" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P58" s="14">
         <v>0</v>
       </c>
       <c r="Q58" s="14"/>
       <c r="R58" s="14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S58" s="14"/>
       <c r="T58" s="14"/>
@@ -9041,7 +9044,7 @@
         <v>74</v>
       </c>
       <c r="AD58" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AE58" s="15" t="s">
         <v>76</v>
@@ -9064,21 +9067,21 @@
     </row>
     <row r="59" ht="88.5" customHeight="1" spans="1:44">
       <c r="A59" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H59" s="11">
         <v>4</v>
@@ -9102,14 +9105,14 @@
         <v>3</v>
       </c>
       <c r="O59" s="12" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P59" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q59" s="11"/>
       <c r="R59" s="11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
@@ -9129,7 +9132,7 @@
         <v>74</v>
       </c>
       <c r="AD59" s="11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AE59" s="12" t="s">
         <v>76</v>
@@ -9152,13 +9155,13 @@
     </row>
     <row r="60" ht="66" spans="1:44">
       <c r="A60" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
@@ -9188,14 +9191,14 @@
         <v>3</v>
       </c>
       <c r="O60" s="15" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P60" s="14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q60" s="14"/>
       <c r="R60" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="S60" s="14"/>
       <c r="T60" s="14"/>
@@ -9215,7 +9218,7 @@
         <v>74</v>
       </c>
       <c r="AD60" s="14" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AE60" s="15" t="s">
         <v>76</v>
@@ -9238,13 +9241,13 @@
     </row>
     <row r="61" ht="55.5" customHeight="1" spans="1:44">
       <c r="A61" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -9299,7 +9302,7 @@
         <v>74</v>
       </c>
       <c r="AD61" s="11" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AE61" s="12" t="s">
         <v>76</v>
@@ -9322,13 +9325,13 @@
     </row>
     <row r="62" ht="72" customHeight="1" spans="1:44">
       <c r="A62" s="13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
@@ -9358,20 +9361,20 @@
         <v>6</v>
       </c>
       <c r="O62" s="15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P62" s="14">
         <v>0</v>
       </c>
       <c r="Q62" s="14"/>
       <c r="R62" s="14" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="S62" s="14" t="s">
         <v>162</v>
       </c>
       <c r="T62" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="U62" s="14" t="s">
         <v>338</v>
@@ -9391,7 +9394,7 @@
         <v>74</v>
       </c>
       <c r="AD62" s="14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AE62" s="15" t="s">
         <v>76</v>
@@ -9414,13 +9417,13 @@
     </row>
     <row r="63" ht="72" customHeight="1" spans="1:44">
       <c r="A63" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -9450,20 +9453,20 @@
         <v>6</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P63" s="11">
         <v>0</v>
       </c>
       <c r="Q63" s="11"/>
       <c r="R63" s="11" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="S63" s="11" t="s">
         <v>162</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="U63" s="11" t="s">
         <v>338</v>
@@ -9483,7 +9486,7 @@
         <v>74</v>
       </c>
       <c r="AD63" s="11" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AE63" s="12" t="s">
         <v>76</v>
@@ -9506,13 +9509,13 @@
     </row>
     <row r="64" ht="88.5" customHeight="1" spans="1:44">
       <c r="A64" s="13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
@@ -9542,20 +9545,20 @@
         <v>6</v>
       </c>
       <c r="O64" s="15" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P64" s="14">
         <v>0</v>
       </c>
       <c r="Q64" s="14"/>
       <c r="R64" s="14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="S64" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="T64" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="U64" s="14" t="s">
         <v>338</v>
@@ -9575,7 +9578,7 @@
         <v>74</v>
       </c>
       <c r="AD64" s="14" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AE64" s="15" t="s">
         <v>76</v>
@@ -9598,13 +9601,13 @@
     </row>
     <row r="65" ht="66" spans="1:44">
       <c r="A65" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
@@ -9636,20 +9639,20 @@
         <v>0</v>
       </c>
       <c r="O65" s="12" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P65" s="11" t="s">
         <v>125</v>
       </c>
       <c r="Q65" s="11"/>
       <c r="R65" s="11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="S65" s="11" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
@@ -9667,7 +9670,7 @@
         <v>74</v>
       </c>
       <c r="AD65" s="11" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AE65" s="12" t="s">
         <v>76</v>
@@ -9690,13 +9693,13 @@
     </row>
     <row r="66" ht="66" spans="1:44">
       <c r="A66" s="13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
@@ -9726,20 +9729,20 @@
         <v>0</v>
       </c>
       <c r="O66" s="15" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P66" s="14">
         <v>0</v>
       </c>
       <c r="Q66" s="14"/>
       <c r="R66" s="14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="S66" s="14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T66" s="14" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="U66" s="14"/>
       <c r="V66" s="14"/>
@@ -9757,7 +9760,7 @@
         <v>74</v>
       </c>
       <c r="AD66" s="14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AE66" s="15" t="s">
         <v>76</v>
@@ -9780,13 +9783,13 @@
     </row>
     <row r="67" ht="105" customHeight="1" spans="1:44">
       <c r="A67" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
@@ -9818,20 +9821,20 @@
         <v>2</v>
       </c>
       <c r="O67" s="12" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P67" s="11">
         <v>0</v>
       </c>
       <c r="Q67" s="11"/>
       <c r="R67" s="11" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="S67" s="11" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
@@ -9849,7 +9852,7 @@
         <v>74</v>
       </c>
       <c r="AD67" s="11" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AE67" s="12" t="s">
         <v>76</v>
@@ -9872,18 +9875,18 @@
     </row>
     <row r="68" ht="88.5" customHeight="1" spans="1:44">
       <c r="A68" s="13" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G68" s="14">
         <v>1</v>
@@ -9910,20 +9913,20 @@
         <v>0</v>
       </c>
       <c r="O68" s="15" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P68" s="14" t="s">
         <v>409</v>
       </c>
       <c r="Q68" s="14"/>
       <c r="R68" s="14" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="S68" s="14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="T68" s="14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="U68" s="14"/>
       <c r="V68" s="14"/>
@@ -9941,7 +9944,7 @@
         <v>74</v>
       </c>
       <c r="AD68" s="14" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AE68" s="15" t="s">
         <v>76</v>
@@ -9964,13 +9967,13 @@
     </row>
     <row r="69" ht="55.5" customHeight="1" spans="1:44">
       <c r="A69" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -10002,14 +10005,14 @@
         <v>0</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P69" s="11">
         <v>0</v>
       </c>
       <c r="Q69" s="11"/>
       <c r="R69" s="11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
@@ -10029,7 +10032,7 @@
         <v>74</v>
       </c>
       <c r="AD69" s="11" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AE69" s="12" t="s">
         <v>76</v>
@@ -10052,13 +10055,13 @@
     </row>
     <row r="70" ht="105" customHeight="1" spans="1:44">
       <c r="A70" s="13" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
@@ -10086,17 +10089,17 @@
         <v>4</v>
       </c>
       <c r="O70" s="15" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P70" s="14" t="s">
         <v>409</v>
       </c>
       <c r="Q70" s="14"/>
       <c r="R70" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="S70" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T70" s="14"/>
       <c r="U70" s="14"/>
@@ -10115,7 +10118,7 @@
         <v>74</v>
       </c>
       <c r="AD70" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AE70" s="15" t="s">
         <v>76</v>
@@ -10138,18 +10141,18 @@
     </row>
     <row r="71" ht="99" spans="1:44">
       <c r="A71" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="11">
@@ -10174,7 +10177,7 @@
         <v>5</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P71" s="11" t="s">
         <v>125</v>
@@ -10199,7 +10202,7 @@
         <v>74</v>
       </c>
       <c r="AD71" s="11" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AE71" s="12" t="s">
         <v>76</v>
@@ -10222,18 +10225,18 @@
     </row>
     <row r="72" ht="49.5" spans="1:44">
       <c r="A72" s="13" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14">
@@ -10258,7 +10261,7 @@
         <v>3</v>
       </c>
       <c r="O72" s="15" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P72" s="14" t="s">
         <v>136</v>
@@ -10287,7 +10290,7 @@
         <v>74</v>
       </c>
       <c r="AD72" s="14" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AE72" s="15" t="s">
         <v>76</v>
@@ -10310,13 +10313,13 @@
     </row>
     <row r="73" ht="105" customHeight="1" spans="1:44">
       <c r="A73" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
@@ -10348,17 +10351,17 @@
         <v>4</v>
       </c>
       <c r="O73" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P73" s="11" t="s">
         <v>409</v>
       </c>
       <c r="Q73" s="11"/>
       <c r="R73" s="11" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="S73" s="11" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="T73" s="11"/>
       <c r="U73" s="11"/>
@@ -10377,7 +10380,7 @@
         <v>74</v>
       </c>
       <c r="AD73" s="11" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AE73" s="12" t="s">
         <v>76</v>
@@ -10400,18 +10403,18 @@
     </row>
     <row r="74" ht="55.5" customHeight="1" spans="1:44">
       <c r="A74" s="13" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="14">
@@ -10436,7 +10439,7 @@
         <v>10</v>
       </c>
       <c r="O74" s="15" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P74" s="14">
         <v>0</v>
@@ -10461,7 +10464,7 @@
         <v>74</v>
       </c>
       <c r="AD74" s="14" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AE74" s="15" t="s">
         <v>76</v>
@@ -10484,13 +10487,13 @@
     </row>
     <row r="75" ht="88.5" customHeight="1" spans="1:44">
       <c r="A75" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
@@ -10522,17 +10525,17 @@
         <v>8</v>
       </c>
       <c r="O75" s="12" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P75" s="11">
         <v>0</v>
       </c>
       <c r="Q75" s="11"/>
       <c r="R75" s="11" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S75" s="11" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="T75" s="11"/>
       <c r="U75" s="11"/>
@@ -10551,7 +10554,7 @@
         <v>74</v>
       </c>
       <c r="AD75" s="11" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AE75" s="12" t="s">
         <v>76</v>
@@ -10574,13 +10577,13 @@
     </row>
     <row r="76" ht="66" spans="1:44">
       <c r="A76" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
@@ -10610,17 +10613,17 @@
         <v>4</v>
       </c>
       <c r="O76" s="15" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P76" s="14" t="s">
         <v>409</v>
       </c>
       <c r="Q76" s="14"/>
       <c r="R76" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="S76" s="14" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="T76" s="14"/>
       <c r="U76" s="14"/>
@@ -10639,7 +10642,7 @@
         <v>74</v>
       </c>
       <c r="AD76" s="14" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AE76" s="15" t="s">
         <v>76</v>
@@ -10662,18 +10665,18 @@
     </row>
     <row r="77" ht="66" spans="1:44">
       <c r="A77" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G77" s="11">
         <v>1</v>
@@ -10700,17 +10703,17 @@
         <v>3</v>
       </c>
       <c r="O77" s="12" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P77" s="11" t="s">
         <v>295</v>
       </c>
       <c r="Q77" s="11"/>
       <c r="R77" s="11" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="T77" s="11"/>
       <c r="U77" s="11"/>
@@ -10729,7 +10732,7 @@
         <v>74</v>
       </c>
       <c r="AD77" s="11" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AE77" s="12" t="s">
         <v>76</v>
@@ -10752,13 +10755,13 @@
     </row>
     <row r="78" ht="88.5" customHeight="1" spans="1:44">
       <c r="A78" s="13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
@@ -10788,17 +10791,17 @@
         <v>4</v>
       </c>
       <c r="O78" s="15" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P78" s="14" t="s">
         <v>271</v>
       </c>
       <c r="Q78" s="14"/>
       <c r="R78" s="14" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="S78" s="14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T78" s="14"/>
       <c r="U78" s="14"/>
@@ -10817,7 +10820,7 @@
         <v>74</v>
       </c>
       <c r="AD78" s="14" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AE78" s="15" t="s">
         <v>76</v>
@@ -10840,18 +10843,18 @@
     </row>
     <row r="79" ht="82.5" spans="1:44">
       <c r="A79" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11">
@@ -10876,23 +10879,23 @@
         <v>1</v>
       </c>
       <c r="O79" s="12" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P79" s="11" t="s">
         <v>125</v>
       </c>
       <c r="Q79" s="11"/>
       <c r="R79" s="11" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="S79" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="U79" s="11" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="V79" s="11"/>
       <c r="W79" s="11"/>
@@ -10909,7 +10912,7 @@
         <v>74</v>
       </c>
       <c r="AD79" s="11" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AE79" s="12" t="s">
         <v>76</v>
@@ -10932,13 +10935,13 @@
     </row>
     <row r="80" ht="105" customHeight="1" spans="1:44">
       <c r="A80" s="13" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
@@ -10968,17 +10971,17 @@
         <v>4</v>
       </c>
       <c r="O80" s="15" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P80" s="14" t="s">
         <v>136</v>
       </c>
       <c r="Q80" s="14"/>
       <c r="R80" s="14" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="S80" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="T80" s="14"/>
       <c r="U80" s="14"/>
@@ -10997,7 +11000,7 @@
         <v>74</v>
       </c>
       <c r="AD80" s="14" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AE80" s="15" t="s">
         <v>76</v>
@@ -11020,18 +11023,18 @@
     </row>
     <row r="81" ht="82.5" spans="1:44">
       <c r="A81" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G81" s="11">
         <v>3</v>
@@ -11058,20 +11061,20 @@
         <v>8</v>
       </c>
       <c r="O81" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="P81" s="11" t="s">
         <v>125</v>
       </c>
       <c r="Q81" s="11"/>
       <c r="R81" s="11" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S81" s="11" t="s">
         <v>203</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="U81" s="11"/>
       <c r="V81" s="11"/>
@@ -11089,7 +11092,7 @@
         <v>74</v>
       </c>
       <c r="AD81" s="11" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AE81" s="12" t="s">
         <v>76</v>
@@ -11112,13 +11115,13 @@
     </row>
     <row r="82" ht="82.5" spans="1:44">
       <c r="A82" s="13" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
@@ -11150,20 +11153,20 @@
         <v>5</v>
       </c>
       <c r="O82" s="15" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="P82" s="14" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Q82" s="14"/>
       <c r="R82" s="14" t="s">
         <v>272</v>
       </c>
       <c r="S82" s="14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="T82" s="14" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="U82" s="14"/>
       <c r="V82" s="14"/>
@@ -11181,7 +11184,7 @@
         <v>74</v>
       </c>
       <c r="AD82" s="14" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AE82" s="15" t="s">
         <v>76</v>
@@ -11204,18 +11207,18 @@
     </row>
     <row r="83" ht="82.5" spans="1:44">
       <c r="A83" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G83" s="11">
         <v>3</v>
@@ -11242,20 +11245,20 @@
         <v>8</v>
       </c>
       <c r="O83" s="12" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="P83" s="11" t="s">
         <v>125</v>
       </c>
       <c r="Q83" s="11"/>
       <c r="R83" s="11" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S83" s="11" t="s">
         <v>248</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="U83" s="11"/>
       <c r="V83" s="11"/>
@@ -11273,7 +11276,7 @@
         <v>74</v>
       </c>
       <c r="AD83" s="11" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AE83" s="12" t="s">
         <v>76</v>
@@ -11296,18 +11299,18 @@
     </row>
     <row r="84" ht="105" customHeight="1" spans="1:44">
       <c r="A84" s="13" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G84" s="14">
         <v>3</v>
@@ -11334,26 +11337,26 @@
         <v>8</v>
       </c>
       <c r="O84" s="15" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P84" s="14" t="s">
         <v>125</v>
       </c>
       <c r="Q84" s="14"/>
       <c r="R84" s="14" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S84" s="14" t="s">
         <v>248</v>
       </c>
       <c r="T84" s="14" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="U84" s="14" t="s">
         <v>338</v>
       </c>
       <c r="V84" s="14" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="W84" s="14"/>
       <c r="X84" s="14"/>
@@ -11369,7 +11372,7 @@
         <v>74</v>
       </c>
       <c r="AD84" s="14" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AE84" s="15" t="s">
         <v>76</v>
@@ -11392,10 +11395,10 @@
     </row>
     <row r="85" ht="39" customHeight="1" spans="1:44">
       <c r="A85" s="32" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C85" s="34"/>
       <c r="D85" s="33"/>
@@ -11449,7 +11452,7 @@
         <v>74</v>
       </c>
       <c r="AD85" s="33" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AE85" s="34" t="s">
         <v>76</v>
@@ -11571,19 +11574,19 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G10" sqref="G10:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11591,13 +11594,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -11606,7 +11609,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -11619,13 +11622,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -11634,7 +11637,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -11647,13 +11650,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -11662,7 +11665,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -11675,13 +11678,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -11690,7 +11693,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -11703,13 +11706,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -11718,7 +11721,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -11731,13 +11734,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -11746,7 +11749,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -11759,7 +11762,7 @@
     </row>
     <row r="16" spans="7:11">
       <c r="G16" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -11775,7 +11778,7 @@
     </row>
     <row r="18" spans="7:11">
       <c r="G18" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="20" spans="7:11">
       <c r="G20" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>

--- a/excels/abilities/arms.xlsx
+++ b/excels/abilities/arms.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="arms" sheetId="3" r:id="rId1"/>
     <sheet name="__Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">arms!$A$1:$AS$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">arms!$A$1:$AR$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="640">
   <si>
     <t>名字</t>
   </si>
@@ -88,9 +88,6 @@
     <t>xxx</t>
   </si>
   <si>
-    <t>魔法消耗</t>
-  </si>
-  <si>
     <t>施法距离AbilityCastRange</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
   </si>
   <si>
     <t>点击选择武器</t>
-  </si>
-  <si>
-    <t>null null</t>
   </si>
   <si>
     <t>null</t>
@@ -324,6 +318,9 @@
     <t>召唤型</t>
   </si>
   <si>
+    <t>1,7</t>
+  </si>
+  <si>
     <t>wisp_spirits</t>
   </si>
   <si>
@@ -403,10 +400,7 @@
 伤害公式：%DamageFormula%</t>
   </si>
   <si>
-    <t>咒术型/持续型</t>
-  </si>
-  <si>
-    <t>10,3</t>
+    <t>持续型</t>
   </si>
   <si>
     <t>ogre_magi_ignite</t>
@@ -437,10 +431,7 @@
 伤害公式：%DamageFormula%</t>
   </si>
   <si>
-    <t>伤害型</t>
-  </si>
-  <si>
-    <t>11,5</t>
+    <t>弹道</t>
   </si>
   <si>
     <t>windrunner_powershot</t>
@@ -514,9 +505,6 @@
     <t>计数型/伤害型</t>
   </si>
   <si>
-    <t>1,5</t>
-  </si>
-  <si>
     <t>shadow_shaman_ether_shock</t>
   </si>
   <si>
@@ -551,7 +539,7 @@
     <t>防御型/伤害型</t>
   </si>
   <si>
-    <t>5,7</t>
+    <t>1,2,3,4</t>
   </si>
   <si>
     <t>bristleback_bristleback</t>
@@ -582,6 +570,9 @@
     <t>1,2</t>
   </si>
   <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
     <t>lycan/hunter_of_kings_ability_icons/lycan_summon_wolves</t>
   </si>
   <si>
@@ -604,6 +595,9 @@
   </si>
   <si>
     <t>自身%check_radius%码范围内没有友军存在时，每秒获得%bonus_soul%灵魂和%bonus_exp%经验。</t>
+  </si>
+  <si>
+    <t>7,8,1</t>
   </si>
   <si>
     <t>lycan_summon_wolves_invisibility</t>
@@ -737,9 +731,6 @@
     <t>成长型/持续型</t>
   </si>
   <si>
-    <t>3,4</t>
-  </si>
-  <si>
     <t>bristleback_warpath</t>
   </si>
   <si>
@@ -787,7 +778,7 @@
 伤害公式：%DamageFormula%</t>
   </si>
   <si>
-    <t>2,5</t>
+    <t>伤害型</t>
   </si>
   <si>
     <t>bristleback_quill_spray</t>
@@ -809,9 +800,6 @@
   </si>
   <si>
     <t>理财型/成长型</t>
-  </si>
-  <si>
-    <t>4,6</t>
   </si>
   <si>
     <t>modifier_illusion</t>
@@ -857,9 +845,6 @@
     <t>范围型/防御型</t>
   </si>
   <si>
-    <t>2,7</t>
-  </si>
-  <si>
     <t>phantom_lancer_juxtapose</t>
   </si>
   <si>
@@ -885,9 +870,6 @@
   </si>
   <si>
     <t>理财型/恢复型</t>
-  </si>
-  <si>
-    <t>6,12</t>
   </si>
   <si>
     <t>alchemist/midas_knuckles/alchemist_goblins_greed</t>
@@ -911,9 +893,6 @@
 攻击伤害：%DamageFormula%</t>
   </si>
   <si>
-    <t>3,4,6,7</t>
-  </si>
-  <si>
     <t>dragon_knight_corrosive</t>
   </si>
   <si>
@@ -1008,9 +987,6 @@
 攻击间隔：1.0
 攻击范围：%summ_attackrange%
 攻击伤害：%DamageFormula%</t>
-  </si>
-  <si>
-    <t>4,5,6</t>
   </si>
   <si>
     <t>5*AttackDamage</t>
@@ -1042,9 +1018,6 @@
 攻击伤害：%DamageFormula%</t>
   </si>
   <si>
-    <t>5,6,7</t>
-  </si>
-  <si>
     <t>abilities/arms/v1/arms_29</t>
   </si>
   <si>
@@ -1060,9 +1033,6 @@
 作用范围：1000*200码</t>
   </si>
   <si>
-    <t>持续型</t>
-  </si>
-  <si>
     <t>dragon_knight_breathe_fire</t>
   </si>
   <si>
@@ -1331,9 +1301,6 @@
     <t>咒术型/持续型/计数型</t>
   </si>
   <si>
-    <t>10,3,1</t>
-  </si>
-  <si>
     <t>extra_count 2</t>
   </si>
   <si>
@@ -1356,9 +1323,6 @@
     <t>召唤型/持续型</t>
   </si>
   <si>
-    <t>8,3</t>
-  </si>
-  <si>
     <t>invoker_kid/invoker_kid_dark_artistry_ability_icon/invoker_kid_dark_artistry_wex</t>
   </si>
   <si>
@@ -1409,9 +1373,6 @@
     <t>技术型/伤害型/持续型</t>
   </si>
   <si>
-    <t>1,5,3</t>
-  </si>
-  <si>
     <t>black_dragon_fireball</t>
   </si>
   <si>
@@ -1446,9 +1407,6 @@
   </si>
   <si>
     <t>成长型/防御型</t>
-  </si>
-  <si>
-    <t>4,7</t>
   </si>
   <si>
     <t>tower_armor_aura</t>
@@ -1497,13 +1455,10 @@
     <t>投射物/计数型</t>
   </si>
   <si>
-    <t>1,11</t>
-  </si>
-  <si>
     <t>dragon_knight_dragon_tail</t>
   </si>
   <si>
-    <t>5*ArmorCommon</t>
+    <t>5*PhyicalArmor</t>
   </si>
   <si>
     <t>projectile_width 96</t>
@@ -1525,7 +1480,7 @@
     <t>dragon_knight/fireborn_ability_icons/dragon_knight_dragon_tail</t>
   </si>
   <si>
-    <t>10*ArmorCommon</t>
+    <t>10*PhyicalArmor</t>
   </si>
   <si>
     <t>count 2</t>
@@ -2039,6 +1994,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1. </t>
     </r>
     <r>
@@ -2070,7 +2032,17 @@
     </r>
   </si>
   <si>
+    <t>aoe</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2. </t>
     </r>
     <r>
@@ -2084,7 +2056,17 @@
     </r>
   </si>
   <si>
+    <t>missile</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3. </t>
     </r>
     <r>
@@ -2098,7 +2080,17 @@
     </r>
   </si>
   <si>
+    <t>surround</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>4. </t>
     </r>
     <r>
@@ -2130,7 +2122,17 @@
     </r>
   </si>
   <si>
+    <t>dot</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>5. </t>
     </r>
     <r>
@@ -2162,7 +2164,17 @@
     </r>
   </si>
   <si>
+    <t>buff</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>6. </t>
     </r>
     <r>
@@ -2176,7 +2188,17 @@
     </r>
   </si>
   <si>
+    <t>resource</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>7. </t>
     </r>
     <r>
@@ -2190,7 +2212,17 @@
     </r>
   </si>
   <si>
+    <t>summon</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>8. </t>
     </r>
     <r>
@@ -2202,6 +2234,15 @@
       </rPr>
       <t>成长型：周期性或通过成长提升自身属性、能力的技能类型。</t>
     </r>
+  </si>
+  <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>9. 法球型: 攻击特效</t>
+  </si>
+  <si>
+    <t>orb</t>
   </si>
 </sst>
 </file>
@@ -3499,16 +3540,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{8BD2FCE7-DE37-48FA-810E-9DEB44A4F6D8}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{844B3934-46D6-4CD5-852B-DAF4983A6238}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E60FA975-D7BA-45B0-81D0-788A62E1B8F5}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3ED5EF77-69DD-4794-91A2-818E21A3DAE3}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{475ACEC8-9BC4-490E-9112-3FB65BA9B175}">
+    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{904C20BD-2E90-4CBF-B419-12A42C01EF39}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstColumn" dxfId="14"/>
@@ -3818,12 +3859,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AS86"/>
+  <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3831,7 +3872,7 @@
     <col min="1" max="1" width="17.3416666666667" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="45.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.5083333333333" style="5" customWidth="1"/>
     <col min="6" max="6" width="21" style="5" customWidth="1"/>
     <col min="7" max="7" width="12.8416666666667" customWidth="1"/>
@@ -3852,25 +3893,24 @@
     <col min="24" max="24" width="21.5083333333333" customWidth="1"/>
     <col min="25" max="27" width="6.24166666666667" customWidth="1"/>
     <col min="28" max="28" width="8.00833333333333" customWidth="1"/>
-    <col min="29" max="29" width="21.5083333333333" customWidth="1"/>
-    <col min="30" max="30" width="21.8416666666667" customWidth="1"/>
-    <col min="31" max="31" width="13.3416666666667" customWidth="1"/>
-    <col min="32" max="32" width="27.5083333333333" customWidth="1"/>
-    <col min="33" max="33" width="50.625" customWidth="1"/>
-    <col min="34" max="34" width="22.5083333333333" customWidth="1"/>
-    <col min="35" max="35" width="17.8416666666667" customWidth="1"/>
-    <col min="36" max="36" width="16.0083333333333" customWidth="1"/>
-    <col min="37" max="37" width="16.175" customWidth="1"/>
-    <col min="38" max="38" width="15.3416666666667" customWidth="1"/>
-    <col min="39" max="39" width="16.3416666666667" customWidth="1"/>
-    <col min="40" max="40" width="15.5083333333333" customWidth="1"/>
-    <col min="41" max="41" width="16.3416666666667" customWidth="1"/>
-    <col min="42" max="42" width="15.5083333333333" customWidth="1"/>
-    <col min="43" max="43" width="18.5083333333333" customWidth="1"/>
-    <col min="44" max="44" width="8.24166666666667" customWidth="1"/>
+    <col min="29" max="29" width="21.8416666666667" customWidth="1"/>
+    <col min="30" max="30" width="13.3416666666667" customWidth="1"/>
+    <col min="31" max="31" width="27.5083333333333" customWidth="1"/>
+    <col min="32" max="32" width="50.625" customWidth="1"/>
+    <col min="33" max="33" width="22.5083333333333" customWidth="1"/>
+    <col min="34" max="34" width="17.8416666666667" customWidth="1"/>
+    <col min="35" max="35" width="16.0083333333333" customWidth="1"/>
+    <col min="36" max="36" width="16.175" customWidth="1"/>
+    <col min="37" max="37" width="15.3416666666667" customWidth="1"/>
+    <col min="38" max="38" width="16.3416666666667" customWidth="1"/>
+    <col min="39" max="39" width="15.5083333333333" customWidth="1"/>
+    <col min="40" max="40" width="16.3416666666667" customWidth="1"/>
+    <col min="41" max="41" width="15.5083333333333" customWidth="1"/>
+    <col min="42" max="42" width="18.5083333333333" customWidth="1"/>
+    <col min="43" max="43" width="8.24166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="39" customHeight="1" spans="1:45">
+    <row r="1" s="3" customFormat="1" ht="39" customHeight="1" spans="1:44">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3944,17 +3984,17 @@
       <c r="AC1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="AE1" s="8" t="s">
         <v>20</v>
       </c>
       <c r="AF1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG1" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>22</v>
@@ -3980,68 +4020,65 @@
       <c r="AO1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="24" t="s">
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="26"/>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="39" customHeight="1" spans="1:43">
+      <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="26"/>
-    </row>
-    <row r="2" s="3" customFormat="1" ht="39" customHeight="1" spans="1:44">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="S2" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="T2" s="18">
         <v>1</v>
@@ -4056,24 +4093,24 @@
         <v>4</v>
       </c>
       <c r="X2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Z2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="AA2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AB2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AC2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AD2" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AE2" s="10" t="s">
@@ -4088,7 +4125,7 @@
       <c r="AH2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AI2" s="18" t="s">
         <v>59</v>
       </c>
       <c r="AJ2" s="18" t="s">
@@ -4109,31 +4146,28 @@
       <c r="AO2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="AP2" s="18" t="s">
+      <c r="AP2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AQ2" s="27" t="s">
+      <c r="AQ2" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="55.5" customHeight="1" spans="1:44">
+      <c r="A3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AR2" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="55.5" customHeight="1" spans="1:45">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" s="12">
         <v>0</v>
@@ -4163,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R3" s="12">
         <v>0</v>
@@ -4181,39 +4215,36 @@
       <c r="AC3" s="19">
         <v>0</v>
       </c>
-      <c r="AD3" s="19">
-        <v>0</v>
+      <c r="AD3" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="AG3" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19" t="s">
-        <v>76</v>
-      </c>
+      <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
+      <c r="AL3" s="22"/>
       <c r="AM3" s="22"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="31"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="31"/>
     </row>
-    <row r="4" customFormat="1" ht="39" customHeight="1" spans="1:45">
+    <row r="4" customFormat="1" ht="39" customHeight="1" spans="1:44">
       <c r="A4" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="15"/>
@@ -4248,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R4" s="15">
         <v>0</v>
@@ -4266,37 +4297,34 @@
       <c r="AC4" s="20">
         <v>0</v>
       </c>
-      <c r="AD4" s="20">
-        <v>0</v>
+      <c r="AD4" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF4" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG4" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG4" s="20"/>
       <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
+      <c r="AI4" s="15"/>
       <c r="AJ4" s="15"/>
       <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
+      <c r="AL4" s="23"/>
       <c r="AM4" s="23"/>
       <c r="AN4" s="23"/>
       <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="31"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="31"/>
     </row>
-    <row r="5" customFormat="1" ht="39" customHeight="1" spans="1:45">
+    <row r="5" customFormat="1" ht="39" customHeight="1" spans="1:44">
       <c r="A5" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="12"/>
@@ -4331,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R5" s="12">
         <v>0</v>
@@ -4349,37 +4377,34 @@
       <c r="AC5" s="19">
         <v>0</v>
       </c>
-      <c r="AD5" s="19">
-        <v>0</v>
+      <c r="AD5" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF5" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG5" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
+      <c r="AI5" s="12"/>
       <c r="AJ5" s="12"/>
       <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
+      <c r="AL5" s="22"/>
       <c r="AM5" s="22"/>
       <c r="AN5" s="22"/>
       <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="30"/>
-      <c r="AS5" s="31"/>
+      <c r="AP5" s="29"/>
+      <c r="AQ5" s="30"/>
+      <c r="AR5" s="31"/>
     </row>
-    <row r="6" customFormat="1" ht="39" customHeight="1" spans="1:45">
+    <row r="6" customFormat="1" ht="39" customHeight="1" spans="1:44">
       <c r="A6" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="15"/>
@@ -4414,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R6" s="15">
         <v>0</v>
@@ -4432,37 +4457,34 @@
       <c r="AC6" s="20">
         <v>0</v>
       </c>
-      <c r="AD6" s="20">
-        <v>0</v>
+      <c r="AD6" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE6" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF6" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF6" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG6" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG6" s="20"/>
       <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
+      <c r="AI6" s="15"/>
       <c r="AJ6" s="15"/>
       <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
+      <c r="AL6" s="23"/>
       <c r="AM6" s="23"/>
       <c r="AN6" s="23"/>
       <c r="AO6" s="23"/>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="30"/>
-      <c r="AS6" s="31"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="31"/>
     </row>
-    <row r="7" customFormat="1" ht="39" customHeight="1" spans="1:45">
+    <row r="7" customFormat="1" ht="39" customHeight="1" spans="1:44">
       <c r="A7" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="12"/>
@@ -4497,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R7" s="12">
         <v>0</v>
@@ -4515,37 +4537,34 @@
       <c r="AC7" s="19">
         <v>0</v>
       </c>
-      <c r="AD7" s="19">
-        <v>0</v>
+      <c r="AD7" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF7" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF7" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG7" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
+      <c r="AI7" s="12"/>
       <c r="AJ7" s="12"/>
       <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
+      <c r="AL7" s="22"/>
       <c r="AM7" s="22"/>
       <c r="AN7" s="22"/>
       <c r="AO7" s="22"/>
-      <c r="AP7" s="22"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="30"/>
-      <c r="AS7" s="31"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="31"/>
     </row>
-    <row r="8" customFormat="1" ht="39" customHeight="1" spans="1:45">
+    <row r="8" customFormat="1" ht="39" customHeight="1" spans="1:44">
       <c r="A8" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="15"/>
@@ -4580,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R8" s="15">
         <v>0</v>
@@ -4598,37 +4617,34 @@
       <c r="AC8" s="20">
         <v>0</v>
       </c>
-      <c r="AD8" s="20">
-        <v>0</v>
+      <c r="AD8" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF8" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG8" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG8" s="20"/>
       <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
+      <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
       <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
+      <c r="AL8" s="23"/>
       <c r="AM8" s="23"/>
       <c r="AN8" s="23"/>
       <c r="AO8" s="23"/>
-      <c r="AP8" s="23"/>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="30"/>
-      <c r="AS8" s="31"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="31"/>
     </row>
-    <row r="9" customFormat="1" ht="39" customHeight="1" spans="1:45">
+    <row r="9" customFormat="1" ht="39" customHeight="1" spans="1:44">
       <c r="A9" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="12"/>
@@ -4663,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R9" s="12">
         <v>0</v>
@@ -4681,48 +4697,45 @@
       <c r="AC9" s="19">
         <v>0</v>
       </c>
-      <c r="AD9" s="19">
-        <v>0</v>
+      <c r="AD9" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF9" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF9" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG9" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
+      <c r="AI9" s="12"/>
       <c r="AJ9" s="12"/>
       <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
+      <c r="AL9" s="22"/>
       <c r="AM9" s="22"/>
       <c r="AN9" s="22"/>
       <c r="AO9" s="22"/>
-      <c r="AP9" s="22"/>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="31"/>
+      <c r="AP9" s="29"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="31"/>
     </row>
-    <row r="10" ht="105" customHeight="1" spans="1:45">
+    <row r="10" ht="105" customHeight="1" spans="1:44">
       <c r="A10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>93</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="15">
-        <v>8</v>
+        <v>92</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="H10" s="15">
         <v>3</v>
@@ -4752,23 +4765,23 @@
         <v>2</v>
       </c>
       <c r="Q10" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="R10" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="U10" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="V10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="V10" s="15" t="s">
+      <c r="W10" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="W10" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
@@ -4778,48 +4791,45 @@
       <c r="AC10" s="20">
         <v>0</v>
       </c>
-      <c r="AD10" s="20">
-        <v>0</v>
+      <c r="AD10" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE10" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF10" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG10" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG10" s="20"/>
       <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
+      <c r="AI10" s="15"/>
       <c r="AJ10" s="15"/>
       <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
+      <c r="AL10" s="23"/>
       <c r="AM10" s="23"/>
       <c r="AN10" s="23"/>
       <c r="AO10" s="23"/>
-      <c r="AP10" s="23"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="31"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="31"/>
     </row>
-    <row r="11" ht="39" customHeight="1" spans="1:45">
+    <row r="11" ht="39" customHeight="1" spans="1:44">
       <c r="A11" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H11" s="12">
         <v>1</v>
@@ -4849,14 +4859,14 @@
         <v>2</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R11" s="12">
         <v>0</v>
       </c>
       <c r="S11" s="12"/>
       <c r="T11" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
@@ -4869,45 +4879,42 @@
       <c r="AC11" s="19">
         <v>0</v>
       </c>
-      <c r="AD11" s="19">
-        <v>0</v>
+      <c r="AD11" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE11" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF11" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF11" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG11" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
+      <c r="AI11" s="12"/>
       <c r="AJ11" s="12"/>
       <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
+      <c r="AL11" s="22"/>
       <c r="AM11" s="22"/>
       <c r="AN11" s="22"/>
       <c r="AO11" s="22"/>
-      <c r="AP11" s="22"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="30"/>
-      <c r="AS11" s="31"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="31"/>
     </row>
-    <row r="12" ht="39" customHeight="1" spans="1:45">
+    <row r="12" ht="39" customHeight="1" spans="1:44">
       <c r="A12" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12" s="15">
         <v>6</v>
@@ -4940,20 +4947,20 @@
         <v>1</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R12" s="15">
         <v>0</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="U12" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="V12" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="V12" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
@@ -4964,48 +4971,45 @@
       <c r="AC12" s="20">
         <v>0</v>
       </c>
-      <c r="AD12" s="20">
-        <v>0</v>
+      <c r="AD12" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE12" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF12" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF12" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG12" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG12" s="20"/>
       <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
+      <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
       <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
+      <c r="AL12" s="23"/>
       <c r="AM12" s="23"/>
       <c r="AN12" s="23"/>
       <c r="AO12" s="23"/>
-      <c r="AP12" s="23"/>
-      <c r="AQ12" s="32"/>
-      <c r="AR12" s="30"/>
-      <c r="AS12" s="31"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="30"/>
+      <c r="AR12" s="31"/>
     </row>
-    <row r="13" ht="72" customHeight="1" spans="1:45">
+    <row r="13" ht="72" customHeight="1" spans="1:44">
       <c r="A13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="G13" s="12">
+        <v>4</v>
       </c>
       <c r="H13" s="12">
         <v>1</v>
@@ -5035,20 +5039,20 @@
         <v>4</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S13" s="12"/>
       <c r="T13" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
@@ -5057,50 +5061,47 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
       <c r="AC13" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="19">
         <v>500</v>
       </c>
+      <c r="AD13" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="AE13" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF13" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG13" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
+      <c r="AI13" s="12"/>
       <c r="AJ13" s="12"/>
       <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
+      <c r="AL13" s="22"/>
       <c r="AM13" s="22"/>
       <c r="AN13" s="22"/>
       <c r="AO13" s="22"/>
-      <c r="AP13" s="22"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="30"/>
-      <c r="AS13" s="31"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="30"/>
+      <c r="AR13" s="31"/>
     </row>
-    <row r="14" ht="72" customHeight="1" spans="1:45">
+    <row r="14" ht="72" customHeight="1" spans="1:44">
       <c r="A14" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>131</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="G14" s="15">
+        <v>2</v>
       </c>
       <c r="H14" s="15">
         <v>4</v>
@@ -5130,21 +5131,21 @@
         <v>3</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
       <c r="U14" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W14" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
@@ -5152,50 +5153,47 @@
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
       <c r="AC14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="20">
         <v>800</v>
       </c>
+      <c r="AD14" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="AE14" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF14" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF14" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG14" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG14" s="20"/>
       <c r="AH14" s="20"/>
-      <c r="AI14" s="20"/>
+      <c r="AI14" s="15"/>
       <c r="AJ14" s="15"/>
       <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
+      <c r="AL14" s="23"/>
       <c r="AM14" s="23"/>
       <c r="AN14" s="23"/>
       <c r="AO14" s="23"/>
-      <c r="AP14" s="23"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="30"/>
-      <c r="AS14" s="31"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="31"/>
     </row>
-    <row r="15" ht="55.5" customHeight="1" spans="1:45">
+    <row r="15" ht="55.5" customHeight="1" spans="1:44">
       <c r="A15" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="G15" s="12">
+        <v>2</v>
       </c>
       <c r="H15" s="12">
         <v>2</v>
@@ -5225,18 +5223,18 @@
         <v>3</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
@@ -5245,47 +5243,44 @@
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
       <c r="AC15" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="19">
         <v>800</v>
       </c>
+      <c r="AD15" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="AE15" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF15" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG15" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
+      <c r="AI15" s="12"/>
       <c r="AJ15" s="12"/>
       <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
+      <c r="AL15" s="22"/>
       <c r="AM15" s="22"/>
       <c r="AN15" s="22"/>
       <c r="AO15" s="22"/>
-      <c r="AP15" s="22"/>
-      <c r="AQ15" s="29"/>
-      <c r="AR15" s="30"/>
-      <c r="AS15" s="31"/>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="30"/>
+      <c r="AR15" s="31"/>
     </row>
-    <row r="16" ht="39" customHeight="1" spans="1:45">
+    <row r="16" ht="39" customHeight="1" spans="1:44">
       <c r="A16" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G16" s="15">
         <v>6</v>
@@ -5318,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="R16" s="15">
         <v>0</v>
@@ -5326,10 +5321,10 @@
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
@@ -5340,48 +5335,45 @@
       <c r="AC16" s="20">
         <v>0</v>
       </c>
-      <c r="AD16" s="20">
-        <v>0</v>
+      <c r="AD16" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE16" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF16" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF16" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG16" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG16" s="20"/>
       <c r="AH16" s="20"/>
-      <c r="AI16" s="20"/>
+      <c r="AI16" s="15"/>
       <c r="AJ16" s="15"/>
       <c r="AK16" s="15"/>
-      <c r="AL16" s="15"/>
+      <c r="AL16" s="23"/>
       <c r="AM16" s="23"/>
       <c r="AN16" s="23"/>
       <c r="AO16" s="23"/>
-      <c r="AP16" s="23"/>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="30"/>
-      <c r="AS16" s="31"/>
+      <c r="AP16" s="32"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="31"/>
     </row>
-    <row r="17" ht="72" customHeight="1" spans="1:45">
+    <row r="17" ht="72" customHeight="1" spans="1:44">
       <c r="A17" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1</v>
       </c>
       <c r="H17" s="12">
         <v>3</v>
@@ -5411,23 +5403,23 @@
         <v>3</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="S17" s="12"/>
       <c r="T17" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
@@ -5435,50 +5427,49 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
       <c r="AC17" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="19">
         <v>800</v>
       </c>
+      <c r="AD17" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="AE17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF17" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF17" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG17" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
+      <c r="AI17" s="12"/>
       <c r="AJ17" s="12"/>
       <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
+      <c r="AL17" s="22"/>
       <c r="AM17" s="22"/>
       <c r="AN17" s="22"/>
       <c r="AO17" s="22"/>
-      <c r="AP17" s="22"/>
-      <c r="AQ17" s="29"/>
-      <c r="AR17" s="30"/>
-      <c r="AS17" s="31"/>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="30"/>
+      <c r="AR17" s="31"/>
     </row>
-    <row r="18" ht="88.5" customHeight="1" spans="1:45">
+    <row r="18" ht="88.5" customHeight="1" spans="1:44">
       <c r="A18" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
+        <v>3</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>169</v>
       </c>
       <c r="H18" s="15">
         <v>4</v>
@@ -5508,17 +5499,17 @@
         <v>1</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
@@ -5530,52 +5521,49 @@
       <c r="AC18" s="20">
         <v>0</v>
       </c>
-      <c r="AD18" s="20">
-        <v>0</v>
+      <c r="AD18" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE18" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG18" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG18" s="20"/>
       <c r="AH18" s="20"/>
-      <c r="AI18" s="20"/>
+      <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
       <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="23" t="s">
-        <v>173</v>
-      </c>
+      <c r="AL18" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM18" s="23"/>
       <c r="AN18" s="23"/>
       <c r="AO18" s="23"/>
-      <c r="AP18" s="23"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="30"/>
-      <c r="AS18" s="31"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="30"/>
+      <c r="AR18" s="31"/>
     </row>
-    <row r="19" ht="39" customHeight="1" spans="1:45">
+    <row r="19" ht="39" customHeight="1" spans="1:44">
       <c r="A19" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="12">
-        <v>6</v>
+        <v>111</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="H19" s="12">
         <v>4</v>
@@ -5605,23 +5593,23 @@
         <v>1</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="R19" s="12">
         <v>0</v>
       </c>
       <c r="S19" s="12"/>
       <c r="T19" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
@@ -5631,50 +5619,47 @@
       <c r="AC19" s="19">
         <v>0</v>
       </c>
-      <c r="AD19" s="19">
-        <v>0</v>
+      <c r="AD19" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE19" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF19" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG19" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
+      <c r="AI19" s="12"/>
       <c r="AJ19" s="12"/>
       <c r="AK19" s="12"/>
-      <c r="AL19" s="12"/>
+      <c r="AL19" s="22"/>
       <c r="AM19" s="22"/>
       <c r="AN19" s="22"/>
       <c r="AO19" s="22"/>
-      <c r="AP19" s="22"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="30"/>
-      <c r="AS19" s="31"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="30"/>
+      <c r="AR19" s="31"/>
     </row>
-    <row r="20" ht="39" customHeight="1" spans="1:45">
+    <row r="20" ht="39" customHeight="1" spans="1:44">
       <c r="A20" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15">
         <v>1</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="15">
-        <v>6</v>
+        <v>111</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="H20" s="15">
         <v>4</v>
@@ -5704,23 +5689,23 @@
         <v>1</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R20" s="15">
         <v>0</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="W20" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
@@ -5730,50 +5715,47 @@
       <c r="AC20" s="20">
         <v>0</v>
       </c>
-      <c r="AD20" s="20">
-        <v>0</v>
+      <c r="AD20" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE20" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF20" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG20" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG20" s="20"/>
       <c r="AH20" s="20"/>
-      <c r="AI20" s="20"/>
+      <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
       <c r="AK20" s="15"/>
-      <c r="AL20" s="15"/>
+      <c r="AL20" s="23"/>
       <c r="AM20" s="23"/>
       <c r="AN20" s="23"/>
       <c r="AO20" s="23"/>
-      <c r="AP20" s="23"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="30"/>
-      <c r="AS20" s="31"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="30"/>
+      <c r="AR20" s="31"/>
     </row>
-    <row r="21" ht="39" customHeight="1" spans="1:45">
+    <row r="21" ht="39" customHeight="1" spans="1:44">
       <c r="A21" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>188</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>190</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12">
         <v>2</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G21" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H21" s="12">
         <v>4</v>
@@ -5803,23 +5785,23 @@
         <v>0</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R21" s="12">
         <v>0</v>
       </c>
       <c r="S21" s="12"/>
       <c r="T21" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
@@ -5829,48 +5811,45 @@
       <c r="AC21" s="19">
         <v>0</v>
       </c>
-      <c r="AD21" s="19">
-        <v>0</v>
+      <c r="AD21" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE21" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF21" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG21" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
+      <c r="AI21" s="12"/>
       <c r="AJ21" s="12"/>
       <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
+      <c r="AL21" s="22"/>
       <c r="AM21" s="22"/>
       <c r="AN21" s="22"/>
       <c r="AO21" s="22"/>
-      <c r="AP21" s="22"/>
-      <c r="AQ21" s="29"/>
-      <c r="AR21" s="30"/>
-      <c r="AS21" s="31"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="30"/>
+      <c r="AR21" s="31"/>
     </row>
-    <row r="22" ht="88.5" customHeight="1" spans="1:45">
+    <row r="22" ht="88.5" customHeight="1" spans="1:44">
       <c r="A22" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>197</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="15">
-        <v>2</v>
+        <v>196</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1</v>
       </c>
       <c r="H22" s="15">
         <v>1</v>
@@ -5900,76 +5879,73 @@
         <v>3.5</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="V22" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="U22" s="15" t="s">
+      <c r="W22" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="V22" s="15" t="s">
+      <c r="X22" s="15" t="s">
         <v>203</v>
-      </c>
-      <c r="W22" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="X22" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="20">
         <v>1000</v>
       </c>
+      <c r="AD22" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="AE22" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF22" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG22" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG22" s="20"/>
       <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
+      <c r="AI22" s="15"/>
       <c r="AJ22" s="15"/>
       <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
+      <c r="AL22" s="23"/>
       <c r="AM22" s="23"/>
       <c r="AN22" s="23"/>
       <c r="AO22" s="23"/>
-      <c r="AP22" s="23"/>
-      <c r="AQ22" s="32"/>
-      <c r="AR22" s="30"/>
-      <c r="AS22" s="31"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="30"/>
+      <c r="AR22" s="31"/>
     </row>
-    <row r="23" ht="55.5" customHeight="1" spans="1:45">
+    <row r="23" ht="55.5" customHeight="1" spans="1:44">
       <c r="A23" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>209</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G23" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" s="12">
         <v>1</v>
@@ -5999,26 +5975,26 @@
         <v>0</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R23" s="12">
         <v>0</v>
       </c>
       <c r="S23" s="12"/>
       <c r="T23" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U23" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="W23" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="V23" s="12" t="s">
+      <c r="X23" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="W23" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="X23" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
@@ -6027,48 +6003,45 @@
       <c r="AC23" s="19">
         <v>0</v>
       </c>
-      <c r="AD23" s="19">
-        <v>0</v>
+      <c r="AD23" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE23" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF23" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG23" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
+      <c r="AI23" s="12"/>
       <c r="AJ23" s="12"/>
       <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
+      <c r="AL23" s="22"/>
       <c r="AM23" s="22"/>
       <c r="AN23" s="22"/>
       <c r="AO23" s="22"/>
-      <c r="AP23" s="22"/>
-      <c r="AQ23" s="29"/>
-      <c r="AR23" s="30"/>
-      <c r="AS23" s="31"/>
+      <c r="AP23" s="29"/>
+      <c r="AQ23" s="30"/>
+      <c r="AR23" s="31"/>
     </row>
-    <row r="24" ht="72" customHeight="1" spans="1:45">
+    <row r="24" ht="72" customHeight="1" spans="1:44">
       <c r="A24" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>216</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>218</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="15">
-        <v>2</v>
+        <v>196</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1</v>
       </c>
       <c r="H24" s="15">
         <v>2</v>
@@ -6098,23 +6071,23 @@
         <v>4</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R24" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="W24" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="U24" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="V24" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="W24" s="15" t="s">
-        <v>223</v>
       </c>
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
@@ -6122,50 +6095,47 @@
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="20">
         <v>600</v>
       </c>
+      <c r="AD24" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="AE24" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF24" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF24" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG24" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG24" s="20"/>
       <c r="AH24" s="20"/>
-      <c r="AI24" s="20"/>
+      <c r="AI24" s="15"/>
       <c r="AJ24" s="15"/>
       <c r="AK24" s="15"/>
-      <c r="AL24" s="15"/>
+      <c r="AL24" s="23"/>
       <c r="AM24" s="23"/>
       <c r="AN24" s="23"/>
       <c r="AO24" s="23"/>
-      <c r="AP24" s="23"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="30"/>
-      <c r="AS24" s="31"/>
+      <c r="AP24" s="32"/>
+      <c r="AQ24" s="30"/>
+      <c r="AR24" s="31"/>
     </row>
-    <row r="25" ht="55.5" customHeight="1" spans="1:45">
+    <row r="25" ht="55.5" customHeight="1" spans="1:44">
       <c r="A25" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>227</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="G25" s="12">
+        <v>1</v>
       </c>
       <c r="H25" s="12">
         <v>1</v>
@@ -6195,26 +6165,26 @@
         <v>10</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="R25" s="12">
         <v>0</v>
       </c>
       <c r="S25" s="12"/>
       <c r="T25" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="U25" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="W25" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="U25" s="12" t="s">
+      <c r="X25" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="V25" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="W25" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="X25" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
@@ -6223,48 +6193,45 @@
       <c r="AC25" s="19">
         <v>0</v>
       </c>
-      <c r="AD25" s="19">
-        <v>0</v>
+      <c r="AD25" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE25" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF25" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF25" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG25" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG25" s="19"/>
       <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
+      <c r="AI25" s="12"/>
       <c r="AJ25" s="12"/>
       <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
+      <c r="AL25" s="22"/>
       <c r="AM25" s="22"/>
       <c r="AN25" s="22"/>
       <c r="AO25" s="22"/>
-      <c r="AP25" s="22"/>
-      <c r="AQ25" s="29"/>
-      <c r="AR25" s="30"/>
-      <c r="AS25" s="31"/>
+      <c r="AP25" s="29"/>
+      <c r="AQ25" s="30"/>
+      <c r="AR25" s="31"/>
     </row>
-    <row r="26" ht="55.5" customHeight="1" spans="1:45">
+    <row r="26" ht="55.5" customHeight="1" spans="1:44">
       <c r="A26" s="14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="15">
-        <v>6</v>
+        <v>111</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1</v>
       </c>
       <c r="H26" s="15">
         <v>6</v>
@@ -6294,17 +6261,17 @@
         <v>1</v>
       </c>
       <c r="Q26" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="R26" s="15">
         <v>0</v>
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
@@ -6316,48 +6283,47 @@
       <c r="AC26" s="20">
         <v>0</v>
       </c>
-      <c r="AD26" s="20">
-        <v>0</v>
+      <c r="AD26" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE26" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF26" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF26" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG26" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG26" s="20"/>
       <c r="AH26" s="20"/>
-      <c r="AI26" s="20"/>
+      <c r="AI26" s="15"/>
       <c r="AJ26" s="15"/>
       <c r="AK26" s="15"/>
-      <c r="AL26" s="15"/>
+      <c r="AL26" s="23"/>
       <c r="AM26" s="23"/>
       <c r="AN26" s="23"/>
       <c r="AO26" s="23"/>
-      <c r="AP26" s="23"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="30"/>
-      <c r="AS26" s="31"/>
+      <c r="AP26" s="32"/>
+      <c r="AQ26" s="30"/>
+      <c r="AR26" s="31"/>
     </row>
-    <row r="27" ht="55.5" customHeight="1" spans="1:45">
+    <row r="27" ht="55.5" customHeight="1" spans="1:44">
       <c r="A27" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
+        <v>3</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>245</v>
+      <c r="G27" s="12">
+        <v>1</v>
       </c>
       <c r="H27" s="12">
         <v>4</v>
@@ -6387,14 +6353,14 @@
         <v>3</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R27" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S27" s="12"/>
       <c r="T27" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
@@ -6407,48 +6373,45 @@
       <c r="AC27" s="19">
         <v>0</v>
       </c>
-      <c r="AD27" s="19">
-        <v>0</v>
+      <c r="AD27" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE27" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF27" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="AG27" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
+      <c r="AI27" s="12"/>
       <c r="AJ27" s="12"/>
       <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
+      <c r="AL27" s="22"/>
       <c r="AM27" s="22"/>
       <c r="AN27" s="22"/>
       <c r="AO27" s="22"/>
-      <c r="AP27" s="22"/>
-      <c r="AQ27" s="29"/>
-      <c r="AR27" s="30"/>
-      <c r="AS27" s="31"/>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="30"/>
+      <c r="AR27" s="31"/>
     </row>
-    <row r="28" ht="39" customHeight="1" spans="1:45">
+    <row r="28" ht="39" customHeight="1" spans="1:44">
       <c r="A28" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
+      </c>
+      <c r="G28" s="12">
+        <v>1</v>
       </c>
       <c r="H28" s="15">
         <v>5</v>
@@ -6478,17 +6441,17 @@
         <v>1</v>
       </c>
       <c r="Q28" s="16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="R28" s="15">
         <v>0</v>
       </c>
       <c r="S28" s="15"/>
       <c r="T28" s="15" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="U28" s="15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
@@ -6500,48 +6463,45 @@
       <c r="AC28" s="20">
         <v>0</v>
       </c>
-      <c r="AD28" s="20">
-        <v>0</v>
+      <c r="AD28" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE28" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF28" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF28" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="AG28" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG28" s="20"/>
       <c r="AH28" s="20"/>
-      <c r="AI28" s="20"/>
+      <c r="AI28" s="15"/>
       <c r="AJ28" s="15"/>
       <c r="AK28" s="15"/>
-      <c r="AL28" s="15"/>
+      <c r="AL28" s="23"/>
       <c r="AM28" s="23"/>
       <c r="AN28" s="23"/>
       <c r="AO28" s="23"/>
-      <c r="AP28" s="23"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="31"/>
+      <c r="AP28" s="32"/>
+      <c r="AQ28" s="30"/>
+      <c r="AR28" s="31"/>
     </row>
-    <row r="29" ht="39" customHeight="1" spans="1:45">
+    <row r="29" ht="39" customHeight="1" spans="1:44">
       <c r="A29" s="11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
+      </c>
+      <c r="G29" s="12">
+        <v>1</v>
       </c>
       <c r="H29" s="12">
         <v>5</v>
@@ -6571,17 +6531,17 @@
         <v>1</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="R29" s="12">
         <v>0</v>
       </c>
       <c r="S29" s="12"/>
       <c r="T29" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
@@ -6593,48 +6553,45 @@
       <c r="AC29" s="19">
         <v>0</v>
       </c>
-      <c r="AD29" s="19">
-        <v>0</v>
+      <c r="AD29" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE29" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF29" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF29" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG29" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
+      <c r="AI29" s="12"/>
       <c r="AJ29" s="12"/>
       <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
+      <c r="AL29" s="22"/>
       <c r="AM29" s="22"/>
       <c r="AN29" s="22"/>
       <c r="AO29" s="22"/>
-      <c r="AP29" s="22"/>
-      <c r="AQ29" s="29"/>
-      <c r="AR29" s="30"/>
-      <c r="AS29" s="31"/>
+      <c r="AP29" s="29"/>
+      <c r="AQ29" s="30"/>
+      <c r="AR29" s="31"/>
     </row>
-    <row r="30" ht="88.5" customHeight="1" spans="1:45">
+    <row r="30" ht="88.5" customHeight="1" spans="1:44">
       <c r="A30" s="14" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>268</v>
+        <v>263</v>
+      </c>
+      <c r="G30" s="12">
+        <v>1</v>
       </c>
       <c r="H30" s="15">
         <v>1</v>
@@ -6664,20 +6621,20 @@
         <v>10</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="R30" s="15" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
@@ -6688,48 +6645,45 @@
       <c r="AC30" s="20">
         <v>0</v>
       </c>
-      <c r="AD30" s="20">
-        <v>0</v>
+      <c r="AD30" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE30" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF30" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF30" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG30" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG30" s="20"/>
       <c r="AH30" s="20"/>
-      <c r="AI30" s="20"/>
+      <c r="AI30" s="15"/>
       <c r="AJ30" s="15"/>
       <c r="AK30" s="15"/>
-      <c r="AL30" s="15"/>
+      <c r="AL30" s="23"/>
       <c r="AM30" s="23"/>
       <c r="AN30" s="23"/>
       <c r="AO30" s="23"/>
-      <c r="AP30" s="23"/>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="30"/>
-      <c r="AS30" s="31"/>
+      <c r="AP30" s="32"/>
+      <c r="AQ30" s="30"/>
+      <c r="AR30" s="31"/>
     </row>
-    <row r="31" ht="39" customHeight="1" spans="1:45">
+    <row r="31" ht="39" customHeight="1" spans="1:44">
       <c r="A31" s="11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>278</v>
+        <v>272</v>
+      </c>
+      <c r="G31" s="12">
+        <v>1</v>
       </c>
       <c r="H31" s="12">
         <v>6</v>
@@ -6759,14 +6713,14 @@
         <v>0</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="R31" s="12">
         <v>0</v>
       </c>
       <c r="S31" s="12"/>
       <c r="T31" s="12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
@@ -6779,50 +6733,45 @@
       <c r="AC31" s="19">
         <v>0</v>
       </c>
-      <c r="AD31" s="19">
-        <v>0</v>
+      <c r="AD31" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE31" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF31" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF31" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="AG31" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
-      <c r="AI31" s="19"/>
+      <c r="AI31" s="12"/>
       <c r="AJ31" s="12"/>
       <c r="AK31" s="12"/>
-      <c r="AL31" s="12"/>
+      <c r="AL31" s="22"/>
       <c r="AM31" s="22"/>
       <c r="AN31" s="22"/>
       <c r="AO31" s="22"/>
-      <c r="AP31" s="22"/>
-      <c r="AQ31" s="29"/>
-      <c r="AR31" s="30"/>
-      <c r="AS31" s="31"/>
+      <c r="AP31" s="29"/>
+      <c r="AQ31" s="30"/>
+      <c r="AR31" s="31"/>
     </row>
-    <row r="32" ht="105" customHeight="1" spans="1:45">
+    <row r="32" ht="105" customHeight="1" spans="1:44">
       <c r="A32" s="14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="15" t="s">
-        <v>285</v>
-      </c>
+      <c r="E32" s="15"/>
       <c r="F32" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="15">
-        <v>8</v>
+        <v>92</v>
+      </c>
+      <c r="G32" s="12">
+        <v>1</v>
       </c>
       <c r="H32" s="15">
         <v>3</v>
@@ -6852,23 +6801,23 @@
         <v>15</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="R32" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U32" s="15" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="V32" s="15" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="W32" s="15" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
@@ -6878,50 +6827,45 @@
       <c r="AC32" s="20">
         <v>0</v>
       </c>
-      <c r="AD32" s="20">
-        <v>0</v>
+      <c r="AD32" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE32" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF32" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF32" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG32" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG32" s="20"/>
       <c r="AH32" s="20"/>
-      <c r="AI32" s="20"/>
+      <c r="AI32" s="15"/>
       <c r="AJ32" s="15"/>
       <c r="AK32" s="15"/>
-      <c r="AL32" s="15"/>
+      <c r="AL32" s="23"/>
       <c r="AM32" s="23"/>
       <c r="AN32" s="23"/>
       <c r="AO32" s="23"/>
-      <c r="AP32" s="23"/>
-      <c r="AQ32" s="32"/>
-      <c r="AR32" s="30"/>
-      <c r="AS32" s="31"/>
+      <c r="AP32" s="32"/>
+      <c r="AQ32" s="30"/>
+      <c r="AR32" s="31"/>
     </row>
-    <row r="33" ht="105" customHeight="1" spans="1:45">
+    <row r="33" ht="105" customHeight="1" spans="1:44">
       <c r="A33" s="11" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D33" s="12"/>
-      <c r="E33" s="12" t="s">
-        <v>285</v>
-      </c>
+      <c r="E33" s="12"/>
       <c r="F33" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G33" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H33" s="12">
         <v>4</v>
@@ -6951,23 +6895,23 @@
         <v>15</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="R33" s="12" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="S33" s="12"/>
       <c r="T33" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U33" s="12" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="V33" s="12" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="W33" s="12" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
@@ -6977,50 +6921,45 @@
       <c r="AC33" s="19">
         <v>0</v>
       </c>
-      <c r="AD33" s="19">
-        <v>0</v>
+      <c r="AD33" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE33" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF33" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF33" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="AG33" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
-      <c r="AI33" s="19"/>
+      <c r="AI33" s="12"/>
       <c r="AJ33" s="12"/>
       <c r="AK33" s="12"/>
-      <c r="AL33" s="12"/>
+      <c r="AL33" s="22"/>
       <c r="AM33" s="22"/>
       <c r="AN33" s="22"/>
       <c r="AO33" s="22"/>
-      <c r="AP33" s="22"/>
-      <c r="AQ33" s="29"/>
-      <c r="AR33" s="30"/>
-      <c r="AS33" s="31"/>
+      <c r="AP33" s="29"/>
+      <c r="AQ33" s="30"/>
+      <c r="AR33" s="31"/>
     </row>
-    <row r="34" ht="105" customHeight="1" spans="1:45">
+    <row r="34" ht="105" customHeight="1" spans="1:44">
       <c r="A34" s="14" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D34" s="15"/>
-      <c r="E34" s="15" t="s">
-        <v>285</v>
-      </c>
+      <c r="E34" s="15"/>
       <c r="F34" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="15">
-        <v>8</v>
+        <v>92</v>
+      </c>
+      <c r="G34" s="12">
+        <v>1</v>
       </c>
       <c r="H34" s="15">
         <v>2</v>
@@ -7050,23 +6989,23 @@
         <v>15</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="R34" s="15" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="S34" s="15"/>
       <c r="T34" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U34" s="15" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="W34" s="15" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="X34" s="15"/>
       <c r="Y34" s="15"/>
@@ -7076,50 +7015,45 @@
       <c r="AC34" s="20">
         <v>0</v>
       </c>
-      <c r="AD34" s="20">
-        <v>0</v>
+      <c r="AD34" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE34" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF34" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF34" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG34" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG34" s="20"/>
       <c r="AH34" s="20"/>
-      <c r="AI34" s="20"/>
+      <c r="AI34" s="15"/>
       <c r="AJ34" s="15"/>
       <c r="AK34" s="15"/>
-      <c r="AL34" s="15"/>
+      <c r="AL34" s="23"/>
       <c r="AM34" s="23"/>
       <c r="AN34" s="23"/>
       <c r="AO34" s="23"/>
-      <c r="AP34" s="23"/>
-      <c r="AQ34" s="32"/>
-      <c r="AR34" s="30"/>
-      <c r="AS34" s="31"/>
+      <c r="AP34" s="32"/>
+      <c r="AQ34" s="30"/>
+      <c r="AR34" s="31"/>
     </row>
-    <row r="35" ht="105" customHeight="1" spans="1:45">
+    <row r="35" ht="105" customHeight="1" spans="1:44">
       <c r="A35" s="11" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D35" s="12"/>
-      <c r="E35" s="12" t="s">
-        <v>285</v>
-      </c>
+      <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G35" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H35" s="12">
         <v>1</v>
@@ -7149,20 +7083,20 @@
         <v>15</v>
       </c>
       <c r="Q35" s="13" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="R35" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="S35" s="12"/>
       <c r="T35" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U35" s="12" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="V35" s="12" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
@@ -7173,48 +7107,45 @@
       <c r="AC35" s="19">
         <v>0</v>
       </c>
-      <c r="AD35" s="19">
-        <v>0</v>
+      <c r="AD35" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE35" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF35" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF35" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG35" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
-      <c r="AI35" s="19"/>
+      <c r="AI35" s="12"/>
       <c r="AJ35" s="12"/>
       <c r="AK35" s="12"/>
-      <c r="AL35" s="12"/>
+      <c r="AL35" s="22"/>
       <c r="AM35" s="22"/>
       <c r="AN35" s="22"/>
       <c r="AO35" s="22"/>
-      <c r="AP35" s="22"/>
-      <c r="AQ35" s="29"/>
-      <c r="AR35" s="30"/>
-      <c r="AS35" s="31"/>
+      <c r="AP35" s="29"/>
+      <c r="AQ35" s="30"/>
+      <c r="AR35" s="31"/>
     </row>
-    <row r="36" ht="39" customHeight="1" spans="1:45">
+    <row r="36" ht="39" customHeight="1" spans="1:44">
       <c r="A36" s="14" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" s="15">
-        <v>8</v>
+        <v>92</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1</v>
       </c>
       <c r="H36" s="15">
         <v>0</v>
@@ -7244,14 +7175,14 @@
         <v>0</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="R36" s="15">
         <v>0</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="15" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
@@ -7264,50 +7195,45 @@
       <c r="AC36" s="20">
         <v>0</v>
       </c>
-      <c r="AD36" s="20">
-        <v>0</v>
+      <c r="AD36" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE36" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF36" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF36" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG36" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG36" s="20"/>
       <c r="AH36" s="20"/>
-      <c r="AI36" s="20"/>
+      <c r="AI36" s="15"/>
       <c r="AJ36" s="15"/>
       <c r="AK36" s="15"/>
-      <c r="AL36" s="15"/>
+      <c r="AL36" s="23"/>
       <c r="AM36" s="23"/>
       <c r="AN36" s="23"/>
       <c r="AO36" s="23"/>
-      <c r="AP36" s="23"/>
-      <c r="AQ36" s="32"/>
-      <c r="AR36" s="30"/>
-      <c r="AS36" s="31"/>
+      <c r="AP36" s="32"/>
+      <c r="AQ36" s="30"/>
+      <c r="AR36" s="31"/>
     </row>
-    <row r="37" ht="121.5" customHeight="1" spans="1:45">
+    <row r="37" ht="121.5" customHeight="1" spans="1:44">
       <c r="A37" s="11" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D37" s="12"/>
-      <c r="E37" s="12" t="s">
-        <v>314</v>
-      </c>
+      <c r="E37" s="12"/>
       <c r="F37" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G37" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H37" s="12">
         <v>5</v>
@@ -7337,20 +7263,20 @@
         <v>25</v>
       </c>
       <c r="Q37" s="13" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="R37" s="12" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="S37" s="12"/>
       <c r="T37" s="12" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="V37" s="12" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
@@ -7361,50 +7287,45 @@
       <c r="AC37" s="19">
         <v>0</v>
       </c>
-      <c r="AD37" s="19">
-        <v>0</v>
+      <c r="AD37" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE37" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF37" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF37" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG37" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
-      <c r="AI37" s="19"/>
+      <c r="AI37" s="12"/>
       <c r="AJ37" s="12"/>
       <c r="AK37" s="12"/>
-      <c r="AL37" s="12"/>
+      <c r="AL37" s="22"/>
       <c r="AM37" s="22"/>
       <c r="AN37" s="22"/>
       <c r="AO37" s="22"/>
-      <c r="AP37" s="22"/>
-      <c r="AQ37" s="29"/>
-      <c r="AR37" s="30"/>
-      <c r="AS37" s="31"/>
+      <c r="AP37" s="29"/>
+      <c r="AQ37" s="30"/>
+      <c r="AR37" s="31"/>
     </row>
-    <row r="38" ht="138" customHeight="1" spans="1:45">
+    <row r="38" ht="138" customHeight="1" spans="1:44">
       <c r="A38" s="14" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D38" s="15"/>
-      <c r="E38" s="15" t="s">
-        <v>323</v>
-      </c>
+      <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="15">
-        <v>8</v>
+        <v>92</v>
+      </c>
+      <c r="G38" s="12">
+        <v>1</v>
       </c>
       <c r="H38" s="15">
         <v>6</v>
@@ -7434,20 +7355,20 @@
         <v>25</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="R38" s="15" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="15" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="U38" s="15" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="V38" s="15" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="W38" s="15"/>
       <c r="X38" s="15"/>
@@ -7458,48 +7379,45 @@
       <c r="AC38" s="20">
         <v>0</v>
       </c>
-      <c r="AD38" s="20">
-        <v>0</v>
+      <c r="AD38" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE38" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF38" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF38" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="AG38" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG38" s="20"/>
       <c r="AH38" s="20"/>
-      <c r="AI38" s="20"/>
+      <c r="AI38" s="15"/>
       <c r="AJ38" s="15"/>
       <c r="AK38" s="15"/>
-      <c r="AL38" s="15"/>
+      <c r="AL38" s="23"/>
       <c r="AM38" s="23"/>
       <c r="AN38" s="23"/>
       <c r="AO38" s="23"/>
-      <c r="AP38" s="23"/>
-      <c r="AQ38" s="32"/>
-      <c r="AR38" s="30"/>
-      <c r="AS38" s="31"/>
+      <c r="AP38" s="32"/>
+      <c r="AQ38" s="30"/>
+      <c r="AR38" s="31"/>
     </row>
-    <row r="39" ht="88.5" customHeight="1" spans="1:45">
+    <row r="39" ht="88.5" customHeight="1" spans="1:44">
       <c r="A39" s="11" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
-        <v>328</v>
+        <v>120</v>
       </c>
       <c r="G39" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" s="12">
         <v>1</v>
@@ -7529,20 +7447,20 @@
         <v>4</v>
       </c>
       <c r="Q39" s="13" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="R39" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S39" s="12"/>
       <c r="T39" s="12" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V39" s="12" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="W39" s="12"/>
       <c r="X39" s="12"/>
@@ -7553,48 +7471,45 @@
       <c r="AC39" s="19">
         <v>0</v>
       </c>
-      <c r="AD39" s="19">
-        <v>0</v>
+      <c r="AD39" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE39" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF39" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF39" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="AG39" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
+      <c r="AI39" s="12"/>
       <c r="AJ39" s="12"/>
       <c r="AK39" s="12"/>
-      <c r="AL39" s="12"/>
+      <c r="AL39" s="22"/>
       <c r="AM39" s="22"/>
       <c r="AN39" s="22"/>
       <c r="AO39" s="22"/>
-      <c r="AP39" s="22"/>
-      <c r="AQ39" s="29"/>
-      <c r="AR39" s="30"/>
-      <c r="AS39" s="31"/>
+      <c r="AP39" s="29"/>
+      <c r="AQ39" s="30"/>
+      <c r="AR39" s="31"/>
     </row>
-    <row r="40" ht="88.5" customHeight="1" spans="1:45">
+    <row r="40" ht="88.5" customHeight="1" spans="1:44">
       <c r="A40" s="14" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G40" s="15">
-        <v>3</v>
+        <v>120</v>
+      </c>
+      <c r="G40" s="12">
+        <v>1</v>
       </c>
       <c r="H40" s="15">
         <v>2</v>
@@ -7624,26 +7539,26 @@
         <v>4</v>
       </c>
       <c r="Q40" s="16" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="R40" s="15">
         <v>0</v>
       </c>
       <c r="S40" s="15"/>
       <c r="T40" s="15" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="U40" s="15" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="W40" s="15" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="X40" s="15" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
@@ -7652,48 +7567,45 @@
       <c r="AC40" s="20">
         <v>0</v>
       </c>
-      <c r="AD40" s="20">
-        <v>0</v>
+      <c r="AD40" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE40" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="AF40" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF40" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="AG40" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG40" s="20"/>
       <c r="AH40" s="20"/>
-      <c r="AI40" s="20"/>
+      <c r="AI40" s="15"/>
       <c r="AJ40" s="15"/>
       <c r="AK40" s="15"/>
-      <c r="AL40" s="15"/>
+      <c r="AL40" s="23"/>
       <c r="AM40" s="23"/>
       <c r="AN40" s="23"/>
       <c r="AO40" s="23"/>
-      <c r="AP40" s="23"/>
-      <c r="AQ40" s="32"/>
-      <c r="AR40" s="30"/>
-      <c r="AS40" s="31"/>
+      <c r="AP40" s="32"/>
+      <c r="AQ40" s="30"/>
+      <c r="AR40" s="31"/>
     </row>
-    <row r="41" ht="39" customHeight="1" spans="1:45">
+    <row r="41" ht="39" customHeight="1" spans="1:44">
       <c r="A41" s="11" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G41" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H41" s="12">
         <v>6</v>
@@ -7723,23 +7635,23 @@
         <v>0</v>
       </c>
       <c r="Q41" s="13" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="R41" s="12">
         <v>0</v>
       </c>
       <c r="S41" s="12"/>
       <c r="T41" s="12" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="U41" s="12" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="V41" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="W41" s="12" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
@@ -7749,48 +7661,45 @@
       <c r="AC41" s="19">
         <v>0</v>
       </c>
-      <c r="AD41" s="19">
-        <v>0</v>
+      <c r="AD41" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE41" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF41" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF41" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="AG41" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
-      <c r="AI41" s="19"/>
+      <c r="AI41" s="12"/>
       <c r="AJ41" s="12"/>
       <c r="AK41" s="12"/>
-      <c r="AL41" s="12"/>
+      <c r="AL41" s="22"/>
       <c r="AM41" s="22"/>
       <c r="AN41" s="22"/>
       <c r="AO41" s="22"/>
-      <c r="AP41" s="22"/>
-      <c r="AQ41" s="29"/>
-      <c r="AR41" s="30"/>
-      <c r="AS41" s="31"/>
+      <c r="AP41" s="29"/>
+      <c r="AQ41" s="30"/>
+      <c r="AR41" s="31"/>
     </row>
-    <row r="42" ht="39" customHeight="1" spans="1:45">
+    <row r="42" ht="39" customHeight="1" spans="1:44">
       <c r="A42" s="14" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G42" s="15">
-        <v>6</v>
+        <v>111</v>
+      </c>
+      <c r="G42" s="12">
+        <v>1</v>
       </c>
       <c r="H42" s="15">
         <v>6</v>
@@ -7820,20 +7729,20 @@
         <v>0</v>
       </c>
       <c r="Q42" s="16" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="R42" s="15">
         <v>0</v>
       </c>
       <c r="S42" s="15"/>
       <c r="T42" s="15" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="U42" s="15" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="V42" s="15" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="W42" s="15"/>
       <c r="X42" s="15"/>
@@ -7844,48 +7753,45 @@
       <c r="AC42" s="20">
         <v>0</v>
       </c>
-      <c r="AD42" s="20">
-        <v>0</v>
+      <c r="AD42" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE42" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF42" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF42" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG42" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG42" s="20"/>
       <c r="AH42" s="20"/>
-      <c r="AI42" s="20"/>
+      <c r="AI42" s="15"/>
       <c r="AJ42" s="15"/>
       <c r="AK42" s="15"/>
-      <c r="AL42" s="15"/>
+      <c r="AL42" s="23"/>
       <c r="AM42" s="23"/>
       <c r="AN42" s="23"/>
       <c r="AO42" s="23"/>
-      <c r="AP42" s="23"/>
-      <c r="AQ42" s="32"/>
-      <c r="AR42" s="30"/>
-      <c r="AS42" s="31"/>
+      <c r="AP42" s="32"/>
+      <c r="AQ42" s="30"/>
+      <c r="AR42" s="31"/>
     </row>
-    <row r="43" ht="39" customHeight="1" spans="1:45">
+    <row r="43" ht="39" customHeight="1" spans="1:44">
       <c r="A43" s="11" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G43" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H43" s="12">
         <v>5</v>
@@ -7915,17 +7821,17 @@
         <v>0</v>
       </c>
       <c r="Q43" s="13" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="R43" s="12">
         <v>0</v>
       </c>
       <c r="S43" s="12"/>
       <c r="T43" s="12" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="U43" s="12" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="V43" s="12"/>
       <c r="W43" s="12"/>
@@ -7937,46 +7843,43 @@
       <c r="AC43" s="19">
         <v>0</v>
       </c>
-      <c r="AD43" s="19">
-        <v>0</v>
+      <c r="AD43" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE43" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF43" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF43" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="AG43" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
-      <c r="AI43" s="19"/>
+      <c r="AI43" s="12"/>
       <c r="AJ43" s="12"/>
       <c r="AK43" s="12"/>
-      <c r="AL43" s="12"/>
+      <c r="AL43" s="22"/>
       <c r="AM43" s="22"/>
       <c r="AN43" s="22"/>
       <c r="AO43" s="22"/>
-      <c r="AP43" s="22"/>
-      <c r="AQ43" s="29"/>
-      <c r="AR43" s="30"/>
-      <c r="AS43" s="31"/>
+      <c r="AP43" s="29"/>
+      <c r="AQ43" s="30"/>
+      <c r="AR43" s="31"/>
     </row>
-    <row r="44" ht="55.5" customHeight="1" spans="1:45">
+    <row r="44" ht="55.5" customHeight="1" spans="1:44">
       <c r="A44" s="14" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="G44" s="15">
-        <v>9</v>
+        <v>355</v>
+      </c>
+      <c r="G44" s="12">
+        <v>1</v>
       </c>
       <c r="H44" s="15">
         <v>5</v>
@@ -8006,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="16" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="R44" s="15">
         <v>0</v>
@@ -8024,48 +7927,45 @@
       <c r="AC44" s="20">
         <v>0</v>
       </c>
-      <c r="AD44" s="20">
-        <v>0</v>
+      <c r="AD44" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE44" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF44" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF44" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="AG44" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG44" s="20"/>
       <c r="AH44" s="20"/>
-      <c r="AI44" s="20"/>
+      <c r="AI44" s="15"/>
       <c r="AJ44" s="15"/>
       <c r="AK44" s="15"/>
-      <c r="AL44" s="15"/>
-      <c r="AM44" s="23"/>
-      <c r="AN44" s="23" t="s">
-        <v>368</v>
-      </c>
+      <c r="AL44" s="23"/>
+      <c r="AM44" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="AN44" s="23"/>
       <c r="AO44" s="23"/>
-      <c r="AP44" s="23"/>
-      <c r="AQ44" s="32"/>
-      <c r="AR44" s="30"/>
-      <c r="AS44" s="31"/>
+      <c r="AP44" s="32"/>
+      <c r="AQ44" s="30"/>
+      <c r="AR44" s="31"/>
     </row>
-    <row r="45" ht="55.5" customHeight="1" spans="1:45">
+    <row r="45" ht="55.5" customHeight="1" spans="1:44">
       <c r="A45" s="11" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="G45" s="12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H45" s="12">
         <v>5</v>
@@ -8095,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="13" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="R45" s="12">
         <v>0</v>
@@ -8113,48 +8013,45 @@
       <c r="AC45" s="19">
         <v>0</v>
       </c>
-      <c r="AD45" s="19">
-        <v>0</v>
+      <c r="AD45" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE45" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF45" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF45" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="AG45" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
-      <c r="AI45" s="19"/>
+      <c r="AI45" s="12"/>
       <c r="AJ45" s="12"/>
       <c r="AK45" s="12"/>
-      <c r="AL45" s="12"/>
-      <c r="AM45" s="22"/>
-      <c r="AN45" s="22" t="s">
-        <v>373</v>
-      </c>
+      <c r="AL45" s="22"/>
+      <c r="AM45" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="AN45" s="22"/>
       <c r="AO45" s="22"/>
-      <c r="AP45" s="22"/>
-      <c r="AQ45" s="29"/>
-      <c r="AR45" s="30"/>
-      <c r="AS45" s="31"/>
+      <c r="AP45" s="29"/>
+      <c r="AQ45" s="30"/>
+      <c r="AR45" s="31"/>
     </row>
-    <row r="46" ht="55.5" customHeight="1" spans="1:45">
+    <row r="46" ht="55.5" customHeight="1" spans="1:44">
       <c r="A46" s="14" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="G46" s="15">
-        <v>9</v>
+        <v>355</v>
+      </c>
+      <c r="G46" s="12">
+        <v>1</v>
       </c>
       <c r="H46" s="15">
         <v>5</v>
@@ -8184,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="R46" s="15">
         <v>0</v>
@@ -8202,50 +8099,47 @@
       <c r="AC46" s="20">
         <v>0</v>
       </c>
-      <c r="AD46" s="20">
-        <v>0</v>
+      <c r="AD46" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE46" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF46" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF46" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="AG46" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG46" s="20"/>
       <c r="AH46" s="20"/>
-      <c r="AI46" s="20"/>
+      <c r="AI46" s="15"/>
       <c r="AJ46" s="15"/>
       <c r="AK46" s="15"/>
-      <c r="AL46" s="15"/>
-      <c r="AM46" s="23"/>
-      <c r="AN46" s="23" t="s">
-        <v>378</v>
-      </c>
+      <c r="AL46" s="23"/>
+      <c r="AM46" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN46" s="23"/>
       <c r="AO46" s="23"/>
-      <c r="AP46" s="23"/>
-      <c r="AQ46" s="32"/>
-      <c r="AR46" s="30"/>
-      <c r="AS46" s="31"/>
+      <c r="AP46" s="32"/>
+      <c r="AQ46" s="30"/>
+      <c r="AR46" s="31"/>
     </row>
-    <row r="47" ht="49.5" spans="1:45">
+    <row r="47" ht="49.5" spans="1:44">
       <c r="A47" s="11" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G47" s="12">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H47" s="12">
         <v>5</v>
@@ -8275,17 +8169,17 @@
         <v>0</v>
       </c>
       <c r="Q47" s="13" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="R47" s="12">
         <v>0</v>
       </c>
       <c r="S47" s="12"/>
       <c r="T47" s="12" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="U47" s="12" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
@@ -8297,48 +8191,45 @@
       <c r="AC47" s="19">
         <v>0</v>
       </c>
-      <c r="AD47" s="19">
-        <v>0</v>
+      <c r="AD47" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE47" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF47" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF47" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG47" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
-      <c r="AI47" s="19"/>
+      <c r="AI47" s="12"/>
       <c r="AJ47" s="12"/>
       <c r="AK47" s="12"/>
-      <c r="AL47" s="12"/>
+      <c r="AL47" s="22"/>
       <c r="AM47" s="22"/>
       <c r="AN47" s="22"/>
       <c r="AO47" s="22"/>
-      <c r="AP47" s="22"/>
-      <c r="AQ47" s="29"/>
-      <c r="AR47" s="30"/>
-      <c r="AS47" s="31"/>
+      <c r="AP47" s="29"/>
+      <c r="AQ47" s="30"/>
+      <c r="AR47" s="31"/>
     </row>
-    <row r="48" ht="49.5" spans="1:45">
+    <row r="48" ht="49.5" spans="1:44">
       <c r="A48" s="14" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="G48" s="15">
-        <v>13</v>
+        <v>372</v>
+      </c>
+      <c r="G48" s="12">
+        <v>1</v>
       </c>
       <c r="H48" s="15">
         <v>5</v>
@@ -8368,17 +8259,17 @@
         <v>0</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="R48" s="15">
         <v>0</v>
       </c>
       <c r="S48" s="15"/>
       <c r="T48" s="15" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="U48" s="15" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="V48" s="15"/>
       <c r="W48" s="15"/>
@@ -8390,48 +8281,45 @@
       <c r="AC48" s="20">
         <v>0</v>
       </c>
-      <c r="AD48" s="20">
-        <v>0</v>
+      <c r="AD48" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE48" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF48" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF48" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AG48" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG48" s="20"/>
       <c r="AH48" s="20"/>
-      <c r="AI48" s="20"/>
+      <c r="AI48" s="15"/>
       <c r="AJ48" s="15"/>
       <c r="AK48" s="15"/>
-      <c r="AL48" s="15"/>
+      <c r="AL48" s="23"/>
       <c r="AM48" s="23"/>
       <c r="AN48" s="23"/>
       <c r="AO48" s="23"/>
-      <c r="AP48" s="23"/>
-      <c r="AQ48" s="32"/>
-      <c r="AR48" s="30"/>
-      <c r="AS48" s="31"/>
+      <c r="AP48" s="32"/>
+      <c r="AQ48" s="30"/>
+      <c r="AR48" s="31"/>
     </row>
-    <row r="49" ht="66" spans="1:45">
+    <row r="49" ht="66" spans="1:44">
       <c r="A49" s="11" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G49" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="12">
         <v>1</v>
@@ -8461,14 +8349,14 @@
         <v>0</v>
       </c>
       <c r="Q49" s="13" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="R49" s="12" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="S49" s="12"/>
       <c r="T49" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="U49" s="12"/>
       <c r="V49" s="12"/>
@@ -8481,48 +8369,45 @@
       <c r="AC49" s="19">
         <v>0</v>
       </c>
-      <c r="AD49" s="19">
-        <v>0</v>
+      <c r="AD49" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE49" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF49" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF49" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="AG49" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
-      <c r="AI49" s="19"/>
+      <c r="AI49" s="12"/>
       <c r="AJ49" s="12"/>
       <c r="AK49" s="12"/>
-      <c r="AL49" s="12"/>
+      <c r="AL49" s="22"/>
       <c r="AM49" s="22"/>
       <c r="AN49" s="22"/>
       <c r="AO49" s="22"/>
-      <c r="AP49" s="22"/>
-      <c r="AQ49" s="29"/>
-      <c r="AR49" s="30"/>
-      <c r="AS49" s="31"/>
+      <c r="AP49" s="29"/>
+      <c r="AQ49" s="30"/>
+      <c r="AR49" s="31"/>
     </row>
-    <row r="50" ht="88.5" customHeight="1" spans="1:45">
+    <row r="50" ht="88.5" customHeight="1" spans="1:44">
       <c r="A50" s="14" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="G50" s="15">
-        <v>7</v>
+        <v>390</v>
+      </c>
+      <c r="G50" s="12">
+        <v>1</v>
       </c>
       <c r="H50" s="15">
         <v>5</v>
@@ -8552,17 +8437,17 @@
         <v>30</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="R50" s="15">
         <v>0</v>
       </c>
       <c r="S50" s="15"/>
       <c r="T50" s="15" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="U50" s="15" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
@@ -8574,48 +8459,45 @@
       <c r="AC50" s="20">
         <v>0</v>
       </c>
-      <c r="AD50" s="20">
-        <v>0</v>
+      <c r="AD50" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE50" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="AF50" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF50" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="AG50" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG50" s="20"/>
       <c r="AH50" s="20"/>
-      <c r="AI50" s="20"/>
+      <c r="AI50" s="15"/>
       <c r="AJ50" s="15"/>
       <c r="AK50" s="15"/>
-      <c r="AL50" s="15"/>
+      <c r="AL50" s="23"/>
       <c r="AM50" s="23"/>
       <c r="AN50" s="23"/>
       <c r="AO50" s="23"/>
-      <c r="AP50" s="23"/>
-      <c r="AQ50" s="32"/>
-      <c r="AR50" s="30"/>
-      <c r="AS50" s="31"/>
+      <c r="AP50" s="32"/>
+      <c r="AQ50" s="30"/>
+      <c r="AR50" s="31"/>
     </row>
-    <row r="51" ht="88.5" customHeight="1" spans="1:45">
+    <row r="51" ht="88.5" customHeight="1" spans="1:44">
       <c r="A51" s="11" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G51" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="12">
         <v>1</v>
@@ -8645,14 +8527,14 @@
         <v>8</v>
       </c>
       <c r="Q51" s="13" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="R51" s="12" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="S51" s="12"/>
       <c r="T51" s="12" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="U51" s="12"/>
       <c r="V51" s="12"/>
@@ -8665,48 +8547,45 @@
       <c r="AC51" s="19">
         <v>0</v>
       </c>
-      <c r="AD51" s="19">
-        <v>0</v>
+      <c r="AD51" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE51" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF51" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF51" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="AG51" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
-      <c r="AI51" s="19"/>
+      <c r="AI51" s="12"/>
       <c r="AJ51" s="12"/>
       <c r="AK51" s="12"/>
-      <c r="AL51" s="12"/>
+      <c r="AL51" s="22"/>
       <c r="AM51" s="22"/>
       <c r="AN51" s="22"/>
       <c r="AO51" s="22"/>
-      <c r="AP51" s="22"/>
-      <c r="AQ51" s="29"/>
-      <c r="AR51" s="30"/>
-      <c r="AS51" s="31"/>
+      <c r="AP51" s="29"/>
+      <c r="AQ51" s="30"/>
+      <c r="AR51" s="31"/>
     </row>
-    <row r="52" ht="121.5" customHeight="1" spans="1:45">
+    <row r="52" ht="121.5" customHeight="1" spans="1:44">
       <c r="A52" s="14" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>414</v>
+        <v>403</v>
+      </c>
+      <c r="G52" s="12">
+        <v>1</v>
       </c>
       <c r="H52" s="15">
         <v>1</v>
@@ -8736,20 +8615,20 @@
         <v>4</v>
       </c>
       <c r="Q52" s="16" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="R52" s="15">
         <v>0</v>
       </c>
       <c r="S52" s="15"/>
       <c r="T52" s="15" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="U52" s="15" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W52" s="15"/>
       <c r="X52" s="15"/>
@@ -8758,50 +8637,47 @@
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
       <c r="AC52" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="20">
         <v>500</v>
       </c>
+      <c r="AD52" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="AE52" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="AF52" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF52" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="AG52" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG52" s="20"/>
       <c r="AH52" s="20"/>
-      <c r="AI52" s="20"/>
+      <c r="AI52" s="15"/>
       <c r="AJ52" s="15"/>
       <c r="AK52" s="15"/>
-      <c r="AL52" s="15"/>
+      <c r="AL52" s="23"/>
       <c r="AM52" s="23"/>
       <c r="AN52" s="23"/>
       <c r="AO52" s="23"/>
-      <c r="AP52" s="23"/>
-      <c r="AQ52" s="32"/>
-      <c r="AR52" s="30"/>
-      <c r="AS52" s="31"/>
+      <c r="AP52" s="32"/>
+      <c r="AQ52" s="30"/>
+      <c r="AR52" s="31"/>
     </row>
-    <row r="53" ht="99" spans="1:45">
+    <row r="53" ht="99" spans="1:44">
       <c r="A53" s="11" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>422</v>
+        <v>410</v>
+      </c>
+      <c r="G53" s="12">
+        <v>1</v>
       </c>
       <c r="H53" s="12">
         <v>3</v>
@@ -8831,23 +8707,23 @@
         <v>1</v>
       </c>
       <c r="Q53" s="13" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="R53" s="12">
         <v>0</v>
       </c>
       <c r="S53" s="12"/>
       <c r="T53" s="12" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="U53" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="V53" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="V53" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="W53" s="12" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="X53" s="12"/>
       <c r="Y53" s="12"/>
@@ -8857,48 +8733,45 @@
       <c r="AC53" s="19">
         <v>0</v>
       </c>
-      <c r="AD53" s="19">
-        <v>0</v>
+      <c r="AD53" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE53" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF53" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF53" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="AG53" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
-      <c r="AI53" s="19"/>
+      <c r="AI53" s="12"/>
       <c r="AJ53" s="12"/>
       <c r="AK53" s="12"/>
-      <c r="AL53" s="12"/>
+      <c r="AL53" s="22"/>
       <c r="AM53" s="22"/>
       <c r="AN53" s="22"/>
       <c r="AO53" s="22"/>
-      <c r="AP53" s="22"/>
-      <c r="AQ53" s="29"/>
-      <c r="AR53" s="30"/>
-      <c r="AS53" s="31"/>
+      <c r="AP53" s="29"/>
+      <c r="AQ53" s="30"/>
+      <c r="AR53" s="31"/>
     </row>
-    <row r="54" ht="72" customHeight="1" spans="1:45">
+    <row r="54" ht="72" customHeight="1" spans="1:44">
       <c r="A54" s="14" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>157</v>
+        <v>418</v>
+      </c>
+      <c r="G54" s="12">
+        <v>1</v>
       </c>
       <c r="H54" s="15">
         <v>1</v>
@@ -8928,17 +8801,17 @@
         <v>3</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="R54" s="15" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="S54" s="15"/>
       <c r="T54" s="15" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="U54" s="15" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="V54" s="15"/>
       <c r="W54" s="15"/>
@@ -8948,50 +8821,47 @@
       <c r="AA54" s="15"/>
       <c r="AB54" s="15"/>
       <c r="AC54" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="20">
         <v>700</v>
       </c>
+      <c r="AD54" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="AE54" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF54" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF54" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="AG54" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG54" s="20"/>
       <c r="AH54" s="20"/>
-      <c r="AI54" s="20"/>
+      <c r="AI54" s="15"/>
       <c r="AJ54" s="15"/>
       <c r="AK54" s="15"/>
-      <c r="AL54" s="15"/>
+      <c r="AL54" s="23"/>
       <c r="AM54" s="23"/>
       <c r="AN54" s="23"/>
       <c r="AO54" s="23"/>
-      <c r="AP54" s="23"/>
-      <c r="AQ54" s="32"/>
-      <c r="AR54" s="30"/>
-      <c r="AS54" s="31"/>
+      <c r="AP54" s="32"/>
+      <c r="AQ54" s="30"/>
+      <c r="AR54" s="31"/>
     </row>
-    <row r="55" ht="72" customHeight="1" spans="1:45">
+    <row r="55" ht="72" customHeight="1" spans="1:44">
       <c r="A55" s="11" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>439</v>
+        <v>426</v>
+      </c>
+      <c r="G55" s="12">
+        <v>1</v>
       </c>
       <c r="H55" s="12">
         <v>1</v>
@@ -9021,20 +8891,20 @@
         <v>2</v>
       </c>
       <c r="Q55" s="13" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="R55" s="12" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="S55" s="12"/>
       <c r="T55" s="12" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="U55" s="12" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="V55" s="12" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="W55" s="12"/>
       <c r="X55" s="12"/>
@@ -9043,50 +8913,47 @@
       <c r="AA55" s="12"/>
       <c r="AB55" s="12"/>
       <c r="AC55" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="19">
         <v>700</v>
       </c>
+      <c r="AD55" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="AE55" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="AF55" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF55" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="AG55" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
-      <c r="AI55" s="19"/>
+      <c r="AI55" s="12"/>
       <c r="AJ55" s="12"/>
       <c r="AK55" s="12"/>
-      <c r="AL55" s="12"/>
+      <c r="AL55" s="22"/>
       <c r="AM55" s="22"/>
       <c r="AN55" s="22"/>
       <c r="AO55" s="22"/>
-      <c r="AP55" s="22"/>
-      <c r="AQ55" s="29"/>
-      <c r="AR55" s="30"/>
-      <c r="AS55" s="31"/>
+      <c r="AP55" s="29"/>
+      <c r="AQ55" s="30"/>
+      <c r="AR55" s="31"/>
     </row>
-    <row r="56" ht="55.5" customHeight="1" spans="1:45">
+    <row r="56" ht="55.5" customHeight="1" spans="1:44">
       <c r="A56" s="14" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" s="15">
-        <v>4</v>
+        <v>104</v>
+      </c>
+      <c r="G56" s="12">
+        <v>1</v>
       </c>
       <c r="H56" s="15">
         <v>1</v>
@@ -9116,17 +8983,17 @@
         <v>2</v>
       </c>
       <c r="Q56" s="16" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="R56" s="15">
         <v>0</v>
       </c>
       <c r="S56" s="15"/>
       <c r="T56" s="15" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="U56" s="15" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="V56" s="15"/>
       <c r="W56" s="15"/>
@@ -9138,48 +9005,45 @@
       <c r="AC56" s="20">
         <v>0</v>
       </c>
-      <c r="AD56" s="20">
-        <v>0</v>
+      <c r="AD56" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE56" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="AF56" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF56" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG56" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG56" s="20"/>
       <c r="AH56" s="20"/>
-      <c r="AI56" s="20"/>
+      <c r="AI56" s="15"/>
       <c r="AJ56" s="15"/>
       <c r="AK56" s="15"/>
-      <c r="AL56" s="15"/>
+      <c r="AL56" s="23"/>
       <c r="AM56" s="23"/>
       <c r="AN56" s="23"/>
       <c r="AO56" s="23"/>
-      <c r="AP56" s="23"/>
-      <c r="AQ56" s="32"/>
-      <c r="AR56" s="30"/>
-      <c r="AS56" s="31"/>
+      <c r="AP56" s="32"/>
+      <c r="AQ56" s="30"/>
+      <c r="AR56" s="31"/>
     </row>
-    <row r="57" ht="39" customHeight="1" spans="1:45">
+    <row r="57" ht="39" customHeight="1" spans="1:44">
       <c r="A57" s="11" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>452</v>
+        <v>438</v>
+      </c>
+      <c r="G57" s="12">
+        <v>1</v>
       </c>
       <c r="H57" s="12">
         <v>4</v>
@@ -9209,17 +9073,17 @@
         <v>0</v>
       </c>
       <c r="Q57" s="13" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="R57" s="12">
         <v>0</v>
       </c>
       <c r="S57" s="12"/>
       <c r="T57" s="12" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="U57" s="12" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="V57" s="12"/>
       <c r="W57" s="12"/>
@@ -9231,48 +9095,45 @@
       <c r="AC57" s="19">
         <v>0</v>
       </c>
-      <c r="AD57" s="19">
-        <v>0</v>
+      <c r="AD57" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE57" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="AF57" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF57" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="AG57" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
-      <c r="AI57" s="19"/>
+      <c r="AI57" s="12"/>
       <c r="AJ57" s="12"/>
       <c r="AK57" s="12"/>
-      <c r="AL57" s="12"/>
+      <c r="AL57" s="22"/>
       <c r="AM57" s="22"/>
       <c r="AN57" s="22"/>
       <c r="AO57" s="22"/>
-      <c r="AP57" s="22"/>
-      <c r="AQ57" s="29"/>
-      <c r="AR57" s="30"/>
-      <c r="AS57" s="31"/>
+      <c r="AP57" s="29"/>
+      <c r="AQ57" s="30"/>
+      <c r="AR57" s="31"/>
     </row>
-    <row r="58" ht="39" customHeight="1" spans="1:45">
+    <row r="58" ht="39" customHeight="1" spans="1:44">
       <c r="A58" s="14" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="G58" s="15">
-        <v>7</v>
+        <v>446</v>
+      </c>
+      <c r="G58" s="12">
+        <v>1</v>
       </c>
       <c r="H58" s="15">
         <v>4</v>
@@ -9302,14 +9163,14 @@
         <v>0</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="R58" s="15">
         <v>0</v>
       </c>
       <c r="S58" s="15"/>
       <c r="T58" s="15" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="U58" s="15"/>
       <c r="V58" s="15"/>
@@ -9322,48 +9183,45 @@
       <c r="AC58" s="20">
         <v>0</v>
       </c>
-      <c r="AD58" s="20">
-        <v>0</v>
+      <c r="AD58" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE58" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="AF58" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF58" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="AG58" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG58" s="20"/>
       <c r="AH58" s="20"/>
-      <c r="AI58" s="20"/>
+      <c r="AI58" s="15"/>
       <c r="AJ58" s="15"/>
       <c r="AK58" s="15"/>
-      <c r="AL58" s="15"/>
+      <c r="AL58" s="23"/>
       <c r="AM58" s="23"/>
       <c r="AN58" s="23"/>
       <c r="AO58" s="23"/>
-      <c r="AP58" s="23"/>
-      <c r="AQ58" s="32"/>
-      <c r="AR58" s="30"/>
-      <c r="AS58" s="31"/>
+      <c r="AP58" s="32"/>
+      <c r="AQ58" s="30"/>
+      <c r="AR58" s="31"/>
     </row>
-    <row r="59" ht="88.5" customHeight="1" spans="1:45">
+    <row r="59" ht="88.5" customHeight="1" spans="1:44">
       <c r="A59" s="11" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>468</v>
+        <v>453</v>
+      </c>
+      <c r="G59" s="12">
+        <v>1</v>
       </c>
       <c r="H59" s="12">
         <v>4</v>
@@ -9393,14 +9251,14 @@
         <v>3</v>
       </c>
       <c r="Q59" s="13" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="R59" s="12" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="S59" s="12"/>
       <c r="T59" s="12" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="U59" s="12"/>
       <c r="V59" s="12"/>
@@ -9413,46 +9271,43 @@
       <c r="AC59" s="19">
         <v>0</v>
       </c>
-      <c r="AD59" s="19">
-        <v>0</v>
+      <c r="AD59" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE59" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF59" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF59" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="AG59" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
-      <c r="AI59" s="19"/>
+      <c r="AI59" s="12"/>
       <c r="AJ59" s="12"/>
       <c r="AK59" s="12"/>
-      <c r="AL59" s="12"/>
+      <c r="AL59" s="22"/>
       <c r="AM59" s="22"/>
       <c r="AN59" s="22"/>
       <c r="AO59" s="22"/>
-      <c r="AP59" s="22"/>
-      <c r="AQ59" s="29"/>
-      <c r="AR59" s="30"/>
-      <c r="AS59" s="31"/>
+      <c r="AP59" s="29"/>
+      <c r="AQ59" s="30"/>
+      <c r="AR59" s="31"/>
     </row>
-    <row r="60" ht="66" spans="1:45">
+    <row r="60" ht="66" spans="1:44">
       <c r="A60" s="14" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
-      <c r="G60" s="15">
-        <v>7</v>
+      <c r="G60" s="12">
+        <v>1</v>
       </c>
       <c r="H60" s="15">
         <v>4</v>
@@ -9482,14 +9337,14 @@
         <v>3</v>
       </c>
       <c r="Q60" s="16" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="R60" s="15" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="S60" s="15"/>
       <c r="T60" s="15" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="U60" s="15"/>
       <c r="V60" s="15"/>
@@ -9502,46 +9357,43 @@
       <c r="AC60" s="20">
         <v>0</v>
       </c>
-      <c r="AD60" s="20">
-        <v>0</v>
+      <c r="AD60" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE60" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="AF60" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF60" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="AG60" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG60" s="20"/>
       <c r="AH60" s="20"/>
-      <c r="AI60" s="20"/>
+      <c r="AI60" s="15"/>
       <c r="AJ60" s="15"/>
       <c r="AK60" s="15"/>
-      <c r="AL60" s="15"/>
+      <c r="AL60" s="23"/>
       <c r="AM60" s="23"/>
       <c r="AN60" s="23"/>
       <c r="AO60" s="23"/>
-      <c r="AP60" s="23"/>
-      <c r="AQ60" s="32"/>
-      <c r="AR60" s="30"/>
-      <c r="AS60" s="31"/>
+      <c r="AP60" s="32"/>
+      <c r="AQ60" s="30"/>
+      <c r="AR60" s="31"/>
     </row>
-    <row r="61" ht="55.5" customHeight="1" spans="1:45">
+    <row r="61" ht="55.5" customHeight="1" spans="1:44">
       <c r="A61" s="11" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H61" s="12">
         <v>4</v>
@@ -9571,7 +9423,7 @@
         <v>5</v>
       </c>
       <c r="Q61" s="13" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="R61" s="12">
         <v>0</v>
@@ -9589,46 +9441,43 @@
       <c r="AC61" s="19">
         <v>0</v>
       </c>
-      <c r="AD61" s="19">
-        <v>0</v>
+      <c r="AD61" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE61" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF61" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF61" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="AG61" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
-      <c r="AI61" s="19"/>
+      <c r="AI61" s="12"/>
       <c r="AJ61" s="12"/>
       <c r="AK61" s="12"/>
-      <c r="AL61" s="12"/>
+      <c r="AL61" s="22"/>
       <c r="AM61" s="22"/>
       <c r="AN61" s="22"/>
       <c r="AO61" s="22"/>
-      <c r="AP61" s="22"/>
-      <c r="AQ61" s="29"/>
-      <c r="AR61" s="30"/>
-      <c r="AS61" s="31"/>
+      <c r="AP61" s="29"/>
+      <c r="AQ61" s="30"/>
+      <c r="AR61" s="31"/>
     </row>
-    <row r="62" ht="72" customHeight="1" spans="1:45">
+    <row r="62" ht="72" customHeight="1" spans="1:44">
       <c r="A62" s="14" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
-      <c r="G62" s="15">
-        <v>2</v>
+      <c r="G62" s="12">
+        <v>1</v>
       </c>
       <c r="H62" s="15">
         <v>6</v>
@@ -9658,23 +9507,23 @@
         <v>6</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="R62" s="15">
         <v>0</v>
       </c>
       <c r="S62" s="15"/>
       <c r="T62" s="15" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="U62" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="V62" s="15" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="W62" s="15" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="X62" s="15"/>
       <c r="Y62" s="15"/>
@@ -9684,46 +9533,43 @@
       <c r="AC62" s="20">
         <v>0</v>
       </c>
-      <c r="AD62" s="20">
-        <v>0</v>
+      <c r="AD62" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE62" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="AF62" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF62" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="AG62" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG62" s="20"/>
       <c r="AH62" s="20"/>
-      <c r="AI62" s="20"/>
+      <c r="AI62" s="15"/>
       <c r="AJ62" s="15"/>
       <c r="AK62" s="15"/>
-      <c r="AL62" s="15"/>
+      <c r="AL62" s="23"/>
       <c r="AM62" s="23"/>
       <c r="AN62" s="23"/>
       <c r="AO62" s="23"/>
-      <c r="AP62" s="23"/>
-      <c r="AQ62" s="32"/>
-      <c r="AR62" s="30"/>
-      <c r="AS62" s="31"/>
+      <c r="AP62" s="32"/>
+      <c r="AQ62" s="30"/>
+      <c r="AR62" s="31"/>
     </row>
-    <row r="63" ht="72" customHeight="1" spans="1:45">
+    <row r="63" ht="72" customHeight="1" spans="1:44">
       <c r="A63" s="11" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" s="12">
         <v>5</v>
@@ -9753,23 +9599,23 @@
         <v>6</v>
       </c>
       <c r="Q63" s="13" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="R63" s="12">
         <v>0</v>
       </c>
       <c r="S63" s="12"/>
       <c r="T63" s="12" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="U63" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="V63" s="12" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="W63" s="12" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="X63" s="12"/>
       <c r="Y63" s="12"/>
@@ -9779,46 +9625,43 @@
       <c r="AC63" s="19">
         <v>0</v>
       </c>
-      <c r="AD63" s="19">
-        <v>0</v>
+      <c r="AD63" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE63" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="AF63" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF63" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="AG63" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
-      <c r="AI63" s="19"/>
+      <c r="AI63" s="12"/>
       <c r="AJ63" s="12"/>
       <c r="AK63" s="12"/>
-      <c r="AL63" s="12"/>
+      <c r="AL63" s="22"/>
       <c r="AM63" s="22"/>
       <c r="AN63" s="22"/>
       <c r="AO63" s="22"/>
-      <c r="AP63" s="22"/>
-      <c r="AQ63" s="29"/>
-      <c r="AR63" s="30"/>
-      <c r="AS63" s="31"/>
+      <c r="AP63" s="29"/>
+      <c r="AQ63" s="30"/>
+      <c r="AR63" s="31"/>
     </row>
-    <row r="64" ht="88.5" customHeight="1" spans="1:45">
+    <row r="64" ht="88.5" customHeight="1" spans="1:44">
       <c r="A64" s="14" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
-      <c r="G64" s="15">
-        <v>2</v>
+      <c r="G64" s="12">
+        <v>1</v>
       </c>
       <c r="H64" s="15">
         <v>5</v>
@@ -9848,23 +9691,23 @@
         <v>6</v>
       </c>
       <c r="Q64" s="16" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="R64" s="15">
         <v>0</v>
       </c>
       <c r="S64" s="15"/>
       <c r="T64" s="15" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="U64" s="15" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="V64" s="15" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="W64" s="15" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="X64" s="15"/>
       <c r="Y64" s="15"/>
@@ -9874,48 +9717,45 @@
       <c r="AC64" s="20">
         <v>0</v>
       </c>
-      <c r="AD64" s="20">
-        <v>0</v>
+      <c r="AD64" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE64" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="AF64" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF64" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="AG64" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG64" s="20"/>
       <c r="AH64" s="20"/>
-      <c r="AI64" s="20"/>
+      <c r="AI64" s="15"/>
       <c r="AJ64" s="15"/>
       <c r="AK64" s="15"/>
-      <c r="AL64" s="15"/>
+      <c r="AL64" s="23"/>
       <c r="AM64" s="23"/>
       <c r="AN64" s="23"/>
       <c r="AO64" s="23"/>
-      <c r="AP64" s="23"/>
-      <c r="AQ64" s="32"/>
-      <c r="AR64" s="30"/>
-      <c r="AS64" s="31"/>
+      <c r="AP64" s="32"/>
+      <c r="AQ64" s="30"/>
+      <c r="AR64" s="31"/>
     </row>
-    <row r="65" ht="66" spans="1:45">
+    <row r="65" ht="66" spans="1:44">
       <c r="A65" s="11" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G65" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" s="12">
         <v>6</v>
@@ -9945,20 +9785,20 @@
         <v>0</v>
       </c>
       <c r="Q65" s="13" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="R65" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S65" s="12"/>
       <c r="T65" s="12" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="U65" s="12" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="V65" s="12" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="W65" s="12"/>
       <c r="X65" s="12"/>
@@ -9969,47 +9809,46 @@
       <c r="AC65" s="19">
         <v>0</v>
       </c>
-      <c r="AD65" s="19">
-        <v>0</v>
+      <c r="AD65" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE65" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="AF65" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF65" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="AG65" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
-      <c r="AI65" s="19"/>
+      <c r="AI65" s="12"/>
       <c r="AJ65" s="12"/>
       <c r="AK65" s="12"/>
-      <c r="AL65" s="12"/>
+      <c r="AL65" s="22"/>
       <c r="AM65" s="22"/>
       <c r="AN65" s="22"/>
       <c r="AO65" s="22"/>
-      <c r="AP65" s="22"/>
-      <c r="AQ65" s="29"/>
-      <c r="AR65" s="30"/>
-      <c r="AS65" s="31"/>
+      <c r="AP65" s="29"/>
+      <c r="AQ65" s="30"/>
+      <c r="AR65" s="31"/>
     </row>
-    <row r="66" ht="66" spans="1:45">
+    <row r="66" ht="66" spans="1:44">
       <c r="A66" s="14" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G66" s="15"/>
+        <v>104</v>
+      </c>
+      <c r="G66" s="12">
+        <v>1</v>
+      </c>
       <c r="H66" s="15">
         <v>6</v>
       </c>
@@ -10038,20 +9877,20 @@
         <v>0</v>
       </c>
       <c r="Q66" s="16" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="R66" s="15">
         <v>0</v>
       </c>
       <c r="S66" s="15"/>
       <c r="T66" s="15" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="U66" s="15" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="V66" s="15" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="W66" s="15"/>
       <c r="X66" s="15"/>
@@ -10062,48 +9901,45 @@
       <c r="AC66" s="20">
         <v>0</v>
       </c>
-      <c r="AD66" s="20">
-        <v>0</v>
+      <c r="AD66" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE66" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="AF66" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF66" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="AG66" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG66" s="20"/>
       <c r="AH66" s="20"/>
-      <c r="AI66" s="20"/>
+      <c r="AI66" s="15"/>
       <c r="AJ66" s="15"/>
       <c r="AK66" s="15"/>
-      <c r="AL66" s="15"/>
+      <c r="AL66" s="23"/>
       <c r="AM66" s="23"/>
       <c r="AN66" s="23"/>
       <c r="AO66" s="23"/>
-      <c r="AP66" s="23"/>
-      <c r="AQ66" s="32"/>
-      <c r="AR66" s="30"/>
-      <c r="AS66" s="31"/>
+      <c r="AP66" s="32"/>
+      <c r="AQ66" s="30"/>
+      <c r="AR66" s="31"/>
     </row>
-    <row r="67" ht="105" customHeight="1" spans="1:45">
+    <row r="67" ht="105" customHeight="1" spans="1:44">
       <c r="A67" s="11" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G67" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="12">
         <v>6</v>
@@ -10133,20 +9969,20 @@
         <v>2</v>
       </c>
       <c r="Q67" s="13" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="R67" s="12">
         <v>0</v>
       </c>
       <c r="S67" s="12"/>
       <c r="T67" s="12" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="U67" s="12" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="V67" s="12" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="W67" s="12"/>
       <c r="X67" s="12"/>
@@ -10157,47 +9993,44 @@
       <c r="AC67" s="19">
         <v>0</v>
       </c>
-      <c r="AD67" s="19">
-        <v>0</v>
+      <c r="AD67" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE67" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="AF67" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF67" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="AG67" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG67" s="19"/>
       <c r="AH67" s="19"/>
-      <c r="AI67" s="19"/>
+      <c r="AI67" s="12"/>
       <c r="AJ67" s="12"/>
       <c r="AK67" s="12"/>
-      <c r="AL67" s="12"/>
+      <c r="AL67" s="22"/>
       <c r="AM67" s="22"/>
       <c r="AN67" s="22"/>
       <c r="AO67" s="22"/>
-      <c r="AP67" s="22"/>
-      <c r="AQ67" s="29"/>
-      <c r="AR67" s="30"/>
-      <c r="AS67" s="31"/>
+      <c r="AP67" s="29"/>
+      <c r="AQ67" s="30"/>
+      <c r="AR67" s="31"/>
     </row>
-    <row r="68" ht="88.5" customHeight="1" spans="1:45">
+    <row r="68" ht="88.5" customHeight="1" spans="1:44">
       <c r="A68" s="14" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="G68" s="15">
+        <v>514</v>
+      </c>
+      <c r="G68" s="12">
         <v>1</v>
       </c>
       <c r="H68" s="15">
@@ -10228,20 +10061,20 @@
         <v>0</v>
       </c>
       <c r="Q68" s="16" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="R68" s="15" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="S68" s="15"/>
       <c r="T68" s="15" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="U68" s="15" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="V68" s="15" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="W68" s="15"/>
       <c r="X68" s="15"/>
@@ -10252,48 +10085,45 @@
       <c r="AC68" s="20">
         <v>0</v>
       </c>
-      <c r="AD68" s="20">
-        <v>0</v>
+      <c r="AD68" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE68" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="AF68" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF68" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="AG68" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG68" s="20"/>
       <c r="AH68" s="20"/>
-      <c r="AI68" s="20"/>
+      <c r="AI68" s="15"/>
       <c r="AJ68" s="15"/>
       <c r="AK68" s="15"/>
-      <c r="AL68" s="15"/>
+      <c r="AL68" s="23"/>
       <c r="AM68" s="23"/>
       <c r="AN68" s="23"/>
       <c r="AO68" s="23"/>
-      <c r="AP68" s="23"/>
-      <c r="AQ68" s="32"/>
-      <c r="AR68" s="30"/>
-      <c r="AS68" s="31"/>
+      <c r="AP68" s="32"/>
+      <c r="AQ68" s="30"/>
+      <c r="AR68" s="31"/>
     </row>
-    <row r="69" ht="55.5" customHeight="1" spans="1:45">
+    <row r="69" ht="55.5" customHeight="1" spans="1:44">
       <c r="A69" s="11" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G69" s="12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H69" s="12">
         <v>4</v>
@@ -10323,14 +10153,14 @@
         <v>0</v>
       </c>
       <c r="Q69" s="13" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="R69" s="12">
         <v>0</v>
       </c>
       <c r="S69" s="12"/>
       <c r="T69" s="12" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="U69" s="12"/>
       <c r="V69" s="12"/>
@@ -10343,45 +10173,44 @@
       <c r="AC69" s="19">
         <v>0</v>
       </c>
-      <c r="AD69" s="19">
-        <v>0</v>
+      <c r="AD69" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE69" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF69" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF69" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="AG69" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG69" s="19"/>
       <c r="AH69" s="19"/>
-      <c r="AI69" s="19"/>
+      <c r="AI69" s="12"/>
       <c r="AJ69" s="12"/>
       <c r="AK69" s="12"/>
-      <c r="AL69" s="12"/>
+      <c r="AL69" s="22"/>
       <c r="AM69" s="22"/>
       <c r="AN69" s="22"/>
       <c r="AO69" s="22"/>
-      <c r="AP69" s="22"/>
-      <c r="AQ69" s="29"/>
-      <c r="AR69" s="30"/>
-      <c r="AS69" s="31"/>
+      <c r="AP69" s="29"/>
+      <c r="AQ69" s="30"/>
+      <c r="AR69" s="31"/>
     </row>
-    <row r="70" ht="105" customHeight="1" spans="1:45">
+    <row r="70" ht="105" customHeight="1" spans="1:44">
       <c r="A70" s="14" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
+      <c r="G70" s="12">
+        <v>1</v>
+      </c>
       <c r="H70" s="15">
         <v>4</v>
       </c>
@@ -10410,17 +10239,17 @@
         <v>4</v>
       </c>
       <c r="Q70" s="16" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="R70" s="15" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="S70" s="15"/>
       <c r="T70" s="15" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="U70" s="15" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="V70" s="15"/>
       <c r="W70" s="15"/>
@@ -10430,49 +10259,48 @@
       <c r="AA70" s="15"/>
       <c r="AB70" s="15"/>
       <c r="AC70" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="20">
         <v>750</v>
       </c>
+      <c r="AD70" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="AE70" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF70" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF70" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="AG70" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG70" s="20"/>
       <c r="AH70" s="20"/>
-      <c r="AI70" s="20"/>
+      <c r="AI70" s="15"/>
       <c r="AJ70" s="15"/>
       <c r="AK70" s="15"/>
-      <c r="AL70" s="15"/>
+      <c r="AL70" s="23"/>
       <c r="AM70" s="23"/>
       <c r="AN70" s="23"/>
       <c r="AO70" s="23"/>
-      <c r="AP70" s="23"/>
-      <c r="AQ70" s="32"/>
-      <c r="AR70" s="30"/>
-      <c r="AS70" s="31"/>
+      <c r="AP70" s="32"/>
+      <c r="AQ70" s="30"/>
+      <c r="AR70" s="31"/>
     </row>
-    <row r="71" ht="99" spans="1:45">
+    <row r="71" ht="99" spans="1:44">
       <c r="A71" s="11" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="G71" s="12"/>
+        <v>534</v>
+      </c>
+      <c r="G71" s="12">
+        <v>1</v>
+      </c>
       <c r="H71" s="12">
         <v>1</v>
       </c>
@@ -10501,10 +10329,10 @@
         <v>5</v>
       </c>
       <c r="Q71" s="13" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="R71" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S71" s="12"/>
       <c r="T71" s="12"/>
@@ -10519,47 +10347,46 @@
       <c r="AC71" s="19">
         <v>0</v>
       </c>
-      <c r="AD71" s="19">
-        <v>0</v>
+      <c r="AD71" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE71" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="AF71" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF71" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="AG71" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
-      <c r="AI71" s="19"/>
+      <c r="AI71" s="12"/>
       <c r="AJ71" s="12"/>
       <c r="AK71" s="12"/>
-      <c r="AL71" s="12"/>
+      <c r="AL71" s="22"/>
       <c r="AM71" s="22"/>
       <c r="AN71" s="22"/>
       <c r="AO71" s="22"/>
-      <c r="AP71" s="22"/>
-      <c r="AQ71" s="29"/>
-      <c r="AR71" s="30"/>
-      <c r="AS71" s="31"/>
+      <c r="AP71" s="29"/>
+      <c r="AQ71" s="30"/>
+      <c r="AR71" s="31"/>
     </row>
-    <row r="72" ht="49.5" spans="1:45">
+    <row r="72" ht="49.5" spans="1:44">
       <c r="A72" s="14" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="G72" s="15"/>
+        <v>453</v>
+      </c>
+      <c r="G72" s="12">
+        <v>1</v>
+      </c>
       <c r="H72" s="15">
         <v>1</v>
       </c>
@@ -10588,17 +10415,17 @@
         <v>3</v>
       </c>
       <c r="Q72" s="16" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="R72" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S72" s="15"/>
       <c r="T72" s="15" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="U72" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V72" s="15"/>
       <c r="W72" s="15"/>
@@ -10608,50 +10435,47 @@
       <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
       <c r="AC72" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="20">
         <v>1200</v>
       </c>
+      <c r="AD72" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="AE72" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="AF72" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF72" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="AG72" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
-      <c r="AI72" s="20"/>
+      <c r="AI72" s="15"/>
       <c r="AJ72" s="15"/>
       <c r="AK72" s="15"/>
-      <c r="AL72" s="15"/>
+      <c r="AL72" s="23"/>
       <c r="AM72" s="23"/>
       <c r="AN72" s="23"/>
       <c r="AO72" s="23"/>
-      <c r="AP72" s="23"/>
-      <c r="AQ72" s="32"/>
-      <c r="AR72" s="30"/>
-      <c r="AS72" s="31"/>
+      <c r="AP72" s="32"/>
+      <c r="AQ72" s="30"/>
+      <c r="AR72" s="31"/>
     </row>
-    <row r="73" ht="105" customHeight="1" spans="1:45">
+    <row r="73" ht="105" customHeight="1" spans="1:44">
       <c r="A73" s="11" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G73" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="12">
         <v>1</v>
@@ -10681,17 +10505,17 @@
         <v>4</v>
       </c>
       <c r="Q73" s="13" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="R73" s="12" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="S73" s="12"/>
       <c r="T73" s="12" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="U73" s="12" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="V73" s="12"/>
       <c r="W73" s="12"/>
@@ -10701,49 +10525,48 @@
       <c r="AA73" s="12"/>
       <c r="AB73" s="12"/>
       <c r="AC73" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="19">
         <v>500</v>
       </c>
+      <c r="AD73" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="AE73" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="AF73" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF73" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="AG73" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
-      <c r="AI73" s="19"/>
+      <c r="AI73" s="12"/>
       <c r="AJ73" s="12"/>
       <c r="AK73" s="12"/>
-      <c r="AL73" s="12"/>
+      <c r="AL73" s="22"/>
       <c r="AM73" s="22"/>
       <c r="AN73" s="22"/>
       <c r="AO73" s="22"/>
-      <c r="AP73" s="22"/>
-      <c r="AQ73" s="29"/>
-      <c r="AR73" s="30"/>
-      <c r="AS73" s="31"/>
+      <c r="AP73" s="29"/>
+      <c r="AQ73" s="30"/>
+      <c r="AR73" s="31"/>
     </row>
-    <row r="74" ht="55.5" customHeight="1" spans="1:45">
+    <row r="74" ht="55.5" customHeight="1" spans="1:44">
       <c r="A74" s="14" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="G74" s="15"/>
+        <v>446</v>
+      </c>
+      <c r="G74" s="12">
+        <v>1</v>
+      </c>
       <c r="H74" s="15">
         <v>1</v>
       </c>
@@ -10772,7 +10595,7 @@
         <v>10</v>
       </c>
       <c r="Q74" s="16" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="R74" s="15">
         <v>0</v>
@@ -10790,48 +10613,45 @@
       <c r="AC74" s="20">
         <v>0</v>
       </c>
-      <c r="AD74" s="20">
-        <v>0</v>
+      <c r="AD74" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE74" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF74" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF74" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="AG74" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG74" s="20"/>
       <c r="AH74" s="20"/>
-      <c r="AI74" s="20"/>
+      <c r="AI74" s="15"/>
       <c r="AJ74" s="15"/>
       <c r="AK74" s="15"/>
-      <c r="AL74" s="15"/>
+      <c r="AL74" s="23"/>
       <c r="AM74" s="23"/>
       <c r="AN74" s="23"/>
       <c r="AO74" s="23"/>
-      <c r="AP74" s="23"/>
-      <c r="AQ74" s="32"/>
-      <c r="AR74" s="30"/>
-      <c r="AS74" s="31"/>
+      <c r="AP74" s="32"/>
+      <c r="AQ74" s="30"/>
+      <c r="AR74" s="31"/>
     </row>
-    <row r="75" ht="88.5" customHeight="1" spans="1:45">
+    <row r="75" ht="88.5" customHeight="1" spans="1:44">
       <c r="A75" s="11" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G75" s="12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H75" s="12">
         <v>3</v>
@@ -10861,17 +10681,17 @@
         <v>8</v>
       </c>
       <c r="Q75" s="13" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="R75" s="12">
         <v>0</v>
       </c>
       <c r="S75" s="12"/>
       <c r="T75" s="12" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="U75" s="12" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="V75" s="12"/>
       <c r="W75" s="12"/>
@@ -10883,47 +10703,46 @@
       <c r="AC75" s="19">
         <v>0</v>
       </c>
-      <c r="AD75" s="19">
-        <v>0</v>
+      <c r="AD75" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE75" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="AF75" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF75" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="AG75" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
-      <c r="AI75" s="19"/>
+      <c r="AI75" s="12"/>
       <c r="AJ75" s="12"/>
       <c r="AK75" s="12"/>
-      <c r="AL75" s="12"/>
+      <c r="AL75" s="22"/>
       <c r="AM75" s="22"/>
       <c r="AN75" s="22"/>
       <c r="AO75" s="22"/>
-      <c r="AP75" s="22"/>
-      <c r="AQ75" s="29"/>
-      <c r="AR75" s="30"/>
-      <c r="AS75" s="31"/>
+      <c r="AP75" s="29"/>
+      <c r="AQ75" s="30"/>
+      <c r="AR75" s="31"/>
     </row>
-    <row r="76" ht="66" spans="1:45">
+    <row r="76" ht="66" spans="1:44">
       <c r="A76" s="14" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
       <c r="F76" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G76" s="15"/>
+        <v>242</v>
+      </c>
+      <c r="G76" s="12">
+        <v>1</v>
+      </c>
       <c r="H76" s="15">
         <v>3</v>
       </c>
@@ -10952,17 +10771,17 @@
         <v>4</v>
       </c>
       <c r="Q76" s="16" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="R76" s="15" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="S76" s="15"/>
       <c r="T76" s="15" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="U76" s="15" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="V76" s="15"/>
       <c r="W76" s="15"/>
@@ -10972,47 +10791,44 @@
       <c r="AA76" s="15"/>
       <c r="AB76" s="15"/>
       <c r="AC76" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD76" s="20">
         <v>700</v>
       </c>
+      <c r="AD76" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="AE76" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="AF76" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF76" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG76" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG76" s="20"/>
       <c r="AH76" s="20"/>
-      <c r="AI76" s="20"/>
+      <c r="AI76" s="15"/>
       <c r="AJ76" s="15"/>
       <c r="AK76" s="15"/>
-      <c r="AL76" s="15"/>
+      <c r="AL76" s="23"/>
       <c r="AM76" s="23"/>
       <c r="AN76" s="23"/>
       <c r="AO76" s="23"/>
-      <c r="AP76" s="23"/>
-      <c r="AQ76" s="32"/>
-      <c r="AR76" s="30"/>
-      <c r="AS76" s="31"/>
+      <c r="AP76" s="32"/>
+      <c r="AQ76" s="30"/>
+      <c r="AR76" s="31"/>
     </row>
-    <row r="77" ht="66" spans="1:45">
+    <row r="77" ht="66" spans="1:44">
       <c r="A77" s="11" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="G77" s="12">
         <v>1</v>
@@ -11045,17 +10861,17 @@
         <v>3</v>
       </c>
       <c r="Q77" s="13" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="R77" s="12" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="S77" s="12"/>
       <c r="T77" s="12" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="U77" s="12" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="V77" s="12"/>
       <c r="W77" s="12"/>
@@ -11065,49 +10881,48 @@
       <c r="AA77" s="12"/>
       <c r="AB77" s="12"/>
       <c r="AC77" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD77" s="19">
         <v>700</v>
       </c>
+      <c r="AD77" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="AE77" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="AF77" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF77" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="AG77" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG77" s="19"/>
       <c r="AH77" s="19"/>
-      <c r="AI77" s="19"/>
+      <c r="AI77" s="12"/>
       <c r="AJ77" s="12"/>
       <c r="AK77" s="12"/>
-      <c r="AL77" s="12"/>
+      <c r="AL77" s="22"/>
       <c r="AM77" s="22"/>
       <c r="AN77" s="22"/>
       <c r="AO77" s="22"/>
-      <c r="AP77" s="22"/>
-      <c r="AQ77" s="29"/>
-      <c r="AR77" s="30"/>
-      <c r="AS77" s="31"/>
+      <c r="AP77" s="29"/>
+      <c r="AQ77" s="30"/>
+      <c r="AR77" s="31"/>
     </row>
-    <row r="78" ht="88.5" customHeight="1" spans="1:45">
+    <row r="78" ht="88.5" customHeight="1" spans="1:44">
       <c r="A78" s="14" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="G78" s="15"/>
+        <v>196</v>
+      </c>
+      <c r="G78" s="12">
+        <v>1</v>
+      </c>
       <c r="H78" s="15">
         <v>3</v>
       </c>
@@ -11136,17 +10951,17 @@
         <v>4</v>
       </c>
       <c r="Q78" s="16" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="R78" s="15" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="S78" s="15"/>
       <c r="T78" s="15" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="U78" s="15" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="V78" s="15"/>
       <c r="W78" s="15"/>
@@ -11156,49 +10971,48 @@
       <c r="AA78" s="15"/>
       <c r="AB78" s="15"/>
       <c r="AC78" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD78" s="20">
         <v>750</v>
       </c>
+      <c r="AD78" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="AE78" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="AF78" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF78" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG78" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG78" s="20"/>
       <c r="AH78" s="20"/>
-      <c r="AI78" s="20"/>
+      <c r="AI78" s="15"/>
       <c r="AJ78" s="15"/>
       <c r="AK78" s="15"/>
-      <c r="AL78" s="15"/>
+      <c r="AL78" s="23"/>
       <c r="AM78" s="23"/>
       <c r="AN78" s="23"/>
       <c r="AO78" s="23"/>
-      <c r="AP78" s="23"/>
-      <c r="AQ78" s="32"/>
-      <c r="AR78" s="30"/>
-      <c r="AS78" s="31"/>
+      <c r="AP78" s="32"/>
+      <c r="AQ78" s="30"/>
+      <c r="AR78" s="31"/>
     </row>
-    <row r="79" ht="82.5" spans="1:45">
+    <row r="79" ht="82.5" spans="1:44">
       <c r="A79" s="11" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12" t="s">
-        <v>596</v>
-      </c>
-      <c r="G79" s="12"/>
+        <v>581</v>
+      </c>
+      <c r="G79" s="12">
+        <v>1</v>
+      </c>
       <c r="H79" s="12">
         <v>3</v>
       </c>
@@ -11227,23 +11041,23 @@
         <v>1</v>
       </c>
       <c r="Q79" s="13" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="R79" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S79" s="12"/>
       <c r="T79" s="12" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="U79" s="12" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="V79" s="12" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="W79" s="12" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="X79" s="12"/>
       <c r="Y79" s="12"/>
@@ -11253,47 +11067,46 @@
       <c r="AC79" s="19">
         <v>0</v>
       </c>
-      <c r="AD79" s="19">
-        <v>0</v>
+      <c r="AD79" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE79" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="AF79" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF79" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="AG79" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG79" s="19"/>
       <c r="AH79" s="19"/>
-      <c r="AI79" s="19"/>
+      <c r="AI79" s="12"/>
       <c r="AJ79" s="12"/>
       <c r="AK79" s="12"/>
-      <c r="AL79" s="12"/>
+      <c r="AL79" s="22"/>
       <c r="AM79" s="22"/>
       <c r="AN79" s="22"/>
       <c r="AO79" s="22"/>
-      <c r="AP79" s="22"/>
-      <c r="AQ79" s="29"/>
-      <c r="AR79" s="30"/>
-      <c r="AS79" s="31"/>
+      <c r="AP79" s="29"/>
+      <c r="AQ79" s="30"/>
+      <c r="AR79" s="31"/>
     </row>
-    <row r="80" ht="105" customHeight="1" spans="1:45">
+    <row r="80" ht="105" customHeight="1" spans="1:44">
       <c r="A80" s="14" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="G80" s="15"/>
+        <v>196</v>
+      </c>
+      <c r="G80" s="12">
+        <v>1</v>
+      </c>
       <c r="H80" s="15">
         <v>3</v>
       </c>
@@ -11322,17 +11135,17 @@
         <v>4</v>
       </c>
       <c r="Q80" s="16" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="R80" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S80" s="15"/>
       <c r="T80" s="15" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="U80" s="15" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="V80" s="15"/>
       <c r="W80" s="15"/>
@@ -11342,50 +11155,47 @@
       <c r="AA80" s="15"/>
       <c r="AB80" s="15"/>
       <c r="AC80" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD80" s="20">
         <v>1100</v>
       </c>
+      <c r="AD80" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="AE80" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="AF80" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF80" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="AG80" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG80" s="20"/>
       <c r="AH80" s="20"/>
-      <c r="AI80" s="20"/>
+      <c r="AI80" s="15"/>
       <c r="AJ80" s="15"/>
       <c r="AK80" s="15"/>
-      <c r="AL80" s="15"/>
+      <c r="AL80" s="23"/>
       <c r="AM80" s="23"/>
       <c r="AN80" s="23"/>
       <c r="AO80" s="23"/>
-      <c r="AP80" s="23"/>
-      <c r="AQ80" s="32"/>
-      <c r="AR80" s="30"/>
-      <c r="AS80" s="31"/>
+      <c r="AP80" s="32"/>
+      <c r="AQ80" s="30"/>
+      <c r="AR80" s="31"/>
     </row>
-    <row r="81" ht="82.5" spans="1:45">
+    <row r="81" ht="82.5" spans="1:44">
       <c r="A81" s="11" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="G81" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81" s="12">
         <v>3</v>
@@ -11415,20 +11225,20 @@
         <v>8</v>
       </c>
       <c r="Q81" s="13" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="R81" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S81" s="12"/>
       <c r="T81" s="12" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="U81" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V81" s="12" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="W81" s="12"/>
       <c r="X81" s="12"/>
@@ -11439,48 +11249,45 @@
       <c r="AC81" s="19">
         <v>0</v>
       </c>
-      <c r="AD81" s="19">
-        <v>0</v>
+      <c r="AD81" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE81" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="AF81" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF81" s="12" t="s">
-        <v>616</v>
-      </c>
-      <c r="AG81" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG81" s="19"/>
       <c r="AH81" s="19"/>
-      <c r="AI81" s="19"/>
+      <c r="AI81" s="12"/>
       <c r="AJ81" s="12"/>
       <c r="AK81" s="12"/>
-      <c r="AL81" s="12"/>
+      <c r="AL81" s="22"/>
       <c r="AM81" s="22"/>
       <c r="AN81" s="22"/>
       <c r="AO81" s="22"/>
-      <c r="AP81" s="22"/>
-      <c r="AQ81" s="29"/>
-      <c r="AR81" s="30"/>
-      <c r="AS81" s="31"/>
+      <c r="AP81" s="29"/>
+      <c r="AQ81" s="30"/>
+      <c r="AR81" s="31"/>
     </row>
-    <row r="82" ht="82.5" spans="1:45">
+    <row r="82" ht="82.5" spans="1:44">
       <c r="A82" s="14" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G82" s="15">
-        <v>3</v>
+        <v>120</v>
+      </c>
+      <c r="G82" s="12">
+        <v>1</v>
       </c>
       <c r="H82" s="15">
         <v>1</v>
@@ -11510,20 +11317,20 @@
         <v>5</v>
       </c>
       <c r="Q82" s="16" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="R82" s="15" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="S82" s="15"/>
       <c r="T82" s="15" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="U82" s="15" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="V82" s="15" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="W82" s="15"/>
       <c r="X82" s="15"/>
@@ -11534,48 +11341,45 @@
       <c r="AC82" s="20">
         <v>0</v>
       </c>
-      <c r="AD82" s="20">
-        <v>0</v>
+      <c r="AD82" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE82" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="AF82" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF82" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="AG82" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG82" s="20"/>
       <c r="AH82" s="20"/>
-      <c r="AI82" s="20"/>
+      <c r="AI82" s="15"/>
       <c r="AJ82" s="15"/>
       <c r="AK82" s="15"/>
-      <c r="AL82" s="15"/>
+      <c r="AL82" s="23"/>
       <c r="AM82" s="23"/>
       <c r="AN82" s="23"/>
       <c r="AO82" s="23"/>
-      <c r="AP82" s="23"/>
-      <c r="AQ82" s="32"/>
-      <c r="AR82" s="30"/>
-      <c r="AS82" s="31"/>
+      <c r="AP82" s="32"/>
+      <c r="AQ82" s="30"/>
+      <c r="AR82" s="31"/>
     </row>
-    <row r="83" ht="82.5" spans="1:45">
+    <row r="83" ht="82.5" spans="1:44">
       <c r="A83" s="11" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="G83" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H83" s="12">
         <v>1</v>
@@ -11605,20 +11409,20 @@
         <v>8</v>
       </c>
       <c r="Q83" s="13" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="R83" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S83" s="12"/>
       <c r="T83" s="12" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="U83" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V83" s="12" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="W83" s="12"/>
       <c r="X83" s="12"/>
@@ -11629,48 +11433,45 @@
       <c r="AC83" s="19">
         <v>0</v>
       </c>
-      <c r="AD83" s="19">
-        <v>0</v>
+      <c r="AD83" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AE83" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="AF83" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF83" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="AG83" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG83" s="19"/>
       <c r="AH83" s="19"/>
-      <c r="AI83" s="19"/>
+      <c r="AI83" s="12"/>
       <c r="AJ83" s="12"/>
       <c r="AK83" s="12"/>
-      <c r="AL83" s="12"/>
+      <c r="AL83" s="22"/>
       <c r="AM83" s="22"/>
       <c r="AN83" s="22"/>
       <c r="AO83" s="22"/>
-      <c r="AP83" s="22"/>
-      <c r="AQ83" s="29"/>
-      <c r="AR83" s="30"/>
-      <c r="AS83" s="31"/>
+      <c r="AP83" s="29"/>
+      <c r="AQ83" s="30"/>
+      <c r="AR83" s="31"/>
     </row>
-    <row r="84" ht="105" customHeight="1" spans="1:45">
+    <row r="84" ht="105" customHeight="1" spans="1:44">
       <c r="A84" s="14" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
       <c r="F84" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="G84" s="15">
-        <v>3</v>
+        <v>598</v>
+      </c>
+      <c r="G84" s="12">
+        <v>1</v>
       </c>
       <c r="H84" s="15">
         <v>2</v>
@@ -11700,26 +11501,26 @@
         <v>8</v>
       </c>
       <c r="Q84" s="16" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="R84" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S84" s="15"/>
       <c r="T84" s="15" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="U84" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V84" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="W84" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="X84" s="15" t="s">
         <v>615</v>
-      </c>
-      <c r="W84" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="X84" s="15" t="s">
-        <v>630</v>
       </c>
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
@@ -11728,37 +11529,34 @@
       <c r="AC84" s="20">
         <v>0</v>
       </c>
-      <c r="AD84" s="20">
-        <v>0</v>
+      <c r="AD84" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="AE84" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF84" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF84" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="AG84" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG84" s="20"/>
       <c r="AH84" s="20"/>
-      <c r="AI84" s="20"/>
+      <c r="AI84" s="15"/>
       <c r="AJ84" s="15"/>
       <c r="AK84" s="15"/>
-      <c r="AL84" s="15"/>
+      <c r="AL84" s="23"/>
       <c r="AM84" s="23"/>
       <c r="AN84" s="23"/>
       <c r="AO84" s="23"/>
-      <c r="AP84" s="23"/>
-      <c r="AQ84" s="32"/>
-      <c r="AR84" s="30"/>
-      <c r="AS84" s="31"/>
+      <c r="AP84" s="32"/>
+      <c r="AQ84" s="30"/>
+      <c r="AR84" s="31"/>
     </row>
-    <row r="85" ht="39" customHeight="1" spans="1:45">
+    <row r="85" ht="39" customHeight="1" spans="1:44">
       <c r="A85" s="33" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="C85" s="35"/>
       <c r="D85" s="34"/>
@@ -11793,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="35" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="R85" s="34">
         <v>0</v>
@@ -11811,34 +11609,30 @@
       <c r="AC85" s="36">
         <v>0</v>
       </c>
-      <c r="AD85" s="36">
-        <v>0</v>
+      <c r="AD85" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="AE85" s="34" t="s">
+        <v>619</v>
+      </c>
+      <c r="AF85" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF85" s="34" t="s">
-        <v>634</v>
-      </c>
-      <c r="AG85" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="AG85" s="36"/>
       <c r="AH85" s="36"/>
-      <c r="AI85" s="36"/>
+      <c r="AI85" s="34"/>
       <c r="AJ85" s="34"/>
       <c r="AK85" s="34"/>
-      <c r="AL85" s="34"/>
+      <c r="AL85" s="37"/>
       <c r="AM85" s="37"/>
       <c r="AN85" s="37"/>
       <c r="AO85" s="37"/>
-      <c r="AP85" s="37"/>
-      <c r="AQ85" s="38"/>
-      <c r="AR85" s="30"/>
-      <c r="AS85" s="31"/>
+      <c r="AP85" s="38"/>
+      <c r="AQ85" s="30"/>
+      <c r="AR85" s="31"/>
     </row>
-    <row r="86" ht="14.25"/>
   </sheetData>
-  <autoFilter ref="A1:AS85">
+  <autoFilter ref="A1:AR85">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A$1:A$1048576">
@@ -11934,68 +11728,100 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="75.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" ht="14.25" spans="2:2">
+    <row r="4" ht="14.25" spans="2:3">
       <c r="B4" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="2:3">
+      <c r="B7" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="2:3">
+      <c r="B8" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C9" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C11" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="2:2">
-      <c r="B5" s="2" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="6" ht="25.5" spans="2:2">
-      <c r="B6" s="2" t="s">
+      <c r="C12" t="s">
         <v>639</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="2:2">
-      <c r="B7" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="2:2">
-      <c r="B8" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" spans="2:2">
-      <c r="B11" s="2" t="s">
-        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/excels/abilities/arms.xlsx
+++ b/excels/abilities/arms.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="814">
   <si>
     <t>名字</t>
   </si>
@@ -329,7 +329,7 @@
   <si>
     <t>对扇形范围内的敌人造成伤害并减缓其移动速度
 扇形距离%skv_aoe_radius%
-伤害系数：攻击力80*火元素伤害</t>
+伤害系数：%DamageFormula%</t>
   </si>
   <si>
     <t>特效：电炎绝手1技能</t>
@@ -397,17 +397,18 @@
     <t>刀阵旋风</t>
   </si>
   <si>
-    <t>对附近范围内的敌人放出尖利的刀刃，击中时造成目标伤害并削减最大生命值一定的百分比
-伤害系数：攻击力100%风元素伤害
-CD：4
-削减最大生命值：2%
-作用范围：550</t>
+    <t>对附近%skv_aoe_radius%范围内的敌人放出尖利的刀刃，击中时造成目标伤害并削减最大生命值一定的百分比
+伤害系数：%DamageFormula%
+削减最大生命值：2%</t>
   </si>
   <si>
     <t>特效：刺客魔晶技能</t>
   </si>
   <si>
     <t>风</t>
+  </si>
+  <si>
+    <t>skv_aoe_radius 550</t>
   </si>
   <si>
     <t>abilities/arms/v1/arms_3</t>
@@ -450,10 +451,10 @@
 每发导弹伤害：攻击力3%*火元素伤害</t>
   </si>
   <si>
-    <t>炼金导弹</t>
-  </si>
-  <si>
-    <t>2*AttackDamage</t>
+    <t>War3炼金导弹</t>
+  </si>
+  <si>
+    <t>0.03*AttackDamage</t>
   </si>
   <si>
     <t>abilities/arms/v1/arms_5</t>
@@ -956,6 +957,9 @@
   </si>
   <si>
     <t>提高自身100码的攻击距离</t>
+  </si>
+  <si>
+    <t>2*AttackDamage</t>
   </si>
   <si>
     <t>abilities/arms/v1/arms_30</t>
@@ -4835,21 +4839,21 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DA9C089F-4899-4B66-BEF4-C1C26F27DD28}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{7C770419-06D1-4DC1-95FE-66AA6B54D2DD}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6B8D8C7D-2B74-48C5-B0F3-B25ABCA3F0E3}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7826A160-9A27-4751-B473-9C35AC6E6DA6}">
       <tableStyleElement type="wholeTable" dxfId="20"/>
       <tableStyleElement type="headerRow" dxfId="19"/>
       <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{7444AF3C-F1F3-4509-9AEE-DD62CBCBEDB2}">
+    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{08F203E2-2EF8-4AB8-B31F-791B1DCD6AF6}">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="firstColumn" dxfId="21"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{0CABCCEF-7C47-4EAB-8237-0B45FBF758C1}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{210C5438-0E78-483D-B9C9-D3C1C5546BEE}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -5166,10 +5170,10 @@
   <sheetPr/>
   <dimension ref="A1:AU169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="7" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AI1" sqref="AI1"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6268,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T11" s="28" t="s">
         <v>112</v>
@@ -6365,16 +6369,18 @@
         <v>1</v>
       </c>
       <c r="S12" s="44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T12" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="U12" s="31">
-        <v>0</v>
+      <c r="U12" s="31" t="s">
+        <v>113</v>
       </c>
       <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
+      <c r="W12" s="31" t="s">
+        <v>121</v>
+      </c>
       <c r="X12" s="31"/>
       <c r="Y12" s="31"/>
       <c r="Z12" s="31"/>
@@ -6390,7 +6396,7 @@
         <v>75</v>
       </c>
       <c r="AH12" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AI12" s="31" t="s">
         <v>77</v>
@@ -6410,19 +6416,19 @@
     </row>
     <row r="13" ht="101" customHeight="1" spans="1:47">
       <c r="A13" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
@@ -6466,7 +6472,7 @@
         <v>112</v>
       </c>
       <c r="U13" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V13" s="28"/>
       <c r="W13" s="28"/>
@@ -6485,7 +6491,7 @@
         <v>75</v>
       </c>
       <c r="AH13" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AI13" s="28" t="s">
         <v>77</v>
@@ -6505,19 +6511,19 @@
     </row>
     <row r="14" ht="101" customHeight="1" spans="1:47">
       <c r="A14" s="30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -6561,7 +6567,7 @@
         <v>112</v>
       </c>
       <c r="U14" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="V14" s="31"/>
       <c r="W14" s="31"/>
@@ -6580,7 +6586,7 @@
         <v>75</v>
       </c>
       <c r="AH14" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AI14" s="31" t="s">
         <v>77</v>
@@ -6600,19 +6606,19 @@
     </row>
     <row r="15" ht="134" customHeight="1" spans="1:47">
       <c r="A15" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
@@ -6622,7 +6628,7 @@
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K15" s="28">
         <f>VLOOKUP(J15,__Sheet3!A:B,2,FALSE)</f>
@@ -6656,7 +6662,7 @@
         <v>112</v>
       </c>
       <c r="U15" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V15" s="28"/>
       <c r="W15" s="28"/>
@@ -6675,7 +6681,7 @@
         <v>75</v>
       </c>
       <c r="AH15" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI15" s="28" t="s">
         <v>77</v>
@@ -6695,19 +6701,19 @@
     </row>
     <row r="16" ht="101" customHeight="1" spans="1:47">
       <c r="A16" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
@@ -6770,7 +6776,7 @@
         <v>75</v>
       </c>
       <c r="AH16" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AI16" s="31" t="s">
         <v>77</v>
@@ -6790,17 +6796,17 @@
     </row>
     <row r="17" ht="51.5" customHeight="1" spans="1:47">
       <c r="A17" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
@@ -6810,7 +6816,7 @@
       </c>
       <c r="I17" s="28"/>
       <c r="J17" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K17" s="28">
         <f>VLOOKUP(J17,__Sheet3!A:B,2,FALSE)</f>
@@ -6844,7 +6850,7 @@
         <v>112</v>
       </c>
       <c r="U17" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V17" s="28"/>
       <c r="W17" s="28"/>
@@ -6863,7 +6869,7 @@
         <v>75</v>
       </c>
       <c r="AH17" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AI17" s="28" t="s">
         <v>77</v>
@@ -6883,17 +6889,17 @@
     </row>
     <row r="18" ht="84.5" customHeight="1" spans="1:47">
       <c r="A18" s="30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
@@ -6905,7 +6911,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K18" s="31">
         <f>VLOOKUP(J18,__Sheet3!A:B,2,FALSE)</f>
@@ -6936,10 +6942,10 @@
         <v>1</v>
       </c>
       <c r="T18" s="31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U18" s="31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="V18" s="31"/>
       <c r="W18" s="31"/>
@@ -6958,7 +6964,7 @@
         <v>75</v>
       </c>
       <c r="AH18" s="31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AI18" s="31" t="s">
         <v>77</v>
@@ -6969,7 +6975,7 @@
       <c r="AM18" s="31"/>
       <c r="AN18" s="31"/>
       <c r="AO18" s="55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AP18" s="55"/>
       <c r="AQ18" s="55"/>
@@ -6980,19 +6986,19 @@
     </row>
     <row r="19" ht="183.5" customHeight="1" spans="1:47">
       <c r="A19" s="27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
@@ -7001,10 +7007,10 @@
         <v>Summon</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K19" s="28">
         <f>VLOOKUP(J19,__Sheet3!A:B,2,FALSE)</f>
@@ -7057,7 +7063,7 @@
         <v>75</v>
       </c>
       <c r="AH19" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AI19" s="28" t="s">
         <v>77</v>
@@ -7077,17 +7083,17 @@
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="1:47">
       <c r="A20" s="30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
@@ -7130,7 +7136,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U20" s="31">
         <v>0</v>
@@ -7152,7 +7158,7 @@
         <v>75</v>
       </c>
       <c r="AH20" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AI20" s="31" t="s">
         <v>77</v>
@@ -7172,17 +7178,17 @@
     </row>
     <row r="21" ht="117.5" customHeight="1" spans="1:47">
       <c r="A21" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
@@ -7194,7 +7200,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K21" s="28">
         <f>VLOOKUP(J21,__Sheet3!A:B,2,FALSE)</f>
@@ -7247,7 +7253,7 @@
         <v>75</v>
       </c>
       <c r="AH21" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AI21" s="28" t="s">
         <v>77</v>
@@ -7267,22 +7273,22 @@
     </row>
     <row r="22" ht="101" customHeight="1" spans="1:47">
       <c r="A22" s="30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G22" s="31"/>
       <c r="H22" s="31" t="str">
@@ -7325,7 +7331,7 @@
         <v>112</v>
       </c>
       <c r="U22" s="31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V22" s="31"/>
       <c r="W22" s="31"/>
@@ -7344,7 +7350,7 @@
         <v>75</v>
       </c>
       <c r="AH22" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AI22" s="31" t="s">
         <v>77</v>
@@ -7364,19 +7370,19 @@
     </row>
     <row r="23" ht="117.5" customHeight="1" spans="1:47">
       <c r="A23" s="27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
@@ -7386,7 +7392,7 @@
       </c>
       <c r="I23" s="28"/>
       <c r="J23" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K23" s="28">
         <f>VLOOKUP(J23,__Sheet3!A:B,2,FALSE)</f>
@@ -7439,7 +7445,7 @@
         <v>75</v>
       </c>
       <c r="AH23" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AI23" s="28" t="s">
         <v>77</v>
@@ -7459,16 +7465,16 @@
     </row>
     <row r="24" ht="117.5" customHeight="1" spans="1:47">
       <c r="A24" s="30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>98</v>
@@ -7515,7 +7521,7 @@
         <v>112</v>
       </c>
       <c r="U24" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V24" s="31"/>
       <c r="W24" s="31"/>
@@ -7534,7 +7540,7 @@
         <v>75</v>
       </c>
       <c r="AH24" s="31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AI24" s="31" t="s">
         <v>77</v>
@@ -7554,17 +7560,17 @@
     </row>
     <row r="25" ht="68" customHeight="1" spans="1:47">
       <c r="A25" s="27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
@@ -7627,7 +7633,7 @@
         <v>75</v>
       </c>
       <c r="AH25" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AI25" s="28" t="s">
         <v>77</v>
@@ -7647,19 +7653,19 @@
     </row>
     <row r="26" ht="101" customHeight="1" spans="1:47">
       <c r="A26" s="30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
@@ -7669,7 +7675,7 @@
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K26" s="31">
         <f>VLOOKUP(J26,__Sheet3!A:B,2,FALSE)</f>
@@ -7722,7 +7728,7 @@
         <v>75</v>
       </c>
       <c r="AH26" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AI26" s="31" t="s">
         <v>77</v>
@@ -7742,22 +7748,22 @@
     </row>
     <row r="27" ht="84.5" customHeight="1" spans="1:47">
       <c r="A27" s="27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28" t="str">
@@ -7768,7 +7774,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K27" s="28">
         <f>VLOOKUP(J27,__Sheet3!A:B,2,FALSE)</f>
@@ -7802,7 +7808,7 @@
         <v>112</v>
       </c>
       <c r="U27" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V27" s="28"/>
       <c r="W27" s="28"/>
@@ -7821,7 +7827,7 @@
         <v>75</v>
       </c>
       <c r="AH27" s="28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AI27" s="28" t="s">
         <v>77</v>
@@ -7841,22 +7847,22 @@
     </row>
     <row r="28" ht="150.5" customHeight="1" spans="1:47">
       <c r="A28" s="30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G28" s="31"/>
       <c r="H28" s="31" t="str">
@@ -7918,7 +7924,7 @@
         <v>75</v>
       </c>
       <c r="AH28" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI28" s="31" t="s">
         <v>77</v>
@@ -7938,19 +7944,19 @@
     </row>
     <row r="29" ht="134" customHeight="1" spans="1:47">
       <c r="A29" s="27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
@@ -8013,7 +8019,7 @@
         <v>75</v>
       </c>
       <c r="AH29" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AI29" s="28" t="s">
         <v>77</v>
@@ -8033,22 +8039,22 @@
     </row>
     <row r="30" ht="134" customHeight="1" spans="1:47">
       <c r="A30" s="30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G30" s="31"/>
       <c r="H30" s="31" t="str">
@@ -8091,7 +8097,7 @@
         <v>112</v>
       </c>
       <c r="U30" s="31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="V30" s="31"/>
       <c r="W30" s="31"/>
@@ -8110,7 +8116,7 @@
         <v>75</v>
       </c>
       <c r="AH30" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AI30" s="31" t="s">
         <v>77</v>
@@ -8130,17 +8136,17 @@
     </row>
     <row r="31" ht="18.5" customHeight="1" spans="1:47">
       <c r="A31" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
@@ -8150,7 +8156,7 @@
       </c>
       <c r="I31" s="28"/>
       <c r="J31" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K31" s="28">
         <f>VLOOKUP(J31,__Sheet3!A:B,2,FALSE)</f>
@@ -8203,7 +8209,7 @@
         <v>75</v>
       </c>
       <c r="AH31" s="28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AI31" s="28" t="s">
         <v>77</v>
@@ -8223,17 +8229,17 @@
     </row>
     <row r="32" ht="18.5" customHeight="1" spans="1:47">
       <c r="A32" s="30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
@@ -8243,7 +8249,7 @@
       </c>
       <c r="I32" s="31"/>
       <c r="J32" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K32" s="31">
         <f>VLOOKUP(J32,__Sheet3!A:B,2,FALSE)</f>
@@ -8277,7 +8283,7 @@
         <v>112</v>
       </c>
       <c r="U32" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V32" s="31"/>
       <c r="W32" s="31"/>
@@ -8296,7 +8302,7 @@
         <v>75</v>
       </c>
       <c r="AH32" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AI32" s="31" t="s">
         <v>77</v>
@@ -8316,17 +8322,17 @@
     </row>
     <row r="33" ht="35" customHeight="1" spans="1:47">
       <c r="A33" s="27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
@@ -8370,7 +8376,7 @@
         <v>112</v>
       </c>
       <c r="U33" s="28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="V33" s="28"/>
       <c r="W33" s="28"/>
@@ -8389,7 +8395,7 @@
         <v>75</v>
       </c>
       <c r="AH33" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AI33" s="28" t="s">
         <v>77</v>
@@ -8409,17 +8415,17 @@
     </row>
     <row r="34" ht="101" customHeight="1" spans="1:47">
       <c r="A34" s="30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
@@ -8460,10 +8466,10 @@
         <v>15</v>
       </c>
       <c r="T34" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="U34" s="31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="V34" s="31"/>
       <c r="W34" s="31"/>
@@ -8482,7 +8488,7 @@
         <v>75</v>
       </c>
       <c r="AH34" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AI34" s="31" t="s">
         <v>77</v>
@@ -8502,17 +8508,17 @@
     </row>
     <row r="35" ht="18.5" customHeight="1" spans="1:47">
       <c r="A35" s="27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
@@ -8522,7 +8528,7 @@
       </c>
       <c r="I35" s="28"/>
       <c r="J35" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K35" s="28">
         <f>VLOOKUP(J35,__Sheet3!A:B,2,FALSE)</f>
@@ -8553,10 +8559,10 @@
         <v>15</v>
       </c>
       <c r="T35" s="28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="U35" s="28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="V35" s="28"/>
       <c r="W35" s="28"/>
@@ -8575,7 +8581,7 @@
         <v>75</v>
       </c>
       <c r="AH35" s="28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AI35" s="28" t="s">
         <v>77</v>
@@ -8595,17 +8601,17 @@
     </row>
     <row r="36" ht="51.5" customHeight="1" spans="1:47">
       <c r="A36" s="30" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D36" s="32"/>
       <c r="E36" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
@@ -8668,7 +8674,7 @@
         <v>75</v>
       </c>
       <c r="AH36" s="31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI36" s="31" t="s">
         <v>77</v>
@@ -8688,19 +8694,19 @@
     </row>
     <row r="37" ht="84.5" customHeight="1" spans="1:47">
       <c r="A37" s="27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
@@ -8744,7 +8750,7 @@
         <v>112</v>
       </c>
       <c r="U37" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="V37" s="28"/>
       <c r="W37" s="28"/>
@@ -8763,7 +8769,7 @@
         <v>75</v>
       </c>
       <c r="AH37" s="28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AI37" s="28" t="s">
         <v>77</v>
@@ -8783,19 +8789,19 @@
     </row>
     <row r="38" ht="84.5" customHeight="1" spans="1:47">
       <c r="A38" s="30" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
@@ -8805,7 +8811,7 @@
       </c>
       <c r="I38" s="31"/>
       <c r="J38" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K38" s="31">
         <f>VLOOKUP(J38,__Sheet3!A:B,2,FALSE)</f>
@@ -8839,7 +8845,7 @@
         <v>112</v>
       </c>
       <c r="U38" s="31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="V38" s="31"/>
       <c r="W38" s="31"/>
@@ -8858,7 +8864,7 @@
         <v>75</v>
       </c>
       <c r="AH38" s="31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AI38" s="31" t="s">
         <v>77</v>
@@ -8878,17 +8884,17 @@
     </row>
     <row r="39" ht="18.5" customHeight="1" spans="1:47">
       <c r="A39" s="27" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
@@ -8898,7 +8904,7 @@
       </c>
       <c r="I39" s="28"/>
       <c r="J39" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K39" s="28">
         <f>VLOOKUP(J39,__Sheet3!A:B,2,FALSE)</f>
@@ -8932,7 +8938,7 @@
         <v>112</v>
       </c>
       <c r="U39" s="28" t="s">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="V39" s="28"/>
       <c r="W39" s="28"/>
@@ -8951,7 +8957,7 @@
         <v>75</v>
       </c>
       <c r="AH39" s="28" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AI39" s="28" t="s">
         <v>77</v>
@@ -8971,17 +8977,17 @@
     </row>
     <row r="40" ht="35" customHeight="1" spans="1:47">
       <c r="A40" s="30" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F40" s="31"/>
       <c r="G40" s="31"/>
@@ -9044,7 +9050,7 @@
         <v>75</v>
       </c>
       <c r="AH40" s="31" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AI40" s="31" t="s">
         <v>77</v>
@@ -9064,17 +9070,17 @@
     </row>
     <row r="41" ht="35" customHeight="1" spans="1:47">
       <c r="A41" s="27" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
@@ -9137,7 +9143,7 @@
         <v>75</v>
       </c>
       <c r="AH41" s="28" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AI41" s="28" t="s">
         <v>77</v>
@@ -9157,17 +9163,17 @@
     </row>
     <row r="42" ht="51.5" customHeight="1" spans="1:47">
       <c r="A42" s="30" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
@@ -9230,7 +9236,7 @@
         <v>75</v>
       </c>
       <c r="AH42" s="31" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AI42" s="31" t="s">
         <v>77</v>
@@ -9250,17 +9256,17 @@
     </row>
     <row r="43" ht="18.5" customHeight="1" spans="1:47">
       <c r="A43" s="27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
@@ -9270,7 +9276,7 @@
       </c>
       <c r="I43" s="28"/>
       <c r="J43" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K43" s="28">
         <f>VLOOKUP(J43,__Sheet3!A:B,2,FALSE)</f>
@@ -9323,7 +9329,7 @@
         <v>75</v>
       </c>
       <c r="AH43" s="28" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AI43" s="28" t="s">
         <v>77</v>
@@ -9343,19 +9349,19 @@
     </row>
     <row r="44" ht="167" customHeight="1" spans="1:47">
       <c r="A44" s="30" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
@@ -9418,7 +9424,7 @@
         <v>75</v>
       </c>
       <c r="AH44" s="31" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AI44" s="31" t="s">
         <v>77</v>
@@ -9430,7 +9436,7 @@
       <c r="AN44" s="31"/>
       <c r="AO44" s="55"/>
       <c r="AP44" s="55" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AQ44" s="55"/>
       <c r="AR44" s="55"/>
@@ -9440,17 +9446,17 @@
     </row>
     <row r="45" ht="51.5" customHeight="1" spans="1:47">
       <c r="A45" s="27" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
@@ -9513,7 +9519,7 @@
         <v>75</v>
       </c>
       <c r="AH45" s="28" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AI45" s="28" t="s">
         <v>77</v>
@@ -9525,7 +9531,7 @@
       <c r="AN45" s="28"/>
       <c r="AO45" s="51"/>
       <c r="AP45" s="51" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AQ45" s="51"/>
       <c r="AR45" s="51"/>
@@ -9535,17 +9541,17 @@
     </row>
     <row r="46" ht="51.5" customHeight="1" spans="1:47">
       <c r="A46" s="30" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="31"/>
@@ -9608,7 +9614,7 @@
         <v>75</v>
       </c>
       <c r="AH46" s="31" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AI46" s="31" t="s">
         <v>77</v>
@@ -9620,7 +9626,7 @@
       <c r="AN46" s="31"/>
       <c r="AO46" s="55"/>
       <c r="AP46" s="55" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AQ46" s="55"/>
       <c r="AR46" s="55"/>
@@ -9630,17 +9636,17 @@
     </row>
     <row r="47" ht="101" customHeight="1" spans="1:47">
       <c r="A47" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
@@ -9650,7 +9656,7 @@
       </c>
       <c r="I47" s="28"/>
       <c r="J47" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K47" s="28">
         <f>VLOOKUP(J47,__Sheet3!A:B,2,FALSE)</f>
@@ -9703,7 +9709,7 @@
         <v>75</v>
       </c>
       <c r="AH47" s="28" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AI47" s="28" t="s">
         <v>77</v>
@@ -9723,17 +9729,17 @@
     </row>
     <row r="48" ht="66" spans="1:47">
       <c r="A48" s="30" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D48" s="32"/>
       <c r="E48" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
@@ -9796,7 +9802,7 @@
         <v>75</v>
       </c>
       <c r="AH48" s="31" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AI48" s="31" t="s">
         <v>77</v>
@@ -9816,22 +9822,22 @@
     </row>
     <row r="49" ht="84.5" customHeight="1" spans="1:47">
       <c r="A49" s="27" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E49" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28" t="str">
@@ -9874,7 +9880,7 @@
         <v>112</v>
       </c>
       <c r="U49" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="V49" s="28"/>
       <c r="W49" s="28"/>
@@ -9893,7 +9899,7 @@
         <v>75</v>
       </c>
       <c r="AH49" s="28" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AI49" s="28" t="s">
         <v>77</v>
@@ -9913,16 +9919,16 @@
     </row>
     <row r="50" ht="84.5" customHeight="1" spans="1:47">
       <c r="A50" s="30" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E50" s="31" t="s">
         <v>98</v>
@@ -9988,7 +9994,7 @@
         <v>75</v>
       </c>
       <c r="AH50" s="31" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AI50" s="31" t="s">
         <v>77</v>
@@ -10008,22 +10014,22 @@
     </row>
     <row r="51" ht="84.5" customHeight="1" spans="1:47">
       <c r="A51" s="27" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E51" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G51" s="28"/>
       <c r="H51" s="28" t="str">
@@ -10032,7 +10038,7 @@
       </c>
       <c r="I51" s="28"/>
       <c r="J51" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K51" s="28">
         <f>VLOOKUP(J51,__Sheet3!A:B,2,FALSE)</f>
@@ -10066,7 +10072,7 @@
         <v>112</v>
       </c>
       <c r="U51" s="28" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="V51" s="28"/>
       <c r="W51" s="28"/>
@@ -10085,7 +10091,7 @@
         <v>75</v>
       </c>
       <c r="AH51" s="28" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AI51" s="28" t="s">
         <v>77</v>
@@ -10105,13 +10111,13 @@
     </row>
     <row r="52" ht="101" customHeight="1" spans="1:47">
       <c r="A52" s="30" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D52" s="32"/>
       <c r="E52" s="31" t="s">
@@ -10178,7 +10184,7 @@
         <v>75</v>
       </c>
       <c r="AH52" s="31" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AI52" s="31" t="s">
         <v>77</v>
@@ -10198,13 +10204,13 @@
     </row>
     <row r="53" ht="101" customHeight="1" spans="1:47">
       <c r="A53" s="27" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="28" t="s">
@@ -10271,7 +10277,7 @@
         <v>75</v>
       </c>
       <c r="AH53" s="28" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AI53" s="28" t="s">
         <v>77</v>
@@ -10291,19 +10297,19 @@
     </row>
     <row r="54" ht="101" customHeight="1" spans="1:47">
       <c r="A54" s="30" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="31"/>
@@ -10347,7 +10353,7 @@
         <v>112</v>
       </c>
       <c r="U54" s="31" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="V54" s="31"/>
       <c r="W54" s="31"/>
@@ -10366,7 +10372,7 @@
         <v>75</v>
       </c>
       <c r="AH54" s="31" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AI54" s="31" t="s">
         <v>77</v>
@@ -10386,16 +10392,16 @@
     </row>
     <row r="55" ht="84.5" customHeight="1" spans="1:47">
       <c r="A55" s="27" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E55" s="28" t="s">
         <v>98</v>
@@ -10442,7 +10448,7 @@
         <v>112</v>
       </c>
       <c r="U55" s="28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="V55" s="28"/>
       <c r="W55" s="28"/>
@@ -10461,7 +10467,7 @@
         <v>75</v>
       </c>
       <c r="AH55" s="28" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AI55" s="28" t="s">
         <v>77</v>
@@ -10481,19 +10487,19 @@
     </row>
     <row r="56" ht="117.5" customHeight="1" spans="1:47">
       <c r="A56" s="30" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F56" s="31"/>
       <c r="G56" s="31"/>
@@ -10556,7 +10562,7 @@
         <v>75</v>
       </c>
       <c r="AH56" s="31" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AI56" s="31" t="s">
         <v>77</v>
@@ -10576,13 +10582,13 @@
     </row>
     <row r="57" ht="134" customHeight="1" spans="1:47">
       <c r="A57" s="27" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="28" t="s">
@@ -10649,7 +10655,7 @@
         <v>75</v>
       </c>
       <c r="AH57" s="28" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AI57" s="28" t="s">
         <v>77</v>
@@ -10669,22 +10675,22 @@
     </row>
     <row r="58" ht="84.5" customHeight="1" spans="1:47">
       <c r="A58" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E58" s="31" t="s">
         <v>98</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G58" s="31"/>
       <c r="H58" s="31" t="str">
@@ -10746,7 +10752,7 @@
         <v>75</v>
       </c>
       <c r="AH58" s="31" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AI58" s="31" t="s">
         <v>77</v>
@@ -10766,22 +10772,22 @@
     </row>
     <row r="59" ht="150.5" customHeight="1" spans="1:47">
       <c r="A59" s="27" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E59" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G59" s="28"/>
       <c r="H59" s="28" t="str">
@@ -10824,7 +10830,7 @@
         <v>112</v>
       </c>
       <c r="U59" s="28" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="V59" s="28"/>
       <c r="W59" s="28"/>
@@ -10843,7 +10849,7 @@
         <v>75</v>
       </c>
       <c r="AH59" s="28" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AI59" s="28" t="s">
         <v>77</v>
@@ -10863,16 +10869,16 @@
     </row>
     <row r="60" s="18" customFormat="1" ht="134" customHeight="1" spans="1:47">
       <c r="A60" s="35" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E60" s="36" t="s">
         <v>98</v>
@@ -10919,7 +10925,7 @@
         <v>112</v>
       </c>
       <c r="U60" s="36" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="V60" s="36"/>
       <c r="W60" s="36"/>
@@ -10938,7 +10944,7 @@
         <v>75</v>
       </c>
       <c r="AH60" s="36" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AI60" s="36" t="s">
         <v>77</v>
@@ -10958,22 +10964,22 @@
     </row>
     <row r="61" ht="101" customHeight="1" spans="1:47">
       <c r="A61" s="27" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E61" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G61" s="28"/>
       <c r="H61" s="28" t="str">
@@ -11035,7 +11041,7 @@
         <v>75</v>
       </c>
       <c r="AH61" s="28" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AI61" s="28" t="s">
         <v>77</v>
@@ -11055,19 +11061,19 @@
     </row>
     <row r="62" ht="68" customHeight="1" spans="1:47">
       <c r="A62" s="30" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F62" s="31"/>
       <c r="G62" s="31"/>
@@ -11130,7 +11136,7 @@
         <v>75</v>
       </c>
       <c r="AH62" s="31" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AI62" s="31" t="s">
         <v>77</v>
@@ -11150,19 +11156,19 @@
     </row>
     <row r="63" ht="134" customHeight="1" spans="1:47">
       <c r="A63" s="27" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="28"/>
@@ -11225,7 +11231,7 @@
         <v>75</v>
       </c>
       <c r="AH63" s="28" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AI63" s="28" t="s">
         <v>77</v>
@@ -11245,19 +11251,19 @@
     </row>
     <row r="64" ht="84.5" customHeight="1" spans="1:47">
       <c r="A64" s="30" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
@@ -11320,7 +11326,7 @@
         <v>75</v>
       </c>
       <c r="AH64" s="31" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AI64" s="31" t="s">
         <v>77</v>
@@ -11340,19 +11346,19 @@
     </row>
     <row r="65" ht="134" customHeight="1" spans="1:47">
       <c r="A65" s="27" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="28"/>
@@ -11362,7 +11368,7 @@
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K65" s="28">
         <f>VLOOKUP(J65,__Sheet3!A:B,2,FALSE)</f>
@@ -11396,7 +11402,7 @@
         <v>112</v>
       </c>
       <c r="U65" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V65" s="28"/>
       <c r="W65" s="28"/>
@@ -11415,7 +11421,7 @@
         <v>75</v>
       </c>
       <c r="AH65" s="28" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AI65" s="28" t="s">
         <v>77</v>
@@ -11435,22 +11441,22 @@
     </row>
     <row r="66" ht="101" customHeight="1" spans="1:47">
       <c r="A66" s="30" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E66" s="31" t="s">
         <v>98</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G66" s="31"/>
       <c r="H66" s="31" t="str">
@@ -11512,7 +11518,7 @@
         <v>75</v>
       </c>
       <c r="AH66" s="31" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AI66" s="31" t="s">
         <v>77</v>
@@ -11532,19 +11538,19 @@
     </row>
     <row r="67" ht="101" customHeight="1" spans="1:47">
       <c r="A67" s="27" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F67" s="28"/>
       <c r="G67" s="28"/>
@@ -11607,7 +11613,7 @@
         <v>75</v>
       </c>
       <c r="AH67" s="28" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AI67" s="28" t="s">
         <v>77</v>
@@ -11627,17 +11633,17 @@
     </row>
     <row r="68" ht="18.5" customHeight="1" spans="1:47">
       <c r="A68" s="30" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D68" s="32"/>
       <c r="E68" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="31"/>
@@ -11647,7 +11653,7 @@
       </c>
       <c r="I68" s="31"/>
       <c r="J68" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K68" s="31">
         <f>VLOOKUP(J68,__Sheet3!A:B,2,FALSE)</f>
@@ -11681,7 +11687,7 @@
         <v>112</v>
       </c>
       <c r="U68" s="31" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="V68" s="31"/>
       <c r="W68" s="31"/>
@@ -11700,7 +11706,7 @@
         <v>75</v>
       </c>
       <c r="AH68" s="31" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AI68" s="31" t="s">
         <v>77</v>
@@ -11720,17 +11726,17 @@
     </row>
     <row r="69" ht="18.5" customHeight="1" spans="1:47">
       <c r="A69" s="27" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F69" s="28"/>
       <c r="G69" s="28"/>
@@ -11740,7 +11746,7 @@
       </c>
       <c r="I69" s="28"/>
       <c r="J69" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K69" s="28">
         <f>VLOOKUP(J69,__Sheet3!A:B,2,FALSE)</f>
@@ -11793,7 +11799,7 @@
         <v>75</v>
       </c>
       <c r="AH69" s="28" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AI69" s="28" t="s">
         <v>77</v>
@@ -11813,17 +11819,17 @@
     </row>
     <row r="70" ht="18.5" customHeight="1" spans="1:47">
       <c r="A70" s="30" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D70" s="32"/>
       <c r="E70" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F70" s="31"/>
       <c r="G70" s="31"/>
@@ -11867,7 +11873,7 @@
         <v>112</v>
       </c>
       <c r="U70" s="31" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="V70" s="31"/>
       <c r="W70" s="31"/>
@@ -11886,7 +11892,7 @@
         <v>75</v>
       </c>
       <c r="AH70" s="31" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AI70" s="31" t="s">
         <v>77</v>
@@ -11906,17 +11912,17 @@
     </row>
     <row r="71" ht="18.5" customHeight="1" spans="1:47">
       <c r="A71" s="27" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D71" s="29"/>
       <c r="E71" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="28"/>
@@ -11960,7 +11966,7 @@
         <v>112</v>
       </c>
       <c r="U71" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V71" s="28"/>
       <c r="W71" s="28"/>
@@ -11979,7 +11985,7 @@
         <v>75</v>
       </c>
       <c r="AH71" s="28" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AI71" s="28" t="s">
         <v>77</v>
@@ -11999,17 +12005,17 @@
     </row>
     <row r="72" ht="18.5" customHeight="1" spans="1:47">
       <c r="A72" s="30" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D72" s="32"/>
       <c r="E72" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="31"/>
@@ -12053,7 +12059,7 @@
         <v>112</v>
       </c>
       <c r="U72" s="31" t="s">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="V72" s="31"/>
       <c r="W72" s="31"/>
@@ -12072,7 +12078,7 @@
         <v>75</v>
       </c>
       <c r="AH72" s="31" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AI72" s="31" t="s">
         <v>77</v>
@@ -12092,17 +12098,17 @@
     </row>
     <row r="73" ht="18.5" customHeight="1" spans="1:47">
       <c r="A73" s="27" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D73" s="29"/>
       <c r="E73" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="28"/>
@@ -12146,7 +12152,7 @@
         <v>112</v>
       </c>
       <c r="U73" s="28" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="V73" s="28"/>
       <c r="W73" s="28"/>
@@ -12165,7 +12171,7 @@
         <v>75</v>
       </c>
       <c r="AH73" s="28" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AI73" s="28" t="s">
         <v>77</v>
@@ -12185,17 +12191,17 @@
     </row>
     <row r="74" ht="18.5" customHeight="1" spans="1:47">
       <c r="A74" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="C74" s="32" t="s">
         <v>432</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>433</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>430</v>
       </c>
       <c r="D74" s="32"/>
       <c r="E74" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F74" s="31"/>
       <c r="G74" s="31"/>
@@ -12258,7 +12264,7 @@
         <v>75</v>
       </c>
       <c r="AH74" s="31" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AI74" s="31" t="s">
         <v>77</v>
@@ -12278,19 +12284,19 @@
     </row>
     <row r="75" ht="134" customHeight="1" spans="1:47">
       <c r="A75" s="27" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F75" s="28" t="s">
         <v>98</v>
@@ -12355,7 +12361,7 @@
         <v>75</v>
       </c>
       <c r="AH75" s="28" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AI75" s="28" t="s">
         <v>77</v>
@@ -12375,17 +12381,17 @@
     </row>
     <row r="76" ht="18.5" customHeight="1" spans="1:47">
       <c r="A76" s="30" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D76" s="32"/>
       <c r="E76" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F76" s="31"/>
       <c r="G76" s="31"/>
@@ -12395,7 +12401,7 @@
       </c>
       <c r="I76" s="31"/>
       <c r="J76" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K76" s="31">
         <f>VLOOKUP(J76,__Sheet3!A:B,2,FALSE)</f>
@@ -12429,7 +12435,7 @@
         <v>112</v>
       </c>
       <c r="U76" s="31" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="V76" s="31"/>
       <c r="W76" s="31"/>
@@ -12448,7 +12454,7 @@
         <v>75</v>
       </c>
       <c r="AH76" s="31" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AI76" s="31" t="s">
         <v>77</v>
@@ -12468,17 +12474,17 @@
     </row>
     <row r="77" ht="18.5" customHeight="1" spans="1:47">
       <c r="A77" s="27" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D77" s="29"/>
       <c r="E77" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="28"/>
@@ -12488,7 +12494,7 @@
       </c>
       <c r="I77" s="28"/>
       <c r="J77" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K77" s="28">
         <f>VLOOKUP(J77,__Sheet3!A:B,2,FALSE)</f>
@@ -12522,7 +12528,7 @@
         <v>112</v>
       </c>
       <c r="U77" s="28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="V77" s="28"/>
       <c r="W77" s="28"/>
@@ -12541,7 +12547,7 @@
         <v>75</v>
       </c>
       <c r="AH77" s="28" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AI77" s="28" t="s">
         <v>77</v>
@@ -12561,17 +12567,17 @@
     </row>
     <row r="78" ht="18.5" customHeight="1" spans="1:47">
       <c r="A78" s="30" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D78" s="32"/>
       <c r="E78" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="31"/>
@@ -12581,7 +12587,7 @@
       </c>
       <c r="I78" s="31"/>
       <c r="J78" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K78" s="31">
         <f>VLOOKUP(J78,__Sheet3!A:B,2,FALSE)</f>
@@ -12615,7 +12621,7 @@
         <v>112</v>
       </c>
       <c r="U78" s="31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="V78" s="31"/>
       <c r="W78" s="31"/>
@@ -12634,7 +12640,7 @@
         <v>75</v>
       </c>
       <c r="AH78" s="31" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AI78" s="31" t="s">
         <v>77</v>
@@ -12654,17 +12660,17 @@
     </row>
     <row r="79" ht="18.5" customHeight="1" spans="1:47">
       <c r="A79" s="27" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D79" s="29"/>
       <c r="E79" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F79" s="28"/>
       <c r="G79" s="28"/>
@@ -12674,7 +12680,7 @@
       </c>
       <c r="I79" s="28"/>
       <c r="J79" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K79" s="28">
         <f>VLOOKUP(J79,__Sheet3!A:B,2,FALSE)</f>
@@ -12708,7 +12714,7 @@
         <v>112</v>
       </c>
       <c r="U79" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V79" s="28"/>
       <c r="W79" s="28"/>
@@ -12727,7 +12733,7 @@
         <v>75</v>
       </c>
       <c r="AH79" s="28" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AI79" s="28" t="s">
         <v>77</v>
@@ -12747,17 +12753,17 @@
     </row>
     <row r="80" ht="18.5" customHeight="1" spans="1:47">
       <c r="A80" s="30" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D80" s="32"/>
       <c r="E80" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="31"/>
@@ -12767,7 +12773,7 @@
       </c>
       <c r="I80" s="31"/>
       <c r="J80" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K80" s="31">
         <f>VLOOKUP(J80,__Sheet3!A:B,2,FALSE)</f>
@@ -12801,7 +12807,7 @@
         <v>112</v>
       </c>
       <c r="U80" s="31" t="s">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="V80" s="31"/>
       <c r="W80" s="31"/>
@@ -12820,7 +12826,7 @@
         <v>75</v>
       </c>
       <c r="AH80" s="31" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AI80" s="31" t="s">
         <v>77</v>
@@ -12840,17 +12846,17 @@
     </row>
     <row r="81" ht="68" customHeight="1" spans="1:47">
       <c r="A81" s="27" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F81" s="28"/>
       <c r="G81" s="28"/>
@@ -12860,7 +12866,7 @@
       </c>
       <c r="I81" s="28"/>
       <c r="J81" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K81" s="28">
         <f>VLOOKUP(J81,__Sheet3!A:B,2,FALSE)</f>
@@ -12894,7 +12900,7 @@
         <v>112</v>
       </c>
       <c r="U81" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V81" s="28"/>
       <c r="W81" s="28"/>
@@ -12913,7 +12919,7 @@
         <v>75</v>
       </c>
       <c r="AH81" s="28" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AI81" s="28" t="s">
         <v>77</v>
@@ -12933,17 +12939,17 @@
     </row>
     <row r="82" ht="68" customHeight="1" spans="1:47">
       <c r="A82" s="30" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D82" s="32"/>
       <c r="E82" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F82" s="31"/>
       <c r="G82" s="31"/>
@@ -12953,7 +12959,7 @@
       </c>
       <c r="I82" s="31"/>
       <c r="J82" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K82" s="31">
         <f>VLOOKUP(J82,__Sheet3!A:B,2,FALSE)</f>
@@ -12987,7 +12993,7 @@
         <v>112</v>
       </c>
       <c r="U82" s="31" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="V82" s="31"/>
       <c r="W82" s="31"/>
@@ -13006,7 +13012,7 @@
         <v>75</v>
       </c>
       <c r="AH82" s="31" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AI82" s="31" t="s">
         <v>77</v>
@@ -13026,17 +13032,17 @@
     </row>
     <row r="83" ht="117.5" customHeight="1" spans="1:47">
       <c r="A83" s="27" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F83" s="28"/>
       <c r="G83" s="28"/>
@@ -13046,7 +13052,7 @@
       </c>
       <c r="I83" s="28"/>
       <c r="J83" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K83" s="28">
         <f>VLOOKUP(J83,__Sheet3!A:B,2,FALSE)</f>
@@ -13080,7 +13086,7 @@
         <v>112</v>
       </c>
       <c r="U83" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V83" s="28"/>
       <c r="W83" s="28"/>
@@ -13099,7 +13105,7 @@
         <v>75</v>
       </c>
       <c r="AH83" s="28" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AI83" s="28" t="s">
         <v>77</v>
@@ -13119,17 +13125,17 @@
     </row>
     <row r="84" ht="18.5" customHeight="1" spans="1:47">
       <c r="A84" s="30" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D84" s="32"/>
       <c r="E84" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
@@ -13139,7 +13145,7 @@
       </c>
       <c r="I84" s="31"/>
       <c r="J84" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K84" s="31">
         <f>VLOOKUP(J84,__Sheet3!A:B,2,FALSE)</f>
@@ -13173,7 +13179,7 @@
         <v>112</v>
       </c>
       <c r="U84" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V84" s="31"/>
       <c r="W84" s="31"/>
@@ -13192,7 +13198,7 @@
         <v>75</v>
       </c>
       <c r="AH84" s="31" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AI84" s="31" t="s">
         <v>77</v>
@@ -13212,17 +13218,17 @@
     </row>
     <row r="85" ht="18.5" customHeight="1" spans="1:47">
       <c r="A85" s="27" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D85" s="29"/>
       <c r="E85" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F85" s="28"/>
       <c r="G85" s="28"/>
@@ -13232,7 +13238,7 @@
       </c>
       <c r="I85" s="28"/>
       <c r="J85" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K85" s="28">
         <f>VLOOKUP(J85,__Sheet3!A:B,2,FALSE)</f>
@@ -13285,7 +13291,7 @@
         <v>75</v>
       </c>
       <c r="AH85" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI85" s="28" t="s">
         <v>77</v>
@@ -13305,17 +13311,17 @@
     </row>
     <row r="86" ht="18.5" customHeight="1" spans="1:47">
       <c r="A86" s="30" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D86" s="32"/>
       <c r="E86" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F86" s="31"/>
       <c r="G86" s="31"/>
@@ -13325,7 +13331,7 @@
       </c>
       <c r="I86" s="31"/>
       <c r="J86" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K86" s="31">
         <f>VLOOKUP(J86,__Sheet3!A:B,2,FALSE)</f>
@@ -13378,7 +13384,7 @@
         <v>75</v>
       </c>
       <c r="AH86" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI86" s="31" t="s">
         <v>77</v>
@@ -13398,17 +13404,17 @@
     </row>
     <row r="87" ht="18.5" customHeight="1" spans="1:47">
       <c r="A87" s="27" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F87" s="28"/>
       <c r="G87" s="28"/>
@@ -13418,7 +13424,7 @@
       </c>
       <c r="I87" s="28"/>
       <c r="J87" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K87" s="28">
         <f>VLOOKUP(J87,__Sheet3!A:B,2,FALSE)</f>
@@ -13471,7 +13477,7 @@
         <v>75</v>
       </c>
       <c r="AH87" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI87" s="28" t="s">
         <v>77</v>
@@ -13491,17 +13497,17 @@
     </row>
     <row r="88" ht="35" customHeight="1" spans="1:47">
       <c r="A88" s="30" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D88" s="32"/>
       <c r="E88" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F88" s="31"/>
       <c r="G88" s="31"/>
@@ -13564,7 +13570,7 @@
         <v>75</v>
       </c>
       <c r="AH88" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI88" s="31" t="s">
         <v>77</v>
@@ -13584,17 +13590,17 @@
     </row>
     <row r="89" ht="18.5" customHeight="1" spans="1:47">
       <c r="A89" s="27" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F89" s="28"/>
       <c r="G89" s="28"/>
@@ -13604,7 +13610,7 @@
       </c>
       <c r="I89" s="28"/>
       <c r="J89" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K89" s="28">
         <f>VLOOKUP(J89,__Sheet3!A:B,2,FALSE)</f>
@@ -13657,7 +13663,7 @@
         <v>75</v>
       </c>
       <c r="AH89" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI89" s="28" t="s">
         <v>77</v>
@@ -13677,17 +13683,17 @@
     </row>
     <row r="90" ht="68" customHeight="1" spans="1:47">
       <c r="A90" s="30" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D90" s="32"/>
       <c r="E90" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F90" s="31"/>
       <c r="G90" s="31"/>
@@ -13697,7 +13703,7 @@
       </c>
       <c r="I90" s="31"/>
       <c r="J90" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K90" s="31">
         <f>VLOOKUP(J90,__Sheet3!A:B,2,FALSE)</f>
@@ -13750,7 +13756,7 @@
         <v>75</v>
       </c>
       <c r="AH90" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI90" s="31" t="s">
         <v>77</v>
@@ -13770,17 +13776,17 @@
     </row>
     <row r="91" ht="35" customHeight="1" spans="1:47">
       <c r="A91" s="27" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F91" s="28"/>
       <c r="G91" s="28"/>
@@ -13790,7 +13796,7 @@
       </c>
       <c r="I91" s="28"/>
       <c r="J91" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K91" s="28">
         <f>VLOOKUP(J91,__Sheet3!A:B,2,FALSE)</f>
@@ -13843,7 +13849,7 @@
         <v>75</v>
       </c>
       <c r="AH91" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI91" s="28" t="s">
         <v>77</v>
@@ -13863,17 +13869,17 @@
     </row>
     <row r="92" ht="35" customHeight="1" spans="1:47">
       <c r="A92" s="30" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D92" s="32"/>
       <c r="E92" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F92" s="31"/>
       <c r="G92" s="31"/>
@@ -13883,7 +13889,7 @@
       </c>
       <c r="I92" s="31"/>
       <c r="J92" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K92" s="31">
         <f>VLOOKUP(J92,__Sheet3!A:B,2,FALSE)</f>
@@ -13936,7 +13942,7 @@
         <v>75</v>
       </c>
       <c r="AH92" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI92" s="31" t="s">
         <v>77</v>
@@ -13956,17 +13962,17 @@
     </row>
     <row r="93" ht="68" customHeight="1" spans="1:47">
       <c r="A93" s="27" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F93" s="28"/>
       <c r="G93" s="28"/>
@@ -13976,7 +13982,7 @@
       </c>
       <c r="I93" s="28"/>
       <c r="J93" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K93" s="28">
         <f>VLOOKUP(J93,__Sheet3!A:B,2,FALSE)</f>
@@ -14029,7 +14035,7 @@
         <v>75</v>
       </c>
       <c r="AH93" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI93" s="28" t="s">
         <v>77</v>
@@ -14049,19 +14055,19 @@
     </row>
     <row r="94" ht="68" customHeight="1" spans="1:47">
       <c r="A94" s="30" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F94" s="31"/>
       <c r="G94" s="31"/>
@@ -14071,7 +14077,7 @@
       </c>
       <c r="I94" s="31"/>
       <c r="J94" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K94" s="31">
         <f>VLOOKUP(J94,__Sheet3!A:B,2,FALSE)</f>
@@ -14124,7 +14130,7 @@
         <v>75</v>
       </c>
       <c r="AH94" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI94" s="31" t="s">
         <v>77</v>
@@ -14144,19 +14150,19 @@
     </row>
     <row r="95" ht="183.5" customHeight="1" spans="1:47">
       <c r="A95" s="27" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F95" s="28"/>
       <c r="G95" s="28"/>
@@ -14166,7 +14172,7 @@
       </c>
       <c r="I95" s="28"/>
       <c r="J95" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K95" s="28">
         <f>VLOOKUP(J95,__Sheet3!A:B,2,FALSE)</f>
@@ -14219,7 +14225,7 @@
         <v>75</v>
       </c>
       <c r="AH95" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI95" s="28" t="s">
         <v>77</v>
@@ -14239,17 +14245,17 @@
     </row>
     <row r="96" ht="216.5" customHeight="1" spans="1:47">
       <c r="A96" s="30" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D96" s="32"/>
       <c r="E96" s="31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F96" s="31"/>
       <c r="G96" s="31"/>
@@ -14259,7 +14265,7 @@
       </c>
       <c r="I96" s="31"/>
       <c r="J96" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K96" s="31">
         <f>VLOOKUP(J96,__Sheet3!A:B,2,FALSE)</f>
@@ -14312,7 +14318,7 @@
         <v>75</v>
       </c>
       <c r="AH96" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI96" s="31" t="s">
         <v>77</v>
@@ -14332,17 +14338,17 @@
     </row>
     <row r="97" ht="51.5" customHeight="1" spans="1:47">
       <c r="A97" s="27" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D97" s="29"/>
       <c r="E97" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F97" s="28"/>
       <c r="G97" s="28"/>
@@ -14405,7 +14411,7 @@
         <v>75</v>
       </c>
       <c r="AH97" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI97" s="28" t="s">
         <v>77</v>
@@ -14425,17 +14431,17 @@
     </row>
     <row r="98" ht="35" customHeight="1" spans="1:47">
       <c r="A98" s="30" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D98" s="32"/>
       <c r="E98" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F98" s="31"/>
       <c r="G98" s="31"/>
@@ -14498,7 +14504,7 @@
         <v>75</v>
       </c>
       <c r="AH98" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI98" s="31" t="s">
         <v>77</v>
@@ -14518,17 +14524,17 @@
     </row>
     <row r="99" ht="68" customHeight="1" spans="1:47">
       <c r="A99" s="27" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F99" s="28"/>
       <c r="G99" s="28"/>
@@ -14538,7 +14544,7 @@
       </c>
       <c r="I99" s="28"/>
       <c r="J99" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K99" s="28">
         <f>VLOOKUP(J99,__Sheet3!A:B,2,FALSE)</f>
@@ -14591,7 +14597,7 @@
         <v>75</v>
       </c>
       <c r="AH99" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI99" s="28" t="s">
         <v>77</v>
@@ -14611,17 +14617,17 @@
     </row>
     <row r="100" ht="101" customHeight="1" spans="1:47">
       <c r="A100" s="30" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D100" s="32"/>
       <c r="E100" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F100" s="31"/>
       <c r="G100" s="31"/>
@@ -14631,7 +14637,7 @@
       </c>
       <c r="I100" s="31"/>
       <c r="J100" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K100" s="31">
         <f>VLOOKUP(J100,__Sheet3!A:B,2,FALSE)</f>
@@ -14684,7 +14690,7 @@
         <v>75</v>
       </c>
       <c r="AH100" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI100" s="31" t="s">
         <v>77</v>
@@ -14704,19 +14710,19 @@
     </row>
     <row r="101" s="18" customFormat="1" ht="134" customHeight="1" spans="1:47">
       <c r="A101" s="61" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B101" s="62" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C101" s="63" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D101" s="63" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E101" s="62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F101" s="62"/>
       <c r="G101" s="62"/>
@@ -14779,7 +14785,7 @@
         <v>75</v>
       </c>
       <c r="AH101" s="62" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI101" s="62" t="s">
         <v>77</v>
@@ -14799,17 +14805,17 @@
     </row>
     <row r="102" ht="35" customHeight="1" spans="1:47">
       <c r="A102" s="30" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D102" s="32"/>
       <c r="E102" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F102" s="31"/>
       <c r="G102" s="31"/>
@@ -14819,7 +14825,7 @@
       </c>
       <c r="I102" s="31"/>
       <c r="J102" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K102" s="31">
         <f>VLOOKUP(J102,__Sheet3!A:B,2,FALSE)</f>
@@ -14872,7 +14878,7 @@
         <v>75</v>
       </c>
       <c r="AH102" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI102" s="31" t="s">
         <v>77</v>
@@ -14892,13 +14898,13 @@
     </row>
     <row r="103" ht="117.5" customHeight="1" spans="1:47">
       <c r="A103" s="27" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D103" s="29"/>
       <c r="E103" s="28" t="s">
@@ -14965,7 +14971,7 @@
         <v>75</v>
       </c>
       <c r="AH103" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI103" s="28" t="s">
         <v>77</v>
@@ -14985,13 +14991,13 @@
     </row>
     <row r="104" ht="68" customHeight="1" spans="1:47">
       <c r="A104" s="30" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D104" s="32"/>
       <c r="E104" s="31" t="s">
@@ -15058,7 +15064,7 @@
         <v>75</v>
       </c>
       <c r="AH104" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI104" s="31" t="s">
         <v>77</v>
@@ -15078,22 +15084,22 @@
     </row>
     <row r="105" ht="117.5" customHeight="1" spans="1:47">
       <c r="A105" s="27" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E105" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F105" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G105" s="28"/>
       <c r="H105" s="28" t="str">
@@ -15102,7 +15108,7 @@
       </c>
       <c r="I105" s="28"/>
       <c r="J105" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K105" s="28">
         <f>VLOOKUP(J105,__Sheet3!A:B,2,FALSE)</f>
@@ -15155,7 +15161,7 @@
         <v>75</v>
       </c>
       <c r="AH105" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI105" s="28" t="s">
         <v>77</v>
@@ -15175,22 +15181,22 @@
     </row>
     <row r="106" ht="84.5" customHeight="1" spans="1:47">
       <c r="A106" s="30" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E106" s="31" t="s">
         <v>98</v>
       </c>
       <c r="F106" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G106" s="31"/>
       <c r="H106" s="31" t="str">
@@ -15252,7 +15258,7 @@
         <v>75</v>
       </c>
       <c r="AH106" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI106" s="31" t="s">
         <v>77</v>
@@ -15272,16 +15278,16 @@
     </row>
     <row r="107" ht="117.5" customHeight="1" spans="1:47">
       <c r="A107" s="27" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E107" s="28" t="s">
         <v>98</v>
@@ -15294,7 +15300,7 @@
       </c>
       <c r="I107" s="28"/>
       <c r="J107" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K107" s="28">
         <f>VLOOKUP(J107,__Sheet3!A:B,2,FALSE)</f>
@@ -15347,7 +15353,7 @@
         <v>75</v>
       </c>
       <c r="AH107" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI107" s="28" t="s">
         <v>77</v>
@@ -15367,22 +15373,22 @@
     </row>
     <row r="108" ht="167" customHeight="1" spans="1:47">
       <c r="A108" s="30" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>98</v>
       </c>
       <c r="F108" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G108" s="31"/>
       <c r="H108" s="31" t="str">
@@ -15444,7 +15450,7 @@
         <v>75</v>
       </c>
       <c r="AH108" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI108" s="31" t="s">
         <v>77</v>
@@ -15464,16 +15470,16 @@
     </row>
     <row r="109" ht="134" customHeight="1" spans="1:47">
       <c r="A109" s="27" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E109" s="28" t="s">
         <v>98</v>
@@ -15539,7 +15545,7 @@
         <v>75</v>
       </c>
       <c r="AH109" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI109" s="28" t="s">
         <v>77</v>
@@ -15559,17 +15565,17 @@
     </row>
     <row r="110" ht="84.5" customHeight="1" spans="1:47">
       <c r="A110" s="30" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D110" s="32"/>
       <c r="E110" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F110" s="31"/>
       <c r="G110" s="31"/>
@@ -15632,7 +15638,7 @@
         <v>75</v>
       </c>
       <c r="AH110" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI110" s="31" t="s">
         <v>77</v>
@@ -15652,19 +15658,19 @@
     </row>
     <row r="111" ht="101" customHeight="1" spans="1:47">
       <c r="A111" s="27" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E111" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F111" s="28"/>
       <c r="G111" s="28"/>
@@ -15674,7 +15680,7 @@
       </c>
       <c r="I111" s="28"/>
       <c r="J111" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K111" s="28">
         <f>VLOOKUP(J111,__Sheet3!A:B,2,FALSE)</f>
@@ -15727,7 +15733,7 @@
         <v>75</v>
       </c>
       <c r="AH111" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI111" s="28" t="s">
         <v>77</v>
@@ -15747,19 +15753,19 @@
     </row>
     <row r="112" ht="84.5" customHeight="1" spans="1:47">
       <c r="A112" s="30" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F112" s="31"/>
       <c r="G112" s="31"/>
@@ -15822,7 +15828,7 @@
         <v>75</v>
       </c>
       <c r="AH112" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI112" s="31" t="s">
         <v>77</v>
@@ -15842,20 +15848,20 @@
     </row>
     <row r="113" ht="84.5" customHeight="1" spans="1:47">
       <c r="A113" s="27" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D113" s="29"/>
       <c r="E113" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F113" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G113" s="28"/>
       <c r="H113" s="28" t="str">
@@ -15917,7 +15923,7 @@
         <v>75</v>
       </c>
       <c r="AH113" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI113" s="28" t="s">
         <v>77</v>
@@ -15937,22 +15943,22 @@
     </row>
     <row r="114" ht="134" customHeight="1" spans="1:47">
       <c r="A114" s="30" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G114" s="31"/>
       <c r="H114" s="31" t="str">
@@ -16014,7 +16020,7 @@
         <v>75</v>
       </c>
       <c r="AH114" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI114" s="31" t="s">
         <v>77</v>
@@ -16034,20 +16040,20 @@
     </row>
     <row r="115" ht="150.5" customHeight="1" spans="1:47">
       <c r="A115" s="27" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D115" s="29"/>
       <c r="E115" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F115" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G115" s="28"/>
       <c r="H115" s="28" t="str">
@@ -16109,7 +16115,7 @@
         <v>75</v>
       </c>
       <c r="AH115" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI115" s="28" t="s">
         <v>77</v>
@@ -16129,22 +16135,22 @@
     </row>
     <row r="116" ht="134" customHeight="1" spans="1:47">
       <c r="A116" s="30" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D116" s="33" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G116" s="31"/>
       <c r="H116" s="31" t="str">
@@ -16153,7 +16159,7 @@
       </c>
       <c r="I116" s="31"/>
       <c r="J116" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K116" s="31">
         <f>VLOOKUP(J116,__Sheet3!A:B,2,FALSE)</f>
@@ -16206,7 +16212,7 @@
         <v>75</v>
       </c>
       <c r="AH116" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI116" s="31" t="s">
         <v>77</v>
@@ -16226,19 +16232,19 @@
     </row>
     <row r="117" ht="134" customHeight="1" spans="1:47">
       <c r="A117" s="27" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E117" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F117" s="28"/>
       <c r="G117" s="28"/>
@@ -16301,7 +16307,7 @@
         <v>75</v>
       </c>
       <c r="AH117" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI117" s="28" t="s">
         <v>77</v>
@@ -16321,22 +16327,22 @@
     </row>
     <row r="118" ht="68" customHeight="1" spans="1:47">
       <c r="A118" s="30" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E118" s="31" t="s">
         <v>98</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G118" s="31"/>
       <c r="H118" s="31" t="str">
@@ -16345,7 +16351,7 @@
       </c>
       <c r="I118" s="31"/>
       <c r="J118" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K118" s="31">
         <f>VLOOKUP(J118,__Sheet3!A:B,2,FALSE)</f>
@@ -16398,7 +16404,7 @@
         <v>75</v>
       </c>
       <c r="AH118" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI118" s="31" t="s">
         <v>77</v>
@@ -16418,25 +16424,25 @@
     </row>
     <row r="119" ht="134" customHeight="1" spans="1:47">
       <c r="A119" s="27" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E119" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F119" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G119" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H119" s="28" t="str">
         <f>IF(E119="无","null",VLOOKUP(E119,__Sheet3!E:F,2,FALSE))&amp;IF(ISTEXT(F119),",","")&amp;IF(ISTEXT(F119),VLOOKUP(F119,__Sheet3!E:F,2,FALSE),"")&amp;IF(ISTEXT(G119),",","")&amp;IF(ISTEXT(G119),VLOOKUP(G119,__Sheet3!E:F,2,FALSE),"")</f>
@@ -16444,7 +16450,7 @@
       </c>
       <c r="I119" s="28"/>
       <c r="J119" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K119" s="28">
         <f>VLOOKUP(J119,__Sheet3!A:B,2,FALSE)</f>
@@ -16497,7 +16503,7 @@
         <v>75</v>
       </c>
       <c r="AH119" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI119" s="28" t="s">
         <v>77</v>
@@ -16517,17 +16523,17 @@
     </row>
     <row r="120" ht="51.5" customHeight="1" spans="1:47">
       <c r="A120" s="30" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D120" s="32"/>
       <c r="E120" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F120" s="31"/>
       <c r="G120" s="31"/>
@@ -16590,7 +16596,7 @@
         <v>75</v>
       </c>
       <c r="AH120" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI120" s="31" t="s">
         <v>77</v>
@@ -16610,17 +16616,17 @@
     </row>
     <row r="121" ht="18.5" customHeight="1" spans="1:47">
       <c r="A121" s="27" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D121" s="29"/>
       <c r="E121" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F121" s="28"/>
       <c r="G121" s="28"/>
@@ -16630,7 +16636,7 @@
       </c>
       <c r="I121" s="28"/>
       <c r="J121" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K121" s="28">
         <f>VLOOKUP(J121,__Sheet3!A:B,2,FALSE)</f>
@@ -16683,7 +16689,7 @@
         <v>75</v>
       </c>
       <c r="AH121" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI121" s="28" t="s">
         <v>77</v>
@@ -16703,17 +16709,17 @@
     </row>
     <row r="122" ht="68" customHeight="1" spans="1:47">
       <c r="A122" s="30" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D122" s="32"/>
       <c r="E122" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F122" s="31"/>
       <c r="G122" s="31"/>
@@ -16776,7 +16782,7 @@
         <v>75</v>
       </c>
       <c r="AH122" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI122" s="31" t="s">
         <v>77</v>
@@ -16796,19 +16802,19 @@
     </row>
     <row r="123" ht="68" customHeight="1" spans="1:47">
       <c r="A123" s="27" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F123" s="28"/>
       <c r="G123" s="28"/>
@@ -16818,7 +16824,7 @@
       </c>
       <c r="I123" s="28"/>
       <c r="J123" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K123" s="28">
         <f>VLOOKUP(J123,__Sheet3!A:B,2,FALSE)</f>
@@ -16871,7 +16877,7 @@
         <v>75</v>
       </c>
       <c r="AH123" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI123" s="28" t="s">
         <v>77</v>
@@ -16891,19 +16897,19 @@
     </row>
     <row r="124" ht="68" customHeight="1" spans="1:47">
       <c r="A124" s="30" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F124" s="31"/>
       <c r="G124" s="31"/>
@@ -16913,7 +16919,7 @@
       </c>
       <c r="I124" s="31"/>
       <c r="J124" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K124" s="31">
         <f>VLOOKUP(J124,__Sheet3!A:B,2,FALSE)</f>
@@ -16966,7 +16972,7 @@
         <v>75</v>
       </c>
       <c r="AH124" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI124" s="31" t="s">
         <v>77</v>
@@ -16986,17 +16992,17 @@
     </row>
     <row r="125" ht="35" customHeight="1" spans="1:47">
       <c r="A125" s="27" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D125" s="29"/>
       <c r="E125" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F125" s="28"/>
       <c r="G125" s="28"/>
@@ -17006,7 +17012,7 @@
       </c>
       <c r="I125" s="28"/>
       <c r="J125" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K125" s="28">
         <f>VLOOKUP(J125,__Sheet3!A:B,2,FALSE)</f>
@@ -17059,7 +17065,7 @@
         <v>75</v>
       </c>
       <c r="AH125" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI125" s="28" t="s">
         <v>77</v>
@@ -17079,17 +17085,17 @@
     </row>
     <row r="126" ht="18.5" customHeight="1" spans="1:47">
       <c r="A126" s="30" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D126" s="32"/>
       <c r="E126" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F126" s="31"/>
       <c r="G126" s="31"/>
@@ -17099,7 +17105,7 @@
       </c>
       <c r="I126" s="31"/>
       <c r="J126" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K126" s="31">
         <f>VLOOKUP(J126,__Sheet3!A:B,2,FALSE)</f>
@@ -17152,7 +17158,7 @@
         <v>75</v>
       </c>
       <c r="AH126" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI126" s="31" t="s">
         <v>77</v>
@@ -17172,17 +17178,17 @@
     </row>
     <row r="127" ht="150.5" customHeight="1" spans="1:47">
       <c r="A127" s="27" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C127" s="29" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D127" s="29"/>
       <c r="E127" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F127" s="28"/>
       <c r="G127" s="28"/>
@@ -17192,7 +17198,7 @@
       </c>
       <c r="I127" s="28"/>
       <c r="J127" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K127" s="28">
         <f>VLOOKUP(J127,__Sheet3!A:B,2,FALSE)</f>
@@ -17245,7 +17251,7 @@
         <v>75</v>
       </c>
       <c r="AH127" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI127" s="28" t="s">
         <v>77</v>
@@ -17265,17 +17271,17 @@
     </row>
     <row r="128" ht="51.5" customHeight="1" spans="1:47">
       <c r="A128" s="30" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D128" s="32"/>
       <c r="E128" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F128" s="31"/>
       <c r="G128" s="31"/>
@@ -17285,7 +17291,7 @@
       </c>
       <c r="I128" s="31"/>
       <c r="J128" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K128" s="31">
         <f>VLOOKUP(J128,__Sheet3!A:B,2,FALSE)</f>
@@ -17338,7 +17344,7 @@
         <v>75</v>
       </c>
       <c r="AH128" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI128" s="31" t="s">
         <v>77</v>
@@ -17358,17 +17364,17 @@
     </row>
     <row r="129" ht="84.5" customHeight="1" spans="1:47">
       <c r="A129" s="27" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C129" s="29" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D129" s="29"/>
       <c r="E129" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F129" s="28"/>
       <c r="G129" s="28"/>
@@ -17409,7 +17415,7 @@
         <v>0</v>
       </c>
       <c r="T129" s="28" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="U129" s="28">
         <v>0</v>
@@ -17431,7 +17437,7 @@
         <v>75</v>
       </c>
       <c r="AH129" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI129" s="28" t="s">
         <v>77</v>
@@ -17451,17 +17457,17 @@
     </row>
     <row r="130" ht="101" customHeight="1" spans="1:47">
       <c r="A130" s="30" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D130" s="32"/>
       <c r="E130" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F130" s="31"/>
       <c r="G130" s="31"/>
@@ -17471,7 +17477,7 @@
       </c>
       <c r="I130" s="31"/>
       <c r="J130" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K130" s="31">
         <f>VLOOKUP(J130,__Sheet3!A:B,2,FALSE)</f>
@@ -17524,7 +17530,7 @@
         <v>75</v>
       </c>
       <c r="AH130" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI130" s="31" t="s">
         <v>77</v>
@@ -17544,17 +17550,17 @@
     </row>
     <row r="131" ht="68" customHeight="1" spans="1:47">
       <c r="A131" s="27" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D131" s="29"/>
       <c r="E131" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F131" s="28" t="s">
         <v>98</v>
@@ -17619,7 +17625,7 @@
         <v>75</v>
       </c>
       <c r="AH131" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI131" s="28" t="s">
         <v>77</v>
@@ -17639,17 +17645,17 @@
     </row>
     <row r="132" ht="35" customHeight="1" spans="1:47">
       <c r="A132" s="30" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D132" s="32"/>
       <c r="E132" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F132" s="31"/>
       <c r="G132" s="31"/>
@@ -17659,7 +17665,7 @@
       </c>
       <c r="I132" s="31"/>
       <c r="J132" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K132" s="31">
         <f>VLOOKUP(J132,__Sheet3!A:B,2,FALSE)</f>
@@ -17712,7 +17718,7 @@
         <v>75</v>
       </c>
       <c r="AH132" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI132" s="31" t="s">
         <v>77</v>
@@ -17732,17 +17738,17 @@
     </row>
     <row r="133" ht="49.5" spans="1:47">
       <c r="A133" s="27" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D133" s="29"/>
       <c r="E133" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F133" s="28" t="s">
         <v>98</v>
@@ -17807,7 +17813,7 @@
         <v>75</v>
       </c>
       <c r="AH133" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI133" s="28" t="s">
         <v>77</v>
@@ -17827,16 +17833,16 @@
     </row>
     <row r="134" ht="101" customHeight="1" spans="1:47">
       <c r="A134" s="30" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D134" s="32" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E134" s="31" t="s">
         <v>98</v>
@@ -17902,7 +17908,7 @@
         <v>75</v>
       </c>
       <c r="AH134" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI134" s="31" t="s">
         <v>77</v>
@@ -17922,22 +17928,22 @@
     </row>
     <row r="135" ht="117.5" customHeight="1" spans="1:47">
       <c r="A135" s="27" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B135" s="28" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C135" s="29" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E135" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F135" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G135" s="28"/>
       <c r="H135" s="28" t="str">
@@ -17999,7 +18005,7 @@
         <v>75</v>
       </c>
       <c r="AH135" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI135" s="28" t="s">
         <v>77</v>
@@ -18019,25 +18025,25 @@
     </row>
     <row r="136" ht="150.5" customHeight="1" spans="1:47">
       <c r="A136" s="30" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D136" s="32" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E136" s="31" t="s">
         <v>98</v>
       </c>
       <c r="F136" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G136" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H136" s="31" t="str">
         <f>IF(E136="无","null",VLOOKUP(E136,__Sheet3!E:F,2,FALSE))&amp;IF(ISTEXT(F136),",","")&amp;IF(ISTEXT(F136),VLOOKUP(F136,__Sheet3!E:F,2,FALSE),"")&amp;IF(ISTEXT(G136),",","")&amp;IF(ISTEXT(G136),VLOOKUP(G136,__Sheet3!E:F,2,FALSE),"")</f>
@@ -18098,7 +18104,7 @@
         <v>75</v>
       </c>
       <c r="AH136" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI136" s="31" t="s">
         <v>77</v>
@@ -18118,22 +18124,22 @@
     </row>
     <row r="137" ht="167" customHeight="1" spans="1:47">
       <c r="A137" s="27" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B137" s="28" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D137" s="29" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E137" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F137" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G137" s="28"/>
       <c r="H137" s="28" t="str">
@@ -18195,7 +18201,7 @@
         <v>75</v>
       </c>
       <c r="AH137" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI137" s="28" t="s">
         <v>77</v>
@@ -18215,16 +18221,16 @@
     </row>
     <row r="138" ht="101" customHeight="1" spans="1:47">
       <c r="A138" s="30" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D138" s="32" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E138" s="31" t="s">
         <v>98</v>
@@ -18237,7 +18243,7 @@
       </c>
       <c r="I138" s="31"/>
       <c r="J138" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K138" s="31">
         <f>VLOOKUP(J138,__Sheet3!A:B,2,FALSE)</f>
@@ -18290,7 +18296,7 @@
         <v>75</v>
       </c>
       <c r="AH138" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI138" s="31" t="s">
         <v>77</v>
@@ -18310,22 +18316,22 @@
     </row>
     <row r="139" ht="150.5" customHeight="1" spans="1:47">
       <c r="A139" s="27" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B139" s="28" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C139" s="29" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D139" s="29" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E139" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F139" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G139" s="28"/>
       <c r="H139" s="28" t="str">
@@ -18387,7 +18393,7 @@
         <v>75</v>
       </c>
       <c r="AH139" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI139" s="28" t="s">
         <v>77</v>
@@ -18407,20 +18413,20 @@
     </row>
     <row r="140" ht="117.5" customHeight="1" spans="1:47">
       <c r="A140" s="30" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D140" s="32"/>
       <c r="E140" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F140" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G140" s="31"/>
       <c r="H140" s="31" t="str">
@@ -18429,7 +18435,7 @@
       </c>
       <c r="I140" s="31"/>
       <c r="J140" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K140" s="31">
         <f>VLOOKUP(J140,__Sheet3!A:B,2,FALSE)</f>
@@ -18482,7 +18488,7 @@
         <v>75</v>
       </c>
       <c r="AH140" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI140" s="31" t="s">
         <v>77</v>
@@ -18502,22 +18508,22 @@
     </row>
     <row r="141" ht="216.5" customHeight="1" spans="1:47">
       <c r="A141" s="27" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B141" s="28" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C141" s="29" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E141" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F141" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G141" s="28"/>
       <c r="H141" s="28" t="str">
@@ -18526,7 +18532,7 @@
       </c>
       <c r="I141" s="28"/>
       <c r="J141" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K141" s="28">
         <f>VLOOKUP(J141,__Sheet3!A:B,2,FALSE)</f>
@@ -18579,7 +18585,7 @@
         <v>75</v>
       </c>
       <c r="AH141" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI141" s="28" t="s">
         <v>77</v>
@@ -18599,17 +18605,17 @@
     </row>
     <row r="142" ht="117.5" customHeight="1" spans="1:47">
       <c r="A142" s="30" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D142" s="32"/>
       <c r="E142" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F142" s="31"/>
       <c r="G142" s="31"/>
@@ -18672,7 +18678,7 @@
         <v>75</v>
       </c>
       <c r="AH142" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI142" s="31" t="s">
         <v>77</v>
@@ -18692,17 +18698,17 @@
     </row>
     <row r="143" ht="134" customHeight="1" spans="1:47">
       <c r="A143" s="27" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B143" s="28" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C143" s="29" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F143" s="28"/>
       <c r="G143" s="28"/>
@@ -18712,7 +18718,7 @@
       </c>
       <c r="I143" s="28"/>
       <c r="J143" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K143" s="28">
         <f>VLOOKUP(J143,__Sheet3!A:B,2,FALSE)</f>
@@ -18765,7 +18771,7 @@
         <v>75</v>
       </c>
       <c r="AH143" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI143" s="28" t="s">
         <v>77</v>
@@ -18785,17 +18791,17 @@
     </row>
     <row r="144" ht="150.5" customHeight="1" spans="1:47">
       <c r="A144" s="30" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D144" s="32"/>
       <c r="E144" s="31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F144" s="31"/>
       <c r="G144" s="31"/>
@@ -18858,7 +18864,7 @@
         <v>75</v>
       </c>
       <c r="AH144" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI144" s="31" t="s">
         <v>77</v>
@@ -18878,17 +18884,17 @@
     </row>
     <row r="145" ht="18.5" customHeight="1" spans="1:47">
       <c r="A145" s="27" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B145" s="28" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C145" s="29" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D145" s="29"/>
       <c r="E145" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F145" s="28"/>
       <c r="G145" s="28"/>
@@ -18898,7 +18904,7 @@
       </c>
       <c r="I145" s="28"/>
       <c r="J145" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K145" s="28">
         <f>VLOOKUP(J145,__Sheet3!A:B,2,FALSE)</f>
@@ -18951,7 +18957,7 @@
         <v>75</v>
       </c>
       <c r="AH145" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI145" s="28" t="s">
         <v>77</v>
@@ -18971,17 +18977,17 @@
     </row>
     <row r="146" ht="18.5" customHeight="1" spans="1:47">
       <c r="A146" s="30" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D146" s="32"/>
       <c r="E146" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F146" s="31"/>
       <c r="G146" s="31"/>
@@ -18991,7 +18997,7 @@
       </c>
       <c r="I146" s="31"/>
       <c r="J146" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K146" s="31">
         <f>VLOOKUP(J146,__Sheet3!A:B,2,FALSE)</f>
@@ -19044,7 +19050,7 @@
         <v>75</v>
       </c>
       <c r="AH146" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI146" s="31" t="s">
         <v>77</v>
@@ -19064,17 +19070,17 @@
     </row>
     <row r="147" ht="35" customHeight="1" spans="1:47">
       <c r="A147" s="27" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B147" s="28" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C147" s="29" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D147" s="29"/>
       <c r="E147" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F147" s="28"/>
       <c r="G147" s="28"/>
@@ -19084,7 +19090,7 @@
       </c>
       <c r="I147" s="28"/>
       <c r="J147" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K147" s="28">
         <f>VLOOKUP(J147,__Sheet3!A:B,2,FALSE)</f>
@@ -19137,7 +19143,7 @@
         <v>75</v>
       </c>
       <c r="AH147" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI147" s="28" t="s">
         <v>77</v>
@@ -19157,17 +19163,17 @@
     </row>
     <row r="148" ht="117.5" customHeight="1" spans="1:47">
       <c r="A148" s="30" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D148" s="32"/>
       <c r="E148" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F148" s="31"/>
       <c r="G148" s="31"/>
@@ -19177,7 +19183,7 @@
       </c>
       <c r="I148" s="31"/>
       <c r="J148" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K148" s="31">
         <f>VLOOKUP(J148,__Sheet3!A:B,2,FALSE)</f>
@@ -19230,7 +19236,7 @@
         <v>75</v>
       </c>
       <c r="AH148" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI148" s="31" t="s">
         <v>77</v>
@@ -19250,22 +19256,22 @@
     </row>
     <row r="149" ht="84.5" customHeight="1" spans="1:47">
       <c r="A149" s="27" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B149" s="28" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C149" s="29" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D149" s="29" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E149" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F149" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G149" s="28"/>
       <c r="H149" s="28" t="str">
@@ -19274,7 +19280,7 @@
       </c>
       <c r="I149" s="28"/>
       <c r="J149" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K149" s="28">
         <f>VLOOKUP(J149,__Sheet3!A:B,2,FALSE)</f>
@@ -19327,7 +19333,7 @@
         <v>75</v>
       </c>
       <c r="AH149" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI149" s="28" t="s">
         <v>77</v>
@@ -19347,20 +19353,20 @@
     </row>
     <row r="150" ht="101" customHeight="1" spans="1:47">
       <c r="A150" s="30" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D150" s="32"/>
       <c r="E150" s="31" t="s">
         <v>98</v>
       </c>
       <c r="F150" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G150" s="31"/>
       <c r="H150" s="31" t="str">
@@ -19422,7 +19428,7 @@
         <v>75</v>
       </c>
       <c r="AH150" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI150" s="31" t="s">
         <v>77</v>
@@ -19442,22 +19448,22 @@
     </row>
     <row r="151" ht="134" customHeight="1" spans="1:47">
       <c r="A151" s="27" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B151" s="28" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C151" s="29" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D151" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F151" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G151" s="28"/>
       <c r="H151" s="28" t="str">
@@ -19519,7 +19525,7 @@
         <v>75</v>
       </c>
       <c r="AH151" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI151" s="28" t="s">
         <v>77</v>
@@ -19539,13 +19545,13 @@
     </row>
     <row r="152" ht="84.5" customHeight="1" spans="1:47">
       <c r="A152" s="30" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D152" s="32"/>
       <c r="E152" s="31" t="s">
@@ -19559,7 +19565,7 @@
       </c>
       <c r="I152" s="31"/>
       <c r="J152" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K152" s="31">
         <f>VLOOKUP(J152,__Sheet3!A:B,2,FALSE)</f>
@@ -19612,7 +19618,7 @@
         <v>75</v>
       </c>
       <c r="AH152" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI152" s="31" t="s">
         <v>77</v>
@@ -19632,19 +19638,19 @@
     </row>
     <row r="153" ht="134" customHeight="1" spans="1:47">
       <c r="A153" s="27" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B153" s="28" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D153" s="29" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E153" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F153" s="28"/>
       <c r="G153" s="28"/>
@@ -19654,7 +19660,7 @@
       </c>
       <c r="I153" s="28"/>
       <c r="J153" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K153" s="28">
         <f>VLOOKUP(J153,__Sheet3!A:B,2,FALSE)</f>
@@ -19707,7 +19713,7 @@
         <v>75</v>
       </c>
       <c r="AH153" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI153" s="28" t="s">
         <v>77</v>
@@ -19727,19 +19733,19 @@
     </row>
     <row r="154" ht="150.5" customHeight="1" spans="1:47">
       <c r="A154" s="30" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D154" s="32" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F154" s="31"/>
       <c r="G154" s="31"/>
@@ -19802,7 +19808,7 @@
         <v>75</v>
       </c>
       <c r="AH154" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI154" s="31" t="s">
         <v>77</v>
@@ -19822,25 +19828,25 @@
     </row>
     <row r="155" ht="183.5" customHeight="1" spans="1:47">
       <c r="A155" s="27" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B155" s="28" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D155" s="29" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E155" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F155" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G155" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H155" s="28" t="str">
         <f>IF(E155="无","null",VLOOKUP(E155,__Sheet3!E:F,2,FALSE))&amp;IF(ISTEXT(F155),",","")&amp;IF(ISTEXT(F155),VLOOKUP(F155,__Sheet3!E:F,2,FALSE),"")&amp;IF(ISTEXT(G155),",","")&amp;IF(ISTEXT(G155),VLOOKUP(G155,__Sheet3!E:F,2,FALSE),"")</f>
@@ -19901,7 +19907,7 @@
         <v>75</v>
       </c>
       <c r="AH155" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI155" s="28" t="s">
         <v>77</v>
@@ -19921,22 +19927,22 @@
     </row>
     <row r="156" ht="84.5" customHeight="1" spans="1:47">
       <c r="A156" s="30" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D156" s="32" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F156" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G156" s="31"/>
       <c r="H156" s="31" t="str">
@@ -19998,7 +20004,7 @@
         <v>75</v>
       </c>
       <c r="AH156" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI156" s="31" t="s">
         <v>77</v>
@@ -20018,20 +20024,20 @@
     </row>
     <row r="157" ht="134" customHeight="1" spans="1:47">
       <c r="A157" s="27" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B157" s="28" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C157" s="29" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D157" s="29"/>
       <c r="E157" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F157" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G157" s="28"/>
       <c r="H157" s="28" t="str">
@@ -20040,7 +20046,7 @@
       </c>
       <c r="I157" s="28"/>
       <c r="J157" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K157" s="28">
         <f>VLOOKUP(J157,__Sheet3!A:B,2,FALSE)</f>
@@ -20093,7 +20099,7 @@
         <v>75</v>
       </c>
       <c r="AH157" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI157" s="28" t="s">
         <v>77</v>
@@ -20113,20 +20119,20 @@
     </row>
     <row r="158" ht="150.5" customHeight="1" spans="1:47">
       <c r="A158" s="30" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D158" s="32"/>
       <c r="E158" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F158" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G158" s="31"/>
       <c r="H158" s="31" t="str">
@@ -20135,7 +20141,7 @@
       </c>
       <c r="I158" s="31"/>
       <c r="J158" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K158" s="31">
         <f>VLOOKUP(J158,__Sheet3!A:B,2,FALSE)</f>
@@ -20188,7 +20194,7 @@
         <v>75</v>
       </c>
       <c r="AH158" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI158" s="31" t="s">
         <v>77</v>
@@ -20208,17 +20214,17 @@
     </row>
     <row r="159" ht="167" customHeight="1" spans="1:47">
       <c r="A159" s="27" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B159" s="28" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C159" s="29" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D159" s="29"/>
       <c r="E159" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F159" s="28"/>
       <c r="G159" s="28"/>
@@ -20281,7 +20287,7 @@
         <v>75</v>
       </c>
       <c r="AH159" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI159" s="28" t="s">
         <v>77</v>
@@ -20301,22 +20307,22 @@
     </row>
     <row r="160" ht="216.5" customHeight="1" spans="1:47">
       <c r="A160" s="30" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D160" s="32" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F160" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G160" s="31"/>
       <c r="H160" s="31" t="str">
@@ -20378,7 +20384,7 @@
         <v>75</v>
       </c>
       <c r="AH160" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI160" s="31" t="s">
         <v>77</v>
@@ -20398,19 +20404,19 @@
     </row>
     <row r="161" ht="183.5" customHeight="1" spans="1:47">
       <c r="A161" s="27" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B161" s="28" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C161" s="29" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D161" s="29" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E161" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F161" s="28"/>
       <c r="G161" s="28"/>
@@ -20420,7 +20426,7 @@
       </c>
       <c r="I161" s="28"/>
       <c r="J161" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K161" s="28">
         <f>VLOOKUP(J161,__Sheet3!A:B,2,FALSE)</f>
@@ -20473,7 +20479,7 @@
         <v>75</v>
       </c>
       <c r="AH161" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI161" s="28" t="s">
         <v>77</v>
@@ -20493,17 +20499,17 @@
     </row>
     <row r="162" ht="84.5" customHeight="1" spans="1:47">
       <c r="A162" s="30" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D162" s="32"/>
       <c r="E162" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F162" s="31"/>
       <c r="G162" s="31"/>
@@ -20513,7 +20519,7 @@
       </c>
       <c r="I162" s="31"/>
       <c r="J162" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K162" s="31">
         <f>VLOOKUP(J162,__Sheet3!A:B,2,FALSE)</f>
@@ -20566,7 +20572,7 @@
         <v>75</v>
       </c>
       <c r="AH162" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI162" s="31" t="s">
         <v>77</v>
@@ -20586,17 +20592,17 @@
     </row>
     <row r="163" ht="134" customHeight="1" spans="1:47">
       <c r="A163" s="27" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B163" s="28" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C163" s="29" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D163" s="29"/>
       <c r="E163" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F163" s="28"/>
       <c r="G163" s="28"/>
@@ -20606,7 +20612,7 @@
       </c>
       <c r="I163" s="28"/>
       <c r="J163" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K163" s="28">
         <f>VLOOKUP(J163,__Sheet3!A:B,2,FALSE)</f>
@@ -20659,7 +20665,7 @@
         <v>75</v>
       </c>
       <c r="AH163" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI163" s="28" t="s">
         <v>77</v>
@@ -20679,22 +20685,22 @@
     </row>
     <row r="164" ht="84.5" customHeight="1" spans="1:47">
       <c r="A164" s="30" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D164" s="32" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E164" s="31" t="s">
         <v>98</v>
       </c>
       <c r="F164" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G164" s="31"/>
       <c r="H164" s="31" t="str">
@@ -20703,7 +20709,7 @@
       </c>
       <c r="I164" s="31"/>
       <c r="J164" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K164" s="31">
         <f>VLOOKUP(J164,__Sheet3!A:B,2,FALSE)</f>
@@ -20756,7 +20762,7 @@
         <v>75</v>
       </c>
       <c r="AH164" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI164" s="31" t="s">
         <v>77</v>
@@ -20776,17 +20782,17 @@
     </row>
     <row r="165" ht="150.5" customHeight="1" spans="1:47">
       <c r="A165" s="27" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B165" s="28" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C165" s="29" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F165" s="28"/>
       <c r="G165" s="28"/>
@@ -20849,7 +20855,7 @@
         <v>75</v>
       </c>
       <c r="AH165" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI165" s="28" t="s">
         <v>77</v>
@@ -20869,17 +20875,17 @@
     </row>
     <row r="166" ht="84.5" customHeight="1" spans="1:47">
       <c r="A166" s="30" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D166" s="32"/>
       <c r="E166" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F166" s="31"/>
       <c r="G166" s="31"/>
@@ -20889,7 +20895,7 @@
       </c>
       <c r="I166" s="31"/>
       <c r="J166" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K166" s="31">
         <f>VLOOKUP(J166,__Sheet3!A:B,2,FALSE)</f>
@@ -20942,7 +20948,7 @@
         <v>75</v>
       </c>
       <c r="AH166" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI166" s="31" t="s">
         <v>77</v>
@@ -20962,17 +20968,17 @@
     </row>
     <row r="167" ht="183.5" customHeight="1" spans="1:47">
       <c r="A167" s="27" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B167" s="28" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C167" s="29" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D167" s="29"/>
       <c r="E167" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F167" s="28"/>
       <c r="G167" s="28"/>
@@ -20982,7 +20988,7 @@
       </c>
       <c r="I167" s="28"/>
       <c r="J167" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K167" s="28">
         <f>VLOOKUP(J167,__Sheet3!A:B,2,FALSE)</f>
@@ -21035,7 +21041,7 @@
         <v>75</v>
       </c>
       <c r="AH167" s="28" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI167" s="28" t="s">
         <v>77</v>
@@ -21055,17 +21061,17 @@
     </row>
     <row r="168" ht="183.5" customHeight="1" spans="1:47">
       <c r="A168" s="30" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D168" s="32"/>
       <c r="E168" s="31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F168" s="31"/>
       <c r="G168" s="31"/>
@@ -21075,7 +21081,7 @@
       </c>
       <c r="I168" s="31"/>
       <c r="J168" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K168" s="31">
         <f>VLOOKUP(J168,__Sheet3!A:B,2,FALSE)</f>
@@ -21128,7 +21134,7 @@
         <v>75</v>
       </c>
       <c r="AH168" s="31" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI168" s="31" t="s">
         <v>77</v>
@@ -21148,17 +21154,17 @@
     </row>
     <row r="169" ht="101" customHeight="1" spans="1:47">
       <c r="A169" s="67" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B169" s="68" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C169" s="69" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D169" s="69"/>
       <c r="E169" s="68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F169" s="68"/>
       <c r="G169" s="68"/>
@@ -21168,7 +21174,7 @@
       </c>
       <c r="I169" s="68"/>
       <c r="J169" s="68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K169" s="68">
         <f>VLOOKUP(J169,__Sheet3!A:B,2,FALSE)</f>
@@ -21221,7 +21227,7 @@
         <v>75</v>
       </c>
       <c r="AH169" s="68" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AI169" s="68" t="s">
         <v>77</v>
@@ -24374,12 +24380,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="2:2">
       <c r="B2" s="15" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -24387,165 +24393,165 @@
     </row>
     <row r="4" ht="14.25" spans="2:3">
       <c r="B4" s="16" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C4" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="16" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C5" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="16" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C6" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:3">
       <c r="B7" s="16" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C7" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:3">
       <c r="B8" s="16" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C8" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="16" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C9" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="16" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C10" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="16" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C11" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C12" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C27" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D27" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C28" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -24579,7 +24585,7 @@
         <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -24590,10 +24596,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -24604,10 +24610,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -24618,68 +24624,68 @@
         <v>3</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F5" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="5:6">
       <c r="E8" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F8" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" spans="5:6">
       <c r="E9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F9" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="10" spans="5:6">
@@ -24687,31 +24693,31 @@
         <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="5:6">
       <c r="E11" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="12" spans="5:6">
       <c r="E12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F12" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="13" spans="5:6">
       <c r="E13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F13" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="8:8">
@@ -24775,51 +24781,51 @@
   <sheetData>
     <row r="1" ht="40" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>98</v>
       </c>
       <c r="N1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -24837,7 +24843,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -24850,21 +24856,21 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="10"/>
     </row>
     <row r="4" customHeight="1" spans="1:14">
       <c r="A4" s="4" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -24873,23 +24879,23 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="12" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="N4" s="10"/>
     </row>
     <row r="5" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -24901,13 +24907,13 @@
     </row>
     <row r="6" customHeight="1" spans="1:14">
       <c r="A6" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -24921,7 +24927,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -24939,7 +24945,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:14">
       <c r="A8" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -24957,7 +24963,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -24975,7 +24981,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:14">
       <c r="A10" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -24993,7 +24999,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -25011,11 +25017,11 @@
     </row>
     <row r="12" customHeight="1" spans="1:14">
       <c r="A12" s="4" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -25024,10 +25030,10 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="12"/>
@@ -25039,35 +25045,35 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" customHeight="1" spans="1:14">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>

--- a/excels/abilities/arms.xlsx
+++ b/excels/abilities/arms.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="898">
   <si>
     <t>名字</t>
   </si>
@@ -662,9 +662,6 @@
   </si>
   <si>
     <t>召唤型</t>
-  </si>
-  <si>
-    <t>1,2</t>
   </si>
   <si>
     <t>0.1*AttackDamage</t>
@@ -5171,21 +5168,21 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{D2B11830-F9AF-492A-B78D-9679491683FA}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C9F3976D-82B1-49AE-8C59-7F3E1A80AAFE}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E2D3BA05-9A26-4DBC-B5CE-D3BDD27E395F}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C4FB9F71-4B5A-4F28-969A-2DA4779E40BA}">
       <tableStyleElement type="wholeTable" dxfId="20"/>
       <tableStyleElement type="headerRow" dxfId="19"/>
       <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{6DBBA5CF-2009-49AF-AB9A-FE7BCF84A12E}">
+    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{B65AFAE0-3E31-4754-8BBB-6C4EFA2D5083}">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="firstColumn" dxfId="21"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{284B19D2-51B4-4358-88E0-157AC56C00FC}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{8CE1BF6B-E950-4323-AAF7-1ABA4853ACD8}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="totalRow" dxfId="26"/>
@@ -5499,13 +5496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AW169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A29" workbookViewId="0">
-      <pane xSplit="7" topLeftCell="W1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A14" workbookViewId="0">
+      <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="X103" sqref="X103"/>
+      <selection pane="topRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5687,7 +5684,7 @@
       <c r="AV1" s="61"/>
       <c r="AW1" s="74"/>
     </row>
-    <row r="2" s="17" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:48">
+    <row r="2" s="17" customFormat="1" ht="35" customHeight="1" spans="1:48">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
@@ -5823,7 +5820,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="3" customFormat="1" ht="51.5" customHeight="1" spans="1:49">
       <c r="A3" s="28" t="s">
         <v>75</v>
       </c>
@@ -7473,7 +7470,7 @@
       <c r="AV18" s="66"/>
       <c r="AW18" s="75"/>
     </row>
-    <row r="19" ht="183.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="19" ht="183.5" customHeight="1" spans="1:49">
       <c r="A19" s="28" t="s">
         <v>191</v>
       </c>
@@ -7495,9 +7492,7 @@
         <f>IF(E19="无","null",VLOOKUP(E19,__Sheet3!E:F,2,FALSE))&amp;IF(ISTEXT(F19),",","")&amp;IF(ISTEXT(F19),VLOOKUP(F19,__Sheet3!E:F,2,FALSE),"")&amp;IF(ISTEXT(G19),",","")&amp;IF(ISTEXT(G19),VLOOKUP(G19,__Sheet3!E:F,2,FALSE),"")</f>
         <v>Summon</v>
       </c>
-      <c r="I19" s="29" t="s">
-        <v>196</v>
-      </c>
+      <c r="I19" s="29"/>
       <c r="J19" s="29" t="s">
         <v>176</v>
       </c>
@@ -7506,7 +7501,7 @@
         <v>6</v>
       </c>
       <c r="L19" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="29">
         <v>1</v>
@@ -7539,14 +7534,14 @@
         <v>117</v>
       </c>
       <c r="W19" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X19" s="29"/>
       <c r="Y19" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z19" s="29" t="s">
         <v>198</v>
-      </c>
-      <c r="Z19" s="29" t="s">
-        <v>199</v>
       </c>
       <c r="AA19" s="29"/>
       <c r="AB19" s="29"/>
@@ -7562,7 +7557,7 @@
         <v>80</v>
       </c>
       <c r="AJ19" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AK19" s="32" t="s">
         <v>82</v>
@@ -7582,17 +7577,17 @@
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="1:49">
       <c r="A20" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>202</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>203</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
@@ -7641,17 +7636,17 @@
         <v>1</v>
       </c>
       <c r="V20" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W20" s="32">
         <v>0</v>
       </c>
       <c r="X20" s="32"/>
       <c r="Y20" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z20" s="32" t="s">
         <v>206</v>
-      </c>
-      <c r="Z20" s="32" t="s">
-        <v>207</v>
       </c>
       <c r="AA20" s="32"/>
       <c r="AB20" s="32"/>
@@ -7667,7 +7662,7 @@
         <v>80</v>
       </c>
       <c r="AJ20" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AK20" s="32" t="s">
         <v>82</v>
@@ -7685,21 +7680,21 @@
       <c r="AV20" s="66"/>
       <c r="AW20" s="75"/>
     </row>
-    <row r="21" ht="117.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="21" ht="117.5" customHeight="1" spans="1:49">
       <c r="A21" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="C21" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="D21" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>212</v>
-      </c>
       <c r="E21" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
@@ -7711,7 +7706,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K21" s="29">
         <f>VLOOKUP(J21,__Sheet3!A:B,2,FALSE)</f>
@@ -7755,16 +7750,16 @@
       </c>
       <c r="X21" s="29"/>
       <c r="Y21" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z21" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="Z21" s="29" t="s">
-        <v>207</v>
-      </c>
       <c r="AA21" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB21" s="29" t="s">
         <v>214</v>
-      </c>
-      <c r="AB21" s="29" t="s">
-        <v>215</v>
       </c>
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
@@ -7778,7 +7773,7 @@
         <v>80</v>
       </c>
       <c r="AJ21" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AK21" s="32" t="s">
         <v>82</v>
@@ -7798,22 +7793,22 @@
     </row>
     <row r="22" ht="101" customHeight="1" spans="1:49">
       <c r="A22" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="D22" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="E22" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="F22" s="32" t="s">
         <v>221</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>222</v>
       </c>
       <c r="G22" s="32"/>
       <c r="H22" s="32" t="str">
@@ -7859,20 +7854,20 @@
         <v>3.5</v>
       </c>
       <c r="V22" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="W22" s="32" t="s">
         <v>223</v>
-      </c>
-      <c r="W22" s="32" t="s">
-        <v>224</v>
       </c>
       <c r="X22" s="32"/>
       <c r="Y22" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z22" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="Z22" s="32" t="s">
+      <c r="AA22" s="32" t="s">
         <v>226</v>
-      </c>
-      <c r="AA22" s="32" t="s">
-        <v>227</v>
       </c>
       <c r="AB22" s="32"/>
       <c r="AC22" s="32"/>
@@ -7887,7 +7882,7 @@
         <v>80</v>
       </c>
       <c r="AJ22" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AK22" s="32" t="s">
         <v>82</v>
@@ -7907,19 +7902,19 @@
     </row>
     <row r="23" ht="117.5" customHeight="1" spans="1:49">
       <c r="A23" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="C23" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="D23" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="E23" s="29" t="s">
         <v>232</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>233</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -7973,10 +7968,10 @@
       </c>
       <c r="X23" s="29"/>
       <c r="Y23" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z23" s="29" t="s">
         <v>234</v>
-      </c>
-      <c r="Z23" s="29" t="s">
-        <v>235</v>
       </c>
       <c r="AA23" s="29"/>
       <c r="AB23" s="29"/>
@@ -7992,7 +7987,7 @@
         <v>80</v>
       </c>
       <c r="AJ23" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK23" s="32" t="s">
         <v>82</v>
@@ -8012,16 +8007,16 @@
     </row>
     <row r="24" ht="117.5" customHeight="1" spans="1:49">
       <c r="A24" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="C24" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="D24" s="33" t="s">
         <v>239</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>240</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>103</v>
@@ -8074,17 +8069,17 @@
         <v>117</v>
       </c>
       <c r="W24" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X24" s="32"/>
       <c r="Y24" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z24" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="Z24" s="32" t="s">
+      <c r="AA24" s="32" t="s">
         <v>243</v>
-      </c>
-      <c r="AA24" s="32" t="s">
-        <v>244</v>
       </c>
       <c r="AB24" s="32"/>
       <c r="AC24" s="32"/>
@@ -8099,7 +8094,7 @@
         <v>80</v>
       </c>
       <c r="AJ24" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AK24" s="32" t="s">
         <v>82</v>
@@ -8119,16 +8114,16 @@
     </row>
     <row r="25" ht="68" customHeight="1" spans="1:49">
       <c r="A25" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="C25" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="D25" s="30" t="s">
         <v>248</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>249</v>
       </c>
       <c r="E25" s="29" t="s">
         <v>132</v>
@@ -8181,11 +8176,11 @@
         <v>117</v>
       </c>
       <c r="W25" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X25" s="29"/>
       <c r="Y25" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Z25" s="29" t="s">
         <v>146</v>
@@ -8204,7 +8199,7 @@
         <v>80</v>
       </c>
       <c r="AJ25" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AK25" s="32" t="s">
         <v>82</v>
@@ -8224,19 +8219,19 @@
     </row>
     <row r="26" ht="101" customHeight="1" spans="1:49">
       <c r="A26" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B26" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="C26" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="D26" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>256</v>
-      </c>
       <c r="E26" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
@@ -8286,17 +8281,17 @@
         <v>117</v>
       </c>
       <c r="W26" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X26" s="32"/>
       <c r="Y26" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z26" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="Z26" s="32" t="s">
+      <c r="AA26" s="32" t="s">
         <v>258</v>
-      </c>
-      <c r="AA26" s="32" t="s">
-        <v>259</v>
       </c>
       <c r="AB26" s="32"/>
       <c r="AC26" s="32"/>
@@ -8311,7 +8306,7 @@
         <v>80</v>
       </c>
       <c r="AJ26" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AK26" s="32" t="s">
         <v>82</v>
@@ -8331,19 +8326,19 @@
     </row>
     <row r="27" ht="84.5" customHeight="1" spans="1:49">
       <c r="A27" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="C27" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="D27" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>264</v>
-      </c>
       <c r="E27" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
@@ -8399,13 +8394,13 @@
       </c>
       <c r="X27" s="29"/>
       <c r="Y27" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z27" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="Z27" s="29" t="s">
-        <v>226</v>
-      </c>
       <c r="AA27" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AB27" s="29"/>
       <c r="AC27" s="29"/>
@@ -8420,7 +8415,7 @@
         <v>80</v>
       </c>
       <c r="AJ27" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK27" s="32" t="s">
         <v>82</v>
@@ -8438,21 +8433,21 @@
       <c r="AV27" s="66"/>
       <c r="AW27" s="75"/>
     </row>
-    <row r="28" ht="150.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="28" ht="150.5" customHeight="1" spans="1:49">
       <c r="A28" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="C28" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="D28" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="D28" s="33" t="s">
-        <v>270</v>
-      </c>
       <c r="E28" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
@@ -8521,7 +8516,7 @@
         <v>80</v>
       </c>
       <c r="AJ28" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AK28" s="32" t="s">
         <v>82</v>
@@ -8541,19 +8536,19 @@
     </row>
     <row r="29" ht="134" customHeight="1" spans="1:49">
       <c r="A29" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="C29" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="D29" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="E29" s="29" t="s">
         <v>275</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>276</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
@@ -8603,20 +8598,20 @@
         <v>117</v>
       </c>
       <c r="W29" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X29" s="29"/>
       <c r="Y29" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z29" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="Z29" s="29" t="s">
+      <c r="AA29" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="AA29" s="29" t="s">
+      <c r="AB29" s="29" t="s">
         <v>280</v>
-      </c>
-      <c r="AB29" s="29" t="s">
-        <v>281</v>
       </c>
       <c r="AC29" s="29"/>
       <c r="AD29" s="29"/>
@@ -8630,7 +8625,7 @@
         <v>80</v>
       </c>
       <c r="AJ29" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AK29" s="32" t="s">
         <v>82</v>
@@ -8648,18 +8643,18 @@
       <c r="AV29" s="66"/>
       <c r="AW29" s="75"/>
     </row>
-    <row r="30" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="30" ht="134" customHeight="1" spans="1:49">
       <c r="A30" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="C30" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="D30" s="33" t="s">
         <v>285</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>286</v>
       </c>
       <c r="E30" s="32" t="s">
         <v>154</v>
@@ -8714,7 +8709,7 @@
         <v>117</v>
       </c>
       <c r="W30" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X30" s="32"/>
       <c r="Y30" s="32"/>
@@ -8733,7 +8728,7 @@
         <v>80</v>
       </c>
       <c r="AJ30" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AK30" s="32" t="s">
         <v>82</v>
@@ -8751,21 +8746,21 @@
       <c r="AV30" s="66"/>
       <c r="AW30" s="75"/>
     </row>
-    <row r="31" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="31" ht="18.5" customHeight="1" spans="1:49">
       <c r="A31" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="C31" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="D31" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="E31" s="29" t="s">
         <v>292</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>293</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
@@ -8775,7 +8770,7 @@
       </c>
       <c r="I31" s="29"/>
       <c r="J31" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K31" s="29">
         <f>VLOOKUP(J31,__Sheet3!A:B,2,FALSE)</f>
@@ -8834,7 +8829,7 @@
         <v>80</v>
       </c>
       <c r="AJ31" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AK31" s="32" t="s">
         <v>82</v>
@@ -8852,19 +8847,19 @@
       <c r="AV31" s="66"/>
       <c r="AW31" s="75"/>
     </row>
-    <row r="32" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="32" ht="18.5" customHeight="1" spans="1:49">
       <c r="A32" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="C32" s="33" t="s">
         <v>296</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>297</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
@@ -8874,7 +8869,7 @@
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K32" s="32">
         <f>VLOOKUP(J32,__Sheet3!A:B,2,FALSE)</f>
@@ -8914,7 +8909,7 @@
         <v>117</v>
       </c>
       <c r="W32" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="X32" s="32"/>
       <c r="Y32" s="32"/>
@@ -8933,7 +8928,7 @@
         <v>80</v>
       </c>
       <c r="AJ32" s="32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AK32" s="32" t="s">
         <v>82</v>
@@ -8951,19 +8946,19 @@
       <c r="AV32" s="66"/>
       <c r="AW32" s="75"/>
     </row>
-    <row r="33" ht="35" hidden="1" customHeight="1" spans="1:49">
+    <row r="33" ht="35" customHeight="1" spans="1:49">
       <c r="A33" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B33" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="C33" s="30" t="s">
         <v>301</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>302</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
@@ -9013,7 +9008,7 @@
         <v>117</v>
       </c>
       <c r="W33" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X33" s="29"/>
       <c r="Y33" s="29"/>
@@ -9032,7 +9027,7 @@
         <v>80</v>
       </c>
       <c r="AJ33" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AK33" s="32" t="s">
         <v>82</v>
@@ -9052,17 +9047,17 @@
     </row>
     <row r="34" ht="101" customHeight="1" spans="1:49">
       <c r="A34" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B34" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="C34" s="33" t="s">
         <v>306</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>307</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
@@ -9109,23 +9104,23 @@
         <v>3</v>
       </c>
       <c r="V34" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W34" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X34" s="32"/>
       <c r="Y34" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z34" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="Z34" s="32" t="s">
+      <c r="AA34" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="AA34" s="32" t="s">
+      <c r="AB34" s="32" t="s">
         <v>311</v>
-      </c>
-      <c r="AB34" s="32" t="s">
-        <v>312</v>
       </c>
       <c r="AC34" s="32"/>
       <c r="AD34" s="32"/>
@@ -9139,7 +9134,7 @@
         <v>80</v>
       </c>
       <c r="AJ34" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AK34" s="32" t="s">
         <v>82</v>
@@ -9157,19 +9152,19 @@
       <c r="AV34" s="66"/>
       <c r="AW34" s="75"/>
     </row>
-    <row r="35" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="35" ht="18.5" customHeight="1" spans="1:49">
       <c r="A35" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="C35" s="30" t="s">
         <v>315</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>316</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
@@ -9179,7 +9174,7 @@
       </c>
       <c r="I35" s="29"/>
       <c r="J35" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K35" s="29">
         <f>VLOOKUP(J35,__Sheet3!A:B,2,FALSE)</f>
@@ -9216,10 +9211,10 @@
         <v>3</v>
       </c>
       <c r="V35" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="W35" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X35" s="29"/>
       <c r="Y35" s="29"/>
@@ -9238,7 +9233,7 @@
         <v>80</v>
       </c>
       <c r="AJ35" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AK35" s="32" t="s">
         <v>82</v>
@@ -9256,19 +9251,19 @@
       <c r="AV35" s="66"/>
       <c r="AW35" s="75"/>
     </row>
-    <row r="36" ht="51.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="36" ht="51.5" customHeight="1" spans="1:49">
       <c r="A36" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="C36" s="33" t="s">
         <v>320</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>321</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
@@ -9337,7 +9332,7 @@
         <v>80</v>
       </c>
       <c r="AJ36" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AK36" s="32" t="s">
         <v>82</v>
@@ -9355,21 +9350,21 @@
       <c r="AV36" s="66"/>
       <c r="AW36" s="75"/>
     </row>
-    <row r="37" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="37" ht="84.5" customHeight="1" spans="1:49">
       <c r="A37" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B37" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="C37" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="D37" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="D37" s="30" t="s">
-        <v>326</v>
-      </c>
       <c r="E37" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
@@ -9419,7 +9414,7 @@
         <v>117</v>
       </c>
       <c r="W37" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X37" s="29"/>
       <c r="Y37" s="29"/>
@@ -9438,7 +9433,7 @@
         <v>80</v>
       </c>
       <c r="AJ37" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AK37" s="32" t="s">
         <v>82</v>
@@ -9456,21 +9451,21 @@
       <c r="AV37" s="66"/>
       <c r="AW37" s="75"/>
     </row>
-    <row r="38" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="38" ht="84.5" customHeight="1" spans="1:49">
       <c r="A38" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="B38" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="C38" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="D38" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="D38" s="33" t="s">
-        <v>332</v>
-      </c>
       <c r="E38" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -9520,7 +9515,7 @@
         <v>117</v>
       </c>
       <c r="W38" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X38" s="32"/>
       <c r="Y38" s="32"/>
@@ -9539,7 +9534,7 @@
         <v>80</v>
       </c>
       <c r="AJ38" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AK38" s="32" t="s">
         <v>82</v>
@@ -9557,19 +9552,19 @@
       <c r="AV38" s="66"/>
       <c r="AW38" s="75"/>
     </row>
-    <row r="39" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="39" ht="18.5" customHeight="1" spans="1:49">
       <c r="A39" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="C39" s="30" t="s">
         <v>335</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>336</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
@@ -9579,7 +9574,7 @@
       </c>
       <c r="I39" s="29"/>
       <c r="J39" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K39" s="29">
         <f>VLOOKUP(J39,__Sheet3!A:B,2,FALSE)</f>
@@ -9638,7 +9633,7 @@
         <v>80</v>
       </c>
       <c r="AJ39" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AK39" s="32" t="s">
         <v>82</v>
@@ -9656,15 +9651,15 @@
       <c r="AV39" s="66"/>
       <c r="AW39" s="75"/>
     </row>
-    <row r="40" ht="35" hidden="1" customHeight="1" spans="1:49">
+    <row r="40" ht="35" customHeight="1" spans="1:49">
       <c r="A40" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="B40" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="C40" s="33" t="s">
         <v>339</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>340</v>
       </c>
       <c r="D40" s="33"/>
       <c r="E40" s="32" t="s">
@@ -9737,7 +9732,7 @@
         <v>80</v>
       </c>
       <c r="AJ40" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AK40" s="32" t="s">
         <v>82</v>
@@ -9755,15 +9750,15 @@
       <c r="AV40" s="66"/>
       <c r="AW40" s="75"/>
     </row>
-    <row r="41" ht="35" hidden="1" customHeight="1" spans="1:49">
+    <row r="41" ht="35" customHeight="1" spans="1:49">
       <c r="A41" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="C41" s="30" t="s">
         <v>343</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>344</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="29" t="s">
@@ -9836,7 +9831,7 @@
         <v>80</v>
       </c>
       <c r="AJ41" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AK41" s="32" t="s">
         <v>82</v>
@@ -9854,18 +9849,18 @@
       <c r="AV41" s="66"/>
       <c r="AW41" s="75"/>
     </row>
-    <row r="42" ht="51.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="42" ht="51.5" customHeight="1" spans="1:49">
       <c r="A42" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B42" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="C42" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="D42" s="33" t="s">
         <v>348</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>349</v>
       </c>
       <c r="E42" s="32" t="s">
         <v>175</v>
@@ -9937,7 +9932,7 @@
         <v>80</v>
       </c>
       <c r="AJ42" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AK42" s="32" t="s">
         <v>82</v>
@@ -9955,15 +9950,15 @@
       <c r="AV42" s="66"/>
       <c r="AW42" s="75"/>
     </row>
-    <row r="43" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="43" ht="18.5" customHeight="1" spans="1:49">
       <c r="A43" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="B43" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="C43" s="30" t="s">
         <v>352</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>353</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="29" t="s">
@@ -10036,7 +10031,7 @@
         <v>80</v>
       </c>
       <c r="AJ43" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AK43" s="32" t="s">
         <v>82</v>
@@ -10054,18 +10049,18 @@
       <c r="AV43" s="66"/>
       <c r="AW43" s="75"/>
     </row>
-    <row r="44" ht="167" hidden="1" customHeight="1" spans="1:49">
+    <row r="44" ht="167" customHeight="1" spans="1:49">
       <c r="A44" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="B44" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="C44" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="D44" s="33" t="s">
         <v>357</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>358</v>
       </c>
       <c r="E44" s="32" t="s">
         <v>195</v>
@@ -10137,7 +10132,7 @@
         <v>80</v>
       </c>
       <c r="AJ44" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AK44" s="32" t="s">
         <v>82</v>
@@ -10149,7 +10144,7 @@
       <c r="AP44" s="32"/>
       <c r="AQ44" s="67"/>
       <c r="AR44" s="67" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AS44" s="67"/>
       <c r="AT44" s="67"/>
@@ -10159,17 +10154,17 @@
     </row>
     <row r="45" ht="51.5" customHeight="1" spans="1:49">
       <c r="A45" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="B45" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="C45" s="30" t="s">
         <v>362</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>363</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
@@ -10223,16 +10218,16 @@
       </c>
       <c r="X45" s="29"/>
       <c r="Y45" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z45" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="Z45" s="29" t="s">
+      <c r="AA45" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="AA45" s="29" t="s">
+      <c r="AB45" s="29" t="s">
         <v>366</v>
-      </c>
-      <c r="AB45" s="29" t="s">
-        <v>367</v>
       </c>
       <c r="AC45" s="29"/>
       <c r="AD45" s="29"/>
@@ -10246,7 +10241,7 @@
         <v>80</v>
       </c>
       <c r="AJ45" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AK45" s="32" t="s">
         <v>82</v>
@@ -10258,7 +10253,7 @@
       <c r="AP45" s="29"/>
       <c r="AQ45" s="64"/>
       <c r="AR45" s="64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AS45" s="64"/>
       <c r="AT45" s="64"/>
@@ -10266,19 +10261,19 @@
       <c r="AV45" s="66"/>
       <c r="AW45" s="75"/>
     </row>
-    <row r="46" ht="51.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="46" ht="51.5" customHeight="1" spans="1:49">
       <c r="A46" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="B46" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="C46" s="33" t="s">
         <v>371</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>372</v>
       </c>
       <c r="D46" s="33"/>
       <c r="E46" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
@@ -10347,7 +10342,7 @@
         <v>80</v>
       </c>
       <c r="AJ46" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AK46" s="32" t="s">
         <v>82</v>
@@ -10359,7 +10354,7 @@
       <c r="AP46" s="32"/>
       <c r="AQ46" s="67"/>
       <c r="AR46" s="67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AS46" s="67"/>
       <c r="AT46" s="67"/>
@@ -10367,21 +10362,21 @@
       <c r="AV46" s="66"/>
       <c r="AW46" s="75"/>
     </row>
-    <row r="47" ht="101" hidden="1" customHeight="1" spans="1:49">
+    <row r="47" ht="101" customHeight="1" spans="1:49">
       <c r="A47" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="B47" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="C47" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="D47" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="D47" s="30" t="s">
-        <v>378</v>
-      </c>
       <c r="E47" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
@@ -10391,7 +10386,7 @@
       </c>
       <c r="I47" s="29"/>
       <c r="J47" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K47" s="29">
         <f>VLOOKUP(J47,__Sheet3!A:B,2,FALSE)</f>
@@ -10450,7 +10445,7 @@
         <v>80</v>
       </c>
       <c r="AJ47" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AK47" s="32" t="s">
         <v>82</v>
@@ -10468,21 +10463,21 @@
       <c r="AV47" s="66"/>
       <c r="AW47" s="75"/>
     </row>
-    <row r="48" s="18" customFormat="1" ht="62" hidden="1" customHeight="1" spans="1:49">
+    <row r="48" s="18" customFormat="1" ht="62" customHeight="1" spans="1:49">
       <c r="A48" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="B48" s="44" t="s">
         <v>380</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="C48" s="45" t="s">
         <v>381</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="D48" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="D48" s="46" t="s">
-        <v>383</v>
-      </c>
       <c r="E48" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F48" s="47"/>
       <c r="G48" s="47"/>
@@ -10551,7 +10546,7 @@
         <v>80</v>
       </c>
       <c r="AJ48" s="47" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AK48" s="47" t="s">
         <v>82</v>
@@ -10569,24 +10564,24 @@
       <c r="AV48" s="71"/>
       <c r="AW48" s="76"/>
     </row>
-    <row r="49" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="49" ht="84.5" customHeight="1" spans="1:49">
       <c r="A49" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="B49" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="C49" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="D49" s="30" t="s">
         <v>387</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>388</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>103</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G49" s="29"/>
       <c r="H49" s="29" t="str">
@@ -10635,7 +10630,7 @@
         <v>117</v>
       </c>
       <c r="W49" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X49" s="29"/>
       <c r="Y49" s="29"/>
@@ -10654,7 +10649,7 @@
         <v>80</v>
       </c>
       <c r="AJ49" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AK49" s="32" t="s">
         <v>82</v>
@@ -10674,16 +10669,16 @@
     </row>
     <row r="50" ht="84.5" customHeight="1" spans="1:49">
       <c r="A50" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="B50" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="C50" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="D50" s="33" t="s">
         <v>392</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>393</v>
       </c>
       <c r="E50" s="32" t="s">
         <v>103</v>
@@ -10740,7 +10735,7 @@
       </c>
       <c r="X50" s="32"/>
       <c r="Y50" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Z50" s="32"/>
       <c r="AA50" s="32"/>
@@ -10757,7 +10752,7 @@
         <v>80</v>
       </c>
       <c r="AJ50" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AK50" s="32" t="s">
         <v>82</v>
@@ -10775,18 +10770,18 @@
       <c r="AV50" s="66"/>
       <c r="AW50" s="75"/>
     </row>
-    <row r="51" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="51" ht="84.5" customHeight="1" spans="1:49">
       <c r="A51" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B51" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="C51" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="D51" s="30" t="s">
         <v>398</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>399</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>103</v>
@@ -10841,7 +10836,7 @@
         <v>117</v>
       </c>
       <c r="W51" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X51" s="29"/>
       <c r="Y51" s="29"/>
@@ -10860,7 +10855,7 @@
         <v>80</v>
       </c>
       <c r="AJ51" s="29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AK51" s="32" t="s">
         <v>82</v>
@@ -10878,15 +10873,15 @@
       <c r="AV51" s="66"/>
       <c r="AW51" s="75"/>
     </row>
-    <row r="52" ht="101" hidden="1" customHeight="1" spans="1:49">
+    <row r="52" ht="101" customHeight="1" spans="1:49">
       <c r="A52" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="B52" s="32" t="s">
         <v>401</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="C52" s="33" t="s">
         <v>402</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>403</v>
       </c>
       <c r="D52" s="33"/>
       <c r="E52" s="32" t="s">
@@ -10959,7 +10954,7 @@
         <v>80</v>
       </c>
       <c r="AJ52" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AK52" s="32" t="s">
         <v>82</v>
@@ -10977,15 +10972,15 @@
       <c r="AV52" s="66"/>
       <c r="AW52" s="75"/>
     </row>
-    <row r="53" ht="101" hidden="1" customHeight="1" spans="1:49">
+    <row r="53" ht="101" customHeight="1" spans="1:49">
       <c r="A53" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="B53" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="C53" s="30" t="s">
         <v>406</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>407</v>
       </c>
       <c r="D53" s="30"/>
       <c r="E53" s="29" t="s">
@@ -11058,7 +11053,7 @@
         <v>80</v>
       </c>
       <c r="AJ53" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AK53" s="32" t="s">
         <v>82</v>
@@ -11076,18 +11071,18 @@
       <c r="AV53" s="66"/>
       <c r="AW53" s="75"/>
     </row>
-    <row r="54" ht="101" hidden="1" customHeight="1" spans="1:49">
+    <row r="54" ht="101" customHeight="1" spans="1:49">
       <c r="A54" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="B54" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="C54" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="D54" s="33" t="s">
         <v>411</v>
-      </c>
-      <c r="D54" s="33" t="s">
-        <v>412</v>
       </c>
       <c r="E54" s="32" t="s">
         <v>132</v>
@@ -11140,7 +11135,7 @@
         <v>117</v>
       </c>
       <c r="W54" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X54" s="32"/>
       <c r="Y54" s="32"/>
@@ -11159,7 +11154,7 @@
         <v>80</v>
       </c>
       <c r="AJ54" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AK54" s="32" t="s">
         <v>82</v>
@@ -11177,18 +11172,18 @@
       <c r="AV54" s="66"/>
       <c r="AW54" s="75"/>
     </row>
-    <row r="55" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="55" ht="84.5" customHeight="1" spans="1:49">
       <c r="A55" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="B55" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="C55" s="30" t="s">
         <v>415</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="D55" s="30" t="s">
         <v>416</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>417</v>
       </c>
       <c r="E55" s="29" t="s">
         <v>103</v>
@@ -11241,7 +11236,7 @@
         <v>117</v>
       </c>
       <c r="W55" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X55" s="29"/>
       <c r="Y55" s="29"/>
@@ -11260,7 +11255,7 @@
         <v>80</v>
       </c>
       <c r="AJ55" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AK55" s="32" t="s">
         <v>82</v>
@@ -11278,18 +11273,18 @@
       <c r="AV55" s="66"/>
       <c r="AW55" s="75"/>
     </row>
-    <row r="56" s="18" customFormat="1" ht="117.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="56" s="18" customFormat="1" ht="117.5" customHeight="1" spans="1:49">
       <c r="A56" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="B56" s="47" t="s">
         <v>419</v>
       </c>
-      <c r="B56" s="47" t="s">
+      <c r="C56" s="46" t="s">
         <v>420</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="D56" s="46" t="s">
         <v>421</v>
-      </c>
-      <c r="D56" s="46" t="s">
-        <v>422</v>
       </c>
       <c r="E56" s="47" t="s">
         <v>166</v>
@@ -11361,7 +11356,7 @@
         <v>80</v>
       </c>
       <c r="AJ56" s="47" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AK56" s="47" t="s">
         <v>82</v>
@@ -11379,15 +11374,15 @@
       <c r="AV56" s="71"/>
       <c r="AW56" s="76"/>
     </row>
-    <row r="57" s="18" customFormat="1" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="57" s="18" customFormat="1" ht="134" customHeight="1" spans="1:49">
       <c r="A57" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="B57" s="49" t="s">
         <v>424</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="C57" s="50" t="s">
         <v>425</v>
-      </c>
-      <c r="C57" s="50" t="s">
-        <v>426</v>
       </c>
       <c r="D57" s="50"/>
       <c r="E57" s="49" t="s">
@@ -11460,7 +11455,7 @@
         <v>80</v>
       </c>
       <c r="AJ57" s="49" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AK57" s="47" t="s">
         <v>82</v>
@@ -11478,24 +11473,24 @@
       <c r="AV57" s="71"/>
       <c r="AW57" s="76"/>
     </row>
-    <row r="58" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="58" ht="84.5" customHeight="1" spans="1:49">
       <c r="A58" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="B58" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="C58" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="D58" s="33" t="s">
         <v>430</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>431</v>
       </c>
       <c r="E58" s="32" t="s">
         <v>103</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G58" s="32"/>
       <c r="H58" s="32" t="str">
@@ -11563,7 +11558,7 @@
         <v>80</v>
       </c>
       <c r="AJ58" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AK58" s="32" t="s">
         <v>82</v>
@@ -11581,24 +11576,24 @@
       <c r="AV58" s="66"/>
       <c r="AW58" s="75"/>
     </row>
-    <row r="59" ht="150.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="59" ht="150.5" customHeight="1" spans="1:49">
       <c r="A59" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="B59" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="C59" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="D59" s="30" t="s">
         <v>435</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>436</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>103</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G59" s="29"/>
       <c r="H59" s="29" t="str">
@@ -11647,7 +11642,7 @@
         <v>117</v>
       </c>
       <c r="W59" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="X59" s="29"/>
       <c r="Y59" s="29"/>
@@ -11666,7 +11661,7 @@
         <v>80</v>
       </c>
       <c r="AJ59" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AK59" s="32" t="s">
         <v>82</v>
@@ -11684,18 +11679,18 @@
       <c r="AV59" s="66"/>
       <c r="AW59" s="75"/>
     </row>
-    <row r="60" s="18" customFormat="1" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="60" s="18" customFormat="1" ht="134" customHeight="1" spans="1:49">
       <c r="A60" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="B60" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="B60" s="47" t="s">
+      <c r="C60" s="51" t="s">
         <v>440</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="D60" s="46" t="s">
         <v>441</v>
-      </c>
-      <c r="D60" s="46" t="s">
-        <v>442</v>
       </c>
       <c r="E60" s="47" t="s">
         <v>103</v>
@@ -11748,7 +11743,7 @@
         <v>117</v>
       </c>
       <c r="W60" s="47" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="X60" s="47"/>
       <c r="Y60" s="47"/>
@@ -11767,7 +11762,7 @@
         <v>80</v>
       </c>
       <c r="AJ60" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AK60" s="47" t="s">
         <v>82</v>
@@ -11785,18 +11780,18 @@
       <c r="AV60" s="71"/>
       <c r="AW60" s="76"/>
     </row>
-    <row r="61" ht="101" hidden="1" customHeight="1" spans="1:49">
+    <row r="61" ht="101" customHeight="1" spans="1:49">
       <c r="A61" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="B61" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="C61" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="D61" s="30" t="s">
         <v>447</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>448</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>103</v>
@@ -11870,7 +11865,7 @@
         <v>80</v>
       </c>
       <c r="AJ61" s="29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AK61" s="32" t="s">
         <v>82</v>
@@ -11888,18 +11883,18 @@
       <c r="AV61" s="66"/>
       <c r="AW61" s="75"/>
     </row>
-    <row r="62" ht="68" hidden="1" customHeight="1" spans="1:49">
+    <row r="62" ht="68" customHeight="1" spans="1:49">
       <c r="A62" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="B62" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="C62" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="D62" s="33" t="s">
         <v>452</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>453</v>
       </c>
       <c r="E62" s="32" t="s">
         <v>132</v>
@@ -11971,7 +11966,7 @@
         <v>80</v>
       </c>
       <c r="AJ62" s="32" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AK62" s="32" t="s">
         <v>82</v>
@@ -11989,18 +11984,18 @@
       <c r="AV62" s="66"/>
       <c r="AW62" s="75"/>
     </row>
-    <row r="63" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="63" ht="134" customHeight="1" spans="1:49">
       <c r="A63" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="B63" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="C63" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="D63" s="30" t="s">
         <v>457</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>458</v>
       </c>
       <c r="E63" s="29" t="s">
         <v>132</v>
@@ -12072,7 +12067,7 @@
         <v>80</v>
       </c>
       <c r="AJ63" s="29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AK63" s="32" t="s">
         <v>82</v>
@@ -12090,18 +12085,18 @@
       <c r="AV63" s="66"/>
       <c r="AW63" s="75"/>
     </row>
-    <row r="64" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="64" ht="84.5" customHeight="1" spans="1:49">
       <c r="A64" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="B64" s="32" t="s">
         <v>460</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="C64" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="D64" s="33" t="s">
         <v>462</v>
-      </c>
-      <c r="D64" s="33" t="s">
-        <v>463</v>
       </c>
       <c r="E64" s="32" t="s">
         <v>132</v>
@@ -12173,7 +12168,7 @@
         <v>80</v>
       </c>
       <c r="AJ64" s="32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AK64" s="32" t="s">
         <v>82</v>
@@ -12191,18 +12186,18 @@
       <c r="AV64" s="66"/>
       <c r="AW64" s="75"/>
     </row>
-    <row r="65" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="65" ht="134" customHeight="1" spans="1:49">
       <c r="A65" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="B65" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="C65" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="D65" s="30" t="s">
         <v>467</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>468</v>
       </c>
       <c r="E65" s="29" t="s">
         <v>154</v>
@@ -12274,7 +12269,7 @@
         <v>80</v>
       </c>
       <c r="AJ65" s="29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AK65" s="32" t="s">
         <v>82</v>
@@ -12292,18 +12287,18 @@
       <c r="AV65" s="66"/>
       <c r="AW65" s="75"/>
     </row>
-    <row r="66" ht="101" hidden="1" customHeight="1" spans="1:49">
+    <row r="66" ht="101" customHeight="1" spans="1:49">
       <c r="A66" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="B66" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="C66" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="D66" s="33" t="s">
         <v>472</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>473</v>
       </c>
       <c r="E66" s="32" t="s">
         <v>103</v>
@@ -12377,7 +12372,7 @@
         <v>80</v>
       </c>
       <c r="AJ66" s="32" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AK66" s="32" t="s">
         <v>82</v>
@@ -12395,18 +12390,18 @@
       <c r="AV66" s="66"/>
       <c r="AW66" s="75"/>
     </row>
-    <row r="67" ht="101" hidden="1" customHeight="1" spans="1:49">
+    <row r="67" ht="101" customHeight="1" spans="1:49">
       <c r="A67" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="B67" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="C67" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="D67" s="30" t="s">
         <v>477</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>478</v>
       </c>
       <c r="E67" s="29" t="s">
         <v>195</v>
@@ -12478,7 +12473,7 @@
         <v>80</v>
       </c>
       <c r="AJ67" s="29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AK67" s="32" t="s">
         <v>82</v>
@@ -12496,19 +12491,19 @@
       <c r="AV67" s="66"/>
       <c r="AW67" s="75"/>
     </row>
-    <row r="68" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="68" ht="18.5" customHeight="1" spans="1:49">
       <c r="A68" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="B68" s="32" t="s">
         <v>480</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="C68" s="33" t="s">
         <v>481</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>482</v>
       </c>
       <c r="D68" s="33"/>
       <c r="E68" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
@@ -12518,7 +12513,7 @@
       </c>
       <c r="I68" s="32"/>
       <c r="J68" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K68" s="32">
         <f>VLOOKUP(J68,__Sheet3!A:B,2,FALSE)</f>
@@ -12558,7 +12553,7 @@
         <v>117</v>
       </c>
       <c r="W68" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X68" s="32"/>
       <c r="Y68" s="32"/>
@@ -12577,7 +12572,7 @@
         <v>80</v>
       </c>
       <c r="AJ68" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AK68" s="32" t="s">
         <v>82</v>
@@ -12595,19 +12590,19 @@
       <c r="AV68" s="66"/>
       <c r="AW68" s="75"/>
     </row>
-    <row r="69" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="69" ht="18.5" customHeight="1" spans="1:49">
       <c r="A69" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="B69" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="C69" s="30" t="s">
         <v>485</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>486</v>
       </c>
       <c r="D69" s="30"/>
       <c r="E69" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
@@ -12617,7 +12612,7 @@
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K69" s="29">
         <f>VLOOKUP(J69,__Sheet3!A:B,2,FALSE)</f>
@@ -12676,7 +12671,7 @@
         <v>80</v>
       </c>
       <c r="AJ69" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AK69" s="32" t="s">
         <v>82</v>
@@ -12694,19 +12689,19 @@
       <c r="AV69" s="66"/>
       <c r="AW69" s="75"/>
     </row>
-    <row r="70" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="70" ht="18.5" customHeight="1" spans="1:49">
       <c r="A70" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="B70" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="C70" s="33" t="s">
         <v>489</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>490</v>
       </c>
       <c r="D70" s="33"/>
       <c r="E70" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
@@ -12756,7 +12751,7 @@
         <v>117</v>
       </c>
       <c r="W70" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X70" s="32"/>
       <c r="Y70" s="32"/>
@@ -12775,7 +12770,7 @@
         <v>80</v>
       </c>
       <c r="AJ70" s="32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AK70" s="32" t="s">
         <v>82</v>
@@ -12793,19 +12788,19 @@
       <c r="AV70" s="66"/>
       <c r="AW70" s="75"/>
     </row>
-    <row r="71" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="71" ht="18.5" customHeight="1" spans="1:49">
       <c r="A71" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="B71" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="C71" s="30" t="s">
         <v>493</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>494</v>
       </c>
       <c r="D71" s="30"/>
       <c r="E71" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
@@ -12874,7 +12869,7 @@
         <v>80</v>
       </c>
       <c r="AJ71" s="29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AK71" s="32" t="s">
         <v>82</v>
@@ -12892,19 +12887,19 @@
       <c r="AV71" s="66"/>
       <c r="AW71" s="75"/>
     </row>
-    <row r="72" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="72" ht="18.5" customHeight="1" spans="1:49">
       <c r="A72" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="B72" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="C72" s="33" t="s">
         <v>497</v>
-      </c>
-      <c r="C72" s="33" t="s">
-        <v>498</v>
       </c>
       <c r="D72" s="33"/>
       <c r="E72" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
@@ -12973,7 +12968,7 @@
         <v>80</v>
       </c>
       <c r="AJ72" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AK72" s="32" t="s">
         <v>82</v>
@@ -12991,19 +12986,19 @@
       <c r="AV72" s="66"/>
       <c r="AW72" s="75"/>
     </row>
-    <row r="73" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="73" ht="18.5" customHeight="1" spans="1:49">
       <c r="A73" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="B73" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="C73" s="30" t="s">
         <v>501</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>502</v>
       </c>
       <c r="D73" s="30"/>
       <c r="E73" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
@@ -13053,7 +13048,7 @@
         <v>117</v>
       </c>
       <c r="W73" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X73" s="29"/>
       <c r="Y73" s="29"/>
@@ -13072,7 +13067,7 @@
         <v>80</v>
       </c>
       <c r="AJ73" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AK73" s="32" t="s">
         <v>82</v>
@@ -13090,19 +13085,19 @@
       <c r="AV73" s="66"/>
       <c r="AW73" s="75"/>
     </row>
-    <row r="74" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="74" ht="18.5" customHeight="1" spans="1:49">
       <c r="A74" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="B74" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="B74" s="32" t="s">
-        <v>505</v>
-      </c>
       <c r="C74" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D74" s="33"/>
       <c r="E74" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="32"/>
@@ -13171,7 +13166,7 @@
         <v>80</v>
       </c>
       <c r="AJ74" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AK74" s="32" t="s">
         <v>82</v>
@@ -13189,21 +13184,21 @@
       <c r="AV74" s="66"/>
       <c r="AW74" s="75"/>
     </row>
-    <row r="75" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="75" ht="134" customHeight="1" spans="1:49">
       <c r="A75" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="B75" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="C75" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="D75" s="30" t="s">
         <v>509</v>
       </c>
-      <c r="D75" s="30" t="s">
-        <v>510</v>
-      </c>
       <c r="E75" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F75" s="29" t="s">
         <v>103</v>
@@ -13274,7 +13269,7 @@
         <v>80</v>
       </c>
       <c r="AJ75" s="29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AK75" s="32" t="s">
         <v>82</v>
@@ -13292,19 +13287,19 @@
       <c r="AV75" s="66"/>
       <c r="AW75" s="75"/>
     </row>
-    <row r="76" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="76" ht="18.5" customHeight="1" spans="1:49">
       <c r="A76" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="B76" s="32" t="s">
         <v>512</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="C76" s="33" t="s">
         <v>513</v>
-      </c>
-      <c r="C76" s="33" t="s">
-        <v>514</v>
       </c>
       <c r="D76" s="33"/>
       <c r="E76" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="32"/>
@@ -13314,7 +13309,7 @@
       </c>
       <c r="I76" s="32"/>
       <c r="J76" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K76" s="32">
         <f>VLOOKUP(J76,__Sheet3!A:B,2,FALSE)</f>
@@ -13354,7 +13349,7 @@
         <v>117</v>
       </c>
       <c r="W76" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X76" s="32"/>
       <c r="Y76" s="32"/>
@@ -13373,7 +13368,7 @@
         <v>80</v>
       </c>
       <c r="AJ76" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AK76" s="32" t="s">
         <v>82</v>
@@ -13391,19 +13386,19 @@
       <c r="AV76" s="66"/>
       <c r="AW76" s="75"/>
     </row>
-    <row r="77" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="77" ht="18.5" customHeight="1" spans="1:49">
       <c r="A77" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="B77" s="29" t="s">
         <v>516</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="C77" s="30" t="s">
         <v>517</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>518</v>
       </c>
       <c r="D77" s="30"/>
       <c r="E77" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
@@ -13413,7 +13408,7 @@
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K77" s="29">
         <f>VLOOKUP(J77,__Sheet3!A:B,2,FALSE)</f>
@@ -13453,7 +13448,7 @@
         <v>117</v>
       </c>
       <c r="W77" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X77" s="29"/>
       <c r="Y77" s="29"/>
@@ -13472,7 +13467,7 @@
         <v>80</v>
       </c>
       <c r="AJ77" s="29" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AK77" s="32" t="s">
         <v>82</v>
@@ -13490,19 +13485,19 @@
       <c r="AV77" s="66"/>
       <c r="AW77" s="75"/>
     </row>
-    <row r="78" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="78" ht="18.5" customHeight="1" spans="1:49">
       <c r="A78" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="B78" s="32" t="s">
         <v>520</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="C78" s="33" t="s">
         <v>521</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>522</v>
       </c>
       <c r="D78" s="33"/>
       <c r="E78" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="32"/>
@@ -13512,7 +13507,7 @@
       </c>
       <c r="I78" s="32"/>
       <c r="J78" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K78" s="32">
         <f>VLOOKUP(J78,__Sheet3!A:B,2,FALSE)</f>
@@ -13552,7 +13547,7 @@
         <v>117</v>
       </c>
       <c r="W78" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X78" s="32"/>
       <c r="Y78" s="32"/>
@@ -13571,7 +13566,7 @@
         <v>80</v>
       </c>
       <c r="AJ78" s="32" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AK78" s="32" t="s">
         <v>82</v>
@@ -13589,19 +13584,19 @@
       <c r="AV78" s="66"/>
       <c r="AW78" s="75"/>
     </row>
-    <row r="79" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="79" ht="18.5" customHeight="1" spans="1:49">
       <c r="A79" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="B79" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="C79" s="30" t="s">
         <v>525</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>526</v>
       </c>
       <c r="D79" s="30"/>
       <c r="E79" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
@@ -13611,7 +13606,7 @@
       </c>
       <c r="I79" s="29"/>
       <c r="J79" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K79" s="29">
         <f>VLOOKUP(J79,__Sheet3!A:B,2,FALSE)</f>
@@ -13670,7 +13665,7 @@
         <v>80</v>
       </c>
       <c r="AJ79" s="29" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AK79" s="32" t="s">
         <v>82</v>
@@ -13688,19 +13683,19 @@
       <c r="AV79" s="66"/>
       <c r="AW79" s="75"/>
     </row>
-    <row r="80" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="80" ht="18.5" customHeight="1" spans="1:49">
       <c r="A80" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="B80" s="32" t="s">
         <v>528</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="C80" s="33" t="s">
         <v>529</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>530</v>
       </c>
       <c r="D80" s="33"/>
       <c r="E80" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F80" s="32"/>
       <c r="G80" s="32"/>
@@ -13710,7 +13705,7 @@
       </c>
       <c r="I80" s="32"/>
       <c r="J80" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K80" s="32">
         <f>VLOOKUP(J80,__Sheet3!A:B,2,FALSE)</f>
@@ -13769,7 +13764,7 @@
         <v>80</v>
       </c>
       <c r="AJ80" s="32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AK80" s="32" t="s">
         <v>82</v>
@@ -13787,19 +13782,19 @@
       <c r="AV80" s="66"/>
       <c r="AW80" s="75"/>
     </row>
-    <row r="81" ht="68" hidden="1" customHeight="1" spans="1:49">
+    <row r="81" ht="68" customHeight="1" spans="1:49">
       <c r="A81" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="B81" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="C81" s="30" t="s">
         <v>533</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>534</v>
       </c>
       <c r="D81" s="30"/>
       <c r="E81" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F81" s="29"/>
       <c r="G81" s="29"/>
@@ -13809,7 +13804,7 @@
       </c>
       <c r="I81" s="29"/>
       <c r="J81" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K81" s="29">
         <f>VLOOKUP(J81,__Sheet3!A:B,2,FALSE)</f>
@@ -13868,7 +13863,7 @@
         <v>80</v>
       </c>
       <c r="AJ81" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AK81" s="32" t="s">
         <v>82</v>
@@ -13886,19 +13881,19 @@
       <c r="AV81" s="66"/>
       <c r="AW81" s="75"/>
     </row>
-    <row r="82" ht="68" hidden="1" customHeight="1" spans="1:49">
+    <row r="82" ht="68" customHeight="1" spans="1:49">
       <c r="A82" s="31" t="s">
+        <v>535</v>
+      </c>
+      <c r="B82" s="32" t="s">
         <v>536</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="C82" s="33" t="s">
         <v>537</v>
-      </c>
-      <c r="C82" s="33" t="s">
-        <v>538</v>
       </c>
       <c r="D82" s="33"/>
       <c r="E82" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F82" s="32"/>
       <c r="G82" s="32"/>
@@ -13908,7 +13903,7 @@
       </c>
       <c r="I82" s="32"/>
       <c r="J82" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K82" s="32">
         <f>VLOOKUP(J82,__Sheet3!A:B,2,FALSE)</f>
@@ -13948,7 +13943,7 @@
         <v>117</v>
       </c>
       <c r="W82" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X82" s="32"/>
       <c r="Y82" s="32"/>
@@ -13967,7 +13962,7 @@
         <v>80</v>
       </c>
       <c r="AJ82" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AK82" s="32" t="s">
         <v>82</v>
@@ -13985,19 +13980,19 @@
       <c r="AV82" s="66"/>
       <c r="AW82" s="75"/>
     </row>
-    <row r="83" ht="117.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="83" ht="117.5" customHeight="1" spans="1:49">
       <c r="A83" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="B83" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="C83" s="30" t="s">
         <v>541</v>
-      </c>
-      <c r="C83" s="30" t="s">
-        <v>542</v>
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F83" s="29"/>
       <c r="G83" s="29"/>
@@ -14007,7 +14002,7 @@
       </c>
       <c r="I83" s="29"/>
       <c r="J83" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K83" s="29">
         <f>VLOOKUP(J83,__Sheet3!A:B,2,FALSE)</f>
@@ -14066,7 +14061,7 @@
         <v>80</v>
       </c>
       <c r="AJ83" s="29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AK83" s="32" t="s">
         <v>82</v>
@@ -14084,19 +14079,19 @@
       <c r="AV83" s="66"/>
       <c r="AW83" s="75"/>
     </row>
-    <row r="84" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="84" ht="18.5" customHeight="1" spans="1:49">
       <c r="A84" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="B84" s="32" t="s">
         <v>544</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="C84" s="33" t="s">
         <v>545</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>546</v>
       </c>
       <c r="D84" s="33"/>
       <c r="E84" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
@@ -14106,7 +14101,7 @@
       </c>
       <c r="I84" s="32"/>
       <c r="J84" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K84" s="32">
         <f>VLOOKUP(J84,__Sheet3!A:B,2,FALSE)</f>
@@ -14165,7 +14160,7 @@
         <v>80</v>
       </c>
       <c r="AJ84" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AK84" s="32" t="s">
         <v>82</v>
@@ -14183,19 +14178,19 @@
       <c r="AV84" s="66"/>
       <c r="AW84" s="75"/>
     </row>
-    <row r="85" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="85" ht="18.5" customHeight="1" spans="1:49">
       <c r="A85" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="B85" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="C85" s="30" t="s">
         <v>549</v>
-      </c>
-      <c r="C85" s="30" t="s">
-        <v>550</v>
       </c>
       <c r="D85" s="30"/>
       <c r="E85" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
@@ -14205,7 +14200,7 @@
       </c>
       <c r="I85" s="29"/>
       <c r="J85" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K85" s="29">
         <f>VLOOKUP(J85,__Sheet3!A:B,2,FALSE)</f>
@@ -14264,7 +14259,7 @@
         <v>80</v>
       </c>
       <c r="AJ85" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK85" s="32" t="s">
         <v>82</v>
@@ -14282,19 +14277,19 @@
       <c r="AV85" s="66"/>
       <c r="AW85" s="75"/>
     </row>
-    <row r="86" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="86" ht="18.5" customHeight="1" spans="1:49">
       <c r="A86" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="B86" s="32" t="s">
         <v>552</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="C86" s="33" t="s">
         <v>553</v>
-      </c>
-      <c r="C86" s="33" t="s">
-        <v>554</v>
       </c>
       <c r="D86" s="33"/>
       <c r="E86" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F86" s="32"/>
       <c r="G86" s="32"/>
@@ -14304,7 +14299,7 @@
       </c>
       <c r="I86" s="32"/>
       <c r="J86" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K86" s="32">
         <f>VLOOKUP(J86,__Sheet3!A:B,2,FALSE)</f>
@@ -14363,7 +14358,7 @@
         <v>80</v>
       </c>
       <c r="AJ86" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK86" s="32" t="s">
         <v>82</v>
@@ -14381,19 +14376,19 @@
       <c r="AV86" s="66"/>
       <c r="AW86" s="75"/>
     </row>
-    <row r="87" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="87" ht="18.5" customHeight="1" spans="1:49">
       <c r="A87" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="B87" s="29" t="s">
         <v>555</v>
       </c>
-      <c r="B87" s="29" t="s">
+      <c r="C87" s="30" t="s">
         <v>556</v>
-      </c>
-      <c r="C87" s="30" t="s">
-        <v>557</v>
       </c>
       <c r="D87" s="30"/>
       <c r="E87" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
@@ -14403,7 +14398,7 @@
       </c>
       <c r="I87" s="29"/>
       <c r="J87" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K87" s="29">
         <f>VLOOKUP(J87,__Sheet3!A:B,2,FALSE)</f>
@@ -14462,7 +14457,7 @@
         <v>80</v>
       </c>
       <c r="AJ87" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK87" s="32" t="s">
         <v>82</v>
@@ -14480,19 +14475,19 @@
       <c r="AV87" s="66"/>
       <c r="AW87" s="75"/>
     </row>
-    <row r="88" ht="35" hidden="1" customHeight="1" spans="1:49">
+    <row r="88" ht="35" customHeight="1" spans="1:49">
       <c r="A88" s="31" t="s">
+        <v>557</v>
+      </c>
+      <c r="B88" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="C88" s="33" t="s">
         <v>559</v>
-      </c>
-      <c r="C88" s="33" t="s">
-        <v>560</v>
       </c>
       <c r="D88" s="33"/>
       <c r="E88" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F88" s="32"/>
       <c r="G88" s="32"/>
@@ -14561,7 +14556,7 @@
         <v>80</v>
       </c>
       <c r="AJ88" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK88" s="32" t="s">
         <v>82</v>
@@ -14579,19 +14574,19 @@
       <c r="AV88" s="66"/>
       <c r="AW88" s="75"/>
     </row>
-    <row r="89" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="89" ht="18.5" customHeight="1" spans="1:49">
       <c r="A89" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="B89" s="29" t="s">
         <v>561</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="C89" s="30" t="s">
         <v>562</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>563</v>
       </c>
       <c r="D89" s="30"/>
       <c r="E89" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
@@ -14601,7 +14596,7 @@
       </c>
       <c r="I89" s="29"/>
       <c r="J89" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K89" s="29">
         <f>VLOOKUP(J89,__Sheet3!A:B,2,FALSE)</f>
@@ -14660,7 +14655,7 @@
         <v>80</v>
       </c>
       <c r="AJ89" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK89" s="32" t="s">
         <v>82</v>
@@ -14678,15 +14673,15 @@
       <c r="AV89" s="66"/>
       <c r="AW89" s="75"/>
     </row>
-    <row r="90" ht="68" hidden="1" customHeight="1" spans="1:49">
+    <row r="90" ht="68" customHeight="1" spans="1:49">
       <c r="A90" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="B90" s="32" t="s">
         <v>564</v>
       </c>
-      <c r="B90" s="32" t="s">
+      <c r="C90" s="33" t="s">
         <v>565</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>566</v>
       </c>
       <c r="D90" s="33"/>
       <c r="E90" s="32" t="s">
@@ -14759,7 +14754,7 @@
         <v>80</v>
       </c>
       <c r="AJ90" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK90" s="32" t="s">
         <v>82</v>
@@ -14779,13 +14774,13 @@
     </row>
     <row r="91" ht="35" customHeight="1" spans="1:49">
       <c r="A91" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="B91" s="39" t="s">
         <v>567</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="C91" s="30" t="s">
         <v>568</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>569</v>
       </c>
       <c r="D91" s="30"/>
       <c r="E91" s="29" t="s">
@@ -14799,7 +14794,7 @@
       </c>
       <c r="I91" s="29"/>
       <c r="J91" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K91" s="29">
         <f>VLOOKUP(J91,__Sheet3!A:B,2,FALSE)</f>
@@ -14843,10 +14838,10 @@
       </c>
       <c r="X91" s="29"/>
       <c r="Y91" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z91" s="29" t="s">
         <v>570</v>
-      </c>
-      <c r="Z91" s="29" t="s">
-        <v>571</v>
       </c>
       <c r="AA91" s="29"/>
       <c r="AB91" s="29"/>
@@ -14862,7 +14857,7 @@
         <v>80</v>
       </c>
       <c r="AJ91" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK91" s="32" t="s">
         <v>82</v>
@@ -14882,13 +14877,13 @@
     </row>
     <row r="92" ht="35" customHeight="1" spans="1:49">
       <c r="A92" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="B92" s="42" t="s">
         <v>572</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="C92" s="33" t="s">
         <v>573</v>
-      </c>
-      <c r="C92" s="33" t="s">
-        <v>574</v>
       </c>
       <c r="D92" s="33"/>
       <c r="E92" s="32" t="s">
@@ -14902,7 +14897,7 @@
       </c>
       <c r="I92" s="32"/>
       <c r="J92" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K92" s="32">
         <f>VLOOKUP(J92,__Sheet3!A:B,2,FALSE)</f>
@@ -14946,10 +14941,10 @@
       </c>
       <c r="X92" s="32"/>
       <c r="Y92" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z92" s="29" t="s">
         <v>575</v>
-      </c>
-      <c r="Z92" s="29" t="s">
-        <v>576</v>
       </c>
       <c r="AA92" s="32"/>
       <c r="AB92" s="32"/>
@@ -14965,7 +14960,7 @@
         <v>80</v>
       </c>
       <c r="AJ92" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK92" s="32" t="s">
         <v>82</v>
@@ -14985,13 +14980,13 @@
     </row>
     <row r="93" ht="68" customHeight="1" spans="1:49">
       <c r="A93" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="B93" s="39" t="s">
         <v>577</v>
       </c>
-      <c r="B93" s="29" t="s">
+      <c r="C93" s="30" t="s">
         <v>578</v>
-      </c>
-      <c r="C93" s="30" t="s">
-        <v>579</v>
       </c>
       <c r="D93" s="30"/>
       <c r="E93" s="29" t="s">
@@ -15049,13 +15044,13 @@
       </c>
       <c r="X93" s="29"/>
       <c r="Y93" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z93" s="29" t="s">
         <v>570</v>
       </c>
-      <c r="Z93" s="29" t="s">
-        <v>571</v>
-      </c>
       <c r="AA93" s="29" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AB93" s="29"/>
       <c r="AC93" s="29"/>
@@ -15070,7 +15065,7 @@
         <v>80</v>
       </c>
       <c r="AJ93" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK93" s="32" t="s">
         <v>82</v>
@@ -15088,18 +15083,18 @@
       <c r="AV93" s="66"/>
       <c r="AW93" s="75"/>
     </row>
-    <row r="94" ht="68" hidden="1" customHeight="1" spans="1:49">
+    <row r="94" ht="68" customHeight="1" spans="1:49">
       <c r="A94" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="B94" s="32" t="s">
         <v>581</v>
       </c>
-      <c r="B94" s="32" t="s">
+      <c r="C94" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="C94" s="33" t="s">
+      <c r="D94" s="33" t="s">
         <v>583</v>
-      </c>
-      <c r="D94" s="33" t="s">
-        <v>584</v>
       </c>
       <c r="E94" s="32" t="s">
         <v>175</v>
@@ -15171,7 +15166,7 @@
         <v>80</v>
       </c>
       <c r="AJ94" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK94" s="32" t="s">
         <v>82</v>
@@ -15189,18 +15184,18 @@
       <c r="AV94" s="66"/>
       <c r="AW94" s="75"/>
     </row>
-    <row r="95" ht="183.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="95" ht="183.5" customHeight="1" spans="1:49">
       <c r="A95" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="B95" s="29" t="s">
         <v>585</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="C95" s="30" t="s">
         <v>586</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="D95" s="30" t="s">
         <v>587</v>
-      </c>
-      <c r="D95" s="30" t="s">
-        <v>588</v>
       </c>
       <c r="E95" s="29" t="s">
         <v>195</v>
@@ -15272,7 +15267,7 @@
         <v>80</v>
       </c>
       <c r="AJ95" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK95" s="32" t="s">
         <v>82</v>
@@ -15290,15 +15285,15 @@
       <c r="AV95" s="66"/>
       <c r="AW95" s="75"/>
     </row>
-    <row r="96" ht="216.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="96" ht="216.5" customHeight="1" spans="1:49">
       <c r="A96" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="B96" s="32" t="s">
         <v>589</v>
       </c>
-      <c r="B96" s="32" t="s">
+      <c r="C96" s="33" t="s">
         <v>590</v>
-      </c>
-      <c r="C96" s="33" t="s">
-        <v>591</v>
       </c>
       <c r="D96" s="33"/>
       <c r="E96" s="32" t="s">
@@ -15371,7 +15366,7 @@
         <v>80</v>
       </c>
       <c r="AJ96" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK96" s="32" t="s">
         <v>82</v>
@@ -15389,21 +15384,21 @@
       <c r="AV96" s="66"/>
       <c r="AW96" s="75"/>
     </row>
-    <row r="97" ht="51.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="97" ht="51.5" customHeight="1" spans="1:49">
       <c r="A97" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="B97" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="C97" s="41" t="s">
         <v>593</v>
       </c>
-      <c r="C97" s="41" t="s">
+      <c r="D97" s="30" t="s">
         <v>594</v>
       </c>
-      <c r="D97" s="30" t="s">
-        <v>595</v>
-      </c>
       <c r="E97" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
@@ -15472,7 +15467,7 @@
         <v>80</v>
       </c>
       <c r="AJ97" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK97" s="32" t="s">
         <v>82</v>
@@ -15490,19 +15485,19 @@
       <c r="AV97" s="66"/>
       <c r="AW97" s="75"/>
     </row>
-    <row r="98" ht="35" hidden="1" customHeight="1" spans="1:49">
+    <row r="98" ht="35" customHeight="1" spans="1:49">
       <c r="A98" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="B98" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="B98" s="32" t="s">
+      <c r="C98" s="33" t="s">
         <v>597</v>
-      </c>
-      <c r="C98" s="33" t="s">
-        <v>598</v>
       </c>
       <c r="D98" s="33"/>
       <c r="E98" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F98" s="32"/>
       <c r="G98" s="32"/>
@@ -15571,7 +15566,7 @@
         <v>80</v>
       </c>
       <c r="AJ98" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK98" s="32" t="s">
         <v>82</v>
@@ -15589,19 +15584,19 @@
       <c r="AV98" s="66"/>
       <c r="AW98" s="75"/>
     </row>
-    <row r="99" ht="68" hidden="1" customHeight="1" spans="1:49">
+    <row r="99" ht="68" customHeight="1" spans="1:49">
       <c r="A99" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="B99" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="B99" s="29" t="s">
+      <c r="C99" s="30" t="s">
         <v>600</v>
-      </c>
-      <c r="C99" s="30" t="s">
-        <v>601</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F99" s="29"/>
       <c r="G99" s="29"/>
@@ -15670,7 +15665,7 @@
         <v>80</v>
       </c>
       <c r="AJ99" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK99" s="32" t="s">
         <v>82</v>
@@ -15688,19 +15683,19 @@
       <c r="AV99" s="66"/>
       <c r="AW99" s="75"/>
     </row>
-    <row r="100" ht="101" hidden="1" customHeight="1" spans="1:49">
+    <row r="100" ht="101" customHeight="1" spans="1:49">
       <c r="A100" s="31" t="s">
+        <v>601</v>
+      </c>
+      <c r="B100" s="32" t="s">
         <v>602</v>
       </c>
-      <c r="B100" s="32" t="s">
+      <c r="C100" s="33" t="s">
         <v>603</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>604</v>
       </c>
       <c r="D100" s="33"/>
       <c r="E100" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F100" s="32"/>
       <c r="G100" s="32"/>
@@ -15710,7 +15705,7 @@
       </c>
       <c r="I100" s="32"/>
       <c r="J100" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K100" s="32">
         <f>VLOOKUP(J100,__Sheet3!A:B,2,FALSE)</f>
@@ -15769,7 +15764,7 @@
         <v>80</v>
       </c>
       <c r="AJ100" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK100" s="32" t="s">
         <v>82</v>
@@ -15787,21 +15782,21 @@
       <c r="AV100" s="66"/>
       <c r="AW100" s="75"/>
     </row>
-    <row r="101" s="19" customFormat="1" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="101" s="19" customFormat="1" ht="134" customHeight="1" spans="1:49">
       <c r="A101" s="77" t="s">
+        <v>604</v>
+      </c>
+      <c r="B101" s="78" t="s">
         <v>605</v>
       </c>
-      <c r="B101" s="78" t="s">
+      <c r="C101" s="79" t="s">
         <v>606</v>
       </c>
-      <c r="C101" s="79" t="s">
+      <c r="D101" s="79" t="s">
         <v>607</v>
       </c>
-      <c r="D101" s="79" t="s">
-        <v>608</v>
-      </c>
       <c r="E101" s="78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F101" s="78"/>
       <c r="G101" s="78"/>
@@ -15870,7 +15865,7 @@
         <v>80</v>
       </c>
       <c r="AJ101" s="78" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK101" s="80" t="s">
         <v>82</v>
@@ -15888,21 +15883,21 @@
       <c r="AV101" s="84"/>
       <c r="AW101" s="85"/>
     </row>
-    <row r="102" ht="35" hidden="1" customHeight="1" spans="1:49">
+    <row r="102" ht="35" customHeight="1" spans="1:49">
       <c r="A102" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="B102" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="B102" s="32" t="s">
+      <c r="C102" s="33" t="s">
         <v>610</v>
       </c>
-      <c r="C102" s="33" t="s">
+      <c r="D102" s="33" t="s">
         <v>611</v>
       </c>
-      <c r="D102" s="33" t="s">
-        <v>612</v>
-      </c>
       <c r="E102" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F102" s="32"/>
       <c r="G102" s="32"/>
@@ -15971,7 +15966,7 @@
         <v>80</v>
       </c>
       <c r="AJ102" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK102" s="32" t="s">
         <v>82</v>
@@ -15991,13 +15986,13 @@
     </row>
     <row r="103" ht="117.5" customHeight="1" spans="1:49">
       <c r="A103" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="B103" s="39" t="s">
         <v>613</v>
       </c>
-      <c r="B103" s="29" t="s">
+      <c r="C103" s="30" t="s">
         <v>614</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>615</v>
       </c>
       <c r="D103" s="30"/>
       <c r="E103" s="29" t="s">
@@ -16051,17 +16046,17 @@
         <v>117</v>
       </c>
       <c r="W103" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X103" s="29"/>
       <c r="Y103" s="29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Z103" s="29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AA103" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AB103" s="29"/>
       <c r="AC103" s="29"/>
@@ -16076,7 +16071,7 @@
         <v>80</v>
       </c>
       <c r="AJ103" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK103" s="32" t="s">
         <v>82</v>
@@ -16094,15 +16089,15 @@
       <c r="AV103" s="66"/>
       <c r="AW103" s="75"/>
     </row>
-    <row r="104" ht="68" hidden="1" customHeight="1" spans="1:49">
+    <row r="104" ht="68" customHeight="1" spans="1:49">
       <c r="A104" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="B104" s="32" t="s">
         <v>617</v>
       </c>
-      <c r="B104" s="32" t="s">
+      <c r="C104" s="33" t="s">
         <v>618</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>619</v>
       </c>
       <c r="D104" s="33"/>
       <c r="E104" s="32" t="s">
@@ -16175,7 +16170,7 @@
         <v>80</v>
       </c>
       <c r="AJ104" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK104" s="32" t="s">
         <v>82</v>
@@ -16193,24 +16188,24 @@
       <c r="AV104" s="66"/>
       <c r="AW104" s="75"/>
     </row>
-    <row r="105" ht="117.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="105" ht="117.5" customHeight="1" spans="1:49">
       <c r="A105" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="B105" s="29" t="s">
         <v>620</v>
       </c>
-      <c r="B105" s="29" t="s">
+      <c r="C105" s="30" t="s">
         <v>621</v>
       </c>
-      <c r="C105" s="30" t="s">
+      <c r="D105" s="30" t="s">
         <v>622</v>
-      </c>
-      <c r="D105" s="30" t="s">
-        <v>623</v>
       </c>
       <c r="E105" s="29" t="s">
         <v>103</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G105" s="29"/>
       <c r="H105" s="29" t="str">
@@ -16278,7 +16273,7 @@
         <v>80</v>
       </c>
       <c r="AJ105" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK105" s="32" t="s">
         <v>82</v>
@@ -16296,18 +16291,18 @@
       <c r="AV105" s="66"/>
       <c r="AW105" s="75"/>
     </row>
-    <row r="106" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="106" ht="84.5" customHeight="1" spans="1:49">
       <c r="A106" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="B106" s="32" t="s">
         <v>624</v>
       </c>
-      <c r="B106" s="32" t="s">
+      <c r="C106" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="C106" s="33" t="s">
+      <c r="D106" s="33" t="s">
         <v>626</v>
-      </c>
-      <c r="D106" s="33" t="s">
-        <v>627</v>
       </c>
       <c r="E106" s="32" t="s">
         <v>132</v>
@@ -16379,7 +16374,7 @@
         <v>80</v>
       </c>
       <c r="AJ106" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK106" s="32" t="s">
         <v>82</v>
@@ -16397,18 +16392,18 @@
       <c r="AV106" s="66"/>
       <c r="AW106" s="75"/>
     </row>
-    <row r="107" ht="117.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="107" ht="117.5" customHeight="1" spans="1:49">
       <c r="A107" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="B107" s="29" t="s">
         <v>628</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="C107" s="30" t="s">
         <v>629</v>
       </c>
-      <c r="C107" s="30" t="s">
+      <c r="D107" s="30" t="s">
         <v>630</v>
-      </c>
-      <c r="D107" s="30" t="s">
-        <v>631</v>
       </c>
       <c r="E107" s="29" t="s">
         <v>103</v>
@@ -16480,7 +16475,7 @@
         <v>80</v>
       </c>
       <c r="AJ107" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK107" s="32" t="s">
         <v>82</v>
@@ -16498,24 +16493,24 @@
       <c r="AV107" s="66"/>
       <c r="AW107" s="75"/>
     </row>
-    <row r="108" ht="167" hidden="1" customHeight="1" spans="1:49">
+    <row r="108" ht="167" customHeight="1" spans="1:49">
       <c r="A108" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="B108" s="32" t="s">
         <v>632</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="C108" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="C108" s="33" t="s">
+      <c r="D108" s="33" t="s">
         <v>634</v>
-      </c>
-      <c r="D108" s="33" t="s">
-        <v>635</v>
       </c>
       <c r="E108" s="32" t="s">
         <v>103</v>
       </c>
       <c r="F108" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G108" s="32"/>
       <c r="H108" s="32" t="str">
@@ -16583,7 +16578,7 @@
         <v>80</v>
       </c>
       <c r="AJ108" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK108" s="32" t="s">
         <v>82</v>
@@ -16601,18 +16596,18 @@
       <c r="AV108" s="66"/>
       <c r="AW108" s="75"/>
     </row>
-    <row r="109" s="18" customFormat="1" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="109" s="18" customFormat="1" ht="134" customHeight="1" spans="1:49">
       <c r="A109" s="48" t="s">
+        <v>635</v>
+      </c>
+      <c r="B109" s="49" t="s">
         <v>636</v>
       </c>
-      <c r="B109" s="49" t="s">
+      <c r="C109" s="50" t="s">
         <v>637</v>
       </c>
-      <c r="C109" s="50" t="s">
+      <c r="D109" s="50" t="s">
         <v>638</v>
-      </c>
-      <c r="D109" s="50" t="s">
-        <v>639</v>
       </c>
       <c r="E109" s="49" t="s">
         <v>103</v>
@@ -16684,7 +16679,7 @@
         <v>80</v>
       </c>
       <c r="AJ109" s="49" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK109" s="47" t="s">
         <v>82</v>
@@ -16702,18 +16697,18 @@
       <c r="AV109" s="71"/>
       <c r="AW109" s="76"/>
     </row>
-    <row r="110" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="110" ht="84.5" customHeight="1" spans="1:49">
       <c r="A110" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="B110" s="32" t="s">
         <v>640</v>
       </c>
-      <c r="B110" s="32" t="s">
+      <c r="C110" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="C110" s="33" t="s">
+      <c r="D110" s="33" t="s">
         <v>642</v>
-      </c>
-      <c r="D110" s="33" t="s">
-        <v>643</v>
       </c>
       <c r="E110" s="32" t="s">
         <v>132</v>
@@ -16785,7 +16780,7 @@
         <v>80</v>
       </c>
       <c r="AJ110" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK110" s="32" t="s">
         <v>82</v>
@@ -16803,21 +16798,21 @@
       <c r="AV110" s="66"/>
       <c r="AW110" s="75"/>
     </row>
-    <row r="111" ht="101" hidden="1" customHeight="1" spans="1:49">
+    <row r="111" ht="101" customHeight="1" spans="1:49">
       <c r="A111" s="28" t="s">
+        <v>643</v>
+      </c>
+      <c r="B111" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="B111" s="29" t="s">
+      <c r="C111" s="30" t="s">
         <v>645</v>
       </c>
-      <c r="C111" s="30" t="s">
+      <c r="D111" s="30" t="s">
         <v>646</v>
       </c>
-      <c r="D111" s="30" t="s">
-        <v>647</v>
-      </c>
       <c r="E111" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F111" s="29"/>
       <c r="G111" s="29"/>
@@ -16886,7 +16881,7 @@
         <v>80</v>
       </c>
       <c r="AJ111" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK111" s="32" t="s">
         <v>82</v>
@@ -16904,18 +16899,18 @@
       <c r="AV111" s="66"/>
       <c r="AW111" s="75"/>
     </row>
-    <row r="112" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="112" ht="84.5" customHeight="1" spans="1:49">
       <c r="A112" s="31" t="s">
+        <v>647</v>
+      </c>
+      <c r="B112" s="32" t="s">
         <v>648</v>
       </c>
-      <c r="B112" s="32" t="s">
+      <c r="C112" s="33" t="s">
         <v>649</v>
       </c>
-      <c r="C112" s="33" t="s">
+      <c r="D112" s="33" t="s">
         <v>650</v>
-      </c>
-      <c r="D112" s="33" t="s">
-        <v>651</v>
       </c>
       <c r="E112" s="32" t="s">
         <v>132</v>
@@ -16987,7 +16982,7 @@
         <v>80</v>
       </c>
       <c r="AJ112" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK112" s="32" t="s">
         <v>82</v>
@@ -17005,18 +17000,18 @@
       <c r="AV112" s="66"/>
       <c r="AW112" s="75"/>
     </row>
-    <row r="113" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="113" ht="84.5" customHeight="1" spans="1:49">
       <c r="A113" s="28" t="s">
+        <v>651</v>
+      </c>
+      <c r="B113" s="29" t="s">
         <v>652</v>
       </c>
-      <c r="B113" s="29" t="s">
+      <c r="C113" s="30" t="s">
         <v>653</v>
       </c>
-      <c r="C113" s="30" t="s">
+      <c r="D113" s="30" t="s">
         <v>654</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>655</v>
       </c>
       <c r="E113" s="29" t="s">
         <v>132</v>
@@ -17090,7 +17085,7 @@
         <v>80</v>
       </c>
       <c r="AJ113" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK113" s="32" t="s">
         <v>82</v>
@@ -17108,21 +17103,21 @@
       <c r="AV113" s="66"/>
       <c r="AW113" s="75"/>
     </row>
-    <row r="114" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="114" ht="134" customHeight="1" spans="1:49">
       <c r="A114" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="B114" s="32" t="s">
         <v>656</v>
       </c>
-      <c r="B114" s="32" t="s">
+      <c r="C114" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="C114" s="33" t="s">
+      <c r="D114" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="D114" s="33" t="s">
-        <v>659</v>
-      </c>
       <c r="E114" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F114" s="32" t="s">
         <v>166</v>
@@ -17193,7 +17188,7 @@
         <v>80</v>
       </c>
       <c r="AJ114" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK114" s="32" t="s">
         <v>82</v>
@@ -17211,21 +17206,21 @@
       <c r="AV114" s="66"/>
       <c r="AW114" s="75"/>
     </row>
-    <row r="115" ht="150.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="115" ht="150.5" customHeight="1" spans="1:49">
       <c r="A115" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="B115" s="29" t="s">
         <v>660</v>
       </c>
-      <c r="B115" s="29" t="s">
+      <c r="C115" s="30" t="s">
         <v>661</v>
       </c>
-      <c r="C115" s="30" t="s">
+      <c r="D115" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="D115" s="30" t="s">
-        <v>663</v>
-      </c>
       <c r="E115" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F115" s="29" t="s">
         <v>166</v>
@@ -17296,7 +17291,7 @@
         <v>80</v>
       </c>
       <c r="AJ115" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK115" s="32" t="s">
         <v>82</v>
@@ -17314,21 +17309,21 @@
       <c r="AV115" s="66"/>
       <c r="AW115" s="75"/>
     </row>
-    <row r="116" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="116" ht="134" customHeight="1" spans="1:49">
       <c r="A116" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="B116" s="32" t="s">
         <v>664</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="C116" s="40" t="s">
         <v>665</v>
       </c>
-      <c r="C116" s="40" t="s">
+      <c r="D116" s="40" t="s">
         <v>666</v>
       </c>
-      <c r="D116" s="40" t="s">
-        <v>667</v>
-      </c>
       <c r="E116" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F116" s="32" t="s">
         <v>166</v>
@@ -17399,7 +17394,7 @@
         <v>80</v>
       </c>
       <c r="AJ116" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK116" s="32" t="s">
         <v>82</v>
@@ -17417,18 +17412,18 @@
       <c r="AV116" s="66"/>
       <c r="AW116" s="75"/>
     </row>
-    <row r="117" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="117" ht="134" customHeight="1" spans="1:49">
       <c r="A117" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="B117" s="29" t="s">
         <v>668</v>
       </c>
-      <c r="B117" s="29" t="s">
+      <c r="C117" s="30" t="s">
         <v>669</v>
       </c>
-      <c r="C117" s="30" t="s">
+      <c r="D117" s="30" t="s">
         <v>670</v>
-      </c>
-      <c r="D117" s="30" t="s">
-        <v>671</v>
       </c>
       <c r="E117" s="29" t="s">
         <v>154</v>
@@ -17500,7 +17495,7 @@
         <v>80</v>
       </c>
       <c r="AJ117" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK117" s="32" t="s">
         <v>82</v>
@@ -17518,18 +17513,18 @@
       <c r="AV117" s="66"/>
       <c r="AW117" s="75"/>
     </row>
-    <row r="118" ht="68" hidden="1" customHeight="1" spans="1:49">
+    <row r="118" ht="68" customHeight="1" spans="1:49">
       <c r="A118" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="B118" s="32" t="s">
         <v>672</v>
       </c>
-      <c r="B118" s="32" t="s">
+      <c r="C118" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="C118" s="33" t="s">
+      <c r="D118" s="33" t="s">
         <v>674</v>
-      </c>
-      <c r="D118" s="33" t="s">
-        <v>675</v>
       </c>
       <c r="E118" s="32" t="s">
         <v>103</v>
@@ -17544,7 +17539,7 @@
       </c>
       <c r="I118" s="32"/>
       <c r="J118" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K118" s="32">
         <f>VLOOKUP(J118,__Sheet3!A:B,2,FALSE)</f>
@@ -17603,7 +17598,7 @@
         <v>80</v>
       </c>
       <c r="AJ118" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK118" s="32" t="s">
         <v>82</v>
@@ -17621,18 +17616,18 @@
       <c r="AV118" s="66"/>
       <c r="AW118" s="75"/>
     </row>
-    <row r="119" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="119" ht="134" customHeight="1" spans="1:49">
       <c r="A119" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="B119" s="29" t="s">
         <v>676</v>
       </c>
-      <c r="B119" s="29" t="s">
+      <c r="C119" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="C119" s="30" t="s">
+      <c r="D119" s="30" t="s">
         <v>678</v>
-      </c>
-      <c r="D119" s="30" t="s">
-        <v>679</v>
       </c>
       <c r="E119" s="29" t="s">
         <v>103</v>
@@ -17708,7 +17703,7 @@
         <v>80</v>
       </c>
       <c r="AJ119" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK119" s="32" t="s">
         <v>82</v>
@@ -17726,19 +17721,19 @@
       <c r="AV119" s="66"/>
       <c r="AW119" s="75"/>
     </row>
-    <row r="120" ht="51.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="120" ht="51.5" customHeight="1" spans="1:49">
       <c r="A120" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="B120" s="32" t="s">
         <v>680</v>
       </c>
-      <c r="B120" s="32" t="s">
+      <c r="C120" s="33" t="s">
         <v>681</v>
-      </c>
-      <c r="C120" s="33" t="s">
-        <v>682</v>
       </c>
       <c r="D120" s="33"/>
       <c r="E120" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F120" s="32"/>
       <c r="G120" s="32"/>
@@ -17807,7 +17802,7 @@
         <v>80</v>
       </c>
       <c r="AJ120" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK120" s="32" t="s">
         <v>82</v>
@@ -17825,19 +17820,19 @@
       <c r="AV120" s="66"/>
       <c r="AW120" s="75"/>
     </row>
-    <row r="121" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="121" ht="18.5" customHeight="1" spans="1:49">
       <c r="A121" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="B121" s="29" t="s">
         <v>683</v>
       </c>
-      <c r="B121" s="29" t="s">
+      <c r="C121" s="30" t="s">
         <v>684</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>685</v>
       </c>
       <c r="D121" s="30"/>
       <c r="E121" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F121" s="29"/>
       <c r="G121" s="29"/>
@@ -17847,7 +17842,7 @@
       </c>
       <c r="I121" s="29"/>
       <c r="J121" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K121" s="29">
         <f>VLOOKUP(J121,__Sheet3!A:B,2,FALSE)</f>
@@ -17906,7 +17901,7 @@
         <v>80</v>
       </c>
       <c r="AJ121" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK121" s="32" t="s">
         <v>82</v>
@@ -17924,19 +17919,19 @@
       <c r="AV121" s="66"/>
       <c r="AW121" s="75"/>
     </row>
-    <row r="122" ht="68" hidden="1" customHeight="1" spans="1:49">
+    <row r="122" ht="68" customHeight="1" spans="1:49">
       <c r="A122" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="B122" s="32" t="s">
         <v>686</v>
       </c>
-      <c r="B122" s="32" t="s">
+      <c r="C122" s="33" t="s">
         <v>687</v>
-      </c>
-      <c r="C122" s="33" t="s">
-        <v>688</v>
       </c>
       <c r="D122" s="33"/>
       <c r="E122" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F122" s="32"/>
       <c r="G122" s="32"/>
@@ -18005,7 +18000,7 @@
         <v>80</v>
       </c>
       <c r="AJ122" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK122" s="32" t="s">
         <v>82</v>
@@ -18023,18 +18018,18 @@
       <c r="AV122" s="66"/>
       <c r="AW122" s="75"/>
     </row>
-    <row r="123" ht="68" hidden="1" customHeight="1" spans="1:49">
+    <row r="123" ht="68" customHeight="1" spans="1:49">
       <c r="A123" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="B123" s="29" t="s">
         <v>689</v>
       </c>
-      <c r="B123" s="29" t="s">
+      <c r="C123" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="C123" s="30" t="s">
+      <c r="D123" s="30" t="s">
         <v>691</v>
-      </c>
-      <c r="D123" s="30" t="s">
-        <v>692</v>
       </c>
       <c r="E123" s="29" t="s">
         <v>175</v>
@@ -18106,7 +18101,7 @@
         <v>80</v>
       </c>
       <c r="AJ123" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK123" s="32" t="s">
         <v>82</v>
@@ -18124,18 +18119,18 @@
       <c r="AV123" s="66"/>
       <c r="AW123" s="75"/>
     </row>
-    <row r="124" ht="68" hidden="1" customHeight="1" spans="1:49">
+    <row r="124" ht="68" customHeight="1" spans="1:49">
       <c r="A124" s="31" t="s">
+        <v>692</v>
+      </c>
+      <c r="B124" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="B124" s="32" t="s">
+      <c r="C124" s="33" t="s">
         <v>694</v>
       </c>
-      <c r="C124" s="33" t="s">
+      <c r="D124" s="33" t="s">
         <v>695</v>
-      </c>
-      <c r="D124" s="33" t="s">
-        <v>696</v>
       </c>
       <c r="E124" s="32" t="s">
         <v>175</v>
@@ -18148,7 +18143,7 @@
       </c>
       <c r="I124" s="32"/>
       <c r="J124" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K124" s="32">
         <f>VLOOKUP(J124,__Sheet3!A:B,2,FALSE)</f>
@@ -18207,7 +18202,7 @@
         <v>80</v>
       </c>
       <c r="AJ124" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK124" s="32" t="s">
         <v>82</v>
@@ -18225,15 +18220,15 @@
       <c r="AV124" s="66"/>
       <c r="AW124" s="75"/>
     </row>
-    <row r="125" ht="35" hidden="1" customHeight="1" spans="1:49">
+    <row r="125" ht="35" customHeight="1" spans="1:49">
       <c r="A125" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="B125" s="29" t="s">
         <v>697</v>
       </c>
-      <c r="B125" s="29" t="s">
+      <c r="C125" s="30" t="s">
         <v>698</v>
-      </c>
-      <c r="C125" s="30" t="s">
-        <v>699</v>
       </c>
       <c r="D125" s="30"/>
       <c r="E125" s="29" t="s">
@@ -18306,7 +18301,7 @@
         <v>80</v>
       </c>
       <c r="AJ125" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK125" s="32" t="s">
         <v>82</v>
@@ -18324,19 +18319,19 @@
       <c r="AV125" s="66"/>
       <c r="AW125" s="75"/>
     </row>
-    <row r="126" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="126" ht="18.5" customHeight="1" spans="1:49">
       <c r="A126" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="B126" s="32" t="s">
         <v>700</v>
       </c>
-      <c r="B126" s="32" t="s">
+      <c r="C126" s="33" t="s">
         <v>701</v>
-      </c>
-      <c r="C126" s="33" t="s">
-        <v>702</v>
       </c>
       <c r="D126" s="33"/>
       <c r="E126" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F126" s="32"/>
       <c r="G126" s="32"/>
@@ -18346,7 +18341,7 @@
       </c>
       <c r="I126" s="32"/>
       <c r="J126" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K126" s="32">
         <f>VLOOKUP(J126,__Sheet3!A:B,2,FALSE)</f>
@@ -18405,7 +18400,7 @@
         <v>80</v>
       </c>
       <c r="AJ126" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK126" s="32" t="s">
         <v>82</v>
@@ -18423,15 +18418,15 @@
       <c r="AV126" s="66"/>
       <c r="AW126" s="75"/>
     </row>
-    <row r="127" ht="150.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="127" ht="150.5" customHeight="1" spans="1:49">
       <c r="A127" s="28" t="s">
+        <v>702</v>
+      </c>
+      <c r="B127" s="29" t="s">
         <v>703</v>
       </c>
-      <c r="B127" s="29" t="s">
+      <c r="C127" s="30" t="s">
         <v>704</v>
-      </c>
-      <c r="C127" s="30" t="s">
-        <v>705</v>
       </c>
       <c r="D127" s="30"/>
       <c r="E127" s="29" t="s">
@@ -18504,7 +18499,7 @@
         <v>80</v>
       </c>
       <c r="AJ127" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK127" s="32" t="s">
         <v>82</v>
@@ -18522,19 +18517,19 @@
       <c r="AV127" s="66"/>
       <c r="AW127" s="75"/>
     </row>
-    <row r="128" ht="51.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="128" ht="51.5" customHeight="1" spans="1:49">
       <c r="A128" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="B128" s="32" t="s">
         <v>706</v>
       </c>
-      <c r="B128" s="32" t="s">
+      <c r="C128" s="33" t="s">
         <v>707</v>
-      </c>
-      <c r="C128" s="33" t="s">
-        <v>708</v>
       </c>
       <c r="D128" s="33"/>
       <c r="E128" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F128" s="32"/>
       <c r="G128" s="32"/>
@@ -18544,7 +18539,7 @@
       </c>
       <c r="I128" s="32"/>
       <c r="J128" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K128" s="32">
         <f>VLOOKUP(J128,__Sheet3!A:B,2,FALSE)</f>
@@ -18603,7 +18598,7 @@
         <v>80</v>
       </c>
       <c r="AJ128" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK128" s="32" t="s">
         <v>82</v>
@@ -18621,19 +18616,19 @@
       <c r="AV128" s="66"/>
       <c r="AW128" s="75"/>
     </row>
-    <row r="129" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="129" ht="84.5" customHeight="1" spans="1:49">
       <c r="A129" s="28" t="s">
+        <v>708</v>
+      </c>
+      <c r="B129" s="29" t="s">
         <v>709</v>
       </c>
-      <c r="B129" s="29" t="s">
+      <c r="C129" s="30" t="s">
         <v>710</v>
-      </c>
-      <c r="C129" s="30" t="s">
-        <v>711</v>
       </c>
       <c r="D129" s="30"/>
       <c r="E129" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F129" s="29"/>
       <c r="G129" s="29"/>
@@ -18680,7 +18675,7 @@
         <v>3</v>
       </c>
       <c r="V129" s="29" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="W129" s="29">
         <v>0</v>
@@ -18702,7 +18697,7 @@
         <v>80</v>
       </c>
       <c r="AJ129" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK129" s="32" t="s">
         <v>82</v>
@@ -18720,19 +18715,19 @@
       <c r="AV129" s="66"/>
       <c r="AW129" s="75"/>
     </row>
-    <row r="130" ht="101" hidden="1" customHeight="1" spans="1:49">
+    <row r="130" ht="101" customHeight="1" spans="1:49">
       <c r="A130" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="B130" s="32" t="s">
         <v>713</v>
       </c>
-      <c r="B130" s="32" t="s">
+      <c r="C130" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="C130" s="33" t="s">
-        <v>715</v>
       </c>
       <c r="D130" s="33"/>
       <c r="E130" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F130" s="32"/>
       <c r="G130" s="32"/>
@@ -18742,7 +18737,7 @@
       </c>
       <c r="I130" s="32"/>
       <c r="J130" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K130" s="32">
         <f>VLOOKUP(J130,__Sheet3!A:B,2,FALSE)</f>
@@ -18801,7 +18796,7 @@
         <v>80</v>
       </c>
       <c r="AJ130" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK130" s="32" t="s">
         <v>82</v>
@@ -18819,19 +18814,19 @@
       <c r="AV130" s="66"/>
       <c r="AW130" s="75"/>
     </row>
-    <row r="131" ht="68" hidden="1" customHeight="1" spans="1:49">
+    <row r="131" ht="68" customHeight="1" spans="1:49">
       <c r="A131" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="B131" s="29" t="s">
         <v>716</v>
       </c>
-      <c r="B131" s="29" t="s">
+      <c r="C131" s="30" t="s">
         <v>717</v>
-      </c>
-      <c r="C131" s="30" t="s">
-        <v>718</v>
       </c>
       <c r="D131" s="30"/>
       <c r="E131" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F131" s="29"/>
       <c r="G131" s="29"/>
@@ -18900,7 +18895,7 @@
         <v>80</v>
       </c>
       <c r="AJ131" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK131" s="32" t="s">
         <v>82</v>
@@ -18918,19 +18913,19 @@
       <c r="AV131" s="66"/>
       <c r="AW131" s="75"/>
     </row>
-    <row r="132" ht="35" hidden="1" customHeight="1" spans="1:49">
+    <row r="132" ht="35" customHeight="1" spans="1:49">
       <c r="A132" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="B132" s="32" t="s">
         <v>719</v>
       </c>
-      <c r="B132" s="32" t="s">
+      <c r="C132" s="33" t="s">
         <v>720</v>
-      </c>
-      <c r="C132" s="33" t="s">
-        <v>721</v>
       </c>
       <c r="D132" s="33"/>
       <c r="E132" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F132" s="32"/>
       <c r="G132" s="32"/>
@@ -18999,7 +18994,7 @@
         <v>80</v>
       </c>
       <c r="AJ132" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK132" s="32" t="s">
         <v>82</v>
@@ -19017,19 +19012,19 @@
       <c r="AV132" s="66"/>
       <c r="AW132" s="75"/>
     </row>
-    <row r="133" ht="49.5" hidden="1" spans="1:49">
+    <row r="133" ht="49.5" spans="1:49">
       <c r="A133" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="B133" s="29" t="s">
         <v>722</v>
       </c>
-      <c r="B133" s="29" t="s">
+      <c r="C133" s="30" t="s">
         <v>723</v>
-      </c>
-      <c r="C133" s="30" t="s">
-        <v>724</v>
       </c>
       <c r="D133" s="30"/>
       <c r="E133" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F133" s="29"/>
       <c r="G133" s="29"/>
@@ -19098,7 +19093,7 @@
         <v>80</v>
       </c>
       <c r="AJ133" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK133" s="32" t="s">
         <v>82</v>
@@ -19116,18 +19111,18 @@
       <c r="AV133" s="66"/>
       <c r="AW133" s="75"/>
     </row>
-    <row r="134" ht="101" hidden="1" customHeight="1" spans="1:49">
+    <row r="134" ht="101" customHeight="1" spans="1:49">
       <c r="A134" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="B134" s="32" t="s">
         <v>725</v>
       </c>
-      <c r="B134" s="32" t="s">
+      <c r="C134" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="C134" s="33" t="s">
-        <v>727</v>
-      </c>
       <c r="D134" s="33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E134" s="32" t="s">
         <v>103</v>
@@ -19199,7 +19194,7 @@
         <v>80</v>
       </c>
       <c r="AJ134" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK134" s="32" t="s">
         <v>82</v>
@@ -19217,18 +19212,18 @@
       <c r="AV134" s="66"/>
       <c r="AW134" s="75"/>
     </row>
-    <row r="135" ht="117.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="135" ht="117.5" customHeight="1" spans="1:49">
       <c r="A135" s="28" t="s">
+        <v>727</v>
+      </c>
+      <c r="B135" s="29" t="s">
         <v>728</v>
       </c>
-      <c r="B135" s="29" t="s">
+      <c r="C135" s="30" t="s">
         <v>729</v>
       </c>
-      <c r="C135" s="30" t="s">
+      <c r="D135" s="30" t="s">
         <v>730</v>
-      </c>
-      <c r="D135" s="30" t="s">
-        <v>731</v>
       </c>
       <c r="E135" s="29" t="s">
         <v>103</v>
@@ -19302,7 +19297,7 @@
         <v>80</v>
       </c>
       <c r="AJ135" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK135" s="32" t="s">
         <v>82</v>
@@ -19320,18 +19315,18 @@
       <c r="AV135" s="66"/>
       <c r="AW135" s="75"/>
     </row>
-    <row r="136" ht="150.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="136" ht="150.5" customHeight="1" spans="1:49">
       <c r="A136" s="31" t="s">
+        <v>731</v>
+      </c>
+      <c r="B136" s="32" t="s">
         <v>732</v>
       </c>
-      <c r="B136" s="32" t="s">
+      <c r="C136" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="C136" s="33" t="s">
+      <c r="D136" s="33" t="s">
         <v>734</v>
-      </c>
-      <c r="D136" s="33" t="s">
-        <v>735</v>
       </c>
       <c r="E136" s="32" t="s">
         <v>103</v>
@@ -19407,7 +19402,7 @@
         <v>80</v>
       </c>
       <c r="AJ136" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK136" s="32" t="s">
         <v>82</v>
@@ -19425,18 +19420,18 @@
       <c r="AV136" s="66"/>
       <c r="AW136" s="75"/>
     </row>
-    <row r="137" ht="167" hidden="1" customHeight="1" spans="1:49">
+    <row r="137" ht="167" customHeight="1" spans="1:49">
       <c r="A137" s="28" t="s">
+        <v>735</v>
+      </c>
+      <c r="B137" s="29" t="s">
         <v>736</v>
       </c>
-      <c r="B137" s="29" t="s">
+      <c r="C137" s="30" t="s">
         <v>737</v>
       </c>
-      <c r="C137" s="30" t="s">
+      <c r="D137" s="30" t="s">
         <v>738</v>
-      </c>
-      <c r="D137" s="30" t="s">
-        <v>739</v>
       </c>
       <c r="E137" s="29" t="s">
         <v>103</v>
@@ -19510,7 +19505,7 @@
         <v>80</v>
       </c>
       <c r="AJ137" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK137" s="32" t="s">
         <v>82</v>
@@ -19528,18 +19523,18 @@
       <c r="AV137" s="66"/>
       <c r="AW137" s="75"/>
     </row>
-    <row r="138" ht="101" hidden="1" customHeight="1" spans="1:49">
+    <row r="138" ht="101" customHeight="1" spans="1:49">
       <c r="A138" s="31" t="s">
+        <v>739</v>
+      </c>
+      <c r="B138" s="32" t="s">
         <v>740</v>
       </c>
-      <c r="B138" s="32" t="s">
+      <c r="C138" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="C138" s="33" t="s">
+      <c r="D138" s="33" t="s">
         <v>742</v>
-      </c>
-      <c r="D138" s="33" t="s">
-        <v>743</v>
       </c>
       <c r="E138" s="32" t="s">
         <v>103</v>
@@ -19611,7 +19606,7 @@
         <v>80</v>
       </c>
       <c r="AJ138" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK138" s="32" t="s">
         <v>82</v>
@@ -19629,18 +19624,18 @@
       <c r="AV138" s="66"/>
       <c r="AW138" s="75"/>
     </row>
-    <row r="139" ht="150.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="139" ht="150.5" customHeight="1" spans="1:49">
       <c r="A139" s="28" t="s">
+        <v>743</v>
+      </c>
+      <c r="B139" s="29" t="s">
         <v>744</v>
       </c>
-      <c r="B139" s="29" t="s">
+      <c r="C139" s="30" t="s">
         <v>745</v>
       </c>
-      <c r="C139" s="30" t="s">
-        <v>746</v>
-      </c>
       <c r="D139" s="30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E139" s="29" t="s">
         <v>132</v>
@@ -19714,7 +19709,7 @@
         <v>80</v>
       </c>
       <c r="AJ139" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK139" s="32" t="s">
         <v>82</v>
@@ -19732,15 +19727,15 @@
       <c r="AV139" s="66"/>
       <c r="AW139" s="75"/>
     </row>
-    <row r="140" ht="117.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="140" ht="117.5" customHeight="1" spans="1:49">
       <c r="A140" s="31" t="s">
+        <v>746</v>
+      </c>
+      <c r="B140" s="32" t="s">
         <v>747</v>
       </c>
-      <c r="B140" s="32" t="s">
+      <c r="C140" s="33" t="s">
         <v>748</v>
-      </c>
-      <c r="C140" s="33" t="s">
-        <v>749</v>
       </c>
       <c r="D140" s="33"/>
       <c r="E140" s="32" t="s">
@@ -19815,7 +19810,7 @@
         <v>80</v>
       </c>
       <c r="AJ140" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK140" s="32" t="s">
         <v>82</v>
@@ -19833,18 +19828,18 @@
       <c r="AV140" s="66"/>
       <c r="AW140" s="75"/>
     </row>
-    <row r="141" s="18" customFormat="1" ht="216.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="141" s="18" customFormat="1" ht="216.5" customHeight="1" spans="1:49">
       <c r="A141" s="48" t="s">
+        <v>749</v>
+      </c>
+      <c r="B141" s="49" t="s">
         <v>750</v>
       </c>
-      <c r="B141" s="49" t="s">
+      <c r="C141" s="50" t="s">
         <v>751</v>
       </c>
-      <c r="C141" s="50" t="s">
+      <c r="D141" s="50" t="s">
         <v>752</v>
-      </c>
-      <c r="D141" s="50" t="s">
-        <v>753</v>
       </c>
       <c r="E141" s="49" t="s">
         <v>154</v>
@@ -19918,7 +19913,7 @@
         <v>80</v>
       </c>
       <c r="AJ141" s="49" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK141" s="47" t="s">
         <v>82</v>
@@ -19936,18 +19931,18 @@
       <c r="AV141" s="71"/>
       <c r="AW141" s="76"/>
     </row>
-    <row r="142" ht="117.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="142" ht="117.5" customHeight="1" spans="1:49">
       <c r="A142" s="31" t="s">
+        <v>753</v>
+      </c>
+      <c r="B142" s="32" t="s">
         <v>754</v>
       </c>
-      <c r="B142" s="32" t="s">
+      <c r="C142" s="33" t="s">
         <v>755</v>
       </c>
-      <c r="C142" s="33" t="s">
+      <c r="D142" s="33" t="s">
         <v>756</v>
-      </c>
-      <c r="D142" s="33" t="s">
-        <v>757</v>
       </c>
       <c r="E142" s="32" t="s">
         <v>175</v>
@@ -20019,7 +20014,7 @@
         <v>80</v>
       </c>
       <c r="AJ142" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK142" s="32" t="s">
         <v>82</v>
@@ -20037,18 +20032,18 @@
       <c r="AV142" s="66"/>
       <c r="AW142" s="75"/>
     </row>
-    <row r="143" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="143" ht="134" customHeight="1" spans="1:49">
       <c r="A143" s="28" t="s">
+        <v>757</v>
+      </c>
+      <c r="B143" s="29" t="s">
         <v>758</v>
       </c>
-      <c r="B143" s="29" t="s">
+      <c r="C143" s="30" t="s">
         <v>759</v>
       </c>
-      <c r="C143" s="30" t="s">
+      <c r="D143" s="30" t="s">
         <v>760</v>
-      </c>
-      <c r="D143" s="30" t="s">
-        <v>761</v>
       </c>
       <c r="E143" s="29" t="s">
         <v>175</v>
@@ -20120,7 +20115,7 @@
         <v>80</v>
       </c>
       <c r="AJ143" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK143" s="32" t="s">
         <v>82</v>
@@ -20138,15 +20133,15 @@
       <c r="AV143" s="66"/>
       <c r="AW143" s="75"/>
     </row>
-    <row r="144" ht="150.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="144" ht="150.5" customHeight="1" spans="1:49">
       <c r="A144" s="31" t="s">
+        <v>761</v>
+      </c>
+      <c r="B144" s="32" t="s">
         <v>762</v>
       </c>
-      <c r="B144" s="32" t="s">
+      <c r="C144" s="33" t="s">
         <v>763</v>
-      </c>
-      <c r="C144" s="33" t="s">
-        <v>764</v>
       </c>
       <c r="D144" s="33"/>
       <c r="E144" s="32" t="s">
@@ -20219,7 +20214,7 @@
         <v>80</v>
       </c>
       <c r="AJ144" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK144" s="32" t="s">
         <v>82</v>
@@ -20237,21 +20232,21 @@
       <c r="AV144" s="66"/>
       <c r="AW144" s="75"/>
     </row>
-    <row r="145" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="145" ht="18.5" customHeight="1" spans="1:49">
       <c r="A145" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="B145" s="29" t="s">
         <v>765</v>
       </c>
-      <c r="B145" s="29" t="s">
+      <c r="C145" s="30" t="s">
         <v>766</v>
       </c>
-      <c r="C145" s="30" t="s">
+      <c r="D145" s="30" t="s">
         <v>767</v>
       </c>
-      <c r="D145" s="30" t="s">
-        <v>768</v>
-      </c>
       <c r="E145" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F145" s="29"/>
       <c r="G145" s="29"/>
@@ -20261,7 +20256,7 @@
       </c>
       <c r="I145" s="29"/>
       <c r="J145" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K145" s="29">
         <f>VLOOKUP(J145,__Sheet3!A:B,2,FALSE)</f>
@@ -20320,7 +20315,7 @@
         <v>80</v>
       </c>
       <c r="AJ145" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK145" s="32" t="s">
         <v>82</v>
@@ -20338,19 +20333,19 @@
       <c r="AV145" s="66"/>
       <c r="AW145" s="75"/>
     </row>
-    <row r="146" ht="18.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="146" ht="18.5" customHeight="1" spans="1:49">
       <c r="A146" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="B146" s="32" t="s">
         <v>769</v>
       </c>
-      <c r="B146" s="32" t="s">
+      <c r="C146" s="33" t="s">
         <v>770</v>
-      </c>
-      <c r="C146" s="33" t="s">
-        <v>771</v>
       </c>
       <c r="D146" s="33"/>
       <c r="E146" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F146" s="32"/>
       <c r="G146" s="32"/>
@@ -20360,7 +20355,7 @@
       </c>
       <c r="I146" s="32"/>
       <c r="J146" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K146" s="32">
         <f>VLOOKUP(J146,__Sheet3!A:B,2,FALSE)</f>
@@ -20419,7 +20414,7 @@
         <v>80</v>
       </c>
       <c r="AJ146" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK146" s="32" t="s">
         <v>82</v>
@@ -20437,19 +20432,19 @@
       <c r="AV146" s="66"/>
       <c r="AW146" s="75"/>
     </row>
-    <row r="147" ht="35" hidden="1" customHeight="1" spans="1:49">
+    <row r="147" ht="35" customHeight="1" spans="1:49">
       <c r="A147" s="28" t="s">
+        <v>771</v>
+      </c>
+      <c r="B147" s="29" t="s">
         <v>772</v>
       </c>
-      <c r="B147" s="29" t="s">
+      <c r="C147" s="30" t="s">
         <v>773</v>
-      </c>
-      <c r="C147" s="30" t="s">
-        <v>774</v>
       </c>
       <c r="D147" s="30"/>
       <c r="E147" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F147" s="29"/>
       <c r="G147" s="29"/>
@@ -20459,7 +20454,7 @@
       </c>
       <c r="I147" s="29"/>
       <c r="J147" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K147" s="29">
         <f>VLOOKUP(J147,__Sheet3!A:B,2,FALSE)</f>
@@ -20518,7 +20513,7 @@
         <v>80</v>
       </c>
       <c r="AJ147" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK147" s="32" t="s">
         <v>82</v>
@@ -20536,19 +20531,19 @@
       <c r="AV147" s="66"/>
       <c r="AW147" s="75"/>
     </row>
-    <row r="148" ht="117.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="148" ht="117.5" customHeight="1" spans="1:49">
       <c r="A148" s="31" t="s">
+        <v>774</v>
+      </c>
+      <c r="B148" s="32" t="s">
         <v>775</v>
       </c>
-      <c r="B148" s="32" t="s">
+      <c r="C148" s="33" t="s">
         <v>776</v>
-      </c>
-      <c r="C148" s="33" t="s">
-        <v>777</v>
       </c>
       <c r="D148" s="33"/>
       <c r="E148" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F148" s="32"/>
       <c r="G148" s="32"/>
@@ -20558,7 +20553,7 @@
       </c>
       <c r="I148" s="32"/>
       <c r="J148" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K148" s="32">
         <f>VLOOKUP(J148,__Sheet3!A:B,2,FALSE)</f>
@@ -20617,7 +20612,7 @@
         <v>80</v>
       </c>
       <c r="AJ148" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK148" s="32" t="s">
         <v>82</v>
@@ -20635,18 +20630,18 @@
       <c r="AV148" s="66"/>
       <c r="AW148" s="75"/>
     </row>
-    <row r="149" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="149" ht="84.5" customHeight="1" spans="1:49">
       <c r="A149" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="B149" s="29" t="s">
         <v>778</v>
       </c>
-      <c r="B149" s="29" t="s">
+      <c r="C149" s="30" t="s">
         <v>779</v>
       </c>
-      <c r="C149" s="30" t="s">
+      <c r="D149" s="30" t="s">
         <v>780</v>
-      </c>
-      <c r="D149" s="30" t="s">
-        <v>781</v>
       </c>
       <c r="E149" s="29" t="s">
         <v>103</v>
@@ -20720,7 +20715,7 @@
         <v>80</v>
       </c>
       <c r="AJ149" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK149" s="32" t="s">
         <v>82</v>
@@ -20738,15 +20733,15 @@
       <c r="AV149" s="66"/>
       <c r="AW149" s="75"/>
     </row>
-    <row r="150" ht="101" hidden="1" customHeight="1" spans="1:49">
+    <row r="150" ht="101" customHeight="1" spans="1:49">
       <c r="A150" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="B150" s="32" t="s">
         <v>782</v>
       </c>
-      <c r="B150" s="32" t="s">
+      <c r="C150" s="33" t="s">
         <v>783</v>
-      </c>
-      <c r="C150" s="33" t="s">
-        <v>784</v>
       </c>
       <c r="D150" s="33"/>
       <c r="E150" s="32" t="s">
@@ -20821,7 +20816,7 @@
         <v>80</v>
       </c>
       <c r="AJ150" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK150" s="32" t="s">
         <v>82</v>
@@ -20839,21 +20834,21 @@
       <c r="AV150" s="66"/>
       <c r="AW150" s="75"/>
     </row>
-    <row r="151" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="151" ht="134" customHeight="1" spans="1:49">
       <c r="A151" s="28" t="s">
+        <v>784</v>
+      </c>
+      <c r="B151" s="29" t="s">
         <v>785</v>
       </c>
-      <c r="B151" s="29" t="s">
+      <c r="C151" s="30" t="s">
         <v>786</v>
-      </c>
-      <c r="C151" s="30" t="s">
-        <v>787</v>
       </c>
       <c r="D151" s="30" t="s">
         <v>165</v>
       </c>
       <c r="E151" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F151" s="29" t="s">
         <v>166</v>
@@ -20924,7 +20919,7 @@
         <v>80</v>
       </c>
       <c r="AJ151" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK151" s="32" t="s">
         <v>82</v>
@@ -20942,15 +20937,15 @@
       <c r="AV151" s="66"/>
       <c r="AW151" s="75"/>
     </row>
-    <row r="152" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="152" ht="84.5" customHeight="1" spans="1:49">
       <c r="A152" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="B152" s="32" t="s">
         <v>788</v>
       </c>
-      <c r="B152" s="32" t="s">
+      <c r="C152" s="33" t="s">
         <v>789</v>
-      </c>
-      <c r="C152" s="33" t="s">
-        <v>790</v>
       </c>
       <c r="D152" s="33"/>
       <c r="E152" s="32" t="s">
@@ -21023,7 +21018,7 @@
         <v>80</v>
       </c>
       <c r="AJ152" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK152" s="32" t="s">
         <v>82</v>
@@ -21041,18 +21036,18 @@
       <c r="AV152" s="66"/>
       <c r="AW152" s="75"/>
     </row>
-    <row r="153" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="153" ht="134" customHeight="1" spans="1:49">
       <c r="A153" s="28" t="s">
+        <v>790</v>
+      </c>
+      <c r="B153" s="29" t="s">
         <v>791</v>
       </c>
-      <c r="B153" s="29" t="s">
+      <c r="C153" s="30" t="s">
         <v>792</v>
       </c>
-      <c r="C153" s="30" t="s">
+      <c r="D153" s="30" t="s">
         <v>793</v>
-      </c>
-      <c r="D153" s="30" t="s">
-        <v>794</v>
       </c>
       <c r="E153" s="29" t="s">
         <v>154</v>
@@ -21065,7 +21060,7 @@
       </c>
       <c r="I153" s="29"/>
       <c r="J153" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K153" s="29">
         <f>VLOOKUP(J153,__Sheet3!A:B,2,FALSE)</f>
@@ -21124,7 +21119,7 @@
         <v>80</v>
       </c>
       <c r="AJ153" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK153" s="32" t="s">
         <v>82</v>
@@ -21142,18 +21137,18 @@
       <c r="AV153" s="66"/>
       <c r="AW153" s="75"/>
     </row>
-    <row r="154" ht="150.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="154" ht="150.5" customHeight="1" spans="1:49">
       <c r="A154" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="B154" s="32" t="s">
         <v>795</v>
       </c>
-      <c r="B154" s="32" t="s">
+      <c r="C154" s="33" t="s">
         <v>796</v>
       </c>
-      <c r="C154" s="33" t="s">
+      <c r="D154" s="33" t="s">
         <v>797</v>
-      </c>
-      <c r="D154" s="33" t="s">
-        <v>798</v>
       </c>
       <c r="E154" s="32" t="s">
         <v>132</v>
@@ -21225,7 +21220,7 @@
         <v>80</v>
       </c>
       <c r="AJ154" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK154" s="32" t="s">
         <v>82</v>
@@ -21243,18 +21238,18 @@
       <c r="AV154" s="66"/>
       <c r="AW154" s="75"/>
     </row>
-    <row r="155" ht="183.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="155" ht="183.5" customHeight="1" spans="1:49">
       <c r="A155" s="28" t="s">
+        <v>798</v>
+      </c>
+      <c r="B155" s="29" t="s">
         <v>799</v>
       </c>
-      <c r="B155" s="29" t="s">
+      <c r="C155" s="30" t="s">
         <v>800</v>
       </c>
-      <c r="C155" s="30" t="s">
+      <c r="D155" s="30" t="s">
         <v>801</v>
-      </c>
-      <c r="D155" s="30" t="s">
-        <v>802</v>
       </c>
       <c r="E155" s="29" t="s">
         <v>103</v>
@@ -21263,7 +21258,7 @@
         <v>166</v>
       </c>
       <c r="G155" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H155" s="29" t="str">
         <f>IF(E155="无","null",VLOOKUP(E155,__Sheet3!E:F,2,FALSE))&amp;IF(ISTEXT(F155),",","")&amp;IF(ISTEXT(F155),VLOOKUP(F155,__Sheet3!E:F,2,FALSE),"")&amp;IF(ISTEXT(G155),",","")&amp;IF(ISTEXT(G155),VLOOKUP(G155,__Sheet3!E:F,2,FALSE),"")</f>
@@ -21330,7 +21325,7 @@
         <v>80</v>
       </c>
       <c r="AJ155" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK155" s="32" t="s">
         <v>82</v>
@@ -21348,24 +21343,24 @@
       <c r="AV155" s="66"/>
       <c r="AW155" s="75"/>
     </row>
-    <row r="156" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="156" ht="84.5" customHeight="1" spans="1:49">
       <c r="A156" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="B156" s="32" t="s">
         <v>803</v>
       </c>
-      <c r="B156" s="32" t="s">
+      <c r="C156" s="33" t="s">
         <v>804</v>
       </c>
-      <c r="C156" s="33" t="s">
+      <c r="D156" s="33" t="s">
         <v>805</v>
-      </c>
-      <c r="D156" s="33" t="s">
-        <v>806</v>
       </c>
       <c r="E156" s="32" t="s">
         <v>132</v>
       </c>
       <c r="F156" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G156" s="32"/>
       <c r="H156" s="32" t="str">
@@ -21433,7 +21428,7 @@
         <v>80</v>
       </c>
       <c r="AJ156" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK156" s="32" t="s">
         <v>82</v>
@@ -21451,22 +21446,22 @@
       <c r="AV156" s="66"/>
       <c r="AW156" s="75"/>
     </row>
-    <row r="157" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="157" ht="134" customHeight="1" spans="1:49">
       <c r="A157" s="28" t="s">
+        <v>806</v>
+      </c>
+      <c r="B157" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="B157" s="29" t="s">
+      <c r="C157" s="30" t="s">
         <v>808</v>
-      </c>
-      <c r="C157" s="30" t="s">
-        <v>809</v>
       </c>
       <c r="D157" s="30"/>
       <c r="E157" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F157" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G157" s="29"/>
       <c r="H157" s="29" t="str">
@@ -21534,7 +21529,7 @@
         <v>80</v>
       </c>
       <c r="AJ157" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK157" s="32" t="s">
         <v>82</v>
@@ -21552,18 +21547,18 @@
       <c r="AV157" s="66"/>
       <c r="AW157" s="75"/>
     </row>
-    <row r="158" ht="150.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="158" ht="150.5" customHeight="1" spans="1:49">
       <c r="A158" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="B158" s="32" t="s">
         <v>810</v>
       </c>
-      <c r="B158" s="32" t="s">
+      <c r="C158" s="33" t="s">
         <v>811</v>
       </c>
-      <c r="C158" s="33" t="s">
+      <c r="D158" s="33" t="s">
         <v>812</v>
-      </c>
-      <c r="D158" s="33" t="s">
-        <v>813</v>
       </c>
       <c r="E158" s="32" t="s">
         <v>154</v>
@@ -21578,7 +21573,7 @@
       </c>
       <c r="I158" s="32"/>
       <c r="J158" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K158" s="32">
         <f>VLOOKUP(J158,__Sheet3!A:B,2,FALSE)</f>
@@ -21637,7 +21632,7 @@
         <v>80</v>
       </c>
       <c r="AJ158" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK158" s="32" t="s">
         <v>82</v>
@@ -21655,15 +21650,15 @@
       <c r="AV158" s="66"/>
       <c r="AW158" s="75"/>
     </row>
-    <row r="159" ht="167" hidden="1" customHeight="1" spans="1:49">
+    <row r="159" ht="167" customHeight="1" spans="1:49">
       <c r="A159" s="28" t="s">
+        <v>813</v>
+      </c>
+      <c r="B159" s="29" t="s">
         <v>814</v>
       </c>
-      <c r="B159" s="29" t="s">
+      <c r="C159" s="30" t="s">
         <v>815</v>
-      </c>
-      <c r="C159" s="30" t="s">
-        <v>816</v>
       </c>
       <c r="D159" s="30"/>
       <c r="E159" s="29" t="s">
@@ -21736,7 +21731,7 @@
         <v>80</v>
       </c>
       <c r="AJ159" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK159" s="32" t="s">
         <v>82</v>
@@ -21754,18 +21749,18 @@
       <c r="AV159" s="66"/>
       <c r="AW159" s="75"/>
     </row>
-    <row r="160" ht="216.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="160" ht="216.5" customHeight="1" spans="1:49">
       <c r="A160" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="B160" s="32" t="s">
         <v>817</v>
       </c>
-      <c r="B160" s="32" t="s">
+      <c r="C160" s="33" t="s">
         <v>818</v>
       </c>
-      <c r="C160" s="33" t="s">
+      <c r="D160" s="33" t="s">
         <v>819</v>
-      </c>
-      <c r="D160" s="33" t="s">
-        <v>820</v>
       </c>
       <c r="E160" s="32" t="s">
         <v>195</v>
@@ -21839,7 +21834,7 @@
         <v>80</v>
       </c>
       <c r="AJ160" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK160" s="32" t="s">
         <v>82</v>
@@ -21857,18 +21852,18 @@
       <c r="AV160" s="66"/>
       <c r="AW160" s="75"/>
     </row>
-    <row r="161" ht="183.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="161" ht="183.5" customHeight="1" spans="1:49">
       <c r="A161" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="B161" s="29" t="s">
         <v>821</v>
       </c>
-      <c r="B161" s="29" t="s">
+      <c r="C161" s="30" t="s">
         <v>822</v>
       </c>
-      <c r="C161" s="30" t="s">
+      <c r="D161" s="30" t="s">
         <v>823</v>
-      </c>
-      <c r="D161" s="30" t="s">
-        <v>824</v>
       </c>
       <c r="E161" s="29" t="s">
         <v>195</v>
@@ -21940,7 +21935,7 @@
         <v>80</v>
       </c>
       <c r="AJ161" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK161" s="32" t="s">
         <v>82</v>
@@ -21958,19 +21953,19 @@
       <c r="AV161" s="66"/>
       <c r="AW161" s="75"/>
     </row>
-    <row r="162" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="162" ht="84.5" customHeight="1" spans="1:49">
       <c r="A162" s="31" t="s">
+        <v>824</v>
+      </c>
+      <c r="B162" s="32" t="s">
         <v>825</v>
       </c>
-      <c r="B162" s="32" t="s">
+      <c r="C162" s="33" t="s">
         <v>826</v>
-      </c>
-      <c r="C162" s="33" t="s">
-        <v>827</v>
       </c>
       <c r="D162" s="33"/>
       <c r="E162" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F162" s="32"/>
       <c r="G162" s="32"/>
@@ -21980,7 +21975,7 @@
       </c>
       <c r="I162" s="32"/>
       <c r="J162" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K162" s="32">
         <f>VLOOKUP(J162,__Sheet3!A:B,2,FALSE)</f>
@@ -22039,7 +22034,7 @@
         <v>80</v>
       </c>
       <c r="AJ162" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK162" s="32" t="s">
         <v>82</v>
@@ -22057,19 +22052,19 @@
       <c r="AV162" s="66"/>
       <c r="AW162" s="75"/>
     </row>
-    <row r="163" ht="134" hidden="1" customHeight="1" spans="1:49">
+    <row r="163" ht="134" customHeight="1" spans="1:49">
       <c r="A163" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="B163" s="29" t="s">
         <v>828</v>
       </c>
-      <c r="B163" s="29" t="s">
+      <c r="C163" s="30" t="s">
         <v>829</v>
-      </c>
-      <c r="C163" s="30" t="s">
-        <v>830</v>
       </c>
       <c r="D163" s="30"/>
       <c r="E163" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F163" s="29"/>
       <c r="G163" s="29"/>
@@ -22079,7 +22074,7 @@
       </c>
       <c r="I163" s="29"/>
       <c r="J163" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K163" s="29">
         <f>VLOOKUP(J163,__Sheet3!A:B,2,FALSE)</f>
@@ -22138,7 +22133,7 @@
         <v>80</v>
       </c>
       <c r="AJ163" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK163" s="32" t="s">
         <v>82</v>
@@ -22156,18 +22151,18 @@
       <c r="AV163" s="66"/>
       <c r="AW163" s="75"/>
     </row>
-    <row r="164" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="164" ht="84.5" customHeight="1" spans="1:49">
       <c r="A164" s="31" t="s">
+        <v>830</v>
+      </c>
+      <c r="B164" s="32" t="s">
         <v>831</v>
       </c>
-      <c r="B164" s="32" t="s">
+      <c r="C164" s="33" t="s">
         <v>832</v>
       </c>
-      <c r="C164" s="33" t="s">
+      <c r="D164" s="33" t="s">
         <v>833</v>
-      </c>
-      <c r="D164" s="33" t="s">
-        <v>834</v>
       </c>
       <c r="E164" s="32" t="s">
         <v>103</v>
@@ -22241,7 +22236,7 @@
         <v>80</v>
       </c>
       <c r="AJ164" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK164" s="32" t="s">
         <v>82</v>
@@ -22259,15 +22254,15 @@
       <c r="AV164" s="66"/>
       <c r="AW164" s="75"/>
     </row>
-    <row r="165" ht="150.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="165" ht="150.5" customHeight="1" spans="1:49">
       <c r="A165" s="28" t="s">
+        <v>834</v>
+      </c>
+      <c r="B165" s="29" t="s">
         <v>835</v>
       </c>
-      <c r="B165" s="29" t="s">
+      <c r="C165" s="30" t="s">
         <v>836</v>
-      </c>
-      <c r="C165" s="30" t="s">
-        <v>837</v>
       </c>
       <c r="D165" s="30"/>
       <c r="E165" s="29" t="s">
@@ -22340,7 +22335,7 @@
         <v>80</v>
       </c>
       <c r="AJ165" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK165" s="32" t="s">
         <v>82</v>
@@ -22358,19 +22353,19 @@
       <c r="AV165" s="66"/>
       <c r="AW165" s="75"/>
     </row>
-    <row r="166" ht="84.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="166" ht="84.5" customHeight="1" spans="1:49">
       <c r="A166" s="31" t="s">
+        <v>837</v>
+      </c>
+      <c r="B166" s="32" t="s">
         <v>838</v>
       </c>
-      <c r="B166" s="32" t="s">
+      <c r="C166" s="33" t="s">
         <v>839</v>
-      </c>
-      <c r="C166" s="33" t="s">
-        <v>840</v>
       </c>
       <c r="D166" s="33"/>
       <c r="E166" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F166" s="32"/>
       <c r="G166" s="32"/>
@@ -22439,7 +22434,7 @@
         <v>80</v>
       </c>
       <c r="AJ166" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK166" s="32" t="s">
         <v>82</v>
@@ -22457,15 +22452,15 @@
       <c r="AV166" s="66"/>
       <c r="AW166" s="75"/>
     </row>
-    <row r="167" ht="183.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="167" ht="183.5" customHeight="1" spans="1:49">
       <c r="A167" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="B167" s="29" t="s">
         <v>841</v>
       </c>
-      <c r="B167" s="29" t="s">
+      <c r="C167" s="30" t="s">
         <v>842</v>
-      </c>
-      <c r="C167" s="30" t="s">
-        <v>843</v>
       </c>
       <c r="D167" s="30"/>
       <c r="E167" s="29" t="s">
@@ -22479,7 +22474,7 @@
       </c>
       <c r="I167" s="29"/>
       <c r="J167" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K167" s="29">
         <f>VLOOKUP(J167,__Sheet3!A:B,2,FALSE)</f>
@@ -22538,7 +22533,7 @@
         <v>80</v>
       </c>
       <c r="AJ167" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK167" s="32" t="s">
         <v>82</v>
@@ -22556,15 +22551,15 @@
       <c r="AV167" s="66"/>
       <c r="AW167" s="75"/>
     </row>
-    <row r="168" ht="183.5" hidden="1" customHeight="1" spans="1:49">
+    <row r="168" ht="183.5" customHeight="1" spans="1:49">
       <c r="A168" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="B168" s="32" t="s">
         <v>844</v>
       </c>
-      <c r="B168" s="32" t="s">
+      <c r="C168" s="33" t="s">
         <v>845</v>
-      </c>
-      <c r="C168" s="33" t="s">
-        <v>846</v>
       </c>
       <c r="D168" s="33"/>
       <c r="E168" s="32" t="s">
@@ -22637,7 +22632,7 @@
         <v>80</v>
       </c>
       <c r="AJ168" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK168" s="32" t="s">
         <v>82</v>
@@ -22655,19 +22650,19 @@
       <c r="AV168" s="66"/>
       <c r="AW168" s="75"/>
     </row>
-    <row r="169" ht="101" hidden="1" customHeight="1" spans="1:49">
+    <row r="169" ht="101" customHeight="1" spans="1:49">
       <c r="A169" s="86" t="s">
+        <v>846</v>
+      </c>
+      <c r="B169" s="87" t="s">
         <v>847</v>
       </c>
-      <c r="B169" s="87" t="s">
+      <c r="C169" s="88" t="s">
         <v>848</v>
-      </c>
-      <c r="C169" s="88" t="s">
-        <v>849</v>
       </c>
       <c r="D169" s="88"/>
       <c r="E169" s="87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F169" s="87"/>
       <c r="G169" s="87"/>
@@ -22677,7 +22672,7 @@
       </c>
       <c r="I169" s="87"/>
       <c r="J169" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K169" s="87">
         <f>VLOOKUP(J169,__Sheet3!A:B,2,FALSE)</f>
@@ -22736,7 +22731,7 @@
         <v>80</v>
       </c>
       <c r="AJ169" s="87" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK169" s="32" t="s">
         <v>82</v>
@@ -22756,11 +22751,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AW169">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="J10">
@@ -25894,12 +25884,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="2:2">
       <c r="B2" s="15" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -25907,74 +25897,74 @@
     </row>
     <row r="4" ht="14.25" spans="2:3">
       <c r="B4" s="16" t="s">
+        <v>851</v>
+      </c>
+      <c r="C4" t="s">
         <v>852</v>
-      </c>
-      <c r="C4" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="C5" t="s">
         <v>854</v>
-      </c>
-      <c r="C5" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="16" t="s">
+        <v>855</v>
+      </c>
+      <c r="C6" t="s">
         <v>856</v>
-      </c>
-      <c r="C6" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:3">
       <c r="B7" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="C7" t="s">
         <v>858</v>
-      </c>
-      <c r="C7" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:3">
       <c r="B8" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="C8" t="s">
         <v>860</v>
-      </c>
-      <c r="C8" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="C9" t="s">
         <v>862</v>
-      </c>
-      <c r="C9" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="16" t="s">
+        <v>863</v>
+      </c>
+      <c r="C10" t="s">
         <v>864</v>
-      </c>
-      <c r="C10" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="C11" t="s">
         <v>866</v>
-      </c>
-      <c r="C11" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
+        <v>867</v>
+      </c>
+      <c r="C12" t="s">
         <v>868</v>
-      </c>
-      <c r="C12" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -25982,15 +25972,15 @@
         <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C19" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -25998,15 +25988,15 @@
         <v>154</v>
       </c>
       <c r="C20" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -26014,15 +26004,15 @@
         <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -26030,7 +26020,7 @@
         <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -26038,34 +26028,34 @@
         <v>175</v>
       </c>
       <c r="C25" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C27" t="s">
+        <v>878</v>
+      </c>
+      <c r="D27" t="s">
         <v>879</v>
-      </c>
-      <c r="D27" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -26099,7 +26089,7 @@
         <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -26113,7 +26103,7 @@
         <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -26127,7 +26117,7 @@
         <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -26141,7 +26131,7 @@
         <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -26152,15 +26142,15 @@
         <v>4</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -26169,7 +26159,7 @@
         <v>175</v>
       </c>
       <c r="F6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -26183,23 +26173,23 @@
         <v>195</v>
       </c>
       <c r="F7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="8" spans="5:6">
       <c r="E8" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="9" spans="5:6">
       <c r="E9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="10" spans="5:6">
@@ -26207,31 +26197,31 @@
         <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="5:6">
       <c r="E11" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="12" spans="5:6">
       <c r="E12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="13" spans="5:6">
       <c r="E13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="8:8">
@@ -26295,28 +26285,28 @@
   <sheetData>
     <row r="1" ht="40" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>132</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>166</v>
@@ -26325,16 +26315,16 @@
         <v>175</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>103</v>
       </c>
       <c r="N1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:14">
@@ -26357,7 +26347,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -26370,21 +26360,21 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="10"/>
     </row>
     <row r="4" customHeight="1" spans="1:14">
       <c r="A4" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -26393,23 +26383,23 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="12" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="N4" s="10"/>
     </row>
     <row r="5" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -26427,7 +26417,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -26441,7 +26431,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -26459,7 +26449,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:14">
       <c r="A8" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -26513,7 +26503,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -26531,11 +26521,11 @@
     </row>
     <row r="12" customHeight="1" spans="1:14">
       <c r="A12" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -26544,10 +26534,10 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="12"/>
@@ -26559,35 +26549,35 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" customHeight="1" spans="1:14">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
